--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80812765\AppData\Local\rubicon\Acta Nova Client\Data\248001466\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80874339\AppData\Local\rubicon\Acta Nova Client\Data\377701408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D5CFC-0289-4DED-9D17-A5B51D041D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BED208-CE14-4E70-9DF1-693C370FE9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2571" yWindow="2066" windowWidth="26829" windowHeight="13783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="134">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -674,6 +674,12 @@
     <t>Pathogenitaet
 Pathogénie
 Patogenicità</t>
+  </si>
+  <si>
+    <t>Brücke Hemishofen, 8261 Hemishofen</t>
+  </si>
+  <si>
+    <t>Rechen Kraftwerk, Mühlenstrasse 19, 8200 Schaffhausen</t>
   </si>
 </sst>
 </file>
@@ -4054,26 +4060,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL92"/>
+  <dimension ref="A1:FL97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79:C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.35546875" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.35546875" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.640625" style="1"/>
+    <col min="9" max="9" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -4121,7 +4127,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -4143,7 +4149,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -4165,7 +4171,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -4187,7 +4193,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -4209,7 +4215,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -4231,7 +4237,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -4253,7 +4259,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -4275,7 +4281,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -4297,7 +4303,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -4319,7 +4325,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -4341,7 +4347,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -4363,7 +4369,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
@@ -4385,7 +4391,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -4407,7 +4413,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -4429,7 +4435,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -4451,7 +4457,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
@@ -4473,7 +4479,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
@@ -4495,7 +4501,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -4517,7 +4523,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
@@ -4539,7 +4545,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -4561,7 +4567,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -4583,7 +4589,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
@@ -4605,7 +4611,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
@@ -4627,7 +4633,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
@@ -4647,7 +4653,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -4669,7 +4675,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
@@ -4691,7 +4697,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
@@ -4713,7 +4719,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>3</v>
       </c>
@@ -4735,7 +4741,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
@@ -4757,7 +4763,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
@@ -4779,7 +4785,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
@@ -4799,7 +4805,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>4</v>
       </c>
@@ -4821,7 +4827,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>4</v>
       </c>
@@ -4843,7 +4849,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>4</v>
       </c>
@@ -4865,7 +4871,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>79</v>
       </c>
@@ -4887,7 +4893,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>3</v>
       </c>
@@ -4907,7 +4913,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
@@ -4927,7 +4933,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>3</v>
       </c>
@@ -4947,7 +4953,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>3</v>
       </c>
@@ -4967,7 +4973,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>4</v>
       </c>
@@ -4989,7 +4995,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>4</v>
       </c>
@@ -5011,7 +5017,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5033,7 +5039,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>4</v>
       </c>
@@ -5055,7 +5061,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>63</v>
       </c>
@@ -5077,7 +5083,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>4</v>
       </c>
@@ -5099,7 +5105,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
@@ -5121,7 +5127,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>5</v>
       </c>
@@ -5141,7 +5147,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:168" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>2</v>
       </c>
@@ -5163,7 +5169,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>7</v>
       </c>
@@ -5185,7 +5191,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
@@ -5205,7 +5211,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>2</v>
       </c>
@@ -5226,7 +5232,7 @@
       <c r="H53" s="7"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:168" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>2</v>
       </c>
@@ -5249,7 +5255,7 @@
       <c r="H54" s="20"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>4</v>
       </c>
@@ -5272,7 +5278,7 @@
       <c r="H55" s="20"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>4</v>
       </c>
@@ -5295,7 +5301,7 @@
       <c r="H56" s="20"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>74</v>
       </c>
@@ -5318,7 +5324,7 @@
       <c r="H57" s="20"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>74</v>
       </c>
@@ -5342,7 +5348,7 @@
       <c r="K58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
@@ -5401,7 +5407,7 @@
       <c r="AR59"/>
       <c r="AS59"/>
     </row>
-    <row r="60" spans="1:168" s="18" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:168" s="18" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>63</v>
       </c>
@@ -5460,7 +5466,7 @@
       <c r="AR60"/>
       <c r="AS60"/>
     </row>
-    <row r="61" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>63</v>
       </c>
@@ -5519,7 +5525,7 @@
       <c r="AR61"/>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:168" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:168" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="24" t="s">
         <v>15</v>
       </c>
@@ -5703,7 +5709,7 @@
       <c r="FK62" s="30"/>
       <c r="FL62" s="30"/>
     </row>
-    <row r="63" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>4</v>
       </c>
@@ -5762,7 +5768,7 @@
       <c r="AR63"/>
       <c r="AS63"/>
     </row>
-    <row r="64" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>4</v>
       </c>
@@ -5821,7 +5827,7 @@
       <c r="AR64"/>
       <c r="AS64"/>
     </row>
-    <row r="65" spans="1:45" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:45" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>29</v>
       </c>
@@ -5880,7 +5886,7 @@
       <c r="AR65"/>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>15</v>
       </c>
@@ -5939,7 +5945,7 @@
       <c r="AR66"/>
       <c r="AS66"/>
     </row>
-    <row r="67" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>29</v>
       </c>
@@ -5998,7 +6004,7 @@
       <c r="AR67"/>
       <c r="AS67"/>
     </row>
-    <row r="68" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>29</v>
       </c>
@@ -6057,7 +6063,7 @@
       <c r="AR68"/>
       <c r="AS68"/>
     </row>
-    <row r="69" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>29</v>
       </c>
@@ -6116,7 +6122,7 @@
       <c r="AR69"/>
       <c r="AS69"/>
     </row>
-    <row r="70" spans="1:45" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:45" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>4</v>
       </c>
@@ -6175,7 +6181,7 @@
       <c r="AR70"/>
       <c r="AS70"/>
     </row>
-    <row r="71" spans="1:45" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:45" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>3</v>
       </c>
@@ -6234,7 +6240,7 @@
       <c r="AR71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="1:45" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:45" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>3</v>
       </c>
@@ -6293,7 +6299,7 @@
       <c r="AR72"/>
       <c r="AS72"/>
     </row>
-    <row r="73" spans="1:45" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:45" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>3</v>
       </c>
@@ -6352,7 +6358,7 @@
       <c r="AR73"/>
       <c r="AS73"/>
     </row>
-    <row r="74" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6417,7 @@
       <c r="AR74"/>
       <c r="AS74"/>
     </row>
-    <row r="75" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>5</v>
       </c>
@@ -6470,7 +6476,7 @@
       <c r="AR75"/>
       <c r="AS75"/>
     </row>
-    <row r="76" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -6529,7 +6535,7 @@
       <c r="AR76"/>
       <c r="AS76"/>
     </row>
-    <row r="77" spans="1:45" s="18" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:45" s="18" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>5</v>
       </c>
@@ -6580,7 +6586,7 @@
       <c r="AJ77"/>
       <c r="AK77"/>
     </row>
-    <row r="78" spans="1:45" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:45" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>15</v>
       </c>
@@ -6631,7 +6637,7 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>108</v>
       </c>
@@ -6671,7 +6677,7 @@
       <c r="AG79" s="31"/>
       <c r="AH79" s="31"/>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>15</v>
       </c>
@@ -6704,7 +6710,7 @@
       <c r="AG80" s="31"/>
       <c r="AH80" s="31"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>2</v>
       </c>
@@ -6727,7 +6733,7 @@
       <c r="H81" s="12"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>3</v>
       </c>
@@ -6750,7 +6756,7 @@
       <c r="H82" s="13"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>112</v>
       </c>
@@ -6772,7 +6778,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="19"/>
     </row>
-    <row r="84" spans="1:27" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:27" ht="26" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>2</v>
       </c>
@@ -6794,7 +6800,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:27" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:27" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>2</v>
       </c>
@@ -6816,7 +6822,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="19"/>
     </row>
-    <row r="86" spans="1:27" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:27" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>113</v>
       </c>
@@ -6838,7 +6844,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="19"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -6860,7 +6866,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>3</v>
       </c>
@@ -6882,7 +6888,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="19"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="s">
         <v>12</v>
       </c>
@@ -6908,7 +6914,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>5</v>
       </c>
@@ -6930,7 +6936,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>3</v>
       </c>
@@ -6952,7 +6958,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="19"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>2</v>
       </c>
@@ -6973,6 +6979,120 @@
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="19"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="9">
+        <v>45645</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="9">
+        <v>45647</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="12"/>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="9">
+        <v>45647</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="9">
+        <v>45653</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="13"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="34">
+        <v>45654</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G97" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97" s="32" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80874339\AppData\Local\rubicon\Acta Nova Client\Data\377701408\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80874339\AppData\Local\rubicon\Acta Nova Client\Data\410233379\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BED208-CE14-4E70-9DF1-693C370FE9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7971317-BCEB-42D1-911D-F789AD2429AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="138">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -680,6 +680,18 @@
   </si>
   <si>
     <t>Rechen Kraftwerk, Mühlenstrasse 19, 8200 Schaffhausen</t>
+  </si>
+  <si>
+    <t>2555 Brügg</t>
+  </si>
+  <si>
+    <t>Silbermöwe</t>
+  </si>
+  <si>
+    <t>Hornstrasse 31, Ermatingen</t>
+  </si>
+  <si>
+    <t>8596 Münsterlingen</t>
   </si>
 </sst>
 </file>
@@ -4060,11 +4072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL97"/>
+  <dimension ref="A1:FL100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79:C87"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7094,6 +7106,84 @@
         <v>130</v>
       </c>
     </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="34">
+        <v>45658</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H98" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="34">
+        <v>45662</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H99" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="34">
+        <v>45664</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H100" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80874339\AppData\Local\rubicon\Acta Nova Client\Data\410233379\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/OGD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7971317-BCEB-42D1-911D-F789AD2429AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B12D57C-5F21-4B6F-835B-3E3FEEE115D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="16850" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="139">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>8596 Münsterlingen</t>
+  </si>
+  <si>
+    <t>3280 Murten</t>
   </si>
 </sst>
 </file>
@@ -2550,20 +2553,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2575,29 +2576,27 @@
     <xf numFmtId="164" fontId="30" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2625,7 +2624,7 @@
     <xf numFmtId="0" fontId="30" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4072,11 +4071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL100"/>
+  <dimension ref="A1:FL101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C88:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4087,1301 +4086,1293 @@
     <col min="5" max="5" width="39.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>45294</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>45299</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>45302</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>45302</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10"/>
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>45313</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>45314</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>45315</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10"/>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>45315</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10"/>
+      <c r="F9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>45315</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10"/>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>45315</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="10"/>
+      <c r="F11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>45315</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
+      <c r="F12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>45316</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
+      <c r="F13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>45317</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10"/>
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>45320</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10"/>
+      <c r="F15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>45320</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>45320</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>45323</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="10"/>
+      <c r="F18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>45323</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="10"/>
+      <c r="F19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>45325</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="10"/>
+      <c r="F20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>45327</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10"/>
+      <c r="F21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>45327</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10"/>
+      <c r="F22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>45337</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="10"/>
+      <c r="F23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>45345</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="10"/>
+      <c r="F24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>45345</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="10"/>
+      <c r="F25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="9">
+      <c r="B26" s="9"/>
+      <c r="C26" s="7">
         <v>45345</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="10"/>
+      <c r="F26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>45354</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="10"/>
+      <c r="F27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>45356</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="10"/>
+      <c r="F28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>45357</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="10"/>
+      <c r="F29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>45359</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10"/>
+      <c r="F30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>45359</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="10"/>
+      <c r="F31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <v>45361</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="10"/>
+      <c r="F32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="9">
+      <c r="B33" s="9"/>
+      <c r="C33" s="7">
         <v>45364</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="10"/>
+      <c r="F33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="7">
         <v>45375</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="10"/>
+      <c r="F34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="7">
         <v>45375</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="10"/>
+      <c r="F35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="7">
         <v>45375</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="10"/>
+      <c r="F36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="7">
         <v>45392</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="10"/>
+      <c r="F37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="9">
+      <c r="B38" s="10"/>
+      <c r="C38" s="7">
         <v>45396</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="13"/>
+      <c r="F38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="9">
+      <c r="B39" s="10"/>
+      <c r="C39" s="7">
         <v>45397</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="13"/>
+      <c r="F39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="9">
+      <c r="B40" s="10"/>
+      <c r="C40" s="7">
         <v>45398</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="13"/>
+      <c r="F40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="9">
+      <c r="B41" s="9"/>
+      <c r="C41" s="7">
         <v>45402</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="10"/>
+      <c r="F41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="7">
         <v>45418</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="10"/>
+      <c r="F42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="7">
         <v>45418</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="10"/>
+      <c r="F43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="7">
         <v>45418</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="19"/>
+      <c r="F44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="7">
         <v>45418</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="19"/>
+      <c r="F45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="7">
         <v>45422</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="19"/>
+      <c r="F46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="7">
         <v>45434</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="19"/>
+      <c r="F47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="7">
         <v>45446</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="F48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="9">
+      <c r="B49" s="9"/>
+      <c r="C49" s="7">
         <v>45447</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="F49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:168" ht="26" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="7">
         <v>45447</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="F50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="7">
         <v>45450</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="F51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="9">
+      <c r="B52" s="9"/>
+      <c r="C52" s="7">
         <v>45468</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="F52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="9">
+      <c r="B53" s="9"/>
+      <c r="C53" s="7">
         <v>45468</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="AA53" s="1"/>
+      <c r="F53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:168" ht="26" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="14">
         <v>45476</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="20"/>
-      <c r="AA54" s="1"/>
+      <c r="F54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="14">
         <v>45495</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="20"/>
-      <c r="AA55" s="1"/>
+      <c r="F55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="14">
         <v>45495</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="20"/>
-      <c r="AA56" s="1"/>
+      <c r="F56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="14">
         <v>45496</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="20"/>
-      <c r="AA57" s="1"/>
+      <c r="F57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="14">
         <v>45496</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="20"/>
-      <c r="K58" s="1"/>
-      <c r="AA58" s="1"/>
-    </row>
-    <row r="59" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
+      <c r="F58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="7">
         <v>45511</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="1"/>
+      <c r="F59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
@@ -5399,7 +5390,7 @@
       <c r="X59"/>
       <c r="Y59"/>
       <c r="Z59"/>
-      <c r="AA59" s="1"/>
+      <c r="AA59"/>
       <c r="AB59"/>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -5419,27 +5410,27 @@
       <c r="AR59"/>
       <c r="AS59"/>
     </row>
-    <row r="60" spans="1:168" s="18" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="7">
         <v>45511</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="F60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -5458,7 +5449,7 @@
       <c r="X60"/>
       <c r="Y60"/>
       <c r="Z60"/>
-      <c r="AA60" s="1"/>
+      <c r="AA60"/>
       <c r="AB60"/>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -5478,27 +5469,27 @@
       <c r="AR60"/>
       <c r="AS60"/>
     </row>
-    <row r="61" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="7">
         <v>45511</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="F61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -5517,7 +5508,7 @@
       <c r="X61"/>
       <c r="Y61"/>
       <c r="Z61"/>
-      <c r="AA61" s="1"/>
+      <c r="AA61"/>
       <c r="AB61"/>
       <c r="AC61"/>
       <c r="AD61"/>
@@ -5537,29 +5528,29 @@
       <c r="AR61"/>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:168" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="24" t="s">
+    <row r="62" spans="1:168" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="19">
         <v>45520</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H62" s="24"/>
+      <c r="H62" s="20"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
@@ -5578,7 +5569,7 @@
       <c r="X62"/>
       <c r="Y62"/>
       <c r="Z62"/>
-      <c r="AA62" s="1"/>
+      <c r="AA62"/>
       <c r="AB62"/>
       <c r="AC62"/>
       <c r="AD62"/>
@@ -5597,152 +5588,152 @@
       <c r="AQ62"/>
       <c r="AR62"/>
       <c r="AS62"/>
-      <c r="AT62" s="30"/>
-      <c r="AU62" s="30"/>
-      <c r="AV62" s="30"/>
-      <c r="AW62" s="30"/>
-      <c r="AX62" s="30"/>
-      <c r="AY62" s="30"/>
-      <c r="AZ62" s="30"/>
-      <c r="BA62" s="30"/>
-      <c r="BB62" s="30"/>
-      <c r="BC62" s="30"/>
-      <c r="BD62" s="30"/>
-      <c r="BE62" s="30"/>
-      <c r="BF62" s="30"/>
-      <c r="BG62" s="30"/>
-      <c r="BH62" s="30"/>
-      <c r="BI62" s="30"/>
-      <c r="BJ62" s="30"/>
-      <c r="BK62" s="30"/>
-      <c r="BL62" s="30"/>
-      <c r="BM62" s="30"/>
-      <c r="BN62" s="30"/>
-      <c r="BO62" s="30"/>
-      <c r="BP62" s="30"/>
-      <c r="BQ62" s="30"/>
-      <c r="BR62" s="30"/>
-      <c r="BS62" s="30"/>
-      <c r="BT62" s="30"/>
-      <c r="BU62" s="30"/>
-      <c r="BV62" s="30"/>
-      <c r="BW62" s="30"/>
-      <c r="BX62" s="30"/>
-      <c r="BY62" s="30"/>
-      <c r="BZ62" s="30"/>
-      <c r="CA62" s="30"/>
-      <c r="CB62" s="30"/>
-      <c r="CC62" s="30"/>
-      <c r="CD62" s="30"/>
-      <c r="CE62" s="30"/>
-      <c r="CF62" s="30"/>
-      <c r="CG62" s="30"/>
-      <c r="CH62" s="30"/>
-      <c r="CI62" s="30"/>
-      <c r="CJ62" s="30"/>
-      <c r="CK62" s="30"/>
-      <c r="CL62" s="30"/>
-      <c r="CM62" s="30"/>
-      <c r="CN62" s="30"/>
-      <c r="CO62" s="30"/>
-      <c r="CP62" s="30"/>
-      <c r="CQ62" s="30"/>
-      <c r="CR62" s="30"/>
-      <c r="CS62" s="30"/>
-      <c r="CT62" s="30"/>
-      <c r="CU62" s="30"/>
-      <c r="CV62" s="30"/>
-      <c r="CW62" s="30"/>
-      <c r="CX62" s="30"/>
-      <c r="CY62" s="30"/>
-      <c r="CZ62" s="30"/>
-      <c r="DA62" s="30"/>
-      <c r="DB62" s="30"/>
-      <c r="DC62" s="30"/>
-      <c r="DD62" s="30"/>
-      <c r="DE62" s="30"/>
-      <c r="DF62" s="30"/>
-      <c r="DG62" s="30"/>
-      <c r="DH62" s="30"/>
-      <c r="DI62" s="30"/>
-      <c r="DJ62" s="30"/>
-      <c r="DK62" s="30"/>
-      <c r="DL62" s="30"/>
-      <c r="DM62" s="30"/>
-      <c r="DN62" s="30"/>
-      <c r="DO62" s="30"/>
-      <c r="DP62" s="30"/>
-      <c r="DQ62" s="30"/>
-      <c r="DR62" s="30"/>
-      <c r="DS62" s="30"/>
-      <c r="DT62" s="30"/>
-      <c r="DU62" s="30"/>
-      <c r="DV62" s="30"/>
-      <c r="DW62" s="30"/>
-      <c r="DX62" s="30"/>
-      <c r="DY62" s="30"/>
-      <c r="DZ62" s="30"/>
-      <c r="EA62" s="30"/>
-      <c r="EB62" s="30"/>
-      <c r="EC62" s="30"/>
-      <c r="ED62" s="30"/>
-      <c r="EE62" s="30"/>
-      <c r="EF62" s="30"/>
-      <c r="EG62" s="30"/>
-      <c r="EH62" s="30"/>
-      <c r="EI62" s="30"/>
-      <c r="EJ62" s="30"/>
-      <c r="EK62" s="30"/>
-      <c r="EL62" s="30"/>
-      <c r="EM62" s="30"/>
-      <c r="EN62" s="30"/>
-      <c r="EO62" s="30"/>
-      <c r="EP62" s="30"/>
-      <c r="EQ62" s="30"/>
-      <c r="ER62" s="30"/>
-      <c r="ES62" s="30"/>
-      <c r="ET62" s="30"/>
-      <c r="EU62" s="30"/>
-      <c r="EV62" s="30"/>
-      <c r="EW62" s="30"/>
-      <c r="EX62" s="30"/>
-      <c r="EY62" s="30"/>
-      <c r="EZ62" s="30"/>
-      <c r="FA62" s="30"/>
-      <c r="FB62" s="30"/>
-      <c r="FC62" s="30"/>
-      <c r="FD62" s="30"/>
-      <c r="FE62" s="30"/>
-      <c r="FF62" s="30"/>
-      <c r="FG62" s="30"/>
-      <c r="FH62" s="30"/>
-      <c r="FI62" s="30"/>
-      <c r="FJ62" s="30"/>
-      <c r="FK62" s="30"/>
-      <c r="FL62" s="30"/>
-    </row>
-    <row r="63" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
+      <c r="AT62" s="26"/>
+      <c r="AU62" s="26"/>
+      <c r="AV62" s="26"/>
+      <c r="AW62" s="26"/>
+      <c r="AX62" s="26"/>
+      <c r="AY62" s="26"/>
+      <c r="AZ62" s="26"/>
+      <c r="BA62" s="26"/>
+      <c r="BB62" s="26"/>
+      <c r="BC62" s="26"/>
+      <c r="BD62" s="26"/>
+      <c r="BE62" s="26"/>
+      <c r="BF62" s="26"/>
+      <c r="BG62" s="26"/>
+      <c r="BH62" s="26"/>
+      <c r="BI62" s="26"/>
+      <c r="BJ62" s="26"/>
+      <c r="BK62" s="26"/>
+      <c r="BL62" s="26"/>
+      <c r="BM62" s="26"/>
+      <c r="BN62" s="26"/>
+      <c r="BO62" s="26"/>
+      <c r="BP62" s="26"/>
+      <c r="BQ62" s="26"/>
+      <c r="BR62" s="26"/>
+      <c r="BS62" s="26"/>
+      <c r="BT62" s="26"/>
+      <c r="BU62" s="26"/>
+      <c r="BV62" s="26"/>
+      <c r="BW62" s="26"/>
+      <c r="BX62" s="26"/>
+      <c r="BY62" s="26"/>
+      <c r="BZ62" s="26"/>
+      <c r="CA62" s="26"/>
+      <c r="CB62" s="26"/>
+      <c r="CC62" s="26"/>
+      <c r="CD62" s="26"/>
+      <c r="CE62" s="26"/>
+      <c r="CF62" s="26"/>
+      <c r="CG62" s="26"/>
+      <c r="CH62" s="26"/>
+      <c r="CI62" s="26"/>
+      <c r="CJ62" s="26"/>
+      <c r="CK62" s="26"/>
+      <c r="CL62" s="26"/>
+      <c r="CM62" s="26"/>
+      <c r="CN62" s="26"/>
+      <c r="CO62" s="26"/>
+      <c r="CP62" s="26"/>
+      <c r="CQ62" s="26"/>
+      <c r="CR62" s="26"/>
+      <c r="CS62" s="26"/>
+      <c r="CT62" s="26"/>
+      <c r="CU62" s="26"/>
+      <c r="CV62" s="26"/>
+      <c r="CW62" s="26"/>
+      <c r="CX62" s="26"/>
+      <c r="CY62" s="26"/>
+      <c r="CZ62" s="26"/>
+      <c r="DA62" s="26"/>
+      <c r="DB62" s="26"/>
+      <c r="DC62" s="26"/>
+      <c r="DD62" s="26"/>
+      <c r="DE62" s="26"/>
+      <c r="DF62" s="26"/>
+      <c r="DG62" s="26"/>
+      <c r="DH62" s="26"/>
+      <c r="DI62" s="26"/>
+      <c r="DJ62" s="26"/>
+      <c r="DK62" s="26"/>
+      <c r="DL62" s="26"/>
+      <c r="DM62" s="26"/>
+      <c r="DN62" s="26"/>
+      <c r="DO62" s="26"/>
+      <c r="DP62" s="26"/>
+      <c r="DQ62" s="26"/>
+      <c r="DR62" s="26"/>
+      <c r="DS62" s="26"/>
+      <c r="DT62" s="26"/>
+      <c r="DU62" s="26"/>
+      <c r="DV62" s="26"/>
+      <c r="DW62" s="26"/>
+      <c r="DX62" s="26"/>
+      <c r="DY62" s="26"/>
+      <c r="DZ62" s="26"/>
+      <c r="EA62" s="26"/>
+      <c r="EB62" s="26"/>
+      <c r="EC62" s="26"/>
+      <c r="ED62" s="26"/>
+      <c r="EE62" s="26"/>
+      <c r="EF62" s="26"/>
+      <c r="EG62" s="26"/>
+      <c r="EH62" s="26"/>
+      <c r="EI62" s="26"/>
+      <c r="EJ62" s="26"/>
+      <c r="EK62" s="26"/>
+      <c r="EL62" s="26"/>
+      <c r="EM62" s="26"/>
+      <c r="EN62" s="26"/>
+      <c r="EO62" s="26"/>
+      <c r="EP62" s="26"/>
+      <c r="EQ62" s="26"/>
+      <c r="ER62" s="26"/>
+      <c r="ES62" s="26"/>
+      <c r="ET62" s="26"/>
+      <c r="EU62" s="26"/>
+      <c r="EV62" s="26"/>
+      <c r="EW62" s="26"/>
+      <c r="EX62" s="26"/>
+      <c r="EY62" s="26"/>
+      <c r="EZ62" s="26"/>
+      <c r="FA62" s="26"/>
+      <c r="FB62" s="26"/>
+      <c r="FC62" s="26"/>
+      <c r="FD62" s="26"/>
+      <c r="FE62" s="26"/>
+      <c r="FF62" s="26"/>
+      <c r="FG62" s="26"/>
+      <c r="FH62" s="26"/>
+      <c r="FI62" s="26"/>
+      <c r="FJ62" s="26"/>
+      <c r="FK62" s="26"/>
+      <c r="FL62" s="26"/>
+    </row>
+    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="7">
         <v>45521</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="1"/>
+      <c r="F63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -5760,7 +5751,7 @@
       <c r="X63"/>
       <c r="Y63"/>
       <c r="Z63"/>
-      <c r="AA63" s="1"/>
+      <c r="AA63"/>
       <c r="AB63"/>
       <c r="AC63"/>
       <c r="AD63"/>
@@ -5780,28 +5771,28 @@
       <c r="AR63"/>
       <c r="AS63"/>
     </row>
-    <row r="64" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="7">
         <v>45522</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="1"/>
+      <c r="F64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -5819,7 +5810,7 @@
       <c r="X64"/>
       <c r="Y64"/>
       <c r="Z64"/>
-      <c r="AA64" s="1"/>
+      <c r="AA64"/>
       <c r="AB64"/>
       <c r="AC64"/>
       <c r="AD64"/>
@@ -5839,28 +5830,28 @@
       <c r="AR64"/>
       <c r="AS64"/>
     </row>
-    <row r="65" spans="1:45" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65" s="23">
         <v>45530</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="1"/>
+      <c r="F65" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -5878,7 +5869,7 @@
       <c r="X65"/>
       <c r="Y65"/>
       <c r="Z65"/>
-      <c r="AA65" s="1"/>
+      <c r="AA65"/>
       <c r="AB65"/>
       <c r="AC65"/>
       <c r="AD65"/>
@@ -5898,28 +5889,28 @@
       <c r="AR65"/>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="7">
         <v>45534</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="1"/>
+      <c r="F66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="25"/>
+      <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
@@ -5937,7 +5928,7 @@
       <c r="X66"/>
       <c r="Y66"/>
       <c r="Z66"/>
-      <c r="AA66" s="1"/>
+      <c r="AA66"/>
       <c r="AB66"/>
       <c r="AC66"/>
       <c r="AD66"/>
@@ -5957,28 +5948,28 @@
       <c r="AR66"/>
       <c r="AS66"/>
     </row>
-    <row r="67" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="7">
         <v>45535</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="1"/>
+      <c r="F67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="25"/>
+      <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
@@ -5996,7 +5987,7 @@
       <c r="X67"/>
       <c r="Y67"/>
       <c r="Z67"/>
-      <c r="AA67" s="1"/>
+      <c r="AA67"/>
       <c r="AB67"/>
       <c r="AC67"/>
       <c r="AD67"/>
@@ -6016,28 +6007,28 @@
       <c r="AR67"/>
       <c r="AS67"/>
     </row>
-    <row r="68" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="7">
         <v>45535</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="1"/>
+      <c r="F68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="25"/>
+      <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
@@ -6055,7 +6046,7 @@
       <c r="X68"/>
       <c r="Y68"/>
       <c r="Z68"/>
-      <c r="AA68" s="1"/>
+      <c r="AA68"/>
       <c r="AB68"/>
       <c r="AC68"/>
       <c r="AD68"/>
@@ -6075,28 +6066,28 @@
       <c r="AR68"/>
       <c r="AS68"/>
     </row>
-    <row r="69" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="7">
         <v>45535</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="1"/>
+      <c r="F69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="25"/>
+      <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
@@ -6114,7 +6105,7 @@
       <c r="X69"/>
       <c r="Y69"/>
       <c r="Z69"/>
-      <c r="AA69" s="1"/>
+      <c r="AA69"/>
       <c r="AB69"/>
       <c r="AC69"/>
       <c r="AD69"/>
@@ -6134,28 +6125,28 @@
       <c r="AR69"/>
       <c r="AS69"/>
     </row>
-    <row r="70" spans="1:45" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="7">
         <v>45535</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="1"/>
+      <c r="F70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="25"/>
+      <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -6173,7 +6164,7 @@
       <c r="X70"/>
       <c r="Y70"/>
       <c r="Z70"/>
-      <c r="AA70" s="1"/>
+      <c r="AA70"/>
       <c r="AB70"/>
       <c r="AC70"/>
       <c r="AD70"/>
@@ -6193,28 +6184,28 @@
       <c r="AR70"/>
       <c r="AS70"/>
     </row>
-    <row r="71" spans="1:45" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:45" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="7">
         <v>45536</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="1"/>
+      <c r="F71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="25"/>
+      <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -6232,7 +6223,7 @@
       <c r="X71"/>
       <c r="Y71"/>
       <c r="Z71"/>
-      <c r="AA71" s="1"/>
+      <c r="AA71"/>
       <c r="AB71"/>
       <c r="AC71"/>
       <c r="AD71"/>
@@ -6252,28 +6243,28 @@
       <c r="AR71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="1:45" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="7">
         <v>45539</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="1"/>
+      <c r="F72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="25"/>
+      <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
@@ -6291,7 +6282,7 @@
       <c r="X72"/>
       <c r="Y72"/>
       <c r="Z72"/>
-      <c r="AA72" s="1"/>
+      <c r="AA72"/>
       <c r="AB72"/>
       <c r="AC72"/>
       <c r="AD72"/>
@@ -6311,28 +6302,28 @@
       <c r="AR72"/>
       <c r="AS72"/>
     </row>
-    <row r="73" spans="1:45" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="7">
         <v>45540</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="1"/>
+      <c r="F73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="25"/>
+      <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
@@ -6350,7 +6341,7 @@
       <c r="X73"/>
       <c r="Y73"/>
       <c r="Z73"/>
-      <c r="AA73" s="1"/>
+      <c r="AA73"/>
       <c r="AB73"/>
       <c r="AC73"/>
       <c r="AD73"/>
@@ -6370,30 +6361,30 @@
       <c r="AR73"/>
       <c r="AS73"/>
     </row>
-    <row r="74" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="7">
         <v>45541</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
+      <c r="F74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
@@ -6409,7 +6400,7 @@
       <c r="X74"/>
       <c r="Y74"/>
       <c r="Z74"/>
-      <c r="AA74" s="1"/>
+      <c r="AA74"/>
       <c r="AB74"/>
       <c r="AC74"/>
       <c r="AD74"/>
@@ -6429,32 +6420,32 @@
       <c r="AR74"/>
       <c r="AS74"/>
     </row>
-    <row r="75" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="7">
         <v>45549</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
+      <c r="F75" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
       <c r="L75"/>
-      <c r="M75" s="1"/>
+      <c r="M75"/>
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
@@ -6488,32 +6479,32 @@
       <c r="AR75"/>
       <c r="AS75"/>
     </row>
-    <row r="76" spans="1:45" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="7">
         <v>45551</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="1"/>
+      <c r="F76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="25"/>
+      <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
-      <c r="M76" s="1"/>
+      <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
@@ -6547,32 +6538,32 @@
       <c r="AR76"/>
       <c r="AS76"/>
     </row>
-    <row r="77" spans="1:45" s="18" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:45" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="7">
         <v>45586</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="1"/>
+      <c r="F77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
-      <c r="M77" s="1"/>
+      <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
@@ -6598,44 +6589,44 @@
       <c r="AJ77"/>
       <c r="AK77"/>
     </row>
-    <row r="78" spans="1:45" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="7">
         <v>45594</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="1"/>
+      <c r="F78" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="31"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
       <c r="Z78"/>
       <c r="AA78"/>
       <c r="AB78"/>
@@ -6650,539 +6641,558 @@
       <c r="AK78"/>
     </row>
     <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="34">
+      <c r="C79" s="30">
         <v>45604</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="32" t="s">
+      <c r="G79" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H79" s="32" t="s">
+      <c r="H79" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="31"/>
-      <c r="X79" s="31"/>
-      <c r="Y79" s="31"/>
-      <c r="AB79" s="31"/>
-      <c r="AC79" s="31"/>
-      <c r="AG79" s="31"/>
-      <c r="AH79" s="31"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AG79" s="27"/>
+      <c r="AH79" s="27"/>
     </row>
     <row r="80" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="7">
         <v>45607</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
-      <c r="Q80" s="31"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="31"/>
-      <c r="AC80" s="31"/>
-      <c r="AG80" s="31"/>
-      <c r="AH80" s="31"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
+      <c r="F80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="27"/>
+      <c r="AG80" s="27"/>
+      <c r="AH80" s="27"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="7">
         <v>45615</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="12"/>
-      <c r="AA81" s="1"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
+      <c r="F81" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="7">
         <v>45620</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="13"/>
-      <c r="AA82" s="1"/>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
+      <c r="F82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="7">
         <v>45623</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="1:27" ht="26" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
+      <c r="F83" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="7">
         <v>45624</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" spans="1:27" ht="26" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
+      <c r="F84" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="7">
         <v>45624</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="19"/>
-    </row>
-    <row r="86" spans="1:27" ht="26" x14ac:dyDescent="0.35">
-      <c r="A86" s="7" t="s">
+      <c r="F85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="7">
         <v>45625</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="19"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
+      <c r="F86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="7">
         <v>45626</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="19"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
+      <c r="F87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="7">
         <v>45629</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A89" s="32" t="s">
+      <c r="F88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="34">
+      <c r="C89" s="30">
         <v>45635</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E89" s="32" t="s">
+      <c r="E89" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="32" t="s">
+      <c r="F89" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="32" t="s">
+      <c r="G89" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H89" s="32" t="s">
+      <c r="H89" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="7">
         <v>45635</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="19"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
+      <c r="F90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="7">
         <v>45636</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="19"/>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
+      <c r="F91" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="7">
         <v>45636</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="19"/>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
+      <c r="F92" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="7">
         <v>45645</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A94" s="7" t="s">
+      <c r="F93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="7">
         <v>45647</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
+      <c r="F94" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="7">
         <v>45647</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="13"/>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
+      <c r="F95" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="7">
         <v>45653</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="13"/>
+      <c r="F96" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C97" s="34">
+      <c r="C97" s="30">
         <v>45654</v>
       </c>
-      <c r="D97" s="32" t="s">
+      <c r="D97" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E97" s="32" t="s">
+      <c r="E97" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="32" t="s">
+      <c r="F97" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G97" s="32" t="s">
+      <c r="G97" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H97" s="32" t="s">
+      <c r="H97" s="28" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C98" s="34">
+      <c r="C98" s="30">
         <v>45658</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E98" s="32" t="s">
+      <c r="E98" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="32" t="s">
+      <c r="F98" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="32" t="s">
+      <c r="G98" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H98" s="32" t="s">
+      <c r="H98" s="28" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="34">
+      <c r="C99" s="30">
         <v>45662</v>
       </c>
-      <c r="D99" s="32" t="s">
+      <c r="D99" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="32" t="s">
+      <c r="E99" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="32" t="s">
+      <c r="F99" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G99" s="32" t="s">
+      <c r="G99" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H99" s="32" t="s">
+      <c r="H99" s="28" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B100" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C100" s="34">
+      <c r="C100" s="30">
         <v>45664</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E100" s="32" t="s">
+      <c r="E100" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="32" t="s">
+      <c r="F100" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G100" s="32" t="s">
+      <c r="G100" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H100" s="32" t="s">
+      <c r="H100" s="28" t="s">
         <v>130</v>
       </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="7">
+        <v>45671</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/OGD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B12D57C-5F21-4B6F-835B-3E3FEEE115D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D14D1D85-A8F7-4CF2-A4B6-6758CCFBA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2411C78-6F9D-44C3-87C9-CC54B45CE53C}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="16850" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="159">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -695,6 +695,66 @@
   </si>
   <si>
     <t>3280 Murten</t>
+  </si>
+  <si>
+    <t>Galmiz</t>
+  </si>
+  <si>
+    <t>Ouchy, Lausanne</t>
+  </si>
+  <si>
+    <t>3253 Schnottwil im Wald</t>
+  </si>
+  <si>
+    <t>Region Galmiz</t>
+  </si>
+  <si>
+    <t>WZV Klingnauer Staussee, Schilfgürtel</t>
+  </si>
+  <si>
+    <t>Staubereich Kraftwerk Beznau, Schilfgürtel</t>
+  </si>
+  <si>
+    <t>Grand Canal, Aigle</t>
+  </si>
+  <si>
+    <t>Deponie Birchbuel, 8225 Siblingen</t>
+  </si>
+  <si>
+    <t>Uferdamm, Klingnauer-Stausee</t>
+  </si>
+  <si>
+    <t>Rue de la Jonction 16, 1400 Yverdon-Les-Bains</t>
+  </si>
+  <si>
+    <t>Chemin des Grèves 57, 1598 Portalbau</t>
+  </si>
+  <si>
+    <t>Kraftwerk Schafhausen, Mühlenstrasse 19, 8200 Schaffhausen</t>
+  </si>
+  <si>
+    <t>Unterhalb Aarekraftwerk Klingnau, linke Uferseite</t>
+  </si>
+  <si>
+    <t>sur la digue du port, Port de Concise, 1426 Concise</t>
+  </si>
+  <si>
+    <t>Turmfalke</t>
+  </si>
+  <si>
+    <t>Silberreiher</t>
+  </si>
+  <si>
+    <t>Rostgans</t>
+  </si>
+  <si>
+    <t>Aarekraftwerk Klingnau, direkt vor Rechen</t>
+  </si>
+  <si>
+    <t>Nidau - Büren- Kanal / Schleusenstrasse</t>
+  </si>
+  <si>
+    <t>Strandbad Tribschen</t>
   </si>
 </sst>
 </file>
@@ -4071,11 +4131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL101"/>
+  <dimension ref="A1:FL139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C88:C97"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7194,6 +7254,650 @@
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
     </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="7">
+        <v>45672</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="7">
+        <v>45674</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="7">
+        <v>45674</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="7">
+        <v>45675</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+    </row>
+    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="7">
+        <v>45678</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="7">
+        <v>45678</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="7">
+        <v>45679</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="7">
+        <v>45680</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" s="7">
+        <v>45680</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="7">
+        <v>45681</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" s="30">
+        <v>45406</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H112" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="7">
+        <v>45683</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="7">
+        <v>45683</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" s="7">
+        <v>45683</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="7">
+        <v>45684</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="7">
+        <v>45684</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="7">
+        <v>45685</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="7">
+        <v>45685</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="7">
+        <v>45685</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="7">
+        <v>45686</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="7">
+        <v>45687</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="30">
+        <v>45691</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H123" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D14D1D85-A8F7-4CF2-A4B6-6758CCFBA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2411C78-6F9D-44C3-87C9-CC54B45CE53C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D14D1D85-A8F7-4CF2-A4B6-6758CCFBA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF972A0-B084-4649-97A5-417CC100CE03}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3868,6 +3868,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -4134,8 +4138,8 @@
   <dimension ref="A1:FL139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7480,7 +7484,7 @@
         <v>158</v>
       </c>
       <c r="C112" s="30">
-        <v>45406</v>
+        <v>45681</v>
       </c>
       <c r="D112" s="28" t="s">
         <v>126</v>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D14D1D85-A8F7-4CF2-A4B6-6758CCFBA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF972A0-B084-4649-97A5-417CC100CE03}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7228F8C8-E4CA-4C6F-A86F-733608E30CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="162">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -748,13 +748,22 @@
     <t>Rostgans</t>
   </si>
   <si>
+    <t>H5</t>
+  </si>
+  <si>
     <t>Aarekraftwerk Klingnau, direkt vor Rechen</t>
   </si>
   <si>
+    <t>Nidau - Büren- Kanal / Hauptstrasse</t>
+  </si>
+  <si>
     <t>Nidau - Büren- Kanal / Schleusenstrasse</t>
   </si>
   <si>
     <t>Strandbad Tribschen</t>
+  </si>
+  <si>
+    <t>1372 Bavois</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1118,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,6 +1308,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2613,7 +2634,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2699,6 +2720,26 @@
     </xf>
     <xf numFmtId="49" fontId="30" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="52" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="53" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1152">
@@ -3868,10 +3909,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -4135,11 +4172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL139"/>
+  <dimension ref="A1:FL140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <selection pane="bottomLeft" activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7481,7 +7518,7 @@
         <v>79</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C112" s="30">
         <v>45681</v>
@@ -7529,7 +7566,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C114" s="7">
         <v>45683</v>
@@ -7716,51 +7753,83 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="28" t="s">
+    <row r="123" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="30">
+      <c r="B123" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="36">
+        <v>45687</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="30">
         <v>45691</v>
       </c>
-      <c r="D123" s="28" t="s">
+      <c r="D124" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="28" t="s">
+      <c r="E124" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="28" t="s">
+      <c r="F124" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G123" s="28" t="s">
+      <c r="G124" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H123" s="28" t="s">
+      <c r="H124" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-    </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
+      <c r="A125" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="33">
+        <v>45699</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G125" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H125" s="28" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
@@ -7901,6 +7970,16 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7228F8C8-E4CA-4C6F-A86F-733608E30CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0E6C86-D35C-4947-A42D-AB8ED87EF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2634,7 +2634,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2725,16 +2725,6 @@
     <xf numFmtId="14" fontId="52" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="53" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7753,29 +7743,29 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="34" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C123" s="36">
+      <c r="C123" s="14">
         <v>45687</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="34" t="s">
+      <c r="E123" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="G123" s="38" t="s">
+      <c r="F123" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G123" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H123" s="39" t="s">
+      <c r="H123" s="35" t="s">
         <v>156</v>
       </c>
     </row>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0E6C86-D35C-4947-A42D-AB8ED87EF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94B73AD-8823-425A-9742-44D9377B447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="168">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -764,6 +764,25 @@
   </si>
   <si>
     <t>1372 Bavois</t>
+  </si>
+  <si>
+    <t>Gampelen</t>
+  </si>
+  <si>
+    <t>Morat (Galmiz)</t>
+  </si>
+  <si>
+    <t>Weissstorch</t>
+  </si>
+  <si>
+    <t>Ufer am Pumpspeichersee, Engeweiher, 8200 Schaffhausen</t>
+  </si>
+  <si>
+    <t>Aare, 3380 Walliswil bei Niederbipp</t>
+  </si>
+  <si>
+    <t>Moosholz / Züriwis, 8526 Neunforn
+2x Wiese 20-30cm von Stromleitung entfernt; 1x Wald etwa 30cm von den anderen beiden entfernt</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1137,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,7 +1337,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2634,7 +2659,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2681,15 +2706,6 @@
     <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="53" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2728,7 +2744,34 @@
     <xf numFmtId="49" fontId="53" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4162,11 +4205,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL140"/>
+  <dimension ref="A1:FL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G120" sqref="G120"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B138" sqref="B138:B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5619,29 +5662,29 @@
       <c r="AR61"/>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:168" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="20" t="s">
+    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="33">
         <v>45520</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H62" s="20"/>
+      <c r="H62" s="31"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
@@ -5679,129 +5722,129 @@
       <c r="AQ62"/>
       <c r="AR62"/>
       <c r="AS62"/>
-      <c r="AT62" s="26"/>
-      <c r="AU62" s="26"/>
-      <c r="AV62" s="26"/>
-      <c r="AW62" s="26"/>
-      <c r="AX62" s="26"/>
-      <c r="AY62" s="26"/>
-      <c r="AZ62" s="26"/>
-      <c r="BA62" s="26"/>
-      <c r="BB62" s="26"/>
-      <c r="BC62" s="26"/>
-      <c r="BD62" s="26"/>
-      <c r="BE62" s="26"/>
-      <c r="BF62" s="26"/>
-      <c r="BG62" s="26"/>
-      <c r="BH62" s="26"/>
-      <c r="BI62" s="26"/>
-      <c r="BJ62" s="26"/>
-      <c r="BK62" s="26"/>
-      <c r="BL62" s="26"/>
-      <c r="BM62" s="26"/>
-      <c r="BN62" s="26"/>
-      <c r="BO62" s="26"/>
-      <c r="BP62" s="26"/>
-      <c r="BQ62" s="26"/>
-      <c r="BR62" s="26"/>
-      <c r="BS62" s="26"/>
-      <c r="BT62" s="26"/>
-      <c r="BU62" s="26"/>
-      <c r="BV62" s="26"/>
-      <c r="BW62" s="26"/>
-      <c r="BX62" s="26"/>
-      <c r="BY62" s="26"/>
-      <c r="BZ62" s="26"/>
-      <c r="CA62" s="26"/>
-      <c r="CB62" s="26"/>
-      <c r="CC62" s="26"/>
-      <c r="CD62" s="26"/>
-      <c r="CE62" s="26"/>
-      <c r="CF62" s="26"/>
-      <c r="CG62" s="26"/>
-      <c r="CH62" s="26"/>
-      <c r="CI62" s="26"/>
-      <c r="CJ62" s="26"/>
-      <c r="CK62" s="26"/>
-      <c r="CL62" s="26"/>
-      <c r="CM62" s="26"/>
-      <c r="CN62" s="26"/>
-      <c r="CO62" s="26"/>
-      <c r="CP62" s="26"/>
-      <c r="CQ62" s="26"/>
-      <c r="CR62" s="26"/>
-      <c r="CS62" s="26"/>
-      <c r="CT62" s="26"/>
-      <c r="CU62" s="26"/>
-      <c r="CV62" s="26"/>
-      <c r="CW62" s="26"/>
-      <c r="CX62" s="26"/>
-      <c r="CY62" s="26"/>
-      <c r="CZ62" s="26"/>
-      <c r="DA62" s="26"/>
-      <c r="DB62" s="26"/>
-      <c r="DC62" s="26"/>
-      <c r="DD62" s="26"/>
-      <c r="DE62" s="26"/>
-      <c r="DF62" s="26"/>
-      <c r="DG62" s="26"/>
-      <c r="DH62" s="26"/>
-      <c r="DI62" s="26"/>
-      <c r="DJ62" s="26"/>
-      <c r="DK62" s="26"/>
-      <c r="DL62" s="26"/>
-      <c r="DM62" s="26"/>
-      <c r="DN62" s="26"/>
-      <c r="DO62" s="26"/>
-      <c r="DP62" s="26"/>
-      <c r="DQ62" s="26"/>
-      <c r="DR62" s="26"/>
-      <c r="DS62" s="26"/>
-      <c r="DT62" s="26"/>
-      <c r="DU62" s="26"/>
-      <c r="DV62" s="26"/>
-      <c r="DW62" s="26"/>
-      <c r="DX62" s="26"/>
-      <c r="DY62" s="26"/>
-      <c r="DZ62" s="26"/>
-      <c r="EA62" s="26"/>
-      <c r="EB62" s="26"/>
-      <c r="EC62" s="26"/>
-      <c r="ED62" s="26"/>
-      <c r="EE62" s="26"/>
-      <c r="EF62" s="26"/>
-      <c r="EG62" s="26"/>
-      <c r="EH62" s="26"/>
-      <c r="EI62" s="26"/>
-      <c r="EJ62" s="26"/>
-      <c r="EK62" s="26"/>
-      <c r="EL62" s="26"/>
-      <c r="EM62" s="26"/>
-      <c r="EN62" s="26"/>
-      <c r="EO62" s="26"/>
-      <c r="EP62" s="26"/>
-      <c r="EQ62" s="26"/>
-      <c r="ER62" s="26"/>
-      <c r="ES62" s="26"/>
-      <c r="ET62" s="26"/>
-      <c r="EU62" s="26"/>
-      <c r="EV62" s="26"/>
-      <c r="EW62" s="26"/>
-      <c r="EX62" s="26"/>
-      <c r="EY62" s="26"/>
-      <c r="EZ62" s="26"/>
-      <c r="FA62" s="26"/>
-      <c r="FB62" s="26"/>
-      <c r="FC62" s="26"/>
-      <c r="FD62" s="26"/>
-      <c r="FE62" s="26"/>
-      <c r="FF62" s="26"/>
-      <c r="FG62" s="26"/>
-      <c r="FH62" s="26"/>
-      <c r="FI62" s="26"/>
-      <c r="FJ62" s="26"/>
-      <c r="FK62" s="26"/>
-      <c r="FL62" s="26"/>
+      <c r="AT62" s="23"/>
+      <c r="AU62" s="23"/>
+      <c r="AV62" s="23"/>
+      <c r="AW62" s="23"/>
+      <c r="AX62" s="23"/>
+      <c r="AY62" s="23"/>
+      <c r="AZ62" s="23"/>
+      <c r="BA62" s="23"/>
+      <c r="BB62" s="23"/>
+      <c r="BC62" s="23"/>
+      <c r="BD62" s="23"/>
+      <c r="BE62" s="23"/>
+      <c r="BF62" s="23"/>
+      <c r="BG62" s="23"/>
+      <c r="BH62" s="23"/>
+      <c r="BI62" s="23"/>
+      <c r="BJ62" s="23"/>
+      <c r="BK62" s="23"/>
+      <c r="BL62" s="23"/>
+      <c r="BM62" s="23"/>
+      <c r="BN62" s="23"/>
+      <c r="BO62" s="23"/>
+      <c r="BP62" s="23"/>
+      <c r="BQ62" s="23"/>
+      <c r="BR62" s="23"/>
+      <c r="BS62" s="23"/>
+      <c r="BT62" s="23"/>
+      <c r="BU62" s="23"/>
+      <c r="BV62" s="23"/>
+      <c r="BW62" s="23"/>
+      <c r="BX62" s="23"/>
+      <c r="BY62" s="23"/>
+      <c r="BZ62" s="23"/>
+      <c r="CA62" s="23"/>
+      <c r="CB62" s="23"/>
+      <c r="CC62" s="23"/>
+      <c r="CD62" s="23"/>
+      <c r="CE62" s="23"/>
+      <c r="CF62" s="23"/>
+      <c r="CG62" s="23"/>
+      <c r="CH62" s="23"/>
+      <c r="CI62" s="23"/>
+      <c r="CJ62" s="23"/>
+      <c r="CK62" s="23"/>
+      <c r="CL62" s="23"/>
+      <c r="CM62" s="23"/>
+      <c r="CN62" s="23"/>
+      <c r="CO62" s="23"/>
+      <c r="CP62" s="23"/>
+      <c r="CQ62" s="23"/>
+      <c r="CR62" s="23"/>
+      <c r="CS62" s="23"/>
+      <c r="CT62" s="23"/>
+      <c r="CU62" s="23"/>
+      <c r="CV62" s="23"/>
+      <c r="CW62" s="23"/>
+      <c r="CX62" s="23"/>
+      <c r="CY62" s="23"/>
+      <c r="CZ62" s="23"/>
+      <c r="DA62" s="23"/>
+      <c r="DB62" s="23"/>
+      <c r="DC62" s="23"/>
+      <c r="DD62" s="23"/>
+      <c r="DE62" s="23"/>
+      <c r="DF62" s="23"/>
+      <c r="DG62" s="23"/>
+      <c r="DH62" s="23"/>
+      <c r="DI62" s="23"/>
+      <c r="DJ62" s="23"/>
+      <c r="DK62" s="23"/>
+      <c r="DL62" s="23"/>
+      <c r="DM62" s="23"/>
+      <c r="DN62" s="23"/>
+      <c r="DO62" s="23"/>
+      <c r="DP62" s="23"/>
+      <c r="DQ62" s="23"/>
+      <c r="DR62" s="23"/>
+      <c r="DS62" s="23"/>
+      <c r="DT62" s="23"/>
+      <c r="DU62" s="23"/>
+      <c r="DV62" s="23"/>
+      <c r="DW62" s="23"/>
+      <c r="DX62" s="23"/>
+      <c r="DY62" s="23"/>
+      <c r="DZ62" s="23"/>
+      <c r="EA62" s="23"/>
+      <c r="EB62" s="23"/>
+      <c r="EC62" s="23"/>
+      <c r="ED62" s="23"/>
+      <c r="EE62" s="23"/>
+      <c r="EF62" s="23"/>
+      <c r="EG62" s="23"/>
+      <c r="EH62" s="23"/>
+      <c r="EI62" s="23"/>
+      <c r="EJ62" s="23"/>
+      <c r="EK62" s="23"/>
+      <c r="EL62" s="23"/>
+      <c r="EM62" s="23"/>
+      <c r="EN62" s="23"/>
+      <c r="EO62" s="23"/>
+      <c r="EP62" s="23"/>
+      <c r="EQ62" s="23"/>
+      <c r="ER62" s="23"/>
+      <c r="ES62" s="23"/>
+      <c r="ET62" s="23"/>
+      <c r="EU62" s="23"/>
+      <c r="EV62" s="23"/>
+      <c r="EW62" s="23"/>
+      <c r="EX62" s="23"/>
+      <c r="EY62" s="23"/>
+      <c r="EZ62" s="23"/>
+      <c r="FA62" s="23"/>
+      <c r="FB62" s="23"/>
+      <c r="FC62" s="23"/>
+      <c r="FD62" s="23"/>
+      <c r="FE62" s="23"/>
+      <c r="FF62" s="23"/>
+      <c r="FG62" s="23"/>
+      <c r="FH62" s="23"/>
+      <c r="FI62" s="23"/>
+      <c r="FJ62" s="23"/>
+      <c r="FK62" s="23"/>
+      <c r="FL62" s="23"/>
     </row>
     <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
@@ -5925,23 +5968,23 @@
       <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="20">
         <v>45530</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
+      <c r="F65" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
@@ -6000,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="25"/>
+      <c r="H66" s="22"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
@@ -6059,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="5"/>
-      <c r="H67" s="25"/>
+      <c r="H67" s="22"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
@@ -6118,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="25"/>
+      <c r="H68" s="22"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
@@ -6177,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="25"/>
+      <c r="H69" s="22"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
@@ -6236,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="5"/>
-      <c r="H70" s="25"/>
+      <c r="H70" s="22"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
@@ -6295,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="25"/>
+      <c r="H71" s="22"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
@@ -6354,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5"/>
-      <c r="H72" s="25"/>
+      <c r="H72" s="22"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
@@ -6413,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="5"/>
-      <c r="H73" s="25"/>
+      <c r="H73" s="22"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
@@ -6472,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="5"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
@@ -6531,10 +6574,10 @@
         <v>1</v>
       </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
@@ -6590,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="25"/>
+      <c r="H76" s="22"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
@@ -6705,19 +6748,19 @@
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="27"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
       <c r="Z78"/>
       <c r="AA78"/>
       <c r="AB78"/>
@@ -6732,44 +6775,44 @@
       <c r="AK78"/>
     </row>
     <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="27">
         <v>45604</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="28" t="s">
+      <c r="F79" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="28" t="s">
+      <c r="G79" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H79" s="28" t="s">
+      <c r="H79" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="S79" s="27"/>
-      <c r="T79" s="27"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="27"/>
-      <c r="AG79" s="27"/>
-      <c r="AH79" s="27"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="24"/>
+      <c r="X79" s="24"/>
+      <c r="Y79" s="24"/>
+      <c r="AB79" s="24"/>
+      <c r="AC79" s="24"/>
+      <c r="AG79" s="24"/>
+      <c r="AH79" s="24"/>
     </row>
     <row r="80" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
@@ -6792,16 +6835,16 @@
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="10"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="AB80" s="27"/>
-      <c r="AC80" s="27"/>
-      <c r="AG80" s="27"/>
-      <c r="AH80" s="27"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="AB80" s="24"/>
+      <c r="AC80" s="24"/>
+      <c r="AG80" s="24"/>
+      <c r="AH80" s="24"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
@@ -6980,28 +7023,28 @@
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="27">
         <v>45635</v>
       </c>
-      <c r="D89" s="28" t="s">
+      <c r="D89" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E89" s="28" t="s">
+      <c r="E89" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="28" t="s">
+      <c r="F89" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="28" t="s">
+      <c r="G89" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H89" s="28" t="s">
+      <c r="H89" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7160,106 +7203,106 @@
       <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="27">
         <v>45654</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E97" s="28" t="s">
+      <c r="E97" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G97" s="28" t="s">
+      <c r="G97" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H97" s="28" t="s">
+      <c r="H97" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C98" s="30">
+      <c r="C98" s="27">
         <v>45658</v>
       </c>
-      <c r="D98" s="28" t="s">
+      <c r="D98" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E98" s="28" t="s">
+      <c r="E98" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="28" t="s">
+      <c r="G98" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H98" s="28" t="s">
+      <c r="H98" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="27">
         <v>45662</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E99" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G99" s="28" t="s">
+      <c r="G99" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H99" s="28" t="s">
+      <c r="H99" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="27">
         <v>45664</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E100" s="28" t="s">
+      <c r="E100" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="28" t="s">
+      <c r="F100" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G100" s="28" t="s">
+      <c r="G100" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H100" s="28" t="s">
+      <c r="H100" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7504,28 +7547,28 @@
       <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C112" s="30">
+      <c r="C112" s="27">
         <v>45681</v>
       </c>
-      <c r="D112" s="28" t="s">
+      <c r="D112" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E112" s="28" t="s">
+      <c r="E112" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="28" t="s">
+      <c r="F112" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G112" s="28" t="s">
+      <c r="G112" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="H112" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7744,192 +7787,308 @@
       <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C123" s="14">
+      <c r="C123" s="36">
         <v>45687</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G123" s="34" t="s">
+      <c r="G123" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="H123" s="35" t="s">
+      <c r="H123" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C124" s="30">
+      <c r="C124" s="27">
         <v>45691</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E124" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="28" t="s">
+      <c r="F124" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G124" s="28" t="s">
+      <c r="G124" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H124" s="28" t="s">
+      <c r="H124" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" s="7">
+        <v>45694</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="7">
+        <v>45695</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="27">
+        <v>45698</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H127" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="27">
+        <v>45698</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C129" s="7">
+        <v>45698</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="7">
+        <v>45699</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B131" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C125" s="33">
+      <c r="C131" s="30">
         <v>45699</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D131" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E131" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="28" t="s">
+      <c r="F131" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G125" s="28" t="s">
+      <c r="G131" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H125" s="28" t="s">
+      <c r="H131" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
+    <row r="132" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="27">
+        <v>45700</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" s="7">
+        <v>45700</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
+    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" s="7">
+        <v>45700</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="40"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="41"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="40"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="41"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
@@ -7970,6 +8129,66 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94B73AD-8823-425A-9742-44D9377B447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{703476F1-2C97-4F56-9607-3B0B9919D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="168">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -4208,14 +4208,14 @@
   <dimension ref="A1:FL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B138" sqref="B138:B140"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="39.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
@@ -5544,7 +5544,7 @@
       <c r="AR59"/>
       <c r="AS59"/>
     </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -8001,30 +8001,26 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="26" t="s">
+      <c r="B132" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C132" s="27">
+      <c r="C132" s="14">
         <v>45700</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E132" s="25" t="s">
+      <c r="E132" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H132" s="25" t="s">
-        <v>130</v>
-      </c>
+      <c r="F132" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
     </row>
     <row r="133" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{703476F1-2C97-4F56-9607-3B0B9919D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{891BA35E-3D7A-401C-B491-E2AE556DD978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="168">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -4208,8 +4208,8 @@
   <dimension ref="A1:FL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H132" sqref="H132"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7881,30 +7881,26 @@
       <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="28" t="s">
+      <c r="B127" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C127" s="27">
+      <c r="C127" s="14">
         <v>45698</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E127" s="25" t="s">
+      <c r="E127" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G127" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H127" s="25" t="s">
-        <v>130</v>
-      </c>
+      <c r="F127" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="25" t="s">
@@ -8187,6 +8183,7 @@
       <c r="H146" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:FL134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{891BA35E-3D7A-401C-B491-E2AE556DD978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52521C41-A118-4ACF-9556-70782CB34F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="172">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -748,9 +748,6 @@
     <t>Rostgans</t>
   </si>
   <si>
-    <t>H5</t>
-  </si>
-  <si>
     <t>Aarekraftwerk Klingnau, direkt vor Rechen</t>
   </si>
   <si>
@@ -783,6 +780,21 @@
   <si>
     <t>Moosholz / Züriwis, 8526 Neunforn
 2x Wiese 20-30cm von Stromleitung entfernt; 1x Wald etwa 30cm von den anderen beiden entfernt</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>Torrazza 27, 6987 Caslano</t>
+  </si>
+  <si>
+    <t>Plage de Vevey, embouchure de la Veveyse, 1600 Vevey</t>
+  </si>
+  <si>
+    <t>à 20m du Rhône, 1897 Le Bouveret</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +2671,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2764,12 +2776,6 @@
     </xf>
     <xf numFmtId="49" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4208,8 +4214,8 @@
   <dimension ref="A1:FL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7551,7 +7557,7 @@
         <v>79</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C112" s="27">
         <v>45681</v>
@@ -7599,7 +7605,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C114" s="7">
         <v>45683</v>
@@ -7791,7 +7797,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C123" s="36">
         <v>45687</v>
@@ -7808,16 +7814,14 @@
       <c r="G123" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="H123" s="34" t="s">
-        <v>156</v>
-      </c>
+      <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C124" s="27">
         <v>45691</v>
@@ -7843,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C125" s="7">
         <v>45694</v>
@@ -7885,7 +7889,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C127" s="14">
         <v>45698</v>
@@ -7907,13 +7911,13 @@
         <v>24</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C128" s="27">
         <v>45698</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E128" s="25" t="s">
         <v>9</v>
@@ -7933,7 +7937,7 @@
         <v>5</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C129" s="7">
         <v>45698</v>
@@ -7975,7 +7979,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C131" s="30">
         <v>45699</v>
@@ -8001,7 +8005,7 @@
         <v>12</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C132" s="14">
         <v>45700</v>
@@ -8023,7 +8027,7 @@
         <v>12</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C133" s="7">
         <v>45700</v>
@@ -8045,7 +8049,7 @@
         <v>12</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C134" s="7">
         <v>45700</v>
@@ -8063,52 +8067,108 @@
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="40"/>
-      <c r="F135" s="40"/>
+      <c r="A135" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" s="9"/>
+      <c r="C135" s="7">
+        <v>45705</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G135" s="38"/>
-      <c r="H135" s="41"/>
+      <c r="H135" s="39"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="40"/>
-      <c r="F136" s="40"/>
+      <c r="A136" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="7">
+        <v>45705</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G136" s="38"/>
-      <c r="H136" s="41"/>
+      <c r="H136" s="39"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
+      <c r="A137" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" s="7">
+        <v>45706</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
+      <c r="A138" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138" s="7">
+        <v>45706</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
+      <c r="A139" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="7">
+        <v>45708</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52521C41-A118-4ACF-9556-70782CB34F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{52521C41-A118-4ACF-9556-70782CB34F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53DF4B21-B2E4-4346-8590-0A6C0E0F21E7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="171">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -749,9 +749,6 @@
   </si>
   <si>
     <t>Aarekraftwerk Klingnau, direkt vor Rechen</t>
-  </si>
-  <si>
-    <t>Nidau - Büren- Kanal / Hauptstrasse</t>
   </si>
   <si>
     <t>Nidau - Büren- Kanal / Schleusenstrasse</t>
@@ -1149,7 +1146,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1351,12 +1348,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2671,7 +2662,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2760,18 +2751,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="53" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4211,11 +4190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL146"/>
+  <dimension ref="A1:FL145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7557,7 +7536,7 @@
         <v>79</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C112" s="27">
         <v>45681</v>
@@ -7793,64 +7772,60 @@
       <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="34" t="s">
+      <c r="A123" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C123" s="36">
-        <v>45687</v>
-      </c>
-      <c r="D123" s="34" t="s">
+      <c r="C123" s="27">
+        <v>45691</v>
+      </c>
+      <c r="D123" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="34" t="s">
+      <c r="E123" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="34" t="s">
+      <c r="F123" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G123" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="H123" s="34"/>
+      <c r="G123" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H123" s="25" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124" s="27">
-        <v>45691</v>
-      </c>
-      <c r="D124" s="25" t="s">
+      <c r="B124" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" s="7">
+        <v>45694</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E124" s="25" t="s">
+      <c r="E124" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G124" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>130</v>
-      </c>
+      <c r="F124" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>161</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B125" s="12"/>
       <c r="C125" s="7">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>0</v>
@@ -7865,17 +7840,19 @@
       <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="7">
-        <v>45695</v>
-      </c>
-      <c r="D126" s="5" t="s">
+      <c r="A126" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" s="14">
+        <v>45698</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="5" t="s">
@@ -7885,65 +7862,63 @@
       <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C127" s="14">
+      <c r="A127" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C127" s="27">
         <v>45698</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E127" s="11" t="s">
+      <c r="D127" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
+      <c r="F127" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H127" s="25" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C128" s="27">
+      <c r="A128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="7">
         <v>45698</v>
       </c>
-      <c r="D128" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E128" s="25" t="s">
+      <c r="D128" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G128" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H128" s="25" t="s">
-        <v>130</v>
-      </c>
+      <c r="F128" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>164</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B129" s="9"/>
       <c r="C129" s="7">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>9</v>
@@ -7955,79 +7930,81 @@
       <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="7">
+      <c r="A130" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="30">
         <v>45699</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E130" s="5" t="s">
+      <c r="D130" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E130" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C131" s="30">
-        <v>45699</v>
-      </c>
-      <c r="D131" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="25" t="s">
+      <c r="F130" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G131" s="25" t="s">
+      <c r="G130" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H131" s="25" t="s">
+      <c r="H130" s="25" t="s">
         <v>130</v>
       </c>
     </row>
+    <row r="131" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C131" s="14">
+        <v>45700</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+    </row>
     <row r="132" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C132" s="14">
+      <c r="B132" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" s="7">
         <v>45700</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
+      <c r="F132" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C133" s="7">
         <v>45700</v>
@@ -8044,85 +8021,85 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" s="6" t="s">
         <v>166</v>
       </c>
+      <c r="B134" s="9"/>
       <c r="C134" s="7">
-        <v>45700</v>
+        <v>45705</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="35"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="C135" s="7">
         <v>45705</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G135" s="38"/>
-      <c r="H135" s="39"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="35"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C136" s="7">
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G136" s="38"/>
-      <c r="H136" s="39"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C137" s="7">
         <v>45706</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>1</v>
@@ -8132,16 +8109,14 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B138" s="9"/>
       <c r="C138" s="7">
-        <v>45706</v>
+        <v>45708</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>9</v>
@@ -8153,22 +8128,12 @@
       <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="7">
-        <v>45708</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
@@ -8232,18 +8197,8 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:FL134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:FL133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Abteilungen\WG\Kompetenzzentrum_Daten\OGD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{52521C41-A118-4ACF-9556-70782CB34F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53DF4B21-B2E4-4346-8590-0A6C0E0F21E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0109E29-C230-4BFD-9F69-152A4441DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="172">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>Aarekraftwerk Klingnau, direkt vor Rechen</t>
+  </si>
+  <si>
+    <t>Nidau - Büren- Kanal / Hauptstrasse</t>
   </si>
   <si>
     <t>Nidau - Büren- Kanal / Schleusenstrasse</t>
@@ -1146,7 +1149,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,6 +1351,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2662,7 +2671,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2751,6 +2760,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="53" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4190,11 +4211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL145"/>
+  <dimension ref="A1:FL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7536,7 +7557,7 @@
         <v>79</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C112" s="27">
         <v>45681</v>
@@ -7772,60 +7793,64 @@
       <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="28" t="s">
+      <c r="B123" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C123" s="27">
+      <c r="C123" s="36">
+        <v>45687</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G123" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123" s="34"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124" s="27">
         <v>45691</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D124" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="25" t="s">
+      <c r="E124" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="25" t="s">
+      <c r="F124" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G123" s="25" t="s">
+      <c r="G124" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H123" s="25" t="s">
+      <c r="H124" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C124" s="7">
-        <v>45694</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B125" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="C125" s="7">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>0</v>
@@ -7840,19 +7865,17 @@
       <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C126" s="14">
-        <v>45698</v>
-      </c>
-      <c r="D126" s="11" t="s">
+      <c r="A126" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="7">
+        <v>45695</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="5" t="s">
@@ -7862,63 +7885,65 @@
       <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C127" s="14">
+        <v>45698</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B127" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C127" s="27">
+      <c r="B128" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" s="27">
         <v>45698</v>
       </c>
-      <c r="D127" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E127" s="25" t="s">
+      <c r="D128" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E128" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="25" t="s">
+      <c r="F128" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G127" s="25" t="s">
+      <c r="G128" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H127" s="25" t="s">
+      <c r="H128" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C128" s="7">
-        <v>45698</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="C129" s="7">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>9</v>
@@ -7930,81 +7955,79 @@
       <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="29" t="s">
+      <c r="A130" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="7">
+        <v>45699</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C130" s="30">
+      <c r="B131" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="30">
         <v>45699</v>
       </c>
-      <c r="D130" s="29" t="s">
+      <c r="D131" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E130" s="25" t="s">
+      <c r="E131" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="25" t="s">
+      <c r="F131" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G130" s="25" t="s">
+      <c r="G131" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H130" s="25" t="s">
+      <c r="H131" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="11" t="s">
+    <row r="132" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C131" s="14">
+      <c r="B132" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" s="14">
         <v>45700</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D132" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E132" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F131" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-    </row>
-    <row r="132" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C132" s="7">
-        <v>45700</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
+      <c r="F132" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
     </row>
     <row r="133" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C133" s="7">
         <v>45700</v>
@@ -8021,85 +8044,85 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B134" s="9"/>
       <c r="C134" s="7">
-        <v>45705</v>
+        <v>45700</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G134" s="34"/>
-      <c r="H134" s="35"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>168</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B135" s="9"/>
       <c r="C135" s="7">
         <v>45705</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G135" s="34"/>
-      <c r="H135" s="35"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="39"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C136" s="7">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="39"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C137" s="7">
         <v>45706</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>1</v>
@@ -8109,14 +8132,16 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="C138" s="7">
-        <v>45708</v>
+        <v>45706</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>9</v>
@@ -8128,12 +8153,22 @@
       <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
+      <c r="A139" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="7">
+        <v>45708</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
@@ -8197,8 +8232,18 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FL133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:FL134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Abteilungen\WG\Kompetenzzentrum_Daten\OGD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adb.intra.admin.ch\Userhome$\BLV-01\U80812765\config\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0109E29-C230-4BFD-9F69-152A4441DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A84C2-9E49-4422-A859-D8FC27E86DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
@@ -4211,25 +4211,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL146"/>
+  <dimension ref="A1:FL139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="39.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.0703125" customWidth="1"/>
+    <col min="4" max="4" width="19.35546875" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.35546875" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="56.6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -4563,7 +4563,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -4869,7 +4869,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -5043,7 +5043,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -5063,7 +5063,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -5083,7 +5083,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
@@ -5103,7 +5103,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
@@ -5211,7 +5211,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>3</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:168" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:168" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>2</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:168" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:168" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A54" s="11" t="s">
         <v>2</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:168" x14ac:dyDescent="0.45">
       <c r="A55" s="11" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.45">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -5447,7 +5447,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.45">
       <c r="A57" s="11" t="s">
         <v>74</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="AR59"/>
       <c r="AS59"/>
     </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="AR60"/>
       <c r="AS60"/>
     </row>
-    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -5668,7 +5668,7 @@
       <c r="AR61"/>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="31" t="s">
         <v>15</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="FK62" s="23"/>
       <c r="FL62" s="23"/>
     </row>
-    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>4</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="AR63"/>
       <c r="AS63"/>
     </row>
-    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="AR64"/>
       <c r="AS64"/>
     </row>
-    <row r="65" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="AR65"/>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>15</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="AR66"/>
       <c r="AS66"/>
     </row>
-    <row r="67" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>29</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="AR67"/>
       <c r="AS67"/>
     </row>
-    <row r="68" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="AR68"/>
       <c r="AS68"/>
     </row>
-    <row r="69" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="AR69"/>
       <c r="AS69"/>
     </row>
-    <row r="70" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="AR70"/>
       <c r="AS70"/>
     </row>
-    <row r="71" spans="1:45" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:45" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>3</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="AR71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="AR72"/>
       <c r="AS72"/>
     </row>
-    <row r="73" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -6501,7 +6501,7 @@
       <c r="AR73"/>
       <c r="AS73"/>
     </row>
-    <row r="74" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>4</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="AR74"/>
       <c r="AS74"/>
     </row>
-    <row r="75" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>5</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="AR75"/>
       <c r="AS75"/>
     </row>
-    <row r="76" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>3</v>
       </c>
@@ -6678,7 +6678,7 @@
       <c r="AR76"/>
       <c r="AS76"/>
     </row>
-    <row r="77" spans="1:45" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:45" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="AJ77"/>
       <c r="AK77"/>
     </row>
-    <row r="78" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="25" t="s">
         <v>108</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="AG79" s="24"/>
       <c r="AH79" s="24"/>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="AG80" s="24"/>
       <c r="AH80" s="24"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>2</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>3</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>112</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="16"/>
     </row>
-    <row r="84" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>113</v>
       </c>
@@ -6984,7 +6984,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>3</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="25" t="s">
         <v>12</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="16"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>3</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
         <v>5</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
@@ -7164,7 +7164,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>5</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="25" t="s">
         <v>5</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="25" t="s">
         <v>12</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="25" t="s">
         <v>3</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="25" t="s">
         <v>12</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>24</v>
       </c>
@@ -7334,7 +7334,7 @@
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
         <v>24</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
         <v>4</v>
       </c>
@@ -7420,7 +7420,7 @@
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
         <v>5</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
         <v>27</v>
       </c>
@@ -7464,7 +7464,7 @@
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
         <v>24</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
         <v>24</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
         <v>5</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
         <v>112</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="25" t="s">
         <v>79</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
@@ -7644,7 +7644,7 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -7664,7 +7664,7 @@
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
         <v>4</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="5" t="s">
         <v>3</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
         <v>4</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
         <v>5</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
         <v>112</v>
       </c>
@@ -7792,7 +7792,7 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="34" t="s">
         <v>3</v>
       </c>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="H123" s="34"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="25" t="s">
         <v>3</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="5" t="s">
         <v>3</v>
       </c>
@@ -7864,7 +7864,7 @@
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
         <v>29</v>
       </c>
@@ -7884,7 +7884,7 @@
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="11" t="s">
         <v>3</v>
       </c>
@@ -7906,7 +7906,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="25" t="s">
         <v>24</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
         <v>5</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="5" t="s">
         <v>29</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="29" t="s">
         <v>4</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
       <c r="A132" s="11" t="s">
         <v>12</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
       <c r="A133" s="5" t="s">
         <v>12</v>
       </c>
@@ -8044,7 +8044,7 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="5" t="s">
         <v>167</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="G135" s="38"/>
       <c r="H135" s="39"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
         <v>29</v>
       </c>
@@ -8108,7 +8108,7 @@
       <c r="G136" s="38"/>
       <c r="H136" s="39"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
         <v>4</v>
       </c>
@@ -8130,7 +8130,7 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
         <v>168</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>4</v>
       </c>
@@ -8171,76 +8171,6 @@
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:FL134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adb.intra.admin.ch\Userhome$\BLV-01\U80812765\config\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A84C2-9E49-4422-A859-D8FC27E86DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21E4549-8269-40E0-8477-7C0B4A03DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,7 +794,7 @@
     <t>Plage de Vevey, embouchure de la Veveyse, 1600 Vevey</t>
   </si>
   <si>
-    <t>à 20m du Rhône, 1897 Le Bouveret</t>
+    <t>à 20 m du Rhône, 1897 Le Bouveret</t>
   </si>
 </sst>
 </file>
@@ -4214,8 +4214,8 @@
   <dimension ref="A1:FL139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adb.intra.admin.ch\Userhome$\BLV-01\U80812765\config\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21E4549-8269-40E0-8477-7C0B4A03DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907F6AD-6790-478F-B2BD-DBDD56BCE1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="173">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -795,6 +795,9 @@
   </si>
   <si>
     <t>à 20 m du Rhône, 1897 Le Bouveret</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -4215,7 +4218,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
+      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -7862,7 +7865,9 @@
         <v>1</v>
       </c>
       <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
+      <c r="H125" s="11" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adb.intra.admin.ch\Userhome$\BLV-01\U80812765\config\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907F6AD-6790-478F-B2BD-DBDD56BCE1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE0524-87C6-4158-8E85-D1BB14C64E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="172">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -795,9 +795,6 @@
   </si>
   <si>
     <t>à 20 m du Rhône, 1897 Le Bouveret</t>
-  </si>
-  <si>
-    <t>t</t>
   </si>
 </sst>
 </file>
@@ -7865,9 +7862,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="11"/>
-      <c r="H125" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adb.intra.admin.ch\Userhome$\BLV-01\U80812765\config\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Abteilungen\WG\Kompetenzzentrum_Daten\OGD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE0524-87C6-4158-8E85-D1BB14C64E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0109E29-C230-4BFD-9F69-152A4441DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
@@ -794,7 +794,7 @@
     <t>Plage de Vevey, embouchure de la Veveyse, 1600 Vevey</t>
   </si>
   <si>
-    <t>à 20 m du Rhône, 1897 Le Bouveret</t>
+    <t>à 20m du Rhône, 1897 Le Bouveret</t>
   </si>
 </sst>
 </file>
@@ -4211,25 +4211,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL139"/>
+  <dimension ref="A1:FL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.0703125" customWidth="1"/>
-    <col min="4" max="4" width="19.35546875" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.35546875" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="56.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -4563,7 +4563,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -4869,7 +4869,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -5043,7 +5043,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -5063,7 +5063,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -5083,7 +5083,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
@@ -5103,7 +5103,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
@@ -5211,7 +5211,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>3</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:168" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>2</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:168" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>2</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -5447,7 +5447,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>74</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="AR59"/>
       <c r="AS59"/>
     </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="AR60"/>
       <c r="AS60"/>
     </row>
-    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -5668,7 +5668,7 @@
       <c r="AR61"/>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
         <v>15</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="FK62" s="23"/>
       <c r="FL62" s="23"/>
     </row>
-    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>4</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="AR63"/>
       <c r="AS63"/>
     </row>
-    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="AR64"/>
       <c r="AS64"/>
     </row>
-    <row r="65" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="AR65"/>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>15</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="AR66"/>
       <c r="AS66"/>
     </row>
-    <row r="67" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>29</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="AR67"/>
       <c r="AS67"/>
     </row>
-    <row r="68" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="AR68"/>
       <c r="AS68"/>
     </row>
-    <row r="69" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="AR69"/>
       <c r="AS69"/>
     </row>
-    <row r="70" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="AR70"/>
       <c r="AS70"/>
     </row>
-    <row r="71" spans="1:45" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:45" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>3</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="AR71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="AR72"/>
       <c r="AS72"/>
     </row>
-    <row r="73" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -6501,7 +6501,7 @@
       <c r="AR73"/>
       <c r="AS73"/>
     </row>
-    <row r="74" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>4</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="AR74"/>
       <c r="AS74"/>
     </row>
-    <row r="75" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>5</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="AR75"/>
       <c r="AS75"/>
     </row>
-    <row r="76" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>3</v>
       </c>
@@ -6678,7 +6678,7 @@
       <c r="AR76"/>
       <c r="AS76"/>
     </row>
-    <row r="77" spans="1:45" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:45" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="AJ77"/>
       <c r="AK77"/>
     </row>
-    <row r="78" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="25" t="s">
         <v>108</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="AG79" s="24"/>
       <c r="AH79" s="24"/>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="AG80" s="24"/>
       <c r="AH80" s="24"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>2</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>3</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>112</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="16"/>
     </row>
-    <row r="84" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:8" ht="26.15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>113</v>
       </c>
@@ -6984,7 +6984,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>3</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="25" t="s">
         <v>12</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="16"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>3</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>2</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>5</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
@@ -7164,7 +7164,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>5</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="25" t="s">
         <v>5</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>12</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>3</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>12</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>24</v>
       </c>
@@ -7334,7 +7334,7 @@
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>24</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>4</v>
       </c>
@@ -7420,7 +7420,7 @@
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>5</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>27</v>
       </c>
@@ -7464,7 +7464,7 @@
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>24</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>24</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>5</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>112</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="25" t="s">
         <v>79</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
@@ -7644,7 +7644,7 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>3</v>
       </c>
@@ -7664,7 +7664,7 @@
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>4</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>3</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>4</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>5</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>112</v>
       </c>
@@ -7792,7 +7792,7 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="34" t="s">
         <v>3</v>
       </c>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="H123" s="34"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="25" t="s">
         <v>3</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>3</v>
       </c>
@@ -7864,7 +7864,7 @@
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>29</v>
       </c>
@@ -7884,7 +7884,7 @@
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
         <v>3</v>
       </c>
@@ -7906,7 +7906,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="25" t="s">
         <v>24</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>5</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>29</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="29" t="s">
         <v>4</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
         <v>12</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>12</v>
       </c>
@@ -8044,7 +8044,7 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8" ht="38.6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>167</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="G135" s="38"/>
       <c r="H135" s="39"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>29</v>
       </c>
@@ -8108,7 +8108,7 @@
       <c r="G136" s="38"/>
       <c r="H136" s="39"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>4</v>
       </c>
@@ -8130,7 +8130,7 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>168</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>4</v>
       </c>
@@ -8171,6 +8171,76 @@
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:FL134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Abteilungen\WG\Kompetenzzentrum_Daten\OGD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0109E29-C230-4BFD-9F69-152A4441DCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7BC4FFC7-C8A9-4B2A-9500-94CEDF50E9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922A46FA-52BC-4265-95E4-76D6D844B54A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$BV$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="176">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -795,6 +795,18 @@
   </si>
   <si>
     <t>à 20m du Rhône, 1897 Le Bouveret</t>
+  </si>
+  <si>
+    <t>Corseaux, plage de la Crottaz</t>
+  </si>
+  <si>
+    <t>place d’Arme de Bière</t>
+  </si>
+  <si>
+    <t>auf freiem Feld, Lören, 8262 Ramsen</t>
+  </si>
+  <si>
+    <t>11.02.2025</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2683,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2736,7 +2748,6 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="30" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4211,11 +4222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL146"/>
+  <dimension ref="A1:BV147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5277,7 +5288,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
@@ -5297,7 +5308,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:74" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>2</v>
       </c>
@@ -5319,7 +5330,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
@@ -5341,7 +5352,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -5361,7 +5372,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5381,7 +5392,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:74" ht="26" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>2</v>
       </c>
@@ -5403,7 +5414,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5436,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -5447,7 +5458,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>74</v>
       </c>
@@ -5469,7 +5480,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -5491,7 +5502,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:74" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
@@ -5512,45 +5523,8 @@
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59"/>
-      <c r="AD59"/>
-      <c r="AE59"/>
-      <c r="AF59"/>
-      <c r="AG59"/>
-      <c r="AH59"/>
-      <c r="AI59"/>
-      <c r="AJ59"/>
-      <c r="AK59"/>
-      <c r="AL59"/>
-      <c r="AM59"/>
-      <c r="AN59"/>
-      <c r="AO59"/>
-      <c r="AP59"/>
-      <c r="AQ59"/>
-      <c r="AR59"/>
-      <c r="AS59"/>
-    </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:74" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -5571,45 +5545,8 @@
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
-      <c r="AE60"/>
-      <c r="AF60"/>
-      <c r="AG60"/>
-      <c r="AH60"/>
-      <c r="AI60"/>
-      <c r="AJ60"/>
-      <c r="AK60"/>
-      <c r="AL60"/>
-      <c r="AM60"/>
-      <c r="AN60"/>
-      <c r="AO60"/>
-      <c r="AP60"/>
-      <c r="AQ60"/>
-      <c r="AR60"/>
-      <c r="AS60"/>
-    </row>
-    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:74" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -5630,104 +5567,67 @@
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AA61"/>
-      <c r="AB61"/>
-      <c r="AC61"/>
-      <c r="AD61"/>
-      <c r="AE61"/>
-      <c r="AF61"/>
-      <c r="AG61"/>
-      <c r="AH61"/>
-      <c r="AI61"/>
-      <c r="AJ61"/>
-      <c r="AK61"/>
-      <c r="AL61"/>
-      <c r="AM61"/>
-      <c r="AN61"/>
-      <c r="AO61"/>
-      <c r="AP61"/>
-      <c r="AQ61"/>
-      <c r="AR61"/>
-      <c r="AS61"/>
-    </row>
-    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="31" t="s">
+    </row>
+    <row r="62" spans="1:74" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="32">
         <v>45520</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="31" t="s">
+      <c r="G62" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H62" s="31"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
-      <c r="AB62"/>
-      <c r="AC62"/>
-      <c r="AD62"/>
-      <c r="AE62"/>
-      <c r="AF62"/>
-      <c r="AG62"/>
-      <c r="AH62"/>
-      <c r="AI62"/>
-      <c r="AJ62"/>
-      <c r="AK62"/>
-      <c r="AL62"/>
-      <c r="AM62"/>
-      <c r="AN62"/>
-      <c r="AO62"/>
-      <c r="AP62"/>
-      <c r="AQ62"/>
-      <c r="AR62"/>
-      <c r="AS62"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="23"/>
+      <c r="AA62" s="23"/>
+      <c r="AB62" s="23"/>
+      <c r="AC62" s="23"/>
+      <c r="AD62" s="23"/>
+      <c r="AE62" s="23"/>
+      <c r="AF62" s="23"/>
+      <c r="AG62" s="23"/>
+      <c r="AH62" s="23"/>
+      <c r="AI62" s="23"/>
+      <c r="AJ62" s="23"/>
+      <c r="AK62" s="23"/>
+      <c r="AL62" s="23"/>
+      <c r="AM62" s="23"/>
+      <c r="AN62" s="23"/>
+      <c r="AO62" s="23"/>
+      <c r="AP62" s="23"/>
+      <c r="AQ62" s="23"/>
+      <c r="AR62" s="23"/>
+      <c r="AS62" s="23"/>
       <c r="AT62" s="23"/>
       <c r="AU62" s="23"/>
       <c r="AV62" s="23"/>
@@ -5757,102 +5657,8 @@
       <c r="BT62" s="23"/>
       <c r="BU62" s="23"/>
       <c r="BV62" s="23"/>
-      <c r="BW62" s="23"/>
-      <c r="BX62" s="23"/>
-      <c r="BY62" s="23"/>
-      <c r="BZ62" s="23"/>
-      <c r="CA62" s="23"/>
-      <c r="CB62" s="23"/>
-      <c r="CC62" s="23"/>
-      <c r="CD62" s="23"/>
-      <c r="CE62" s="23"/>
-      <c r="CF62" s="23"/>
-      <c r="CG62" s="23"/>
-      <c r="CH62" s="23"/>
-      <c r="CI62" s="23"/>
-      <c r="CJ62" s="23"/>
-      <c r="CK62" s="23"/>
-      <c r="CL62" s="23"/>
-      <c r="CM62" s="23"/>
-      <c r="CN62" s="23"/>
-      <c r="CO62" s="23"/>
-      <c r="CP62" s="23"/>
-      <c r="CQ62" s="23"/>
-      <c r="CR62" s="23"/>
-      <c r="CS62" s="23"/>
-      <c r="CT62" s="23"/>
-      <c r="CU62" s="23"/>
-      <c r="CV62" s="23"/>
-      <c r="CW62" s="23"/>
-      <c r="CX62" s="23"/>
-      <c r="CY62" s="23"/>
-      <c r="CZ62" s="23"/>
-      <c r="DA62" s="23"/>
-      <c r="DB62" s="23"/>
-      <c r="DC62" s="23"/>
-      <c r="DD62" s="23"/>
-      <c r="DE62" s="23"/>
-      <c r="DF62" s="23"/>
-      <c r="DG62" s="23"/>
-      <c r="DH62" s="23"/>
-      <c r="DI62" s="23"/>
-      <c r="DJ62" s="23"/>
-      <c r="DK62" s="23"/>
-      <c r="DL62" s="23"/>
-      <c r="DM62" s="23"/>
-      <c r="DN62" s="23"/>
-      <c r="DO62" s="23"/>
-      <c r="DP62" s="23"/>
-      <c r="DQ62" s="23"/>
-      <c r="DR62" s="23"/>
-      <c r="DS62" s="23"/>
-      <c r="DT62" s="23"/>
-      <c r="DU62" s="23"/>
-      <c r="DV62" s="23"/>
-      <c r="DW62" s="23"/>
-      <c r="DX62" s="23"/>
-      <c r="DY62" s="23"/>
-      <c r="DZ62" s="23"/>
-      <c r="EA62" s="23"/>
-      <c r="EB62" s="23"/>
-      <c r="EC62" s="23"/>
-      <c r="ED62" s="23"/>
-      <c r="EE62" s="23"/>
-      <c r="EF62" s="23"/>
-      <c r="EG62" s="23"/>
-      <c r="EH62" s="23"/>
-      <c r="EI62" s="23"/>
-      <c r="EJ62" s="23"/>
-      <c r="EK62" s="23"/>
-      <c r="EL62" s="23"/>
-      <c r="EM62" s="23"/>
-      <c r="EN62" s="23"/>
-      <c r="EO62" s="23"/>
-      <c r="EP62" s="23"/>
-      <c r="EQ62" s="23"/>
-      <c r="ER62" s="23"/>
-      <c r="ES62" s="23"/>
-      <c r="ET62" s="23"/>
-      <c r="EU62" s="23"/>
-      <c r="EV62" s="23"/>
-      <c r="EW62" s="23"/>
-      <c r="EX62" s="23"/>
-      <c r="EY62" s="23"/>
-      <c r="EZ62" s="23"/>
-      <c r="FA62" s="23"/>
-      <c r="FB62" s="23"/>
-      <c r="FC62" s="23"/>
-      <c r="FD62" s="23"/>
-      <c r="FE62" s="23"/>
-      <c r="FF62" s="23"/>
-      <c r="FG62" s="23"/>
-      <c r="FH62" s="23"/>
-      <c r="FI62" s="23"/>
-      <c r="FJ62" s="23"/>
-      <c r="FK62" s="23"/>
-      <c r="FL62" s="23"/>
-    </row>
-    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:74" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>4</v>
       </c>
@@ -5873,45 +5679,8 @@
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
-      <c r="AK63"/>
-      <c r="AL63"/>
-      <c r="AM63"/>
-      <c r="AN63"/>
-      <c r="AO63"/>
-      <c r="AP63"/>
-      <c r="AQ63"/>
-      <c r="AR63"/>
-      <c r="AS63"/>
-    </row>
-    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:74" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -5932,45 +5701,8 @@
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-      <c r="Y64"/>
-      <c r="Z64"/>
-      <c r="AA64"/>
-      <c r="AB64"/>
-      <c r="AC64"/>
-      <c r="AD64"/>
-      <c r="AE64"/>
-      <c r="AF64"/>
-      <c r="AG64"/>
-      <c r="AH64"/>
-      <c r="AI64"/>
-      <c r="AJ64"/>
-      <c r="AK64"/>
-      <c r="AL64"/>
-      <c r="AM64"/>
-      <c r="AN64"/>
-      <c r="AO64"/>
-      <c r="AP64"/>
-      <c r="AQ64"/>
-      <c r="AR64"/>
-      <c r="AS64"/>
-    </row>
-    <row r="65" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:8" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
@@ -5991,45 +5723,8 @@
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-      <c r="AA65"/>
-      <c r="AB65"/>
-      <c r="AC65"/>
-      <c r="AD65"/>
-      <c r="AE65"/>
-      <c r="AF65"/>
-      <c r="AG65"/>
-      <c r="AH65"/>
-      <c r="AI65"/>
-      <c r="AJ65"/>
-      <c r="AK65"/>
-      <c r="AL65"/>
-      <c r="AM65"/>
-      <c r="AN65"/>
-      <c r="AO65"/>
-      <c r="AP65"/>
-      <c r="AQ65"/>
-      <c r="AR65"/>
-      <c r="AS65"/>
-    </row>
-    <row r="66" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>15</v>
       </c>
@@ -6050,45 +5745,8 @@
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="22"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
-      <c r="AB66"/>
-      <c r="AC66"/>
-      <c r="AD66"/>
-      <c r="AE66"/>
-      <c r="AF66"/>
-      <c r="AG66"/>
-      <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66"/>
-      <c r="AK66"/>
-      <c r="AL66"/>
-      <c r="AM66"/>
-      <c r="AN66"/>
-      <c r="AO66"/>
-      <c r="AP66"/>
-      <c r="AQ66"/>
-      <c r="AR66"/>
-      <c r="AS66"/>
-    </row>
-    <row r="67" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>29</v>
       </c>
@@ -6109,45 +5767,8 @@
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="22"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-      <c r="Z67"/>
-      <c r="AA67"/>
-      <c r="AB67"/>
-      <c r="AC67"/>
-      <c r="AD67"/>
-      <c r="AE67"/>
-      <c r="AF67"/>
-      <c r="AG67"/>
-      <c r="AH67"/>
-      <c r="AI67"/>
-      <c r="AJ67"/>
-      <c r="AK67"/>
-      <c r="AL67"/>
-      <c r="AM67"/>
-      <c r="AN67"/>
-      <c r="AO67"/>
-      <c r="AP67"/>
-      <c r="AQ67"/>
-      <c r="AR67"/>
-      <c r="AS67"/>
-    </row>
-    <row r="68" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -6168,45 +5789,8 @@
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="22"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
-      <c r="AB68"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
-      <c r="AE68"/>
-      <c r="AF68"/>
-      <c r="AG68"/>
-      <c r="AH68"/>
-      <c r="AI68"/>
-      <c r="AJ68"/>
-      <c r="AK68"/>
-      <c r="AL68"/>
-      <c r="AM68"/>
-      <c r="AN68"/>
-      <c r="AO68"/>
-      <c r="AP68"/>
-      <c r="AQ68"/>
-      <c r="AR68"/>
-      <c r="AS68"/>
-    </row>
-    <row r="69" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -6227,45 +5811,8 @@
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="22"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
-      <c r="AB69"/>
-      <c r="AC69"/>
-      <c r="AD69"/>
-      <c r="AE69"/>
-      <c r="AF69"/>
-      <c r="AG69"/>
-      <c r="AH69"/>
-      <c r="AI69"/>
-      <c r="AJ69"/>
-      <c r="AK69"/>
-      <c r="AL69"/>
-      <c r="AM69"/>
-      <c r="AN69"/>
-      <c r="AO69"/>
-      <c r="AP69"/>
-      <c r="AQ69"/>
-      <c r="AR69"/>
-      <c r="AS69"/>
-    </row>
-    <row r="70" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:8" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -6286,45 +5833,8 @@
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="22"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70"/>
-      <c r="AA70"/>
-      <c r="AB70"/>
-      <c r="AC70"/>
-      <c r="AD70"/>
-      <c r="AE70"/>
-      <c r="AF70"/>
-      <c r="AG70"/>
-      <c r="AH70"/>
-      <c r="AI70"/>
-      <c r="AJ70"/>
-      <c r="AK70"/>
-      <c r="AL70"/>
-      <c r="AM70"/>
-      <c r="AN70"/>
-      <c r="AO70"/>
-      <c r="AP70"/>
-      <c r="AQ70"/>
-      <c r="AR70"/>
-      <c r="AS70"/>
-    </row>
-    <row r="71" spans="1:45" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:8" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>3</v>
       </c>
@@ -6345,45 +5855,8 @@
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="22"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-      <c r="Z71"/>
-      <c r="AA71"/>
-      <c r="AB71"/>
-      <c r="AC71"/>
-      <c r="AD71"/>
-      <c r="AE71"/>
-      <c r="AF71"/>
-      <c r="AG71"/>
-      <c r="AH71"/>
-      <c r="AI71"/>
-      <c r="AJ71"/>
-      <c r="AK71"/>
-      <c r="AL71"/>
-      <c r="AM71"/>
-      <c r="AN71"/>
-      <c r="AO71"/>
-      <c r="AP71"/>
-      <c r="AQ71"/>
-      <c r="AR71"/>
-      <c r="AS71"/>
-    </row>
-    <row r="72" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:8" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -6404,45 +5877,8 @@
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="22"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AD72"/>
-      <c r="AE72"/>
-      <c r="AF72"/>
-      <c r="AG72"/>
-      <c r="AH72"/>
-      <c r="AI72"/>
-      <c r="AJ72"/>
-      <c r="AK72"/>
-      <c r="AL72"/>
-      <c r="AM72"/>
-      <c r="AN72"/>
-      <c r="AO72"/>
-      <c r="AP72"/>
-      <c r="AQ72"/>
-      <c r="AR72"/>
-      <c r="AS72"/>
-    </row>
-    <row r="73" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:8" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -6463,45 +5899,8 @@
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="22"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
-      <c r="AD73"/>
-      <c r="AE73"/>
-      <c r="AF73"/>
-      <c r="AG73"/>
-      <c r="AH73"/>
-      <c r="AI73"/>
-      <c r="AJ73"/>
-      <c r="AK73"/>
-      <c r="AL73"/>
-      <c r="AM73"/>
-      <c r="AN73"/>
-      <c r="AO73"/>
-      <c r="AP73"/>
-      <c r="AQ73"/>
-      <c r="AR73"/>
-      <c r="AS73"/>
-    </row>
-    <row r="74" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>4</v>
       </c>
@@ -6522,45 +5921,8 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="22"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74"/>
-      <c r="AD74"/>
-      <c r="AE74"/>
-      <c r="AF74"/>
-      <c r="AG74"/>
-      <c r="AH74"/>
-      <c r="AI74"/>
-      <c r="AJ74"/>
-      <c r="AK74"/>
-      <c r="AL74"/>
-      <c r="AM74"/>
-      <c r="AN74"/>
-      <c r="AO74"/>
-      <c r="AP74"/>
-      <c r="AQ74"/>
-      <c r="AR74"/>
-      <c r="AS74"/>
-    </row>
-    <row r="75" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>5</v>
       </c>
@@ -6581,45 +5943,8 @@
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="22"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-      <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
-      <c r="AC75"/>
-      <c r="AD75"/>
-      <c r="AE75"/>
-      <c r="AF75"/>
-      <c r="AG75"/>
-      <c r="AH75"/>
-      <c r="AI75"/>
-      <c r="AJ75"/>
-      <c r="AK75"/>
-      <c r="AL75"/>
-      <c r="AM75"/>
-      <c r="AN75"/>
-      <c r="AO75"/>
-      <c r="AP75"/>
-      <c r="AQ75"/>
-      <c r="AR75"/>
-      <c r="AS75"/>
-    </row>
-    <row r="76" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>3</v>
       </c>
@@ -6640,45 +5965,8 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="22"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AC76"/>
-      <c r="AD76"/>
-      <c r="AE76"/>
-      <c r="AF76"/>
-      <c r="AG76"/>
-      <c r="AH76"/>
-      <c r="AI76"/>
-      <c r="AJ76"/>
-      <c r="AK76"/>
-      <c r="AL76"/>
-      <c r="AM76"/>
-      <c r="AN76"/>
-      <c r="AO76"/>
-      <c r="AP76"/>
-      <c r="AQ76"/>
-      <c r="AR76"/>
-      <c r="AS76"/>
-    </row>
-    <row r="77" spans="1:45" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:8" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
@@ -6699,37 +5987,8 @@
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-      <c r="AH77"/>
-      <c r="AI77"/>
-      <c r="AJ77"/>
-      <c r="AK77"/>
-    </row>
-    <row r="78" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:8" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
@@ -6750,77 +6009,34 @@
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78" s="24"/>
-      <c r="Y78" s="24"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AC78"/>
-      <c r="AD78"/>
-      <c r="AE78"/>
-      <c r="AF78"/>
-      <c r="AG78"/>
-      <c r="AH78"/>
-      <c r="AI78"/>
-      <c r="AJ78"/>
-      <c r="AK78"/>
-    </row>
-    <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="25" t="s">
+    </row>
+    <row r="79" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="27">
+      <c r="C79" s="26">
         <v>45604</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="25" t="s">
+      <c r="E79" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="F79" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="25" t="s">
+      <c r="G79" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="H79" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="S79" s="24"/>
-      <c r="T79" s="24"/>
-      <c r="X79" s="24"/>
-      <c r="Y79" s="24"/>
-      <c r="AB79" s="24"/>
-      <c r="AC79" s="24"/>
-      <c r="AG79" s="24"/>
-      <c r="AH79" s="24"/>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
@@ -6841,16 +6057,6 @@
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="10"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="24"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
@@ -7029,28 +6235,28 @@
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="27">
+      <c r="C89" s="26">
         <v>45635</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E89" s="25" t="s">
+      <c r="E89" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F89" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="25" t="s">
+      <c r="G89" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="H89" s="24" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7125,38 +6331,38 @@
         <v>5</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="C93" s="7">
-        <v>45645</v>
+        <v>45340</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C94" s="7">
-        <v>45647</v>
+        <v>45645</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>1</v>
@@ -7169,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C95" s="7">
         <v>45647</v>
@@ -7188,19 +6394,19 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="C96" s="7">
-        <v>45653</v>
+        <v>45647</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>1</v>
@@ -7209,141 +6415,143 @@
       <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C97" s="7">
+        <v>45653</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="26">
         <v>45654</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E98" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F98" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G97" s="25" t="s">
+      <c r="G98" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H97" s="25" t="s">
+      <c r="H98" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="25" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B99" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C99" s="26">
         <v>45658</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D99" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E98" s="25" t="s">
+      <c r="E99" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F99" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="25" t="s">
+      <c r="G99" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H98" s="25" t="s">
+      <c r="H99" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="25" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B100" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C100" s="26">
         <v>45662</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D100" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="25" t="s">
+      <c r="E100" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F100" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G99" s="25" t="s">
+      <c r="G100" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H99" s="25" t="s">
+      <c r="H100" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="25" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B101" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C101" s="26">
         <v>45664</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D101" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E100" s="25" t="s">
+      <c r="E101" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F101" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G100" s="25" t="s">
+      <c r="G101" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H100" s="25" t="s">
+      <c r="H101" s="24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C101" s="7">
-        <v>45671</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="C102" s="7">
-        <v>45672</v>
+        <v>45671</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>9</v>
@@ -7356,16 +6564,14 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>139</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B103" s="9"/>
       <c r="C103" s="7">
-        <v>45674</v>
+        <v>45672</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>9</v>
@@ -7378,19 +6584,19 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104" s="7">
         <v>45674</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>1</v>
@@ -7402,14 +6608,14 @@
       <c r="A105" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>148</v>
+      <c r="B105" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="C105" s="7">
-        <v>45675</v>
+        <v>45674</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>19</v>
@@ -7420,21 +6626,21 @@
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C106" s="7">
-        <v>45678</v>
+        <v>45675</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>1</v>
@@ -7442,18 +6648,18 @@
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C107" s="7">
         <v>45678</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>9</v>
@@ -7466,13 +6672,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>149</v>
+        <v>27</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="C108" s="7">
-        <v>45679</v>
+        <v>45678</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>11</v>
@@ -7490,14 +6696,14 @@
       <c r="A109" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>142</v>
+      <c r="B109" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="C109" s="7">
-        <v>45680</v>
+        <v>45679</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>9</v>
@@ -7510,16 +6716,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>150</v>
+        <v>24</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="C110" s="7">
         <v>45680</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>9</v>
@@ -7532,16 +6738,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>143</v>
+        <v>5</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C111" s="7">
-        <v>45681</v>
+        <v>45680</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>9</v>
@@ -7553,68 +6759,68 @@
       <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" s="7">
+        <v>45681</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="B113" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C112" s="27">
+      <c r="C113" s="26">
         <v>45681</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D113" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E112" s="25" t="s">
+      <c r="E113" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="25" t="s">
+      <c r="F113" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G112" s="25" t="s">
+      <c r="G113" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H112" s="25" t="s">
+      <c r="H113" s="24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" s="7">
-        <v>45683</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>156</v>
+      <c r="B114" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="C114" s="7">
         <v>45683</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>1</v>
@@ -7627,7 +6833,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C115" s="7">
         <v>45683</v>
@@ -7636,7 +6842,7 @@
         <v>11</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>1</v>
@@ -7646,14 +6852,16 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="C116" s="7">
-        <v>45684</v>
+        <v>45683</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>9</v>
@@ -7666,11 +6874,9 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>145</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B117" s="9"/>
       <c r="C117" s="7">
         <v>45684</v>
       </c>
@@ -7688,11 +6894,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="C118" s="7">
-        <v>45685</v>
+        <v>45684</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>0</v>
@@ -7728,16 +6936,14 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B120" s="9"/>
       <c r="C120" s="7">
         <v>45685</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>9</v>
@@ -7750,16 +6956,16 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>146</v>
+        <v>4</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C121" s="7">
-        <v>45686</v>
+        <v>45685</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>9</v>
@@ -7772,16 +6978,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C122" s="7">
-        <v>45687</v>
+        <v>45686</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>9</v>
@@ -7793,84 +6999,86 @@
       <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="34" t="s">
+      <c r="A123" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="7">
+        <v>45687</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B124" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C123" s="36">
+      <c r="C124" s="35">
         <v>45687</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D124" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="34" t="s">
+      <c r="E124" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="34" t="s">
+      <c r="F124" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G123" s="37" t="s">
+      <c r="G124" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="H123" s="34"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="25" t="s">
+      <c r="H124" s="33"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="28" t="s">
+      <c r="B125" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C124" s="27">
+      <c r="C125" s="26">
         <v>45691</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D125" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E124" s="25" t="s">
+      <c r="E125" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="25" t="s">
+      <c r="F125" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G124" s="25" t="s">
+      <c r="G125" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H124" s="25" t="s">
+      <c r="H125" s="24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C125" s="7">
-        <v>45694</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B126" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="C126" s="7">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>0</v>
@@ -7885,19 +7093,17 @@
       <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C127" s="14">
-        <v>45698</v>
-      </c>
-      <c r="D127" s="11" t="s">
+      <c r="A127" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="7">
+        <v>45695</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="5" t="s">
@@ -7907,63 +7113,65 @@
       <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C128" s="14">
+        <v>45698</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B128" s="28" t="s">
+      <c r="B129" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C128" s="27">
+      <c r="C129" s="26">
         <v>45698</v>
       </c>
-      <c r="D128" s="25" t="s">
+      <c r="D129" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E128" s="25" t="s">
+      <c r="E129" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="25" t="s">
+      <c r="F129" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G128" s="25" t="s">
+      <c r="G129" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H128" s="25" t="s">
+      <c r="H129" s="24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C129" s="7">
-        <v>45698</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B130" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="C130" s="7">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>9</v>
@@ -7975,74 +7183,72 @@
       <c r="H130" s="11"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B131" s="9"/>
+      <c r="C131" s="7">
+        <v>45699</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B132" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C131" s="30">
-        <v>45699</v>
-      </c>
-      <c r="D131" s="29" t="s">
+      <c r="C132" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D132" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E131" s="25" t="s">
+      <c r="E132" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="25" t="s">
+      <c r="F132" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G131" s="25" t="s">
+      <c r="G132" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H131" s="25" t="s">
+      <c r="H132" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="11" t="s">
+    <row r="133" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B133" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C132" s="14">
+      <c r="C133" s="14">
         <v>45700</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D133" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E133" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-    </row>
-    <row r="133" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C133" s="7">
-        <v>45700</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
+      <c r="F133" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
     </row>
     <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
@@ -8066,85 +7272,85 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="C135" s="7">
-        <v>45705</v>
+        <v>45700</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G135" s="38"/>
-      <c r="H135" s="39"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>169</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B136" s="9"/>
       <c r="C136" s="7">
         <v>45705</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G136" s="38"/>
-      <c r="H136" s="39"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="38"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C137" s="7">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="38"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>171</v>
+        <v>4</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C138" s="7">
         <v>45706</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>1</v>
@@ -8154,14 +7360,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="C139" s="7">
-        <v>45708</v>
+        <v>45706</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>9</v>
@@ -8173,32 +7381,66 @@
       <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
+      <c r="A140" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C140" s="7">
+        <v>45708</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
+      <c r="A141" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="7">
+        <v>45708</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
+      <c r="A142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C142" s="7">
+        <v>45708</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
@@ -8242,8 +7484,17 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FL134" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{7BC4FFC7-C8A9-4B2A-9500-94CEDF50E9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922A46FA-52BC-4265-95E4-76D6D844B54A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02CDD66-A41B-4A25-83FE-43A57D89DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$BV$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="182">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -804,6 +804,24 @@
   </si>
   <si>
     <t>auf freiem Feld, Lören, 8262 Ramsen</t>
+  </si>
+  <si>
+    <t>Chemin des Esserts 9, 1031 Mex</t>
+  </si>
+  <si>
+    <t>dans le canal Occidental, Marais de Valegres, 1442 Mongagny-près-Yverdon</t>
+  </si>
+  <si>
+    <t>bei Jägerstand im Eschner Riet, 9492 Eschen</t>
+  </si>
+  <si>
+    <t>intern. Wasser- und Zugvogelreserva t(50m unterhalb Badi) , 8261 Hemishofen</t>
+  </si>
+  <si>
+    <t>Meise</t>
+  </si>
+  <si>
+    <t>Storch</t>
   </si>
   <si>
     <t>11.02.2025</t>
@@ -1372,7 +1390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1524,6 +1542,30 @@
       </right>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2683,7 +2725,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2748,6 +2790,7 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="30" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2789,6 +2832,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="51" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4222,11 +4272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV147"/>
+  <dimension ref="A1:FL148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5288,7 +5338,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
@@ -5308,7 +5358,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:74" ht="26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>2</v>
       </c>
@@ -5330,7 +5380,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
@@ -5352,7 +5402,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
@@ -5372,7 +5422,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5392,7 +5442,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:74" ht="26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>2</v>
       </c>
@@ -5414,7 +5464,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>4</v>
       </c>
@@ -5436,7 +5486,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -5458,7 +5508,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>74</v>
       </c>
@@ -5480,7 +5530,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:74" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -5502,7 +5552,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:74" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
@@ -5523,8 +5573,45 @@
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:74" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+      <c r="AS59"/>
+    </row>
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -5545,8 +5632,45 @@
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:74" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+      <c r="AQ60"/>
+      <c r="AR60"/>
+      <c r="AS60"/>
+    </row>
+    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -5567,67 +5691,104 @@
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:74" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
+      <c r="AQ61"/>
+      <c r="AR61"/>
+      <c r="AS61"/>
+    </row>
+    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="33">
         <v>45520</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="G62" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="23"/>
-      <c r="Z62" s="23"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="23"/>
-      <c r="AC62" s="23"/>
-      <c r="AD62" s="23"/>
-      <c r="AE62" s="23"/>
-      <c r="AF62" s="23"/>
-      <c r="AG62" s="23"/>
-      <c r="AH62" s="23"/>
-      <c r="AI62" s="23"/>
-      <c r="AJ62" s="23"/>
-      <c r="AK62" s="23"/>
-      <c r="AL62" s="23"/>
-      <c r="AM62" s="23"/>
-      <c r="AN62" s="23"/>
-      <c r="AO62" s="23"/>
-      <c r="AP62" s="23"/>
-      <c r="AQ62" s="23"/>
-      <c r="AR62" s="23"/>
-      <c r="AS62" s="23"/>
+      <c r="H62" s="31"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+      <c r="AS62"/>
       <c r="AT62" s="23"/>
       <c r="AU62" s="23"/>
       <c r="AV62" s="23"/>
@@ -5657,8 +5818,102 @@
       <c r="BT62" s="23"/>
       <c r="BU62" s="23"/>
       <c r="BV62" s="23"/>
-    </row>
-    <row r="63" spans="1:74" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BW62" s="23"/>
+      <c r="BX62" s="23"/>
+      <c r="BY62" s="23"/>
+      <c r="BZ62" s="23"/>
+      <c r="CA62" s="23"/>
+      <c r="CB62" s="23"/>
+      <c r="CC62" s="23"/>
+      <c r="CD62" s="23"/>
+      <c r="CE62" s="23"/>
+      <c r="CF62" s="23"/>
+      <c r="CG62" s="23"/>
+      <c r="CH62" s="23"/>
+      <c r="CI62" s="23"/>
+      <c r="CJ62" s="23"/>
+      <c r="CK62" s="23"/>
+      <c r="CL62" s="23"/>
+      <c r="CM62" s="23"/>
+      <c r="CN62" s="23"/>
+      <c r="CO62" s="23"/>
+      <c r="CP62" s="23"/>
+      <c r="CQ62" s="23"/>
+      <c r="CR62" s="23"/>
+      <c r="CS62" s="23"/>
+      <c r="CT62" s="23"/>
+      <c r="CU62" s="23"/>
+      <c r="CV62" s="23"/>
+      <c r="CW62" s="23"/>
+      <c r="CX62" s="23"/>
+      <c r="CY62" s="23"/>
+      <c r="CZ62" s="23"/>
+      <c r="DA62" s="23"/>
+      <c r="DB62" s="23"/>
+      <c r="DC62" s="23"/>
+      <c r="DD62" s="23"/>
+      <c r="DE62" s="23"/>
+      <c r="DF62" s="23"/>
+      <c r="DG62" s="23"/>
+      <c r="DH62" s="23"/>
+      <c r="DI62" s="23"/>
+      <c r="DJ62" s="23"/>
+      <c r="DK62" s="23"/>
+      <c r="DL62" s="23"/>
+      <c r="DM62" s="23"/>
+      <c r="DN62" s="23"/>
+      <c r="DO62" s="23"/>
+      <c r="DP62" s="23"/>
+      <c r="DQ62" s="23"/>
+      <c r="DR62" s="23"/>
+      <c r="DS62" s="23"/>
+      <c r="DT62" s="23"/>
+      <c r="DU62" s="23"/>
+      <c r="DV62" s="23"/>
+      <c r="DW62" s="23"/>
+      <c r="DX62" s="23"/>
+      <c r="DY62" s="23"/>
+      <c r="DZ62" s="23"/>
+      <c r="EA62" s="23"/>
+      <c r="EB62" s="23"/>
+      <c r="EC62" s="23"/>
+      <c r="ED62" s="23"/>
+      <c r="EE62" s="23"/>
+      <c r="EF62" s="23"/>
+      <c r="EG62" s="23"/>
+      <c r="EH62" s="23"/>
+      <c r="EI62" s="23"/>
+      <c r="EJ62" s="23"/>
+      <c r="EK62" s="23"/>
+      <c r="EL62" s="23"/>
+      <c r="EM62" s="23"/>
+      <c r="EN62" s="23"/>
+      <c r="EO62" s="23"/>
+      <c r="EP62" s="23"/>
+      <c r="EQ62" s="23"/>
+      <c r="ER62" s="23"/>
+      <c r="ES62" s="23"/>
+      <c r="ET62" s="23"/>
+      <c r="EU62" s="23"/>
+      <c r="EV62" s="23"/>
+      <c r="EW62" s="23"/>
+      <c r="EX62" s="23"/>
+      <c r="EY62" s="23"/>
+      <c r="EZ62" s="23"/>
+      <c r="FA62" s="23"/>
+      <c r="FB62" s="23"/>
+      <c r="FC62" s="23"/>
+      <c r="FD62" s="23"/>
+      <c r="FE62" s="23"/>
+      <c r="FF62" s="23"/>
+      <c r="FG62" s="23"/>
+      <c r="FH62" s="23"/>
+      <c r="FI62" s="23"/>
+      <c r="FJ62" s="23"/>
+      <c r="FK62" s="23"/>
+      <c r="FL62" s="23"/>
+    </row>
+    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>4</v>
       </c>
@@ -5679,8 +5934,45 @@
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="1:74" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+    </row>
+    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -5701,8 +5993,45 @@
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+      <c r="AS64"/>
+    </row>
+    <row r="65" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
@@ -5723,8 +6052,45 @@
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
-    </row>
-    <row r="66" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65"/>
+      <c r="AN65"/>
+      <c r="AO65"/>
+      <c r="AP65"/>
+      <c r="AQ65"/>
+      <c r="AR65"/>
+      <c r="AS65"/>
+    </row>
+    <row r="66" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>15</v>
       </c>
@@ -5745,8 +6111,45 @@
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="22"/>
-    </row>
-    <row r="67" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66"/>
+      <c r="AQ66"/>
+      <c r="AR66"/>
+      <c r="AS66"/>
+    </row>
+    <row r="67" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>29</v>
       </c>
@@ -5767,8 +6170,45 @@
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="22"/>
-    </row>
-    <row r="68" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
+      <c r="AL67"/>
+      <c r="AM67"/>
+      <c r="AN67"/>
+      <c r="AO67"/>
+      <c r="AP67"/>
+      <c r="AQ67"/>
+      <c r="AR67"/>
+      <c r="AS67"/>
+    </row>
+    <row r="68" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -5789,8 +6229,45 @@
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="22"/>
-    </row>
-    <row r="69" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+      <c r="AL68"/>
+      <c r="AM68"/>
+      <c r="AN68"/>
+      <c r="AO68"/>
+      <c r="AP68"/>
+      <c r="AQ68"/>
+      <c r="AR68"/>
+      <c r="AS68"/>
+    </row>
+    <row r="69" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -5811,8 +6288,45 @@
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="22"/>
-    </row>
-    <row r="70" spans="1:8" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
+      <c r="AL69"/>
+      <c r="AM69"/>
+      <c r="AN69"/>
+      <c r="AO69"/>
+      <c r="AP69"/>
+      <c r="AQ69"/>
+      <c r="AR69"/>
+      <c r="AS69"/>
+    </row>
+    <row r="70" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -5833,8 +6347,45 @@
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="22"/>
-    </row>
-    <row r="71" spans="1:8" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70"/>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
+      <c r="AL70"/>
+      <c r="AM70"/>
+      <c r="AN70"/>
+      <c r="AO70"/>
+      <c r="AP70"/>
+      <c r="AQ70"/>
+      <c r="AR70"/>
+      <c r="AS70"/>
+    </row>
+    <row r="71" spans="1:45" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>3</v>
       </c>
@@ -5855,8 +6406,45 @@
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="22"/>
-    </row>
-    <row r="72" spans="1:8" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71"/>
+      <c r="AO71"/>
+      <c r="AP71"/>
+      <c r="AQ71"/>
+      <c r="AR71"/>
+      <c r="AS71"/>
+    </row>
+    <row r="72" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -5877,8 +6465,45 @@
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="22"/>
-    </row>
-    <row r="73" spans="1:8" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+      <c r="AL72"/>
+      <c r="AM72"/>
+      <c r="AN72"/>
+      <c r="AO72"/>
+      <c r="AP72"/>
+      <c r="AQ72"/>
+      <c r="AR72"/>
+      <c r="AS72"/>
+    </row>
+    <row r="73" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -5899,8 +6524,45 @@
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="22"/>
-    </row>
-    <row r="74" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
+      <c r="AL73"/>
+      <c r="AM73"/>
+      <c r="AN73"/>
+      <c r="AO73"/>
+      <c r="AP73"/>
+      <c r="AQ73"/>
+      <c r="AR73"/>
+      <c r="AS73"/>
+    </row>
+    <row r="74" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>4</v>
       </c>
@@ -5921,8 +6583,45 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="22"/>
-    </row>
-    <row r="75" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+      <c r="AM74"/>
+      <c r="AN74"/>
+      <c r="AO74"/>
+      <c r="AP74"/>
+      <c r="AQ74"/>
+      <c r="AR74"/>
+      <c r="AS74"/>
+    </row>
+    <row r="75" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>5</v>
       </c>
@@ -5943,8 +6642,45 @@
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="22"/>
-    </row>
-    <row r="76" spans="1:8" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
+      <c r="AL75"/>
+      <c r="AM75"/>
+      <c r="AN75"/>
+      <c r="AO75"/>
+      <c r="AP75"/>
+      <c r="AQ75"/>
+      <c r="AR75"/>
+      <c r="AS75"/>
+    </row>
+    <row r="76" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>3</v>
       </c>
@@ -5965,8 +6701,45 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="22"/>
-    </row>
-    <row r="77" spans="1:8" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+      <c r="AK76"/>
+      <c r="AL76"/>
+      <c r="AM76"/>
+      <c r="AN76"/>
+      <c r="AO76"/>
+      <c r="AP76"/>
+      <c r="AQ76"/>
+      <c r="AR76"/>
+      <c r="AS76"/>
+    </row>
+    <row r="77" spans="1:45" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
@@ -5987,8 +6760,37 @@
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
+    </row>
+    <row r="78" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
@@ -6009,34 +6811,77 @@
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="24" t="s">
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
+    </row>
+    <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="27">
         <v>45604</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E79" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="24" t="s">
+      <c r="G79" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H79" s="24" t="s">
+      <c r="H79" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="24"/>
+      <c r="X79" s="24"/>
+      <c r="Y79" s="24"/>
+      <c r="AB79" s="24"/>
+      <c r="AC79" s="24"/>
+      <c r="AG79" s="24"/>
+      <c r="AH79" s="24"/>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
@@ -6057,6 +6902,16 @@
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="10"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="AB80" s="24"/>
+      <c r="AC80" s="24"/>
+      <c r="AG80" s="24"/>
+      <c r="AH80" s="24"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
@@ -6235,28 +7090,28 @@
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="26">
+      <c r="C89" s="27">
         <v>45635</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E89" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="24" t="s">
+      <c r="F89" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="24" t="s">
+      <c r="G89" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H89" s="24" t="s">
+      <c r="H89" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6437,106 +7292,106 @@
       <c r="H97" s="10"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="27">
         <v>45654</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="24" t="s">
+      <c r="F98" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="24" t="s">
+      <c r="G98" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H98" s="24" t="s">
+      <c r="H98" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C99" s="26">
+      <c r="C99" s="27">
         <v>45658</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="24" t="s">
+      <c r="F99" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="G99" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H99" s="24" t="s">
+      <c r="H99" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C100" s="26">
+      <c r="C100" s="27">
         <v>45662</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="24" t="s">
+      <c r="E100" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="24" t="s">
+      <c r="F100" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H100" s="24" t="s">
+      <c r="H100" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C101" s="26">
+      <c r="C101" s="27">
         <v>45664</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E101" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="24" t="s">
+      <c r="F101" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="H101" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6781,28 +7636,28 @@
       <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="26">
+      <c r="C113" s="27">
         <v>45681</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E113" s="24" t="s">
+      <c r="E113" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="24" t="s">
+      <c r="F113" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G113" s="24" t="s">
+      <c r="G113" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H113" s="24" t="s">
+      <c r="H113" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7021,52 +7876,52 @@
       <c r="H123" s="16"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="33" t="s">
+      <c r="A124" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="35">
+      <c r="C124" s="36">
         <v>45687</v>
       </c>
-      <c r="D124" s="33" t="s">
+      <c r="D124" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E124" s="33" t="s">
+      <c r="E124" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="33" t="s">
+      <c r="F124" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G124" s="36" t="s">
+      <c r="G124" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="H124" s="33"/>
+      <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="24" t="s">
+      <c r="A125" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C125" s="26">
+      <c r="C125" s="27">
         <v>45691</v>
       </c>
-      <c r="D125" s="24" t="s">
+      <c r="D125" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="24" t="s">
+      <c r="E125" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="24" t="s">
+      <c r="F125" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G125" s="24" t="s">
+      <c r="G125" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H125" s="24" t="s">
+      <c r="H125" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7135,28 +7990,28 @@
       <c r="H128" s="11"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="24" t="s">
+      <c r="A129" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C129" s="26">
+      <c r="C129" s="27">
         <v>45698</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E129" s="24" t="s">
+      <c r="E129" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="F129" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G129" s="24" t="s">
+      <c r="G129" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H129" s="24" t="s">
+      <c r="H129" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7203,28 +8058,28 @@
       <c r="H131" s="11"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="28" t="s">
+      <c r="A132" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="28" t="s">
+      <c r="B132" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C132" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D132" s="28" t="s">
+      <c r="C132" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E132" s="24" t="s">
+      <c r="E132" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="24" t="s">
+      <c r="F132" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G132" s="24" t="s">
+      <c r="G132" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H132" s="24" t="s">
+      <c r="H132" s="25" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7311,8 +8166,8 @@
       <c r="F136" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G136" s="37"/>
-      <c r="H136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="39"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
@@ -7333,8 +8188,8 @@
       <c r="F137" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G137" s="37"/>
-      <c r="H137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="39"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
@@ -7432,7 +8287,7 @@
       <c r="C142" s="7">
         <v>45708</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E142" s="5" t="s">
@@ -7445,58 +8300,142 @@
       <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
+      <c r="A143" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="7">
+        <v>45713</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
+      <c r="A144" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="7">
+        <v>45713</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
+      <c r="A145" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C145" s="7">
+        <v>45719</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145" s="40"/>
+      <c r="H145" s="40"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
+      <c r="A146" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B146" s="9"/>
+      <c r="C146" s="7">
+        <v>45721</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
+    <row r="147" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" s="7">
+        <v>45721</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
     </row>
+    <row r="148" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" s="7">
+        <v>45721</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:FL142" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02CDD66-A41B-4A25-83FE-43A57D89DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2008301-CA20-4FAA-84E2-D63D6590FBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="185">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -825,6 +825,15 @@
   </si>
   <si>
     <t>11.02.2025</t>
+  </si>
+  <si>
+    <t>Sugrez</t>
+  </si>
+  <si>
+    <t>port de Tanay, Cheimi de l’Epine, 1295 Tanay</t>
+  </si>
+  <si>
+    <t>Chemin de Praljoux 1, 1262 Eysins</t>
   </si>
 </sst>
 </file>
@@ -4272,11 +4281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL148"/>
+  <dimension ref="A1:FL153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4800,34 +4809,34 @@
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="C24" s="7">
-        <v>45345</v>
+        <v>45340</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7">
         <v>45345</v>
@@ -4844,19 +4853,21 @@
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C26" s="7">
         <v>45345</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>1</v>
@@ -4866,19 +4877,17 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="7">
-        <v>45354</v>
+        <v>45345</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>1</v>
@@ -4886,21 +4895,21 @@
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C28" s="7">
-        <v>45356</v>
+        <v>45354</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>1</v>
@@ -4908,21 +4917,21 @@
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C29" s="7">
-        <v>45357</v>
+        <v>45356</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>1</v>
@@ -4932,19 +4941,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7">
-        <v>45359</v>
+        <v>45357</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>1</v>
@@ -4954,10 +4963,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7">
         <v>45359</v>
@@ -4976,16 +4985,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
-        <v>45361</v>
+        <v>45359</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>9</v>
@@ -4998,14 +5007,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="C33" s="7">
-        <v>45364</v>
+        <v>45361</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>9</v>
@@ -5018,13 +5029,11 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>60</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="7">
-        <v>45375</v>
+        <v>45364</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>0</v>
@@ -5043,7 +5052,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="7">
         <v>45375</v>
@@ -5052,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>1</v>
@@ -5084,19 +5093,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7">
-        <v>45392</v>
+        <v>45375</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>1</v>
@@ -5106,23 +5115,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="C38" s="7">
-        <v>45396</v>
+        <v>45392</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
@@ -5130,7 +5141,7 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="7">
-        <v>45397</v>
+        <v>45396</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>0</v>
@@ -5150,7 +5161,7 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="7">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>0</v>
@@ -5168,9 +5179,9 @@
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="7">
-        <v>45402</v>
+        <v>45398</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>0</v>
@@ -5182,23 +5193,21 @@
         <v>1</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B42" s="9"/>
       <c r="C42" s="7">
-        <v>45418</v>
+        <v>45402</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>1</v>
@@ -5248,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
@@ -5274,16 +5283,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7">
-        <v>45422</v>
+        <v>45418</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>10</v>
@@ -5296,19 +5305,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C47" s="7">
-        <v>45434</v>
+        <v>45422</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>1</v>
@@ -5318,39 +5327,41 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C48" s="7">
-        <v>45446</v>
+        <v>45434</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C49" s="7">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>1</v>
@@ -5358,21 +5369,19 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="7">
         <v>45447</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>1</v>
@@ -5380,21 +5389,21 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>71</v>
+        <v>2</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C51" s="7">
-        <v>45450</v>
+        <v>45447</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>1</v>
@@ -5404,17 +5413,19 @@
     </row>
     <row r="52" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="C52" s="7">
-        <v>45468</v>
+        <v>45450</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>1</v>
@@ -5442,43 +5453,41 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:168" ht="26" x14ac:dyDescent="0.35">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:168" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="7">
+        <v>45468</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C55" s="14">
         <v>45476</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E55" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="14">
-        <v>45495</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>1</v>
@@ -5491,13 +5500,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="14">
         <v>45495</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>10</v>
@@ -5510,13 +5519,13 @@
     </row>
     <row r="57" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="14">
-        <v>45496</v>
+        <v>45495</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>0</v>
@@ -5535,7 +5544,7 @@
         <v>74</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="14">
         <v>45496</v>
@@ -5553,26 +5562,26 @@
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="7">
-        <v>45511</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="A59" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="14">
+        <v>45496</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="E59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="16"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -5610,19 +5619,142 @@
       <c r="AQ59"/>
       <c r="AR59"/>
       <c r="AS59"/>
+      <c r="AT59"/>
+      <c r="AU59"/>
+      <c r="AV59"/>
+      <c r="AW59"/>
+      <c r="AX59"/>
+      <c r="AY59"/>
+      <c r="AZ59"/>
+      <c r="BA59"/>
+      <c r="BB59"/>
+      <c r="BC59"/>
+      <c r="BD59"/>
+      <c r="BE59"/>
+      <c r="BF59"/>
+      <c r="BG59"/>
+      <c r="BH59"/>
+      <c r="BI59"/>
+      <c r="BJ59"/>
+      <c r="BK59"/>
+      <c r="BL59"/>
+      <c r="BM59"/>
+      <c r="BN59"/>
+      <c r="BO59"/>
+      <c r="BP59"/>
+      <c r="BQ59"/>
+      <c r="BR59"/>
+      <c r="BS59"/>
+      <c r="BT59"/>
+      <c r="BU59"/>
+      <c r="BV59"/>
+      <c r="BW59"/>
+      <c r="BX59"/>
+      <c r="BY59"/>
+      <c r="BZ59"/>
+      <c r="CA59"/>
+      <c r="CB59"/>
+      <c r="CC59"/>
+      <c r="CD59"/>
+      <c r="CE59"/>
+      <c r="CF59"/>
+      <c r="CG59"/>
+      <c r="CH59"/>
+      <c r="CI59"/>
+      <c r="CJ59"/>
+      <c r="CK59"/>
+      <c r="CL59"/>
+      <c r="CM59"/>
+      <c r="CN59"/>
+      <c r="CO59"/>
+      <c r="CP59"/>
+      <c r="CQ59"/>
+      <c r="CR59"/>
+      <c r="CS59"/>
+      <c r="CT59"/>
+      <c r="CU59"/>
+      <c r="CV59"/>
+      <c r="CW59"/>
+      <c r="CX59"/>
+      <c r="CY59"/>
+      <c r="CZ59"/>
+      <c r="DA59"/>
+      <c r="DB59"/>
+      <c r="DC59"/>
+      <c r="DD59"/>
+      <c r="DE59"/>
+      <c r="DF59"/>
+      <c r="DG59"/>
+      <c r="DH59"/>
+      <c r="DI59"/>
+      <c r="DJ59"/>
+      <c r="DK59"/>
+      <c r="DL59"/>
+      <c r="DM59"/>
+      <c r="DN59"/>
+      <c r="DO59"/>
+      <c r="DP59"/>
+      <c r="DQ59"/>
+      <c r="DR59"/>
+      <c r="DS59"/>
+      <c r="DT59"/>
+      <c r="DU59"/>
+      <c r="DV59"/>
+      <c r="DW59"/>
+      <c r="DX59"/>
+      <c r="DY59"/>
+      <c r="DZ59"/>
+      <c r="EA59"/>
+      <c r="EB59"/>
+      <c r="EC59"/>
+      <c r="ED59"/>
+      <c r="EE59"/>
+      <c r="EF59"/>
+      <c r="EG59"/>
+      <c r="EH59"/>
+      <c r="EI59"/>
+      <c r="EJ59"/>
+      <c r="EK59"/>
+      <c r="EL59"/>
+      <c r="EM59"/>
+      <c r="EN59"/>
+      <c r="EO59"/>
+      <c r="EP59"/>
+      <c r="EQ59"/>
+      <c r="ER59"/>
+      <c r="ES59"/>
+      <c r="ET59"/>
+      <c r="EU59"/>
+      <c r="EV59"/>
+      <c r="EW59"/>
+      <c r="EX59"/>
+      <c r="EY59"/>
+      <c r="EZ59"/>
+      <c r="FA59"/>
+      <c r="FB59"/>
+      <c r="FC59"/>
+      <c r="FD59"/>
+      <c r="FE59"/>
+      <c r="FF59"/>
+      <c r="FG59"/>
+      <c r="FH59"/>
+      <c r="FI59"/>
+      <c r="FJ59"/>
+      <c r="FK59"/>
+      <c r="FL59"/>
     </row>
     <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C60" s="7">
         <v>45511</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>9</v>
@@ -5675,7 +5807,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7">
         <v>45511</v>
@@ -5730,28 +5862,26 @@
       <c r="AS61"/>
     </row>
     <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="33">
-        <v>45520</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="31" t="s">
+      <c r="A62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="7">
+        <v>45511</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H62" s="31"/>
+      <c r="F62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
@@ -5789,151 +5919,153 @@
       <c r="AQ62"/>
       <c r="AR62"/>
       <c r="AS62"/>
-      <c r="AT62" s="23"/>
-      <c r="AU62" s="23"/>
-      <c r="AV62" s="23"/>
-      <c r="AW62" s="23"/>
-      <c r="AX62" s="23"/>
-      <c r="AY62" s="23"/>
-      <c r="AZ62" s="23"/>
-      <c r="BA62" s="23"/>
-      <c r="BB62" s="23"/>
-      <c r="BC62" s="23"/>
-      <c r="BD62" s="23"/>
-      <c r="BE62" s="23"/>
-      <c r="BF62" s="23"/>
-      <c r="BG62" s="23"/>
-      <c r="BH62" s="23"/>
-      <c r="BI62" s="23"/>
-      <c r="BJ62" s="23"/>
-      <c r="BK62" s="23"/>
-      <c r="BL62" s="23"/>
-      <c r="BM62" s="23"/>
-      <c r="BN62" s="23"/>
-      <c r="BO62" s="23"/>
-      <c r="BP62" s="23"/>
-      <c r="BQ62" s="23"/>
-      <c r="BR62" s="23"/>
-      <c r="BS62" s="23"/>
-      <c r="BT62" s="23"/>
-      <c r="BU62" s="23"/>
-      <c r="BV62" s="23"/>
-      <c r="BW62" s="23"/>
-      <c r="BX62" s="23"/>
-      <c r="BY62" s="23"/>
-      <c r="BZ62" s="23"/>
-      <c r="CA62" s="23"/>
-      <c r="CB62" s="23"/>
-      <c r="CC62" s="23"/>
-      <c r="CD62" s="23"/>
-      <c r="CE62" s="23"/>
-      <c r="CF62" s="23"/>
-      <c r="CG62" s="23"/>
-      <c r="CH62" s="23"/>
-      <c r="CI62" s="23"/>
-      <c r="CJ62" s="23"/>
-      <c r="CK62" s="23"/>
-      <c r="CL62" s="23"/>
-      <c r="CM62" s="23"/>
-      <c r="CN62" s="23"/>
-      <c r="CO62" s="23"/>
-      <c r="CP62" s="23"/>
-      <c r="CQ62" s="23"/>
-      <c r="CR62" s="23"/>
-      <c r="CS62" s="23"/>
-      <c r="CT62" s="23"/>
-      <c r="CU62" s="23"/>
-      <c r="CV62" s="23"/>
-      <c r="CW62" s="23"/>
-      <c r="CX62" s="23"/>
-      <c r="CY62" s="23"/>
-      <c r="CZ62" s="23"/>
-      <c r="DA62" s="23"/>
-      <c r="DB62" s="23"/>
-      <c r="DC62" s="23"/>
-      <c r="DD62" s="23"/>
-      <c r="DE62" s="23"/>
-      <c r="DF62" s="23"/>
-      <c r="DG62" s="23"/>
-      <c r="DH62" s="23"/>
-      <c r="DI62" s="23"/>
-      <c r="DJ62" s="23"/>
-      <c r="DK62" s="23"/>
-      <c r="DL62" s="23"/>
-      <c r="DM62" s="23"/>
-      <c r="DN62" s="23"/>
-      <c r="DO62" s="23"/>
-      <c r="DP62" s="23"/>
-      <c r="DQ62" s="23"/>
-      <c r="DR62" s="23"/>
-      <c r="DS62" s="23"/>
-      <c r="DT62" s="23"/>
-      <c r="DU62" s="23"/>
-      <c r="DV62" s="23"/>
-      <c r="DW62" s="23"/>
-      <c r="DX62" s="23"/>
-      <c r="DY62" s="23"/>
-      <c r="DZ62" s="23"/>
-      <c r="EA62" s="23"/>
-      <c r="EB62" s="23"/>
-      <c r="EC62" s="23"/>
-      <c r="ED62" s="23"/>
-      <c r="EE62" s="23"/>
-      <c r="EF62" s="23"/>
-      <c r="EG62" s="23"/>
-      <c r="EH62" s="23"/>
-      <c r="EI62" s="23"/>
-      <c r="EJ62" s="23"/>
-      <c r="EK62" s="23"/>
-      <c r="EL62" s="23"/>
-      <c r="EM62" s="23"/>
-      <c r="EN62" s="23"/>
-      <c r="EO62" s="23"/>
-      <c r="EP62" s="23"/>
-      <c r="EQ62" s="23"/>
-      <c r="ER62" s="23"/>
-      <c r="ES62" s="23"/>
-      <c r="ET62" s="23"/>
-      <c r="EU62" s="23"/>
-      <c r="EV62" s="23"/>
-      <c r="EW62" s="23"/>
-      <c r="EX62" s="23"/>
-      <c r="EY62" s="23"/>
-      <c r="EZ62" s="23"/>
-      <c r="FA62" s="23"/>
-      <c r="FB62" s="23"/>
-      <c r="FC62" s="23"/>
-      <c r="FD62" s="23"/>
-      <c r="FE62" s="23"/>
-      <c r="FF62" s="23"/>
-      <c r="FG62" s="23"/>
-      <c r="FH62" s="23"/>
-      <c r="FI62" s="23"/>
-      <c r="FJ62" s="23"/>
-      <c r="FK62" s="23"/>
-      <c r="FL62" s="23"/>
+      <c r="AT62" s="15"/>
+      <c r="AU62" s="15"/>
+      <c r="AV62" s="15"/>
+      <c r="AW62" s="15"/>
+      <c r="AX62" s="15"/>
+      <c r="AY62" s="15"/>
+      <c r="AZ62" s="15"/>
+      <c r="BA62" s="15"/>
+      <c r="BB62" s="15"/>
+      <c r="BC62" s="15"/>
+      <c r="BD62" s="15"/>
+      <c r="BE62" s="15"/>
+      <c r="BF62" s="15"/>
+      <c r="BG62" s="15"/>
+      <c r="BH62" s="15"/>
+      <c r="BI62" s="15"/>
+      <c r="BJ62" s="15"/>
+      <c r="BK62" s="15"/>
+      <c r="BL62" s="15"/>
+      <c r="BM62" s="15"/>
+      <c r="BN62" s="15"/>
+      <c r="BO62" s="15"/>
+      <c r="BP62" s="15"/>
+      <c r="BQ62" s="15"/>
+      <c r="BR62" s="15"/>
+      <c r="BS62" s="15"/>
+      <c r="BT62" s="15"/>
+      <c r="BU62" s="15"/>
+      <c r="BV62" s="15"/>
+      <c r="BW62" s="15"/>
+      <c r="BX62" s="15"/>
+      <c r="BY62" s="15"/>
+      <c r="BZ62" s="15"/>
+      <c r="CA62" s="15"/>
+      <c r="CB62" s="15"/>
+      <c r="CC62" s="15"/>
+      <c r="CD62" s="15"/>
+      <c r="CE62" s="15"/>
+      <c r="CF62" s="15"/>
+      <c r="CG62" s="15"/>
+      <c r="CH62" s="15"/>
+      <c r="CI62" s="15"/>
+      <c r="CJ62" s="15"/>
+      <c r="CK62" s="15"/>
+      <c r="CL62" s="15"/>
+      <c r="CM62" s="15"/>
+      <c r="CN62" s="15"/>
+      <c r="CO62" s="15"/>
+      <c r="CP62" s="15"/>
+      <c r="CQ62" s="15"/>
+      <c r="CR62" s="15"/>
+      <c r="CS62" s="15"/>
+      <c r="CT62" s="15"/>
+      <c r="CU62" s="15"/>
+      <c r="CV62" s="15"/>
+      <c r="CW62" s="15"/>
+      <c r="CX62" s="15"/>
+      <c r="CY62" s="15"/>
+      <c r="CZ62" s="15"/>
+      <c r="DA62" s="15"/>
+      <c r="DB62" s="15"/>
+      <c r="DC62" s="15"/>
+      <c r="DD62" s="15"/>
+      <c r="DE62" s="15"/>
+      <c r="DF62" s="15"/>
+      <c r="DG62" s="15"/>
+      <c r="DH62" s="15"/>
+      <c r="DI62" s="15"/>
+      <c r="DJ62" s="15"/>
+      <c r="DK62" s="15"/>
+      <c r="DL62" s="15"/>
+      <c r="DM62" s="15"/>
+      <c r="DN62" s="15"/>
+      <c r="DO62" s="15"/>
+      <c r="DP62" s="15"/>
+      <c r="DQ62" s="15"/>
+      <c r="DR62" s="15"/>
+      <c r="DS62" s="15"/>
+      <c r="DT62" s="15"/>
+      <c r="DU62" s="15"/>
+      <c r="DV62" s="15"/>
+      <c r="DW62" s="15"/>
+      <c r="DX62" s="15"/>
+      <c r="DY62" s="15"/>
+      <c r="DZ62" s="15"/>
+      <c r="EA62" s="15"/>
+      <c r="EB62" s="15"/>
+      <c r="EC62" s="15"/>
+      <c r="ED62" s="15"/>
+      <c r="EE62" s="15"/>
+      <c r="EF62" s="15"/>
+      <c r="EG62" s="15"/>
+      <c r="EH62" s="15"/>
+      <c r="EI62" s="15"/>
+      <c r="EJ62" s="15"/>
+      <c r="EK62" s="15"/>
+      <c r="EL62" s="15"/>
+      <c r="EM62" s="15"/>
+      <c r="EN62" s="15"/>
+      <c r="EO62" s="15"/>
+      <c r="EP62" s="15"/>
+      <c r="EQ62" s="15"/>
+      <c r="ER62" s="15"/>
+      <c r="ES62" s="15"/>
+      <c r="ET62" s="15"/>
+      <c r="EU62" s="15"/>
+      <c r="EV62" s="15"/>
+      <c r="EW62" s="15"/>
+      <c r="EX62" s="15"/>
+      <c r="EY62" s="15"/>
+      <c r="EZ62" s="15"/>
+      <c r="FA62" s="15"/>
+      <c r="FB62" s="15"/>
+      <c r="FC62" s="15"/>
+      <c r="FD62" s="15"/>
+      <c r="FE62" s="15"/>
+      <c r="FF62" s="15"/>
+      <c r="FG62" s="15"/>
+      <c r="FH62" s="15"/>
+      <c r="FI62" s="15"/>
+      <c r="FJ62" s="15"/>
+      <c r="FK62" s="15"/>
+      <c r="FL62" s="15"/>
     </row>
     <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="7">
-        <v>45521</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="A63" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="33">
+        <v>45520</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="31"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
@@ -5971,16 +6103,139 @@
       <c r="AQ63"/>
       <c r="AR63"/>
       <c r="AS63"/>
+      <c r="AT63" s="23"/>
+      <c r="AU63" s="23"/>
+      <c r="AV63" s="23"/>
+      <c r="AW63" s="23"/>
+      <c r="AX63" s="23"/>
+      <c r="AY63" s="23"/>
+      <c r="AZ63" s="23"/>
+      <c r="BA63" s="23"/>
+      <c r="BB63" s="23"/>
+      <c r="BC63" s="23"/>
+      <c r="BD63" s="23"/>
+      <c r="BE63" s="23"/>
+      <c r="BF63" s="23"/>
+      <c r="BG63" s="23"/>
+      <c r="BH63" s="23"/>
+      <c r="BI63" s="23"/>
+      <c r="BJ63" s="23"/>
+      <c r="BK63" s="23"/>
+      <c r="BL63" s="23"/>
+      <c r="BM63" s="23"/>
+      <c r="BN63" s="23"/>
+      <c r="BO63" s="23"/>
+      <c r="BP63" s="23"/>
+      <c r="BQ63" s="23"/>
+      <c r="BR63" s="23"/>
+      <c r="BS63" s="23"/>
+      <c r="BT63" s="23"/>
+      <c r="BU63" s="23"/>
+      <c r="BV63" s="23"/>
+      <c r="BW63" s="23"/>
+      <c r="BX63" s="23"/>
+      <c r="BY63" s="23"/>
+      <c r="BZ63" s="23"/>
+      <c r="CA63" s="23"/>
+      <c r="CB63" s="23"/>
+      <c r="CC63" s="23"/>
+      <c r="CD63" s="23"/>
+      <c r="CE63" s="23"/>
+      <c r="CF63" s="23"/>
+      <c r="CG63" s="23"/>
+      <c r="CH63" s="23"/>
+      <c r="CI63" s="23"/>
+      <c r="CJ63" s="23"/>
+      <c r="CK63" s="23"/>
+      <c r="CL63" s="23"/>
+      <c r="CM63" s="23"/>
+      <c r="CN63" s="23"/>
+      <c r="CO63" s="23"/>
+      <c r="CP63" s="23"/>
+      <c r="CQ63" s="23"/>
+      <c r="CR63" s="23"/>
+      <c r="CS63" s="23"/>
+      <c r="CT63" s="23"/>
+      <c r="CU63" s="23"/>
+      <c r="CV63" s="23"/>
+      <c r="CW63" s="23"/>
+      <c r="CX63" s="23"/>
+      <c r="CY63" s="23"/>
+      <c r="CZ63" s="23"/>
+      <c r="DA63" s="23"/>
+      <c r="DB63" s="23"/>
+      <c r="DC63" s="23"/>
+      <c r="DD63" s="23"/>
+      <c r="DE63" s="23"/>
+      <c r="DF63" s="23"/>
+      <c r="DG63" s="23"/>
+      <c r="DH63" s="23"/>
+      <c r="DI63" s="23"/>
+      <c r="DJ63" s="23"/>
+      <c r="DK63" s="23"/>
+      <c r="DL63" s="23"/>
+      <c r="DM63" s="23"/>
+      <c r="DN63" s="23"/>
+      <c r="DO63" s="23"/>
+      <c r="DP63" s="23"/>
+      <c r="DQ63" s="23"/>
+      <c r="DR63" s="23"/>
+      <c r="DS63" s="23"/>
+      <c r="DT63" s="23"/>
+      <c r="DU63" s="23"/>
+      <c r="DV63" s="23"/>
+      <c r="DW63" s="23"/>
+      <c r="DX63" s="23"/>
+      <c r="DY63" s="23"/>
+      <c r="DZ63" s="23"/>
+      <c r="EA63" s="23"/>
+      <c r="EB63" s="23"/>
+      <c r="EC63" s="23"/>
+      <c r="ED63" s="23"/>
+      <c r="EE63" s="23"/>
+      <c r="EF63" s="23"/>
+      <c r="EG63" s="23"/>
+      <c r="EH63" s="23"/>
+      <c r="EI63" s="23"/>
+      <c r="EJ63" s="23"/>
+      <c r="EK63" s="23"/>
+      <c r="EL63" s="23"/>
+      <c r="EM63" s="23"/>
+      <c r="EN63" s="23"/>
+      <c r="EO63" s="23"/>
+      <c r="EP63" s="23"/>
+      <c r="EQ63" s="23"/>
+      <c r="ER63" s="23"/>
+      <c r="ES63" s="23"/>
+      <c r="ET63" s="23"/>
+      <c r="EU63" s="23"/>
+      <c r="EV63" s="23"/>
+      <c r="EW63" s="23"/>
+      <c r="EX63" s="23"/>
+      <c r="EY63" s="23"/>
+      <c r="EZ63" s="23"/>
+      <c r="FA63" s="23"/>
+      <c r="FB63" s="23"/>
+      <c r="FC63" s="23"/>
+      <c r="FD63" s="23"/>
+      <c r="FE63" s="23"/>
+      <c r="FF63" s="23"/>
+      <c r="FG63" s="23"/>
+      <c r="FH63" s="23"/>
+      <c r="FI63" s="23"/>
+      <c r="FJ63" s="23"/>
+      <c r="FK63" s="23"/>
+      <c r="FL63" s="23"/>
     </row>
     <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="7">
-        <v>45522</v>
+        <v>45521</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>6</v>
@@ -6031,18 +6286,18 @@
       <c r="AR64"/>
       <c r="AS64"/>
     </row>
-    <row r="65" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" s="20">
-        <v>45530</v>
+        <v>45522</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>14</v>
@@ -6090,15 +6345,15 @@
       <c r="AR65"/>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C66" s="7">
-        <v>45534</v>
+        <v>45530</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>25</v>
@@ -6110,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="22"/>
+      <c r="H66" s="5"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
@@ -6148,22 +6403,145 @@
       <c r="AQ66"/>
       <c r="AR66"/>
       <c r="AS66"/>
-    </row>
-    <row r="67" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AT66" s="15"/>
+      <c r="AU66" s="15"/>
+      <c r="AV66" s="15"/>
+      <c r="AW66" s="15"/>
+      <c r="AX66" s="15"/>
+      <c r="AY66" s="15"/>
+      <c r="AZ66" s="15"/>
+      <c r="BA66" s="15"/>
+      <c r="BB66" s="15"/>
+      <c r="BC66" s="15"/>
+      <c r="BD66" s="15"/>
+      <c r="BE66" s="15"/>
+      <c r="BF66" s="15"/>
+      <c r="BG66" s="15"/>
+      <c r="BH66" s="15"/>
+      <c r="BI66" s="15"/>
+      <c r="BJ66" s="15"/>
+      <c r="BK66" s="15"/>
+      <c r="BL66" s="15"/>
+      <c r="BM66" s="15"/>
+      <c r="BN66" s="15"/>
+      <c r="BO66" s="15"/>
+      <c r="BP66" s="15"/>
+      <c r="BQ66" s="15"/>
+      <c r="BR66" s="15"/>
+      <c r="BS66" s="15"/>
+      <c r="BT66" s="15"/>
+      <c r="BU66" s="15"/>
+      <c r="BV66" s="15"/>
+      <c r="BW66" s="15"/>
+      <c r="BX66" s="15"/>
+      <c r="BY66" s="15"/>
+      <c r="BZ66" s="15"/>
+      <c r="CA66" s="15"/>
+      <c r="CB66" s="15"/>
+      <c r="CC66" s="15"/>
+      <c r="CD66" s="15"/>
+      <c r="CE66" s="15"/>
+      <c r="CF66" s="15"/>
+      <c r="CG66" s="15"/>
+      <c r="CH66" s="15"/>
+      <c r="CI66" s="15"/>
+      <c r="CJ66" s="15"/>
+      <c r="CK66" s="15"/>
+      <c r="CL66" s="15"/>
+      <c r="CM66" s="15"/>
+      <c r="CN66" s="15"/>
+      <c r="CO66" s="15"/>
+      <c r="CP66" s="15"/>
+      <c r="CQ66" s="15"/>
+      <c r="CR66" s="15"/>
+      <c r="CS66" s="15"/>
+      <c r="CT66" s="15"/>
+      <c r="CU66" s="15"/>
+      <c r="CV66" s="15"/>
+      <c r="CW66" s="15"/>
+      <c r="CX66" s="15"/>
+      <c r="CY66" s="15"/>
+      <c r="CZ66" s="15"/>
+      <c r="DA66" s="15"/>
+      <c r="DB66" s="15"/>
+      <c r="DC66" s="15"/>
+      <c r="DD66" s="15"/>
+      <c r="DE66" s="15"/>
+      <c r="DF66" s="15"/>
+      <c r="DG66" s="15"/>
+      <c r="DH66" s="15"/>
+      <c r="DI66" s="15"/>
+      <c r="DJ66" s="15"/>
+      <c r="DK66" s="15"/>
+      <c r="DL66" s="15"/>
+      <c r="DM66" s="15"/>
+      <c r="DN66" s="15"/>
+      <c r="DO66" s="15"/>
+      <c r="DP66" s="15"/>
+      <c r="DQ66" s="15"/>
+      <c r="DR66" s="15"/>
+      <c r="DS66" s="15"/>
+      <c r="DT66" s="15"/>
+      <c r="DU66" s="15"/>
+      <c r="DV66" s="15"/>
+      <c r="DW66" s="15"/>
+      <c r="DX66" s="15"/>
+      <c r="DY66" s="15"/>
+      <c r="DZ66" s="15"/>
+      <c r="EA66" s="15"/>
+      <c r="EB66" s="15"/>
+      <c r="EC66" s="15"/>
+      <c r="ED66" s="15"/>
+      <c r="EE66" s="15"/>
+      <c r="EF66" s="15"/>
+      <c r="EG66" s="15"/>
+      <c r="EH66" s="15"/>
+      <c r="EI66" s="15"/>
+      <c r="EJ66" s="15"/>
+      <c r="EK66" s="15"/>
+      <c r="EL66" s="15"/>
+      <c r="EM66" s="15"/>
+      <c r="EN66" s="15"/>
+      <c r="EO66" s="15"/>
+      <c r="EP66" s="15"/>
+      <c r="EQ66" s="15"/>
+      <c r="ER66" s="15"/>
+      <c r="ES66" s="15"/>
+      <c r="ET66" s="15"/>
+      <c r="EU66" s="15"/>
+      <c r="EV66" s="15"/>
+      <c r="EW66" s="15"/>
+      <c r="EX66" s="15"/>
+      <c r="EY66" s="15"/>
+      <c r="EZ66" s="15"/>
+      <c r="FA66" s="15"/>
+      <c r="FB66" s="15"/>
+      <c r="FC66" s="15"/>
+      <c r="FD66" s="15"/>
+      <c r="FE66" s="15"/>
+      <c r="FF66" s="15"/>
+      <c r="FG66" s="15"/>
+      <c r="FH66" s="15"/>
+      <c r="FI66" s="15"/>
+      <c r="FJ66" s="15"/>
+      <c r="FK66" s="15"/>
+      <c r="FL66" s="15"/>
+    </row>
+    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C67" s="7">
-        <v>45535</v>
+        <v>45534</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>1</v>
@@ -6208,7 +6586,7 @@
       <c r="AR67"/>
       <c r="AS67"/>
     </row>
-    <row r="68" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -6219,7 +6597,7 @@
         <v>45535</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>10</v>
@@ -6267,7 +6645,7 @@
       <c r="AR68"/>
       <c r="AS68"/>
     </row>
-    <row r="69" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -6278,7 +6656,7 @@
         <v>45535</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>10</v>
@@ -6326,21 +6704,21 @@
       <c r="AR69"/>
       <c r="AS69"/>
     </row>
-    <row r="70" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C70" s="7">
         <v>45535</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>1</v>
@@ -6385,21 +6763,21 @@
       <c r="AR70"/>
       <c r="AS70"/>
     </row>
-    <row r="71" spans="1:45" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C71" s="7">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>1</v>
@@ -6444,15 +6822,15 @@
       <c r="AR71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7">
-        <v>45539</v>
+        <v>45536</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>0</v>
@@ -6503,15 +6881,15 @@
       <c r="AR72"/>
       <c r="AS72"/>
     </row>
-    <row r="73" spans="1:45" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>0</v>
@@ -6562,18 +6940,18 @@
       <c r="AR73"/>
       <c r="AS73"/>
     </row>
-    <row r="74" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7">
-        <v>45541</v>
+        <v>45540</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>9</v>
@@ -6583,9 +6961,9 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="22"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
@@ -6621,18 +6999,18 @@
       <c r="AR74"/>
       <c r="AS74"/>
     </row>
-    <row r="75" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" s="7">
-        <v>45549</v>
+        <v>45541</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>9</v>
@@ -6680,18 +7058,18 @@
       <c r="AR75"/>
       <c r="AS75"/>
     </row>
-    <row r="76" spans="1:45" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="7">
-        <v>45551</v>
+        <v>45549</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>9</v>
@@ -6701,9 +7079,9 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="22"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
@@ -6739,27 +7117,27 @@
       <c r="AR76"/>
       <c r="AS76"/>
     </row>
-    <row r="77" spans="1:45" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C77" s="7">
-        <v>45586</v>
+        <v>45551</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+      <c r="H77" s="22"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
@@ -6789,22 +7167,153 @@
       <c r="AI77"/>
       <c r="AJ77"/>
       <c r="AK77"/>
-    </row>
-    <row r="78" spans="1:45" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AL77"/>
+      <c r="AM77"/>
+      <c r="AN77"/>
+      <c r="AO77"/>
+      <c r="AP77"/>
+      <c r="AQ77"/>
+      <c r="AR77"/>
+      <c r="AS77"/>
+      <c r="AT77" s="17"/>
+      <c r="AU77" s="17"/>
+      <c r="AV77" s="17"/>
+      <c r="AW77" s="17"/>
+      <c r="AX77" s="17"/>
+      <c r="AY77" s="17"/>
+      <c r="AZ77" s="17"/>
+      <c r="BA77" s="17"/>
+      <c r="BB77" s="17"/>
+      <c r="BC77" s="17"/>
+      <c r="BD77" s="17"/>
+      <c r="BE77" s="17"/>
+      <c r="BF77" s="17"/>
+      <c r="BG77" s="17"/>
+      <c r="BH77" s="17"/>
+      <c r="BI77" s="17"/>
+      <c r="BJ77" s="17"/>
+      <c r="BK77" s="17"/>
+      <c r="BL77" s="17"/>
+      <c r="BM77" s="17"/>
+      <c r="BN77" s="17"/>
+      <c r="BO77" s="17"/>
+      <c r="BP77" s="17"/>
+      <c r="BQ77" s="17"/>
+      <c r="BR77" s="17"/>
+      <c r="BS77" s="17"/>
+      <c r="BT77" s="17"/>
+      <c r="BU77" s="17"/>
+      <c r="BV77" s="17"/>
+      <c r="BW77" s="17"/>
+      <c r="BX77" s="17"/>
+      <c r="BY77" s="17"/>
+      <c r="BZ77" s="17"/>
+      <c r="CA77" s="17"/>
+      <c r="CB77" s="17"/>
+      <c r="CC77" s="17"/>
+      <c r="CD77" s="17"/>
+      <c r="CE77" s="17"/>
+      <c r="CF77" s="17"/>
+      <c r="CG77" s="17"/>
+      <c r="CH77" s="17"/>
+      <c r="CI77" s="17"/>
+      <c r="CJ77" s="17"/>
+      <c r="CK77" s="17"/>
+      <c r="CL77" s="17"/>
+      <c r="CM77" s="17"/>
+      <c r="CN77" s="17"/>
+      <c r="CO77" s="17"/>
+      <c r="CP77" s="17"/>
+      <c r="CQ77" s="17"/>
+      <c r="CR77" s="17"/>
+      <c r="CS77" s="17"/>
+      <c r="CT77" s="17"/>
+      <c r="CU77" s="17"/>
+      <c r="CV77" s="17"/>
+      <c r="CW77" s="17"/>
+      <c r="CX77" s="17"/>
+      <c r="CY77" s="17"/>
+      <c r="CZ77" s="17"/>
+      <c r="DA77" s="17"/>
+      <c r="DB77" s="17"/>
+      <c r="DC77" s="17"/>
+      <c r="DD77" s="17"/>
+      <c r="DE77" s="17"/>
+      <c r="DF77" s="17"/>
+      <c r="DG77" s="17"/>
+      <c r="DH77" s="17"/>
+      <c r="DI77" s="17"/>
+      <c r="DJ77" s="17"/>
+      <c r="DK77" s="17"/>
+      <c r="DL77" s="17"/>
+      <c r="DM77" s="17"/>
+      <c r="DN77" s="17"/>
+      <c r="DO77" s="17"/>
+      <c r="DP77" s="17"/>
+      <c r="DQ77" s="17"/>
+      <c r="DR77" s="17"/>
+      <c r="DS77" s="17"/>
+      <c r="DT77" s="17"/>
+      <c r="DU77" s="17"/>
+      <c r="DV77" s="17"/>
+      <c r="DW77" s="17"/>
+      <c r="DX77" s="17"/>
+      <c r="DY77" s="17"/>
+      <c r="DZ77" s="17"/>
+      <c r="EA77" s="17"/>
+      <c r="EB77" s="17"/>
+      <c r="EC77" s="17"/>
+      <c r="ED77" s="17"/>
+      <c r="EE77" s="17"/>
+      <c r="EF77" s="17"/>
+      <c r="EG77" s="17"/>
+      <c r="EH77" s="17"/>
+      <c r="EI77" s="17"/>
+      <c r="EJ77" s="17"/>
+      <c r="EK77" s="17"/>
+      <c r="EL77" s="17"/>
+      <c r="EM77" s="17"/>
+      <c r="EN77" s="17"/>
+      <c r="EO77" s="17"/>
+      <c r="EP77" s="17"/>
+      <c r="EQ77" s="17"/>
+      <c r="ER77" s="17"/>
+      <c r="ES77" s="17"/>
+      <c r="ET77" s="17"/>
+      <c r="EU77" s="17"/>
+      <c r="EV77" s="17"/>
+      <c r="EW77" s="17"/>
+      <c r="EX77" s="17"/>
+      <c r="EY77" s="17"/>
+      <c r="EZ77" s="17"/>
+      <c r="FA77" s="17"/>
+      <c r="FB77" s="17"/>
+      <c r="FC77" s="17"/>
+      <c r="FD77" s="17"/>
+      <c r="FE77" s="17"/>
+      <c r="FF77" s="17"/>
+      <c r="FG77" s="17"/>
+      <c r="FH77" s="17"/>
+      <c r="FI77" s="17"/>
+      <c r="FJ77" s="17"/>
+      <c r="FK77" s="17"/>
+      <c r="FL77" s="17"/>
+    </row>
+    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C78" s="7">
-        <v>45594</v>
+        <v>45586</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>1</v>
@@ -6815,19 +7324,19 @@
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
+      <c r="S78"/>
+      <c r="T78"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
-      <c r="X78" s="24"/>
-      <c r="Y78" s="24"/>
+      <c r="X78"/>
+      <c r="Y78"/>
       <c r="Z78"/>
       <c r="AA78"/>
       <c r="AB78"/>
@@ -6841,34 +7350,27 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="27">
-        <v>45604</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
+    <row r="79" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="7">
+        <v>45594</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24"/>
       <c r="O79" s="24"/>
@@ -6876,80 +7378,225 @@
       <c r="T79" s="24"/>
       <c r="X79" s="24"/>
       <c r="Y79" s="24"/>
-      <c r="AB79" s="24"/>
-      <c r="AC79" s="24"/>
-      <c r="AG79" s="24"/>
-      <c r="AH79" s="24"/>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="7">
-        <v>45607</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="15"/>
+      <c r="AN79" s="15"/>
+      <c r="AO79" s="15"/>
+      <c r="AP79" s="15"/>
+      <c r="AQ79" s="15"/>
+      <c r="AR79" s="15"/>
+      <c r="AS79" s="15"/>
+      <c r="AT79" s="15"/>
+      <c r="AU79" s="15"/>
+      <c r="AV79" s="15"/>
+      <c r="AW79" s="15"/>
+      <c r="AX79" s="15"/>
+      <c r="AY79" s="15"/>
+      <c r="AZ79" s="15"/>
+      <c r="BA79" s="15"/>
+      <c r="BB79" s="15"/>
+      <c r="BC79" s="15"/>
+      <c r="BD79" s="15"/>
+      <c r="BE79" s="15"/>
+      <c r="BF79" s="15"/>
+      <c r="BG79" s="15"/>
+      <c r="BH79" s="15"/>
+      <c r="BI79" s="15"/>
+      <c r="BJ79" s="15"/>
+      <c r="BK79" s="15"/>
+      <c r="BL79" s="15"/>
+      <c r="BM79" s="15"/>
+      <c r="BN79" s="15"/>
+      <c r="BO79" s="15"/>
+      <c r="BP79" s="15"/>
+      <c r="BQ79" s="15"/>
+      <c r="BR79" s="15"/>
+      <c r="BS79" s="15"/>
+      <c r="BT79" s="15"/>
+      <c r="BU79" s="15"/>
+      <c r="BV79" s="15"/>
+      <c r="BW79" s="15"/>
+      <c r="BX79" s="15"/>
+      <c r="BY79" s="15"/>
+      <c r="BZ79" s="15"/>
+      <c r="CA79" s="15"/>
+      <c r="CB79" s="15"/>
+      <c r="CC79" s="15"/>
+      <c r="CD79" s="15"/>
+      <c r="CE79" s="15"/>
+      <c r="CF79" s="15"/>
+      <c r="CG79" s="15"/>
+      <c r="CH79" s="15"/>
+      <c r="CI79" s="15"/>
+      <c r="CJ79" s="15"/>
+      <c r="CK79" s="15"/>
+      <c r="CL79" s="15"/>
+      <c r="CM79" s="15"/>
+      <c r="CN79" s="15"/>
+      <c r="CO79" s="15"/>
+      <c r="CP79" s="15"/>
+      <c r="CQ79" s="15"/>
+      <c r="CR79" s="15"/>
+      <c r="CS79" s="15"/>
+      <c r="CT79" s="15"/>
+      <c r="CU79" s="15"/>
+      <c r="CV79" s="15"/>
+      <c r="CW79" s="15"/>
+      <c r="CX79" s="15"/>
+      <c r="CY79" s="15"/>
+      <c r="CZ79" s="15"/>
+      <c r="DA79" s="15"/>
+      <c r="DB79" s="15"/>
+      <c r="DC79" s="15"/>
+      <c r="DD79" s="15"/>
+      <c r="DE79" s="15"/>
+      <c r="DF79" s="15"/>
+      <c r="DG79" s="15"/>
+      <c r="DH79" s="15"/>
+      <c r="DI79" s="15"/>
+      <c r="DJ79" s="15"/>
+      <c r="DK79" s="15"/>
+      <c r="DL79" s="15"/>
+      <c r="DM79" s="15"/>
+      <c r="DN79" s="15"/>
+      <c r="DO79" s="15"/>
+      <c r="DP79" s="15"/>
+      <c r="DQ79" s="15"/>
+      <c r="DR79" s="15"/>
+      <c r="DS79" s="15"/>
+      <c r="DT79" s="15"/>
+      <c r="DU79" s="15"/>
+      <c r="DV79" s="15"/>
+      <c r="DW79" s="15"/>
+      <c r="DX79" s="15"/>
+      <c r="DY79" s="15"/>
+      <c r="DZ79" s="15"/>
+      <c r="EA79" s="15"/>
+      <c r="EB79" s="15"/>
+      <c r="EC79" s="15"/>
+      <c r="ED79" s="15"/>
+      <c r="EE79" s="15"/>
+      <c r="EF79" s="15"/>
+      <c r="EG79" s="15"/>
+      <c r="EH79" s="15"/>
+      <c r="EI79" s="15"/>
+      <c r="EJ79" s="15"/>
+      <c r="EK79" s="15"/>
+      <c r="EL79" s="15"/>
+      <c r="EM79" s="15"/>
+      <c r="EN79" s="15"/>
+      <c r="EO79" s="15"/>
+      <c r="EP79" s="15"/>
+      <c r="EQ79" s="15"/>
+      <c r="ER79" s="15"/>
+      <c r="ES79" s="15"/>
+      <c r="ET79" s="15"/>
+      <c r="EU79" s="15"/>
+      <c r="EV79" s="15"/>
+      <c r="EW79" s="15"/>
+      <c r="EX79" s="15"/>
+      <c r="EY79" s="15"/>
+      <c r="EZ79" s="15"/>
+      <c r="FA79" s="15"/>
+      <c r="FB79" s="15"/>
+      <c r="FC79" s="15"/>
+      <c r="FD79" s="15"/>
+      <c r="FE79" s="15"/>
+      <c r="FF79" s="15"/>
+      <c r="FG79" s="15"/>
+      <c r="FH79" s="15"/>
+      <c r="FI79" s="15"/>
+      <c r="FJ79" s="15"/>
+      <c r="FK79" s="15"/>
+      <c r="FL79" s="15"/>
+    </row>
+    <row r="80" spans="1:168" x14ac:dyDescent="0.35">
+      <c r="A80" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="27">
+        <v>45604</v>
+      </c>
+      <c r="D80" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="10"/>
+      <c r="E80" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
       <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="24"/>
+      <c r="X80" s="24"/>
+      <c r="Y80" s="24"/>
       <c r="AB80" s="24"/>
       <c r="AC80" s="24"/>
       <c r="AG80" s="24"/>
       <c r="AH80" s="24"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>110</v>
+        <v>15</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C81" s="7">
-        <v>45615</v>
+        <v>45607</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="AB81" s="24"/>
+      <c r="AC81" s="24"/>
+      <c r="AG81" s="24"/>
+      <c r="AH81" s="24"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>111</v>
+        <v>2</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C82" s="7">
-        <v>45620</v>
+        <v>45615</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>1</v>
@@ -6957,43 +7604,43 @@
       <c r="G82" s="5"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7">
-        <v>45623</v>
+        <v>45620</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="7">
+        <v>45623</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="16"/>
-    </row>
-    <row r="84" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" s="7">
-        <v>45624</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>1</v>
@@ -7001,7 +7648,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -7023,18 +7670,18 @@
       <c r="G85" s="5"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>10</v>
@@ -7045,21 +7692,21 @@
       <c r="G86" s="5"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C87" s="7">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>1</v>
@@ -7067,15 +7714,15 @@
       <c r="G87" s="5"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" s="7">
-        <v>45629</v>
+        <v>45626</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>0</v>
@@ -7089,66 +7736,66 @@
       <c r="G88" s="5"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="25" t="s">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="7">
+        <v>45629</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B90" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="27">
+      <c r="C90" s="27">
         <v>45635</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D90" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E89" s="25" t="s">
+      <c r="E90" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F90" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G89" s="25" t="s">
+      <c r="G90" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="H90" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B91" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C91" s="7">
         <v>45635</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="16"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" s="7">
-        <v>45636</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>9</v>
@@ -7159,21 +7806,21 @@
       <c r="G91" s="5"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C92" s="7">
         <v>45636</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>1</v>
@@ -7181,21 +7828,21 @@
       <c r="G92" s="5"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C93" s="7">
-        <v>45340</v>
+        <v>45636</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>1</v>
@@ -7203,7 +7850,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="16"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -7225,7 +7872,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -7247,7 +7894,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -8300,7 +8947,7 @@
       <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="41" t="s">
+      <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -8344,7 +8991,7 @@
       <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="42" t="s">
+      <c r="A145" s="41" t="s">
         <v>113</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -8362,11 +9009,11 @@
       <c r="F145" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G145" s="40"/>
-      <c r="H145" s="40"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B146" s="9"/>
@@ -8382,8 +9029,8 @@
       <c r="F146" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="40"/>
     </row>
     <row r="147" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
@@ -8429,8 +9076,122 @@
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
     </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" s="7">
+        <v>45724</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C150" s="7">
+        <v>45727</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" s="7">
+        <v>45727</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" s="7">
+        <v>45728</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" s="7">
+        <v>45728</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FL142" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:FL143" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FL149">
+      <sortCondition ref="C1:C143"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2008301-CA20-4FAA-84E2-D63D6590FBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6306B6AA-4AE1-4C5D-97A7-CDDD0EC35E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="195">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -834,6 +834,37 @@
   </si>
   <si>
     <t>Chemin de Praljoux 1, 1262 Eysins</t>
+  </si>
+  <si>
+    <t>auf Feld (Hochspannungsleitung), Mattenstrasse, 5742 Kölliken</t>
+  </si>
+  <si>
+    <t>Lyonstrasse, 4053 Basel</t>
+  </si>
+  <si>
+    <t>Strandbad, Mythenquai, 8002 Zürich</t>
+  </si>
+  <si>
+    <t>1135 Denens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Glariers, 1854 Noville
+</t>
+  </si>
+  <si>
+    <t>Schweizersbildstrasse 69, Parkplatz Werkhof, 8200 Schaffhausen</t>
+  </si>
+  <si>
+    <t>Waldkauz</t>
+  </si>
+  <si>
+    <t>Lebendfang gesund</t>
+  </si>
+  <si>
+    <t>8247 Fluringen</t>
+  </si>
+  <si>
+    <t>Abklärung Krankheit / Tierseuchenverdacht</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1559,24 +1590,15 @@
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFC0C0C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2734,7 +2756,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2845,9 +2867,6 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4281,11 +4300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL153"/>
+  <dimension ref="A1:FL163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C156" sqref="C156"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8418,17 +8437,17 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="7">
-        <v>45685</v>
+        <v>45684</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>1</v>
@@ -8458,16 +8477,14 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B121" s="9"/>
       <c r="C121" s="7">
         <v>45685</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>9</v>
@@ -8480,16 +8497,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>146</v>
+        <v>4</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C122" s="7">
-        <v>45686</v>
+        <v>45685</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>9</v>
@@ -8502,16 +8519,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C123" s="7">
-        <v>45687</v>
+        <v>45686</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>9</v>
@@ -8523,84 +8540,86 @@
       <c r="H123" s="16"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="34" t="s">
+      <c r="A124" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="7">
+        <v>45687</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="35" t="s">
+      <c r="B125" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="36">
+      <c r="C125" s="36">
         <v>45687</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D125" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E124" s="34" t="s">
+      <c r="E125" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="34" t="s">
+      <c r="F125" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G124" s="37" t="s">
+      <c r="G125" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="H124" s="34"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="25" t="s">
+      <c r="H125" s="34"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="28" t="s">
+      <c r="B126" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C125" s="27">
+      <c r="C126" s="27">
         <v>45691</v>
       </c>
-      <c r="D125" s="25" t="s">
+      <c r="D126" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="25" t="s">
+      <c r="E126" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="25" t="s">
+      <c r="F126" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G125" s="25" t="s">
+      <c r="G126" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H125" s="25" t="s">
+      <c r="H126" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C126" s="7">
-        <v>45694</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B127" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="C127" s="7">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>0</v>
@@ -8615,19 +8634,17 @@
       <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C128" s="14">
-        <v>45698</v>
-      </c>
-      <c r="D128" s="11" t="s">
+      <c r="A128" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="7">
+        <v>45695</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F128" s="5" t="s">
@@ -8637,63 +8654,65 @@
       <c r="H128" s="11"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C129" s="14">
+        <v>45698</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B129" s="28" t="s">
+      <c r="B130" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C129" s="27">
+      <c r="C130" s="27">
         <v>45698</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D130" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E129" s="25" t="s">
+      <c r="E130" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="25" t="s">
+      <c r="F130" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G129" s="25" t="s">
+      <c r="G130" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H129" s="25" t="s">
+      <c r="H130" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C130" s="7">
-        <v>45698</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B131" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="C131" s="7">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>9</v>
@@ -8705,74 +8724,72 @@
       <c r="H131" s="11"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="7">
+        <v>45699</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="29" t="s">
+      <c r="B133" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C132" s="30" t="s">
+      <c r="C133" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D132" s="29" t="s">
+      <c r="D133" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E132" s="25" t="s">
+      <c r="E133" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="25" t="s">
+      <c r="F133" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G132" s="25" t="s">
+      <c r="G133" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H132" s="25" t="s">
+      <c r="H133" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="11" t="s">
+    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B134" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C133" s="14">
+      <c r="C134" s="14">
         <v>45700</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D134" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E134" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-    </row>
-    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C134" s="7">
-        <v>45700</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
+      <c r="F134" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
     </row>
     <row r="135" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
@@ -8796,41 +8813,41 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B136" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="C136" s="7">
-        <v>45705</v>
+        <v>45700</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G136" s="38"/>
-      <c r="H136" s="39"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>169</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B137" s="9"/>
       <c r="C137" s="7">
         <v>45705</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>1</v>
@@ -8840,41 +8857,41 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C138" s="7">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="39"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>171</v>
+        <v>4</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C139" s="7">
         <v>45706</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>1</v>
@@ -8884,19 +8901,19 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="C140" s="7">
-        <v>45708</v>
+        <v>45706</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>1</v>
@@ -8908,7 +8925,9 @@
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="C141" s="7">
         <v>45708</v>
       </c>
@@ -8916,7 +8935,7 @@
         <v>90</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>1</v>
@@ -8928,14 +8947,12 @@
       <c r="A142" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>172</v>
-      </c>
+      <c r="B142" s="9"/>
       <c r="C142" s="7">
         <v>45708</v>
       </c>
-      <c r="D142" s="16" t="s">
-        <v>21</v>
+      <c r="D142" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>9</v>
@@ -8950,17 +8967,17 @@
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="9" t="s">
-        <v>175</v>
+      <c r="B143" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C143" s="7">
-        <v>45713</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>179</v>
+        <v>45708</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>1</v>
@@ -8969,7 +8986,7 @@
       <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="41" t="s">
+      <c r="A144" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -8991,20 +9008,20 @@
       <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>177</v>
+      <c r="A145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="C145" s="7">
-        <v>45719</v>
+        <v>45713</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>1</v>
@@ -9013,59 +9030,59 @@
       <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146" s="7">
+        <v>45719</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B146" s="9"/>
-      <c r="C146" s="7">
-        <v>45721</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G146" s="40"/>
-      <c r="H146" s="40"/>
-    </row>
-    <row r="147" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>178</v>
-      </c>
+      <c r="B147" s="9"/>
       <c r="C147" s="7">
         <v>45721</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="40"/>
     </row>
     <row r="148" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>176</v>
+        <v>5</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C148" s="7">
         <v>45721</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>9</v>
@@ -9073,21 +9090,21 @@
       <c r="F148" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+    </row>
+    <row r="149" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C149" s="7">
-        <v>45724</v>
+        <v>45721</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>9</v>
@@ -9100,19 +9117,19 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C150" s="7">
-        <v>45727</v>
+        <v>45724</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>1</v>
@@ -9147,13 +9164,13 @@
         <v>4</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C152" s="7">
-        <v>45728</v>
+        <v>45727</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>10</v>
@@ -9166,19 +9183,19 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C153" s="7">
         <v>45728</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>121</v>
+      <c r="D153" s="41" t="s">
+        <v>8</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>1</v>
@@ -9186,10 +9203,228 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="7">
+        <v>45728</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" s="7">
+        <v>45728</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C156" s="7">
+        <v>45729</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+    </row>
+    <row r="157" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C157" s="7">
+        <v>45730</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+    </row>
+    <row r="158" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C158" s="7">
+        <v>45730</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C159" s="7">
+        <v>45730</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+    </row>
+    <row r="160" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C160" s="7">
+        <v>45731</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="7">
+        <v>45733</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C162" s="7">
+        <v>45733</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C163" s="7">
+        <v>45735</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FL143" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FL149">
-      <sortCondition ref="C1:C143"/>
+  <autoFilter ref="A1:FL163" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FL150">
+      <sortCondition ref="C1:C144"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6306B6AA-4AE1-4C5D-97A7-CDDD0EC35E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78ECA521-5E6E-4B2A-88B8-A42071139DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="204">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -865,6 +865,34 @@
   </si>
   <si>
     <t>Abklärung Krankheit / Tierseuchenverdacht</t>
+  </si>
+  <si>
+    <t>Bogibrücke, untere Seestrasse, 
+8272 Ermatingen</t>
+  </si>
+  <si>
+    <t>1400 Yverdon-les-Bains</t>
+  </si>
+  <si>
+    <t>Ufer See</t>
+  </si>
+  <si>
+    <t>Curtil-Mailet, 1400 Yverdon-les-Bains</t>
+  </si>
+  <si>
+    <t>Reiherente</t>
+  </si>
+  <si>
+    <t>8450 Andelfingen, an der Thur</t>
+  </si>
+  <si>
+    <t>Kolbenente oder Gänsesäge</t>
+  </si>
+  <si>
+    <t>Schwanenplatz, 6004 Luzern</t>
+  </si>
+  <si>
+    <t>Collège des Rives, rue de l’Hippodrome, 1400 Yverdon-les-Bains</t>
   </si>
 </sst>
 </file>
@@ -4300,11 +4328,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL163"/>
+  <dimension ref="A1:FL171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9421,6 +9449,180 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
+    <row r="164" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C164" s="7">
+        <v>45737</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C165" s="7">
+        <v>45737</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C166" s="7">
+        <v>45739</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C167" s="7">
+        <v>45739</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C168" s="7">
+        <v>45740</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C169" s="7">
+        <v>45741</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" s="7">
+        <v>45741</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="7">
+        <v>45741</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:FL163" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FL150">

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78ECA521-5E6E-4B2A-88B8-A42071139DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19163EF1-745B-4751-A1C6-EF720340FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="209">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -893,6 +893,21 @@
   </si>
   <si>
     <t>Collège des Rives, rue de l’Hippodrome, 1400 Yverdon-les-Bains</t>
+  </si>
+  <si>
+    <t>Zwergflusspferd-Anlage, Zoo Basel, 4054 Basel</t>
+  </si>
+  <si>
+    <t>Krähen/Raben</t>
+  </si>
+  <si>
+    <t>Sugiez</t>
+  </si>
+  <si>
+    <t>Seefeldquai 8, 8008 Zürich</t>
+  </si>
+  <si>
+    <t>Beim Schwert 1, 6218 Ettiswil</t>
   </si>
 </sst>
 </file>
@@ -4328,11 +4343,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL171"/>
+  <dimension ref="A1:FL175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9623,6 +9638,92 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C172" s="7">
+        <v>45743</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C173" s="7">
+        <v>45743</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C174" s="7">
+        <v>45748</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C175" s="7">
+        <v>45749</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:FL163" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FL150">

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19163EF1-745B-4751-A1C6-EF720340FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF66D75-3B06-4AA5-BC66-C405249281BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="212">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -908,6 +908,15 @@
   </si>
   <si>
     <t>Beim Schwert 1, 6218 Ettiswil</t>
+  </si>
+  <si>
+    <t>Chemin de Jaillet 33, 5706 Borex</t>
+  </si>
+  <si>
+    <t>Höhe Seebad Utoquai, 8008 Zürich</t>
+  </si>
+  <si>
+    <t>14.04.2025</t>
   </si>
 </sst>
 </file>
@@ -1244,6 +1253,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2799,7 +2809,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2910,6 +2920,9 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4343,25 +4356,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL175"/>
+  <dimension ref="A1:FL177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="39.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="39.875" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -4387,7 +4400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4409,7 +4422,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4431,7 +4444,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -4453,7 +4466,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -4475,7 +4488,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -4497,7 +4510,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -4519,7 +4532,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4541,7 +4554,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4563,7 +4576,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4585,7 +4598,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -4607,7 +4620,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4629,7 +4642,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4651,7 +4664,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -4673,7 +4686,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -4695,7 +4708,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -4717,7 +4730,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4739,7 +4752,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4774,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -4783,7 +4796,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4805,7 +4818,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -4827,7 +4840,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -4849,7 +4862,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -4871,7 +4884,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -4893,7 +4906,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
@@ -4915,7 +4928,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -4937,7 +4950,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -4957,7 +4970,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -4979,7 +4992,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -5001,7 +5014,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -5023,7 +5036,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -5045,7 +5058,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -5067,7 +5080,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
@@ -5089,7 +5102,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -5109,7 +5122,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -5131,7 +5144,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -5153,7 +5166,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -5175,7 +5188,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -5197,7 +5210,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -5217,7 +5230,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
@@ -5237,7 +5250,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -5257,7 +5270,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
@@ -5277,7 +5290,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -5299,7 +5312,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -5321,7 +5334,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
@@ -5343,7 +5356,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -5365,7 +5378,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
@@ -5387,7 +5400,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -5409,7 +5422,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -5431,7 +5444,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -5451,7 +5464,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:168" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -5473,7 +5486,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -5495,7 +5508,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5515,7 +5528,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -5535,7 +5548,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:168" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -5557,7 +5570,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -5579,7 +5592,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -5601,7 +5614,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -5623,7 +5636,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -5805,7 +5818,7 @@
       <c r="FK59"/>
       <c r="FL59"/>
     </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -5864,7 +5877,7 @@
       <c r="AR60"/>
       <c r="AS60"/>
     </row>
-    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -5923,7 +5936,7 @@
       <c r="AR61"/>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6105,7 +6118,7 @@
       <c r="FK62" s="15"/>
       <c r="FL62" s="15"/>
     </row>
-    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>15</v>
       </c>
@@ -6289,7 +6302,7 @@
       <c r="FK63" s="23"/>
       <c r="FL63" s="23"/>
     </row>
-    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -6348,7 +6361,7 @@
       <c r="AR64"/>
       <c r="AS64"/>
     </row>
-    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -6407,7 +6420,7 @@
       <c r="AR65"/>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -6589,7 +6602,7 @@
       <c r="FK66" s="15"/>
       <c r="FL66" s="15"/>
     </row>
-    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -6648,7 +6661,7 @@
       <c r="AR67"/>
       <c r="AS67"/>
     </row>
-    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -6707,7 +6720,7 @@
       <c r="AR68"/>
       <c r="AS68"/>
     </row>
-    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -6766,7 +6779,7 @@
       <c r="AR69"/>
       <c r="AS69"/>
     </row>
-    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -6825,7 +6838,7 @@
       <c r="AR70"/>
       <c r="AS70"/>
     </row>
-    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -6884,7 +6897,7 @@
       <c r="AR71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -6943,7 +6956,7 @@
       <c r="AR72"/>
       <c r="AS72"/>
     </row>
-    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -7002,7 +7015,7 @@
       <c r="AR73"/>
       <c r="AS73"/>
     </row>
-    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -7061,7 +7074,7 @@
       <c r="AR74"/>
       <c r="AS74"/>
     </row>
-    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -7120,7 +7133,7 @@
       <c r="AR75"/>
       <c r="AS75"/>
     </row>
-    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -7179,7 +7192,7 @@
       <c r="AR76"/>
       <c r="AS76"/>
     </row>
-    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -7361,7 +7374,7 @@
       <c r="FK77" s="17"/>
       <c r="FL77" s="17"/>
     </row>
-    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -7412,7 +7425,7 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:168" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -7572,7 +7585,7 @@
       <c r="FK79" s="15"/>
       <c r="FL79" s="15"/>
     </row>
-    <row r="80" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>108</v>
       </c>
@@ -7612,7 +7625,7 @@
       <c r="AG80" s="24"/>
       <c r="AH80" s="24"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -7644,7 +7657,7 @@
       <c r="AG81" s="24"/>
       <c r="AH81" s="24"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -7666,7 +7679,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -7688,7 +7701,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -7710,7 +7723,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -7732,7 +7745,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -7754,7 +7767,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -7776,7 +7789,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -7798,7 +7811,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -7820,7 +7833,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
@@ -7846,7 +7859,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -7868,7 +7881,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -7890,7 +7903,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -7912,7 +7925,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="16"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -7934,7 +7947,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -7956,7 +7969,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -7978,7 +7991,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
@@ -8000,7 +8013,7 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>5</v>
       </c>
@@ -8026,7 +8039,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>12</v>
       </c>
@@ -8052,7 +8065,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>3</v>
       </c>
@@ -8078,7 +8091,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
         <v>12</v>
       </c>
@@ -8104,7 +8117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
@@ -8126,7 +8139,7 @@
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
@@ -8146,7 +8159,7 @@
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>24</v>
       </c>
@@ -8168,7 +8181,7 @@
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>4</v>
       </c>
@@ -8190,7 +8203,7 @@
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>4</v>
       </c>
@@ -8212,7 +8225,7 @@
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
@@ -8234,7 +8247,7 @@
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>27</v>
       </c>
@@ -8256,7 +8269,7 @@
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>24</v>
       </c>
@@ -8278,7 +8291,7 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>24</v>
       </c>
@@ -8300,7 +8313,7 @@
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
@@ -8322,7 +8335,7 @@
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
@@ -8344,7 +8357,7 @@
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
         <v>79</v>
       </c>
@@ -8370,7 +8383,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -8392,7 +8405,7 @@
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
@@ -8414,7 +8427,7 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
@@ -8436,7 +8449,7 @@
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>3</v>
       </c>
@@ -8456,7 +8469,7 @@
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>4</v>
       </c>
@@ -8478,7 +8491,7 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>79</v>
       </c>
@@ -8498,7 +8511,7 @@
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>3</v>
       </c>
@@ -8518,7 +8531,7 @@
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>3</v>
       </c>
@@ -8538,7 +8551,7 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>4</v>
       </c>
@@ -8560,7 +8573,7 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>5</v>
       </c>
@@ -8582,7 +8595,7 @@
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>112</v>
       </c>
@@ -8604,7 +8617,7 @@
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
         <v>3</v>
       </c>
@@ -8628,7 +8641,7 @@
       </c>
       <c r="H125" s="34"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
         <v>3</v>
       </c>
@@ -8654,7 +8667,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>3</v>
       </c>
@@ -8676,7 +8689,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>29</v>
       </c>
@@ -8696,7 +8709,7 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>3</v>
       </c>
@@ -8718,7 +8731,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
         <v>24</v>
       </c>
@@ -8744,7 +8757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
@@ -8766,7 +8779,7 @@
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
@@ -8786,7 +8799,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
         <v>4</v>
       </c>
@@ -8812,7 +8825,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>12</v>
       </c>
@@ -8834,7 +8847,7 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>12</v>
       </c>
@@ -8856,7 +8869,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>12</v>
       </c>
@@ -8878,7 +8891,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>167</v>
       </c>
@@ -8898,7 +8911,7 @@
       <c r="G137" s="38"/>
       <c r="H137" s="39"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>29</v>
       </c>
@@ -8920,7 +8933,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="39"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>4</v>
       </c>
@@ -8942,7 +8955,7 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>168</v>
       </c>
@@ -8964,7 +8977,7 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -8986,7 +8999,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>4</v>
       </c>
@@ -9006,7 +9019,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -9028,7 +9041,7 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>4</v>
       </c>
@@ -9050,7 +9063,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>4</v>
       </c>
@@ -9072,7 +9085,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -9094,7 +9107,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>63</v>
       </c>
@@ -9114,7 +9127,7 @@
       <c r="G147" s="40"/>
       <c r="H147" s="40"/>
     </row>
-    <row r="148" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>5</v>
       </c>
@@ -9136,7 +9149,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -9158,7 +9171,7 @@
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>24</v>
       </c>
@@ -9180,7 +9193,7 @@
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -9202,7 +9215,7 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>4</v>
       </c>
@@ -9224,7 +9237,7 @@
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>112</v>
       </c>
@@ -9246,7 +9259,7 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>4</v>
       </c>
@@ -9268,7 +9281,7 @@
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>4</v>
       </c>
@@ -9290,7 +9303,7 @@
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>74</v>
       </c>
@@ -9312,7 +9325,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>4</v>
       </c>
@@ -9334,7 +9347,7 @@
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>4</v>
       </c>
@@ -9356,7 +9369,7 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>2</v>
       </c>
@@ -9378,7 +9391,7 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>5</v>
       </c>
@@ -9400,7 +9413,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>3</v>
       </c>
@@ -9420,7 +9433,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>4</v>
       </c>
@@ -9442,7 +9455,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -9464,7 +9477,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>12</v>
       </c>
@@ -9486,7 +9499,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>4</v>
       </c>
@@ -9508,7 +9521,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>79</v>
       </c>
@@ -9530,7 +9543,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>2</v>
       </c>
@@ -9552,7 +9565,7 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>79</v>
       </c>
@@ -9574,7 +9587,7 @@
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>4</v>
       </c>
@@ -9596,7 +9609,7 @@
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>4</v>
       </c>
@@ -9618,7 +9631,7 @@
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -9638,7 +9651,7 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>74</v>
       </c>
@@ -9660,7 +9673,7 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>24</v>
       </c>
@@ -9682,7 +9695,7 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>2</v>
       </c>
@@ -9704,7 +9717,7 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>79</v>
       </c>
@@ -9724,8 +9737,52 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
     </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C176" s="7">
+        <v>45755</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C177" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FL163" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:FL176" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FL150">
       <sortCondition ref="C1:C144"/>
     </sortState>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF66D75-3B06-4AA5-BC66-C405249281BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C78BC7AE-3160-4529-9BED-CEF1F9F6B6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="215">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -917,6 +917,15 @@
   </si>
   <si>
     <t>14.04.2025</t>
+  </si>
+  <si>
+    <t>Avenue Kiener, Thièle</t>
+  </si>
+  <si>
+    <t>Rue du Parc 6, Thièle</t>
+  </si>
+  <si>
+    <t>Kreuzung Bahnhofstrasse / Bärengasse</t>
   </si>
 </sst>
 </file>
@@ -4356,25 +4365,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL177"/>
+  <dimension ref="A1:FL180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="39.875" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -4400,7 +4409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4422,7 +4431,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4444,7 +4453,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -4466,7 +4475,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -4488,7 +4497,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -4510,7 +4519,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -4532,7 +4541,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4554,7 +4563,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4576,7 +4585,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4598,7 +4607,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -4620,7 +4629,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4642,7 +4651,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4664,7 +4673,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -4686,7 +4695,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -4708,7 +4717,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -4730,7 +4739,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4752,7 +4761,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -4774,7 +4783,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -4796,7 +4805,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4818,7 +4827,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -4840,7 +4849,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -4862,7 +4871,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -4884,7 +4893,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -4906,7 +4915,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
@@ -4928,7 +4937,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -4950,7 +4959,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -4970,7 +4979,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -4992,7 +5001,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -5014,7 +5023,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -5036,7 +5045,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -5058,7 +5067,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -5080,7 +5089,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
@@ -5102,7 +5111,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -5122,7 +5131,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -5144,7 +5153,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -5166,7 +5175,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -5188,7 +5197,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -5210,7 +5219,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -5230,7 +5239,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
@@ -5250,7 +5259,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -5270,7 +5279,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
@@ -5290,7 +5299,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -5312,7 +5321,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -5334,7 +5343,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
@@ -5356,7 +5365,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -5378,7 +5387,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
@@ -5400,7 +5409,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -5422,7 +5431,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -5444,7 +5453,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -5464,7 +5473,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:168" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -5486,7 +5495,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -5508,7 +5517,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5528,7 +5537,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -5548,7 +5557,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:168" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -5570,7 +5579,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -5592,7 +5601,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -5614,7 +5623,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -5636,7 +5645,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -5818,7 +5827,7 @@
       <c r="FK59"/>
       <c r="FL59"/>
     </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -5877,7 +5886,7 @@
       <c r="AR60"/>
       <c r="AS60"/>
     </row>
-    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -5936,7 +5945,7 @@
       <c r="AR61"/>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6118,7 +6127,7 @@
       <c r="FK62" s="15"/>
       <c r="FL62" s="15"/>
     </row>
-    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>15</v>
       </c>
@@ -6302,7 +6311,7 @@
       <c r="FK63" s="23"/>
       <c r="FL63" s="23"/>
     </row>
-    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -6361,7 +6370,7 @@
       <c r="AR64"/>
       <c r="AS64"/>
     </row>
-    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -6420,7 +6429,7 @@
       <c r="AR65"/>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -6602,7 +6611,7 @@
       <c r="FK66" s="15"/>
       <c r="FL66" s="15"/>
     </row>
-    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -6661,7 +6670,7 @@
       <c r="AR67"/>
       <c r="AS67"/>
     </row>
-    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -6720,7 +6729,7 @@
       <c r="AR68"/>
       <c r="AS68"/>
     </row>
-    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -6779,7 +6788,7 @@
       <c r="AR69"/>
       <c r="AS69"/>
     </row>
-    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -6838,7 +6847,7 @@
       <c r="AR70"/>
       <c r="AS70"/>
     </row>
-    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -6897,7 +6906,7 @@
       <c r="AR71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -6956,7 +6965,7 @@
       <c r="AR72"/>
       <c r="AS72"/>
     </row>
-    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -7015,7 +7024,7 @@
       <c r="AR73"/>
       <c r="AS73"/>
     </row>
-    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -7074,7 +7083,7 @@
       <c r="AR74"/>
       <c r="AS74"/>
     </row>
-    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -7133,7 +7142,7 @@
       <c r="AR75"/>
       <c r="AS75"/>
     </row>
-    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -7192,7 +7201,7 @@
       <c r="AR76"/>
       <c r="AS76"/>
     </row>
-    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -7374,7 +7383,7 @@
       <c r="FK77" s="17"/>
       <c r="FL77" s="17"/>
     </row>
-    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -7425,7 +7434,7 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="1:168" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -7585,7 +7594,7 @@
       <c r="FK79" s="15"/>
       <c r="FL79" s="15"/>
     </row>
-    <row r="80" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>108</v>
       </c>
@@ -7625,7 +7634,7 @@
       <c r="AG80" s="24"/>
       <c r="AH80" s="24"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -7657,7 +7666,7 @@
       <c r="AG81" s="24"/>
       <c r="AH81" s="24"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -7679,7 +7688,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -7701,7 +7710,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -7723,7 +7732,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -7745,7 +7754,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -7767,7 +7776,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -7789,7 +7798,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -7811,7 +7820,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -7833,7 +7842,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
@@ -7859,7 +7868,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -7881,7 +7890,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -7903,7 +7912,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -7925,7 +7934,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="16"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -7947,7 +7956,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -7969,7 +7978,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -7991,7 +8000,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
@@ -8013,7 +8022,7 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>5</v>
       </c>
@@ -8039,7 +8048,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>12</v>
       </c>
@@ -8065,7 +8074,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>3</v>
       </c>
@@ -8091,7 +8100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>12</v>
       </c>
@@ -8117,7 +8126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
@@ -8139,7 +8148,7 @@
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
@@ -8159,7 +8168,7 @@
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>24</v>
       </c>
@@ -8181,7 +8190,7 @@
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>4</v>
       </c>
@@ -8203,7 +8212,7 @@
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>4</v>
       </c>
@@ -8225,7 +8234,7 @@
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
@@ -8247,7 +8256,7 @@
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>27</v>
       </c>
@@ -8269,7 +8278,7 @@
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>24</v>
       </c>
@@ -8291,7 +8300,7 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>24</v>
       </c>
@@ -8313,7 +8322,7 @@
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
@@ -8335,7 +8344,7 @@
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
@@ -8357,7 +8366,7 @@
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="25" t="s">
         <v>79</v>
       </c>
@@ -8383,7 +8392,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -8405,7 +8414,7 @@
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
@@ -8427,7 +8436,7 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
@@ -8449,7 +8458,7 @@
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>3</v>
       </c>
@@ -8469,7 +8478,7 @@
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>4</v>
       </c>
@@ -8491,7 +8500,7 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>79</v>
       </c>
@@ -8511,7 +8520,7 @@
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>3</v>
       </c>
@@ -8531,7 +8540,7 @@
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>3</v>
       </c>
@@ -8551,7 +8560,7 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>4</v>
       </c>
@@ -8573,7 +8582,7 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>5</v>
       </c>
@@ -8595,7 +8604,7 @@
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>112</v>
       </c>
@@ -8617,7 +8626,7 @@
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="34" t="s">
         <v>3</v>
       </c>
@@ -8641,7 +8650,7 @@
       </c>
       <c r="H125" s="34"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="25" t="s">
         <v>3</v>
       </c>
@@ -8667,7 +8676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>3</v>
       </c>
@@ -8689,7 +8698,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>29</v>
       </c>
@@ -8709,7 +8718,7 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
         <v>3</v>
       </c>
@@ -8731,7 +8740,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="25" t="s">
         <v>24</v>
       </c>
@@ -8757,7 +8766,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
@@ -8779,7 +8788,7 @@
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
@@ -8799,7 +8808,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
         <v>4</v>
       </c>
@@ -8825,7 +8834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>12</v>
       </c>
@@ -8847,7 +8856,7 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>12</v>
       </c>
@@ -8869,7 +8878,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>12</v>
       </c>
@@ -8891,7 +8900,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>167</v>
       </c>
@@ -8911,7 +8920,7 @@
       <c r="G137" s="38"/>
       <c r="H137" s="39"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>29</v>
       </c>
@@ -8933,7 +8942,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="39"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>4</v>
       </c>
@@ -8955,7 +8964,7 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>168</v>
       </c>
@@ -8977,7 +8986,7 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -8999,7 +9008,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>4</v>
       </c>
@@ -9019,7 +9028,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -9041,7 +9050,7 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>4</v>
       </c>
@@ -9063,7 +9072,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>4</v>
       </c>
@@ -9085,7 +9094,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -9107,7 +9116,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>63</v>
       </c>
@@ -9127,7 +9136,7 @@
       <c r="G147" s="40"/>
       <c r="H147" s="40"/>
     </row>
-    <row r="148" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>5</v>
       </c>
@@ -9149,7 +9158,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -9171,7 +9180,7 @@
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>24</v>
       </c>
@@ -9193,7 +9202,7 @@
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -9215,7 +9224,7 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>4</v>
       </c>
@@ -9237,7 +9246,7 @@
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>112</v>
       </c>
@@ -9259,7 +9268,7 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>4</v>
       </c>
@@ -9281,7 +9290,7 @@
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>4</v>
       </c>
@@ -9303,7 +9312,7 @@
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>74</v>
       </c>
@@ -9325,7 +9334,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>4</v>
       </c>
@@ -9347,7 +9356,7 @@
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>4</v>
       </c>
@@ -9369,7 +9378,7 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>2</v>
       </c>
@@ -9391,7 +9400,7 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>5</v>
       </c>
@@ -9413,7 +9422,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>3</v>
       </c>
@@ -9433,7 +9442,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>4</v>
       </c>
@@ -9455,7 +9464,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -9477,7 +9486,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>12</v>
       </c>
@@ -9499,7 +9508,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>4</v>
       </c>
@@ -9521,7 +9530,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>79</v>
       </c>
@@ -9543,7 +9552,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>2</v>
       </c>
@@ -9565,7 +9574,7 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>79</v>
       </c>
@@ -9587,7 +9596,7 @@
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>4</v>
       </c>
@@ -9609,7 +9618,7 @@
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>4</v>
       </c>
@@ -9631,7 +9640,7 @@
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -9651,7 +9660,7 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>74</v>
       </c>
@@ -9673,7 +9682,7 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>24</v>
       </c>
@@ -9695,7 +9704,7 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>2</v>
       </c>
@@ -9717,7 +9726,7 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>79</v>
       </c>
@@ -9737,7 +9746,7 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>4</v>
       </c>
@@ -9759,7 +9768,7 @@
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>2</v>
       </c>
@@ -9780,6 +9789,72 @@
       </c>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C178" s="7">
+        <v>45764</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C179" s="7">
+        <v>45764</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C180" s="7">
+        <v>45768</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:FL176" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C78BC7AE-3160-4529-9BED-CEF1F9F6B6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4839CF0C-A21C-46B2-8489-750096174D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="218">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -926,6 +926,15 @@
   </si>
   <si>
     <t>Kreuzung Bahnhofstrasse / Bärengasse</t>
+  </si>
+  <si>
+    <t>dans le lac près de la rive, 1897 Le Bouveret</t>
+  </si>
+  <si>
+    <t>Badi Tiefenbrunnen, Bellewuestrasse 200, Zürich</t>
+  </si>
+  <si>
+    <t>Avenue Kiener, Yverdon-les-Bains, Ruisseau-Déversoir -&gt; La Thièle</t>
   </si>
 </sst>
 </file>
@@ -4365,20 +4374,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL180"/>
+  <dimension ref="A1:FL183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C184" sqref="C184"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A183" sqref="A183:XFD183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="39.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.9140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="36.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" customWidth="1"/>
     <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
@@ -9856,6 +9865,72 @@
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
     </row>
+    <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C181" s="7">
+        <v>45774</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C182" s="7">
+        <v>45775</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C183" s="7">
+        <v>45782</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:FL176" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FL150">

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4839CF0C-A21C-46B2-8489-750096174D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF57329-F1B4-4993-8CAA-56A0A265798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="222">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -935,6 +935,18 @@
   </si>
   <si>
     <t>Avenue Kiener, Yverdon-les-Bains, Ruisseau-Déversoir -&gt; La Thièle</t>
+  </si>
+  <si>
+    <t>Bellerivestrasse 200, Seebad Tiefenbrunnen, Zürich</t>
+  </si>
+  <si>
+    <t>Im Motorboothafen, Alpenquai 15, Luzern</t>
+  </si>
+  <si>
+    <t>Schulhausplatz, Mühlebachstrasse 71, 8008 Zürich</t>
+  </si>
+  <si>
+    <t>1845 Noville</t>
   </si>
 </sst>
 </file>
@@ -4374,20 +4386,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL183"/>
+  <dimension ref="A1:FL187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A183" sqref="A183:XFD183"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.9140625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="36.08203125" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
@@ -9931,6 +9943,94 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C184" s="7">
+        <v>45784</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C185" s="7">
+        <v>45787</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C186" s="7">
+        <v>45789</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C187" s="7">
+        <v>45796</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:FL176" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FL150">

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF57329-F1B4-4993-8CAA-56A0A265798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DDA9861-808D-4893-97F5-2013AB2533A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4389,8 +4389,8 @@
   <dimension ref="A1:FL187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D192" sqref="D192"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10032,11 +10032,6 @@
       <c r="H187" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FL176" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FL150">
-      <sortCondition ref="C1:C144"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DDA9861-808D-4893-97F5-2013AB2533A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C716BFC-E7EE-4906-B4AA-4303D7118D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="237">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -947,6 +947,52 @@
   </si>
   <si>
     <t>1845 Noville</t>
+  </si>
+  <si>
+    <t>4054 Gipf-Oberfrick, Im Hof 6c</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Nashornanlage Zoo Basel</t>
+  </si>
+  <si>
+    <t>6048 Horw, Solinaweg 4, im See</t>
+  </si>
+  <si>
+    <t>Seeufer, Sempachersee, Sempach</t>
+  </si>
+  <si>
+    <t>6206 Neuenkirch</t>
+  </si>
+  <si>
+    <t>Europaplatz, Landungssteg 6, Luzern</t>
+  </si>
+  <si>
+    <t>Hafen Enge in Zürich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Inseli Park, Werftsteg, 6005 Luzern</t>
+  </si>
+  <si>
+    <t>Gelände Bootsvermietung Rytz+Kreuzer, Seefeldquai 8, 8008 Zürich</t>
+  </si>
+  <si>
+    <t>Rabenvögel</t>
+  </si>
+  <si>
+    <t>Aaskrähe</t>
+  </si>
+  <si>
+    <t>8212 Neuhausen</t>
+  </si>
+  <si>
+    <t>8406 Winterthur</t>
+  </si>
+  <si>
+    <t>Huhn</t>
   </si>
 </sst>
 </file>
@@ -4386,11 +4432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL187"/>
+  <dimension ref="A1:FL202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9726,218 +9772,218 @@
       <c r="H173" s="8"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="14">
         <v>45748</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E174" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" s="5" t="s">
+      <c r="E174" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="14">
         <v>45749</v>
       </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5" t="s">
+      <c r="D175" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E175" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14">
+        <v>45749</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B177" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C177" s="14">
         <v>45755</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D177" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E176" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C177" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" s="16" t="s">
+      <c r="E177" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C178" s="7">
-        <v>45764</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F178" s="5" t="s">
+      <c r="A178" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C178" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C179" s="7">
+      <c r="B179" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C179" s="14">
         <v>45764</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179" s="5" t="s">
+      <c r="D179" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C180" s="7">
-        <v>45768</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180" s="5" t="s">
+      <c r="A180" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C180" s="14">
+        <v>45764</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
     </row>
-    <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C181" s="7">
-        <v>45774</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" s="5" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C181" s="14">
+        <v>45768</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C182" s="7">
-        <v>45775</v>
-      </c>
-      <c r="D182" s="5" t="s">
+    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C182" s="14">
+        <v>45774</v>
+      </c>
+      <c r="D182" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E182" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" s="5" t="s">
+      <c r="E182" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C183" s="7">
-        <v>45782</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F183" s="5" t="s">
+      <c r="A183" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C183" s="14">
+        <v>45775</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G183" s="10"/>
@@ -9945,16 +9991,16 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>221</v>
+        <v>2</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="C184" s="7">
-        <v>45784</v>
+        <v>45782</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>9</v>
@@ -9967,16 +10013,16 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>218</v>
+        <v>4</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="C185" s="7">
-        <v>45787</v>
+        <v>45784</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>9</v>
@@ -9989,16 +10035,16 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C186" s="7">
-        <v>45789</v>
+        <v>45787</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>9</v>
@@ -10011,16 +10057,16 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C187" s="7">
-        <v>45796</v>
+        <v>45789</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>9</v>
@@ -10031,7 +10077,332 @@
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C188" s="7">
+        <v>45789</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C189" s="7">
+        <v>45796</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C190" s="7">
+        <v>45803</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C191" s="7">
+        <v>45804</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B192" s="9"/>
+      <c r="C192" s="7">
+        <v>45807</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C193" s="7">
+        <v>45807</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B194" s="9"/>
+      <c r="C194" s="7">
+        <v>45808</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C195" s="7">
+        <v>45810</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+    </row>
+    <row r="196" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C196" s="7">
+        <v>45813</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C197" s="7">
+        <v>45814</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B198" s="9"/>
+      <c r="C198" s="7">
+        <v>45815</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C199" s="7">
+        <v>45819</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C200" s="7">
+        <v>45819</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+    </row>
+    <row r="201" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C201" s="7">
+        <v>45825</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C202" s="42">
+        <v>45828</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G202" s="16"/>
+      <c r="H202" s="16"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:FL189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C716BFC-E7EE-4906-B4AA-4303D7118D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{339AFE31-5E56-4A3B-92F2-ABABE2C9BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="540" windowWidth="21600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="239">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -993,6 +993,12 @@
   </si>
   <si>
     <t>Huhn</t>
+  </si>
+  <si>
+    <t>Hafen Kleinhüningen (Dock) in 4057 Basel</t>
+  </si>
+  <si>
+    <t>Utoquai 50, 8008 Zürich</t>
   </si>
 </sst>
 </file>
@@ -4432,25 +4438,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL202"/>
+  <dimension ref="A1:FL205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="39.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="39.875" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4498,7 +4504,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4520,7 +4526,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -4542,7 +4548,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -4564,7 +4570,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -4586,7 +4592,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -4608,7 +4614,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4630,7 +4636,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4652,7 +4658,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4674,7 +4680,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -4696,7 +4702,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4718,7 +4724,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4740,7 +4746,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -4762,7 +4768,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -4784,7 +4790,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -4806,7 +4812,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4828,7 +4834,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -4850,7 +4856,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -4872,7 +4878,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4894,7 +4900,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -4916,7 +4922,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -4938,7 +4944,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -4960,7 +4966,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -4982,7 +4988,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
@@ -5004,7 +5010,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -5026,7 +5032,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -5046,7 +5052,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -5068,7 +5074,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -5090,7 +5096,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -5112,7 +5118,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -5134,7 +5140,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -5156,7 +5162,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
@@ -5178,7 +5184,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -5198,7 +5204,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -5220,7 +5226,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -5242,7 +5248,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -5264,7 +5270,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -5286,7 +5292,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -5306,7 +5312,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
@@ -5326,7 +5332,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -5346,7 +5352,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
@@ -5366,7 +5372,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -5388,7 +5394,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +5416,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
@@ -5432,7 +5438,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -5454,7 +5460,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
@@ -5476,7 +5482,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -5498,7 +5504,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -5520,7 +5526,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -5540,7 +5546,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:168" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -5562,7 +5568,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -5584,7 +5590,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5604,7 +5610,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -5624,7 +5630,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:168" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -5646,7 +5652,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -5668,7 +5674,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -5690,7 +5696,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -5712,7 +5718,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -5894,7 +5900,7 @@
       <c r="FK59"/>
       <c r="FL59"/>
     </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -5953,7 +5959,7 @@
       <c r="AR60"/>
       <c r="AS60"/>
     </row>
-    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -6012,7 +6018,7 @@
       <c r="AR61"/>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6194,7 +6200,7 @@
       <c r="FK62" s="15"/>
       <c r="FL62" s="15"/>
     </row>
-    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>15</v>
       </c>
@@ -6378,7 +6384,7 @@
       <c r="FK63" s="23"/>
       <c r="FL63" s="23"/>
     </row>
-    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -6437,7 +6443,7 @@
       <c r="AR64"/>
       <c r="AS64"/>
     </row>
-    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -6496,7 +6502,7 @@
       <c r="AR65"/>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -6678,7 +6684,7 @@
       <c r="FK66" s="15"/>
       <c r="FL66" s="15"/>
     </row>
-    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -6737,7 +6743,7 @@
       <c r="AR67"/>
       <c r="AS67"/>
     </row>
-    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -6796,7 +6802,7 @@
       <c r="AR68"/>
       <c r="AS68"/>
     </row>
-    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -6855,7 +6861,7 @@
       <c r="AR69"/>
       <c r="AS69"/>
     </row>
-    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -6914,7 +6920,7 @@
       <c r="AR70"/>
       <c r="AS70"/>
     </row>
-    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -6973,7 +6979,7 @@
       <c r="AR71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -7032,7 +7038,7 @@
       <c r="AR72"/>
       <c r="AS72"/>
     </row>
-    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -7091,7 +7097,7 @@
       <c r="AR73"/>
       <c r="AS73"/>
     </row>
-    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -7150,7 +7156,7 @@
       <c r="AR74"/>
       <c r="AS74"/>
     </row>
-    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -7209,7 +7215,7 @@
       <c r="AR75"/>
       <c r="AS75"/>
     </row>
-    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -7268,7 +7274,7 @@
       <c r="AR76"/>
       <c r="AS76"/>
     </row>
-    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7456,7 @@
       <c r="FK77" s="17"/>
       <c r="FL77" s="17"/>
     </row>
-    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -7501,7 +7507,7 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:168" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -7661,7 +7667,7 @@
       <c r="FK79" s="15"/>
       <c r="FL79" s="15"/>
     </row>
-    <row r="80" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:168" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>108</v>
       </c>
@@ -7701,7 +7707,7 @@
       <c r="AG80" s="24"/>
       <c r="AH80" s="24"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -7733,7 +7739,7 @@
       <c r="AG81" s="24"/>
       <c r="AH81" s="24"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -7755,7 +7761,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -7777,7 +7783,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -7799,7 +7805,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -7821,7 +7827,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -7843,7 +7849,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -7865,7 +7871,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -7887,7 +7893,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -7909,7 +7915,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -7957,7 +7963,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -7979,7 +7985,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -8001,7 +8007,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="16"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -8023,7 +8029,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -8045,7 +8051,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -8067,7 +8073,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
@@ -8089,7 +8095,7 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>5</v>
       </c>
@@ -8115,7 +8121,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>12</v>
       </c>
@@ -8141,7 +8147,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>3</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
         <v>12</v>
       </c>
@@ -8193,7 +8199,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
@@ -8215,7 +8221,7 @@
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
@@ -8235,7 +8241,7 @@
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>24</v>
       </c>
@@ -8257,7 +8263,7 @@
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>4</v>
       </c>
@@ -8279,7 +8285,7 @@
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>4</v>
       </c>
@@ -8301,7 +8307,7 @@
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
@@ -8323,7 +8329,7 @@
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>27</v>
       </c>
@@ -8345,7 +8351,7 @@
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>24</v>
       </c>
@@ -8367,7 +8373,7 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>24</v>
       </c>
@@ -8389,7 +8395,7 @@
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
@@ -8411,7 +8417,7 @@
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
@@ -8433,7 +8439,7 @@
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
         <v>79</v>
       </c>
@@ -8459,7 +8465,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -8481,7 +8487,7 @@
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
@@ -8503,7 +8509,7 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
@@ -8525,7 +8531,7 @@
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>3</v>
       </c>
@@ -8545,7 +8551,7 @@
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>4</v>
       </c>
@@ -8567,7 +8573,7 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>79</v>
       </c>
@@ -8587,7 +8593,7 @@
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>3</v>
       </c>
@@ -8607,7 +8613,7 @@
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>3</v>
       </c>
@@ -8627,7 +8633,7 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>4</v>
       </c>
@@ -8649,7 +8655,7 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>5</v>
       </c>
@@ -8671,7 +8677,7 @@
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>112</v>
       </c>
@@ -8693,7 +8699,7 @@
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
         <v>3</v>
       </c>
@@ -8717,7 +8723,7 @@
       </c>
       <c r="H125" s="34"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
         <v>3</v>
       </c>
@@ -8743,7 +8749,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>3</v>
       </c>
@@ -8765,7 +8771,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>29</v>
       </c>
@@ -8785,7 +8791,7 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>3</v>
       </c>
@@ -8807,7 +8813,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
         <v>24</v>
       </c>
@@ -8833,7 +8839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
@@ -8855,7 +8861,7 @@
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
@@ -8875,7 +8881,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
         <v>4</v>
       </c>
@@ -8901,7 +8907,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>12</v>
       </c>
@@ -8923,7 +8929,7 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>12</v>
       </c>
@@ -8945,7 +8951,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>12</v>
       </c>
@@ -8967,7 +8973,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>167</v>
       </c>
@@ -8987,7 +8993,7 @@
       <c r="G137" s="38"/>
       <c r="H137" s="39"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>29</v>
       </c>
@@ -9009,7 +9015,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="39"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>4</v>
       </c>
@@ -9031,7 +9037,7 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>168</v>
       </c>
@@ -9053,7 +9059,7 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -9075,7 +9081,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>4</v>
       </c>
@@ -9095,7 +9101,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -9117,7 +9123,7 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>4</v>
       </c>
@@ -9139,7 +9145,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>4</v>
       </c>
@@ -9161,7 +9167,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -9183,7 +9189,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>63</v>
       </c>
@@ -9203,7 +9209,7 @@
       <c r="G147" s="40"/>
       <c r="H147" s="40"/>
     </row>
-    <row r="148" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>5</v>
       </c>
@@ -9225,7 +9231,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -9247,7 +9253,7 @@
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>24</v>
       </c>
@@ -9269,7 +9275,7 @@
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -9291,7 +9297,7 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>4</v>
       </c>
@@ -9313,7 +9319,7 @@
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>112</v>
       </c>
@@ -9335,7 +9341,7 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>4</v>
       </c>
@@ -9357,7 +9363,7 @@
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>4</v>
       </c>
@@ -9379,7 +9385,7 @@
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>74</v>
       </c>
@@ -9401,7 +9407,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>4</v>
       </c>
@@ -9423,7 +9429,7 @@
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>4</v>
       </c>
@@ -9445,7 +9451,7 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>2</v>
       </c>
@@ -9467,7 +9473,7 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>5</v>
       </c>
@@ -9489,7 +9495,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>3</v>
       </c>
@@ -9509,7 +9515,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>4</v>
       </c>
@@ -9531,7 +9537,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -9553,7 +9559,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>12</v>
       </c>
@@ -9575,7 +9581,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>4</v>
       </c>
@@ -9597,7 +9603,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>79</v>
       </c>
@@ -9619,7 +9625,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>2</v>
       </c>
@@ -9641,7 +9647,7 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>79</v>
       </c>
@@ -9663,7 +9669,7 @@
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>4</v>
       </c>
@@ -9685,7 +9691,7 @@
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>4</v>
       </c>
@@ -9707,7 +9713,7 @@
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -9727,7 +9733,7 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>74</v>
       </c>
@@ -9749,7 +9755,7 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>24</v>
       </c>
@@ -9771,7 +9777,7 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>2</v>
       </c>
@@ -9793,7 +9799,7 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>79</v>
       </c>
@@ -9815,7 +9821,7 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>3</v>
       </c>
@@ -9835,7 +9841,7 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>4</v>
       </c>
@@ -9857,7 +9863,7 @@
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>2</v>
       </c>
@@ -9879,7 +9885,7 @@
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>4</v>
       </c>
@@ -9901,7 +9907,7 @@
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>4</v>
       </c>
@@ -9923,7 +9929,7 @@
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>2</v>
       </c>
@@ -9945,7 +9951,7 @@
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>4</v>
       </c>
@@ -9967,7 +9973,7 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>168</v>
       </c>
@@ -9989,7 +9995,7 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>2</v>
       </c>
@@ -10011,7 +10017,7 @@
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>4</v>
       </c>
@@ -10033,7 +10039,7 @@
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>2</v>
       </c>
@@ -10055,7 +10061,7 @@
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>79</v>
       </c>
@@ -10077,7 +10083,7 @@
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>112</v>
       </c>
@@ -10099,7 +10105,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>2</v>
       </c>
@@ -10121,7 +10127,7 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>74</v>
       </c>
@@ -10143,7 +10149,7 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>79</v>
       </c>
@@ -10165,7 +10171,7 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>79</v>
       </c>
@@ -10185,7 +10191,7 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>79</v>
       </c>
@@ -10207,7 +10213,7 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>223</v>
       </c>
@@ -10227,7 +10233,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>79</v>
       </c>
@@ -10249,7 +10255,7 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>79</v>
       </c>
@@ -10271,7 +10277,7 @@
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>79</v>
       </c>
@@ -10293,7 +10299,7 @@
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>79</v>
       </c>
@@ -10313,7 +10319,7 @@
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>2</v>
       </c>
@@ -10335,7 +10341,7 @@
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>2</v>
       </c>
@@ -10357,7 +10363,7 @@
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>2</v>
       </c>
@@ -10379,7 +10385,7 @@
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>5</v>
       </c>
@@ -10393,13 +10399,77 @@
         <v>233</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G202" s="16"/>
       <c r="H202" s="16"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" s="9"/>
+      <c r="C203" s="7">
+        <v>45838</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C204" s="7">
+        <v>45845</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C205" s="7">
+        <v>45847</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:FL189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Abteilungen\WG\Kompetenzzentrum_Daten\OGD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{339AFE31-5E56-4A3B-92F2-ABABE2C9BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F1D6EA-6921-46BA-A810-DBB131F7146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="540" windowWidth="21600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="245">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -999,6 +999,25 @@
   </si>
   <si>
     <t>Utoquai 50, 8008 Zürich</t>
+  </si>
+  <si>
+    <t>route le Rocheray, Lac de Joux
+2313 La Rocheray</t>
+  </si>
+  <si>
+    <t>6000 Luzern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6205 Eich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildstation behandelt und euthanasiert. </t>
+  </si>
+  <si>
+    <t>Rorschach, am Hafen. Mehrere Tiere am Ort klinisch krank/verstorben.</t>
+  </si>
+  <si>
+    <t>Aare (Thalmatt), nähe Wohlensee</t>
   </si>
 </sst>
 </file>
@@ -4438,25 +4457,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL205"/>
+  <dimension ref="A1:FL211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="39.875" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -4482,7 +4501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4504,7 +4523,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4526,7 +4545,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -4548,7 +4567,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -4570,7 +4589,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -4592,7 +4611,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -4614,7 +4633,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4636,7 +4655,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4658,7 +4677,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4680,7 +4699,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -4702,7 +4721,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4724,7 +4743,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4746,7 +4765,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -4768,7 +4787,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -4790,7 +4809,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -4812,7 +4831,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4834,7 +4853,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -4856,7 +4875,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -4878,7 +4897,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4900,7 +4919,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -4922,7 +4941,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -4944,7 +4963,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -4966,7 +4985,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -4988,7 +5007,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
@@ -5010,7 +5029,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -5032,7 +5051,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -5052,7 +5071,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -5074,7 +5093,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -5096,7 +5115,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -5118,7 +5137,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -5140,7 +5159,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -5162,7 +5181,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
@@ -5184,7 +5203,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -5204,7 +5223,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -5226,7 +5245,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -5248,7 +5267,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -5270,7 +5289,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -5292,7 +5311,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -5312,7 +5331,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
@@ -5332,7 +5351,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -5352,7 +5371,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
@@ -5372,7 +5391,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -5394,7 +5413,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -5416,7 +5435,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
@@ -5438,7 +5457,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -5460,7 +5479,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
@@ -5482,7 +5501,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -5504,7 +5523,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -5526,7 +5545,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -5546,7 +5565,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:168" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -5568,7 +5587,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -5590,7 +5609,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5610,7 +5629,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -5630,7 +5649,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:168" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -5652,7 +5671,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -5674,7 +5693,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -5696,7 +5715,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -5718,7 +5737,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -5900,7 +5919,7 @@
       <c r="FK59"/>
       <c r="FL59"/>
     </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -5959,7 +5978,7 @@
       <c r="AR60"/>
       <c r="AS60"/>
     </row>
-    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -6018,7 +6037,7 @@
       <c r="AR61"/>
       <c r="AS61"/>
     </row>
-    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6200,7 +6219,7 @@
       <c r="FK62" s="15"/>
       <c r="FL62" s="15"/>
     </row>
-    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>15</v>
       </c>
@@ -6384,7 +6403,7 @@
       <c r="FK63" s="23"/>
       <c r="FL63" s="23"/>
     </row>
-    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -6443,7 +6462,7 @@
       <c r="AR64"/>
       <c r="AS64"/>
     </row>
-    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -6502,7 +6521,7 @@
       <c r="AR65"/>
       <c r="AS65"/>
     </row>
-    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -6684,7 +6703,7 @@
       <c r="FK66" s="15"/>
       <c r="FL66" s="15"/>
     </row>
-    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -6743,7 +6762,7 @@
       <c r="AR67"/>
       <c r="AS67"/>
     </row>
-    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -6802,7 +6821,7 @@
       <c r="AR68"/>
       <c r="AS68"/>
     </row>
-    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -6861,7 +6880,7 @@
       <c r="AR69"/>
       <c r="AS69"/>
     </row>
-    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -6920,7 +6939,7 @@
       <c r="AR70"/>
       <c r="AS70"/>
     </row>
-    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -6979,7 +6998,7 @@
       <c r="AR71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -7038,7 +7057,7 @@
       <c r="AR72"/>
       <c r="AS72"/>
     </row>
-    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -7097,7 +7116,7 @@
       <c r="AR73"/>
       <c r="AS73"/>
     </row>
-    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -7156,7 +7175,7 @@
       <c r="AR74"/>
       <c r="AS74"/>
     </row>
-    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -7215,7 +7234,7 @@
       <c r="AR75"/>
       <c r="AS75"/>
     </row>
-    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -7274,7 +7293,7 @@
       <c r="AR76"/>
       <c r="AS76"/>
     </row>
-    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -7456,7 +7475,7 @@
       <c r="FK77" s="17"/>
       <c r="FL77" s="17"/>
     </row>
-    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -7507,7 +7526,7 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="1:168" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -7667,7 +7686,7 @@
       <c r="FK79" s="15"/>
       <c r="FL79" s="15"/>
     </row>
-    <row r="80" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>108</v>
       </c>
@@ -7707,7 +7726,7 @@
       <c r="AG80" s="24"/>
       <c r="AH80" s="24"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -7739,7 +7758,7 @@
       <c r="AG81" s="24"/>
       <c r="AH81" s="24"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -7761,7 +7780,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -7783,7 +7802,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -7805,7 +7824,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -7827,7 +7846,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -7849,7 +7868,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -7871,7 +7890,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -7893,7 +7912,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -7915,7 +7934,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
@@ -7941,7 +7960,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -7963,7 +7982,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -7985,7 +8004,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -8007,7 +8026,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="16"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -8029,7 +8048,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -8051,7 +8070,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -8073,7 +8092,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
@@ -8095,7 +8114,7 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>5</v>
       </c>
@@ -8121,7 +8140,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>12</v>
       </c>
@@ -8147,7 +8166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>3</v>
       </c>
@@ -8173,7 +8192,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>12</v>
       </c>
@@ -8199,7 +8218,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
@@ -8221,7 +8240,7 @@
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
@@ -8241,7 +8260,7 @@
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>24</v>
       </c>
@@ -8263,7 +8282,7 @@
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>4</v>
       </c>
@@ -8285,7 +8304,7 @@
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>4</v>
       </c>
@@ -8307,7 +8326,7 @@
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
@@ -8329,7 +8348,7 @@
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>27</v>
       </c>
@@ -8351,7 +8370,7 @@
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>24</v>
       </c>
@@ -8373,7 +8392,7 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>24</v>
       </c>
@@ -8395,7 +8414,7 @@
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
@@ -8417,7 +8436,7 @@
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
@@ -8439,7 +8458,7 @@
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="25" t="s">
         <v>79</v>
       </c>
@@ -8465,7 +8484,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -8487,7 +8506,7 @@
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
@@ -8509,7 +8528,7 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
@@ -8531,7 +8550,7 @@
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>3</v>
       </c>
@@ -8551,7 +8570,7 @@
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>4</v>
       </c>
@@ -8573,7 +8592,7 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>79</v>
       </c>
@@ -8593,7 +8612,7 @@
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>3</v>
       </c>
@@ -8613,7 +8632,7 @@
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>3</v>
       </c>
@@ -8633,7 +8652,7 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>4</v>
       </c>
@@ -8655,7 +8674,7 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>5</v>
       </c>
@@ -8677,7 +8696,7 @@
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>112</v>
       </c>
@@ -8699,7 +8718,7 @@
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="34" t="s">
         <v>3</v>
       </c>
@@ -8723,7 +8742,7 @@
       </c>
       <c r="H125" s="34"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="25" t="s">
         <v>3</v>
       </c>
@@ -8749,7 +8768,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>3</v>
       </c>
@@ -8771,7 +8790,7 @@
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>29</v>
       </c>
@@ -8791,7 +8810,7 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
         <v>3</v>
       </c>
@@ -8813,7 +8832,7 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="25" t="s">
         <v>24</v>
       </c>
@@ -8839,7 +8858,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
@@ -8861,7 +8880,7 @@
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
@@ -8881,7 +8900,7 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
         <v>4</v>
       </c>
@@ -8907,7 +8926,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>12</v>
       </c>
@@ -8929,7 +8948,7 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>12</v>
       </c>
@@ -8951,7 +8970,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>12</v>
       </c>
@@ -8973,7 +8992,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>167</v>
       </c>
@@ -8993,7 +9012,7 @@
       <c r="G137" s="38"/>
       <c r="H137" s="39"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>29</v>
       </c>
@@ -9015,7 +9034,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="39"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>4</v>
       </c>
@@ -9037,7 +9056,7 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>168</v>
       </c>
@@ -9059,7 +9078,7 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -9081,7 +9100,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>4</v>
       </c>
@@ -9101,7 +9120,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -9123,7 +9142,7 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>4</v>
       </c>
@@ -9145,7 +9164,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>4</v>
       </c>
@@ -9167,7 +9186,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -9189,7 +9208,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>63</v>
       </c>
@@ -9209,7 +9228,7 @@
       <c r="G147" s="40"/>
       <c r="H147" s="40"/>
     </row>
-    <row r="148" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>5</v>
       </c>
@@ -9231,7 +9250,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -9253,7 +9272,7 @@
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>24</v>
       </c>
@@ -9275,7 +9294,7 @@
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -9297,7 +9316,7 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>4</v>
       </c>
@@ -9319,7 +9338,7 @@
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>112</v>
       </c>
@@ -9341,7 +9360,7 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>4</v>
       </c>
@@ -9363,7 +9382,7 @@
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>4</v>
       </c>
@@ -9385,7 +9404,7 @@
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>74</v>
       </c>
@@ -9407,7 +9426,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>4</v>
       </c>
@@ -9429,7 +9448,7 @@
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>4</v>
       </c>
@@ -9451,7 +9470,7 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>2</v>
       </c>
@@ -9473,7 +9492,7 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>5</v>
       </c>
@@ -9495,7 +9514,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>3</v>
       </c>
@@ -9515,7 +9534,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>4</v>
       </c>
@@ -9537,7 +9556,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -9559,7 +9578,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>12</v>
       </c>
@@ -9581,7 +9600,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>4</v>
       </c>
@@ -9603,7 +9622,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>79</v>
       </c>
@@ -9625,7 +9644,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>2</v>
       </c>
@@ -9647,7 +9666,7 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>79</v>
       </c>
@@ -9669,7 +9688,7 @@
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>4</v>
       </c>
@@ -9691,7 +9710,7 @@
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>4</v>
       </c>
@@ -9713,7 +9732,7 @@
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -9733,7 +9752,7 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>74</v>
       </c>
@@ -9755,7 +9774,7 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>24</v>
       </c>
@@ -9777,7 +9796,7 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="11" t="s">
         <v>2</v>
       </c>
@@ -9799,7 +9818,7 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="11" t="s">
         <v>79</v>
       </c>
@@ -9821,7 +9840,7 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="11" t="s">
         <v>3</v>
       </c>
@@ -9841,7 +9860,7 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
         <v>4</v>
       </c>
@@ -9863,7 +9882,7 @@
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="11" t="s">
         <v>2</v>
       </c>
@@ -9885,7 +9904,7 @@
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="s">
         <v>4</v>
       </c>
@@ -9907,7 +9926,7 @@
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="11" t="s">
         <v>4</v>
       </c>
@@ -9929,7 +9948,7 @@
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="s">
         <v>2</v>
       </c>
@@ -9951,7 +9970,7 @@
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="11" t="s">
         <v>4</v>
       </c>
@@ -9973,7 +9992,7 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="s">
         <v>168</v>
       </c>
@@ -9995,7 +10014,7 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>2</v>
       </c>
@@ -10017,7 +10036,7 @@
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>4</v>
       </c>
@@ -10039,7 +10058,7 @@
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>2</v>
       </c>
@@ -10061,7 +10080,7 @@
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>79</v>
       </c>
@@ -10083,7 +10102,7 @@
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>112</v>
       </c>
@@ -10105,7 +10124,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>2</v>
       </c>
@@ -10127,7 +10146,7 @@
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>74</v>
       </c>
@@ -10149,7 +10168,7 @@
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>79</v>
       </c>
@@ -10171,7 +10190,7 @@
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>79</v>
       </c>
@@ -10191,7 +10210,7 @@
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>79</v>
       </c>
@@ -10213,7 +10232,7 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>223</v>
       </c>
@@ -10233,7 +10252,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>79</v>
       </c>
@@ -10255,7 +10274,7 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>79</v>
       </c>
@@ -10277,7 +10296,7 @@
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>79</v>
       </c>
@@ -10299,7 +10318,7 @@
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>79</v>
       </c>
@@ -10319,7 +10338,7 @@
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>2</v>
       </c>
@@ -10341,7 +10360,7 @@
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>2</v>
       </c>
@@ -10363,7 +10382,7 @@
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>2</v>
       </c>
@@ -10385,7 +10404,7 @@
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>5</v>
       </c>
@@ -10407,7 +10426,7 @@
       <c r="G202" s="16"/>
       <c r="H202" s="16"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>3</v>
       </c>
@@ -10427,7 +10446,7 @@
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>74</v>
       </c>
@@ -10449,7 +10468,7 @@
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>2</v>
       </c>
@@ -10471,8 +10490,139 @@
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
+    <row r="206" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C206" s="7">
+        <v>45874</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C207" s="7">
+        <v>45880</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G207" s="8"/>
+      <c r="H207" s="8"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C208" s="7">
+        <v>45887</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C209" s="7">
+        <v>45887</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C210" s="7">
+        <v>45888</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G210" s="8"/>
+      <c r="H210" s="8"/>
+    </row>
+    <row r="211" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C211" s="7">
+        <v>45889</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G211" s="8"/>
+      <c r="H211" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FL189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Abteilungen\WG\Kompetenzzentrum_Daten\OGD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F1D6EA-6921-46BA-A810-DBB131F7146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29F396D-C1E0-4BE5-813A-B1A82A9E3941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="246">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1019,6 +1019,10 @@
   <si>
     <t>Aare (Thalmatt), nähe Wohlensee</t>
   </si>
+  <si>
+    <t>Einlaufrechen Kraftwerk Schaffhausen
+Mühlenstrasse 19, 8200 Schaffhausen</t>
+  </si>
 </sst>
 </file>
 
@@ -1027,7 +1031,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1369,6 +1373,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2910,7 +2920,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3025,6 +3035,15 @@
     </xf>
     <xf numFmtId="14" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1152">
@@ -4457,11 +4476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL211"/>
+  <dimension ref="A1:FL215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C205" sqref="C204:C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10622,6 +10641,88 @@
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
     </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" s="9"/>
+      <c r="C212" s="43">
+        <v>45895</v>
+      </c>
+      <c r="D212" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B213" s="9"/>
+      <c r="C213" s="43">
+        <v>45895</v>
+      </c>
+      <c r="D213" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="43">
+        <v>45897</v>
+      </c>
+      <c r="D214" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E214" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F214" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
+    </row>
+    <row r="215" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C215" s="43">
+        <v>45915</v>
+      </c>
+      <c r="D215" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29F396D-C1E0-4BE5-813A-B1A82A9E3941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D29F396D-C1E0-4BE5-813A-B1A82A9E3941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8826C25C-8F2A-4CBB-B106-5302F09F3907}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="247">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1022,6 +1022,9 @@
   <si>
     <t>Einlaufrechen Kraftwerk Schaffhausen
 Mühlenstrasse 19, 8200 Schaffhausen</t>
+  </si>
+  <si>
+    <t>Keine Angabe</t>
   </si>
 </sst>
 </file>
@@ -4479,8 +4482,8 @@
   <dimension ref="A1:FL215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C205" sqref="C204:C205"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10645,7 +10648,9 @@
       <c r="A212" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B212" s="9"/>
+      <c r="B212" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="C212" s="43">
         <v>45895</v>
       </c>
@@ -10665,7 +10670,9 @@
       <c r="A213" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B213" s="9"/>
+      <c r="B213" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="C213" s="43">
         <v>45895</v>
       </c>
@@ -10685,7 +10692,9 @@
       <c r="A214" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B214" s="6"/>
+      <c r="B214" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="C214" s="43">
         <v>45897</v>
       </c>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D29F396D-C1E0-4BE5-813A-B1A82A9E3941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8826C25C-8F2A-4CBB-B106-5302F09F3907}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3F761D-A225-47DC-8F66-E5B5C5E2DF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="253">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1024,7 +1024,28 @@
 Mühlenstrasse 19, 8200 Schaffhausen</t>
   </si>
   <si>
-    <t>Keine Angabe</t>
+    <t>Port de Morges, 1110 Morges</t>
+  </si>
+  <si>
+    <t>place Dorcière, 1201 Genève</t>
+  </si>
+  <si>
+    <t>im Wasser vor dem Wehr
+Mühlenplatz, 6004 Luzern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port-Choiseul, Rte de Suisse 148
+Chemin des Graviers, 1290 Versoix
+</t>
+  </si>
+  <si>
+    <t>Hafen Enge, Mythenquai 21, 8002 Zürich</t>
+  </si>
+  <si>
+    <t>HPAI</t>
+  </si>
+  <si>
+    <t>3234 Vinelz</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1055,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1385,8 +1406,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1594,6 +1620,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB2B5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2923,7 +2955,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3047,6 +3079,27 @@
     </xf>
     <xf numFmtId="49" fontId="55" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1152">
@@ -4479,11 +4532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL215"/>
+  <dimension ref="A1:FL221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10648,9 +10701,7 @@
       <c r="A212" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B212" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="B212" s="9"/>
       <c r="C212" s="43">
         <v>45895</v>
       </c>
@@ -10670,9 +10721,7 @@
       <c r="A213" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B213" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="B213" s="9"/>
       <c r="C213" s="43">
         <v>45895</v>
       </c>
@@ -10692,9 +10741,7 @@
       <c r="A214" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>246</v>
-      </c>
+      <c r="B214" s="6"/>
       <c r="C214" s="43">
         <v>45897</v>
       </c>
@@ -10731,6 +10778,142 @@
       </c>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C216" s="48">
+        <v>45933</v>
+      </c>
+      <c r="D216" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E216" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C217" s="48">
+        <v>45936</v>
+      </c>
+      <c r="D217" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+    </row>
+    <row r="218" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+      <c r="A218" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B218" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C218" s="48">
+        <v>45943</v>
+      </c>
+      <c r="D218" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+    </row>
+    <row r="219" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C219" s="48">
+        <v>45945</v>
+      </c>
+      <c r="D219" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C220" s="48">
+        <v>45955</v>
+      </c>
+      <c r="D220" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B221" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C221" s="52">
+        <v>45964</v>
+      </c>
+      <c r="D221" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G221" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="H221" s="50" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3F761D-A225-47DC-8F66-E5B5C5E2DF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{778612B3-F43B-4B4E-AE69-74BF487E955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="252">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1040,9 +1040,6 @@
   </si>
   <si>
     <t>Hafen Enge, Mythenquai 21, 8002 Zürich</t>
-  </si>
-  <si>
-    <t>HPAI</t>
   </si>
   <si>
     <t>3234 Vinelz</t>
@@ -4534,9 +4531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FL221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10894,7 +10891,7 @@
         <v>3</v>
       </c>
       <c r="B221" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C221" s="52">
         <v>45964</v>
@@ -10908,10 +10905,10 @@
       <c r="F221" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="G221" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="H221" s="50" t="s">
+      <c r="G221" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H221" s="25" t="s">
         <v>130</v>
       </c>
     </row>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{778612B3-F43B-4B4E-AE69-74BF487E955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{439644B7-F497-4632-81EE-6E6735E299AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="260">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1027,22 +1027,45 @@
     <t>Port de Morges, 1110 Morges</t>
   </si>
   <si>
-    <t>place Dorcière, 1201 Genève</t>
-  </si>
-  <si>
     <t>im Wasser vor dem Wehr
 Mühlenplatz, 6004 Luzern</t>
   </si>
   <si>
-    <t xml:space="preserve">Port-Choiseul, Rte de Suisse 148
-Chemin des Graviers, 1290 Versoix
-</t>
-  </si>
-  <si>
     <t>Hafen Enge, Mythenquai 21, 8002 Zürich</t>
   </si>
   <si>
     <t>3234 Vinelz</t>
+  </si>
+  <si>
+    <t>„Chenalette“, kleiner Kanal, Valeyres sous Rence</t>
+  </si>
+  <si>
+    <t>Post d’Auvernier</t>
+  </si>
+  <si>
+    <t>Seestrasse 236, 8708 Männedorf</t>
+  </si>
+  <si>
+    <t>Chalbisauweg 6, 8816 Hirzel</t>
+  </si>
+  <si>
+    <t>Erlach</t>
+  </si>
+  <si>
+    <t>in einer Wohnsiedlung, Rosenfeldweg 4, 6048 Horw</t>
+  </si>
+  <si>
+    <t>nicht identifizierter Wildvogel</t>
+  </si>
+  <si>
+    <t>Kolbenente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Chemin des Graviers, 1290 Versoix</t>
+  </si>
+  <si>
+    <t>Port-Choiseul, Rte de Suisse 148, place Dorcière, 1201 Genève</t>
   </si>
 </sst>
 </file>
@@ -2952,7 +2975,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3086,16 +3109,13 @@
     <xf numFmtId="164" fontId="56" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4529,11 +4549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL221"/>
+  <dimension ref="A1:FL227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G224" sqref="G224"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10803,7 +10823,7 @@
         <v>7</v>
       </c>
       <c r="B217" s="47" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C217" s="48">
         <v>45936</v>
@@ -10820,97 +10840,233 @@
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" spans="1:8" ht="24" x14ac:dyDescent="0.35">
-      <c r="A218" s="46" t="s">
+    <row r="218" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A218" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B218" s="49" t="s">
+      <c r="B218" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C218" s="7">
+        <v>45943</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G218" s="8"/>
+      <c r="H218" s="8"/>
+    </row>
+    <row r="219" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A219" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C219" s="7">
+        <v>45945</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G219" s="8"/>
+      <c r="H219" s="8"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C218" s="48">
-        <v>45943</v>
-      </c>
-      <c r="D218" s="46" t="s">
+      <c r="C220" s="7">
+        <v>45955</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E218" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F218" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
-    </row>
-    <row r="219" spans="1:8" ht="35.5" x14ac:dyDescent="0.35">
-      <c r="A219" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B219" s="49" t="s">
+      <c r="E220" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G220" s="8"/>
+      <c r="H220" s="8"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C221" s="7">
+        <v>45960</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G221" s="8"/>
+      <c r="H221" s="8"/>
+    </row>
+    <row r="222" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A222" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="C219" s="48">
-        <v>45945</v>
-      </c>
-      <c r="D219" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E219" s="46" t="s">
+      <c r="C222" s="51">
+        <v>45964</v>
+      </c>
+      <c r="D222" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G222" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H222" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C223" s="7">
+        <v>45968</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C224" s="7">
+        <v>45968</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A225" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C225" s="51">
+        <v>45970</v>
+      </c>
+      <c r="D225" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F219" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G219" s="10"/>
-      <c r="H219" s="10"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="46" t="s">
+      <c r="F225" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G225" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H225" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A226" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B220" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="C220" s="48">
-        <v>45955</v>
-      </c>
-      <c r="D220" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E220" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F220" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G220" s="10"/>
-      <c r="H220" s="10"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A221" s="50" t="s">
+      <c r="B226" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C226" s="7">
+        <v>45970</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A227" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C221" s="52">
-        <v>45964</v>
-      </c>
-      <c r="D221" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E221" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F221" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="G221" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H221" s="25" t="s">
-        <v>130</v>
-      </c>
+      <c r="B227" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C227" s="7">
+        <v>45971</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{439644B7-F497-4632-81EE-6E6735E299AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C82EAE-231E-4F65-8640-AFFFB9D02CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="263">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1066,6 +1066,17 @@
   </si>
   <si>
     <t>Port-Choiseul, Rte de Suisse 148, place Dorcière, 1201 Genève</t>
+  </si>
+  <si>
+    <t>sur le plage de galets, au bord du Lémon</t>
+  </si>
+  <si>
+    <t>a ôté Canal des Roselelles, 
+1893 Illarsaz</t>
+  </si>
+  <si>
+    <t>2704274-1229385
+2707167-1228083</t>
   </si>
 </sst>
 </file>
@@ -2975,7 +2986,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3117,6 +3128,21 @@
     </xf>
     <xf numFmtId="164" fontId="30" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1152">
@@ -4549,11 +4575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL227"/>
+  <dimension ref="A1:FL233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G226" sqref="G226"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G225" sqref="G225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10928,7 +10954,7 @@
       <c r="G221" s="8"/>
       <c r="H221" s="8"/>
     </row>
-    <row r="222" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="49" t="s">
         <v>3</v>
       </c>
@@ -10998,75 +11024,217 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
     </row>
-    <row r="225" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A225" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B225" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="C225" s="51">
+    <row r="225" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B225" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C225" s="54">
         <v>45970</v>
       </c>
-      <c r="D225" s="49" t="s">
+      <c r="D225" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E225" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F225" s="50" t="s">
+      <c r="E225" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" s="55" t="s">
         <v>83</v>
       </c>
       <c r="G225" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H225" s="49" t="s">
+      <c r="H225" s="52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226" s="5" t="s">
+    <row r="226" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A226" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B226" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C226" s="54">
+        <v>45970</v>
+      </c>
+      <c r="D226" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G226" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H226" s="52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A227" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B227" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C227" s="54">
+        <v>45970</v>
+      </c>
+      <c r="D227" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G227" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H227" s="52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A228" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="C228" s="48">
+        <v>45970</v>
+      </c>
+      <c r="D228" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E228" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G228" s="46"/>
+      <c r="H228" s="46"/>
+    </row>
+    <row r="229" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A229" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B229" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C229" s="51">
+        <v>45970</v>
+      </c>
+      <c r="D229" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G229" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H229" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A230" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C230" s="7">
         <v>45970</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="D230" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E226" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F226" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G226" s="5"/>
-      <c r="H226" s="5"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A227" s="5" t="s">
+      <c r="E230" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A231" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B231" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C227" s="7">
+      <c r="C231" s="7">
         <v>45971</v>
       </c>
-      <c r="D227" s="5" t="s">
+      <c r="D231" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E227" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F227" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
+      <c r="E231" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A232" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="47"/>
+      <c r="C232" s="48">
+        <v>45971</v>
+      </c>
+      <c r="D232" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E232" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+    </row>
+    <row r="233" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+      <c r="A233" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B233" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="C233" s="48">
+        <v>45971</v>
+      </c>
+      <c r="D233" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E233" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C82EAE-231E-4F65-8640-AFFFB9D02CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6AC78B-4610-4851-9B23-94F84A07EF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="270">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1071,12 +1071,32 @@
     <t>sur le plage de galets, au bord du Lémon</t>
   </si>
   <si>
-    <t>a ôté Canal des Roselelles, 
-1893 Illarsaz</t>
-  </si>
-  <si>
     <t>2704274-1229385
 2707167-1228083</t>
+  </si>
+  <si>
+    <t>Eisvogel</t>
+  </si>
+  <si>
+    <t>Treppe vor Stahlgiesserei auf Geissberg, Schaffhausen</t>
+  </si>
+  <si>
+    <t>im See, Meggenhorn, Vierwaldstädtersee, 6045 Luzern</t>
+  </si>
+  <si>
+    <t>Schwan</t>
+  </si>
+  <si>
+    <t>Mauensee</t>
+  </si>
+  <si>
+    <t>Badi Salenstein, Bodensee-Untersee</t>
+  </si>
+  <si>
+    <t>Rheinhaldenstrasse, 8200 Schaffhausen</t>
+  </si>
+  <si>
+    <t>a ôté Canal des Roselelles, 1893 Illarsaz</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1828,6 +1848,19 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2986,7 +3019,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3141,7 +3174,11 @@
     <xf numFmtId="49" fontId="56" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="38" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4575,11 +4612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL233"/>
+  <dimension ref="A1:FL239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G225" sqref="G225"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11029,7 +11066,7 @@
         <v>167</v>
       </c>
       <c r="B225" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C225" s="54">
         <v>45970</v>
@@ -11055,7 +11092,7 @@
         <v>167</v>
       </c>
       <c r="B226" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C226" s="54">
         <v>45970</v>
@@ -11081,7 +11118,7 @@
         <v>167</v>
       </c>
       <c r="B227" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C227" s="54">
         <v>45970</v>
@@ -11194,47 +11231,183 @@
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A232" s="46" t="s">
+    <row r="232" spans="1:8" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B232" s="47"/>
-      <c r="C232" s="48">
+      <c r="B232" s="9"/>
+      <c r="C232" s="7">
         <v>45971</v>
       </c>
-      <c r="D232" s="46" t="s">
+      <c r="D232" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E232" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F232" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G232" s="10"/>
-      <c r="H232" s="10"/>
-    </row>
-    <row r="233" spans="1:8" ht="24" x14ac:dyDescent="0.35">
-      <c r="A233" s="46" t="s">
+      <c r="E232" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G232" s="8"/>
+      <c r="H232" s="8"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A233" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B233" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="C233" s="48">
+      <c r="B233" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C233" s="7">
         <v>45971</v>
       </c>
-      <c r="D233" s="46" t="s">
+      <c r="D233" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E233" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F233" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G233" s="10"/>
+      <c r="E233" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G233" s="56"/>
       <c r="H233" s="10"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A234" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C234" s="7">
+        <v>45973</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G234" s="46"/>
+      <c r="H234" s="10"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A235" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C235" s="7">
+        <v>45974</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G235" s="46"/>
+      <c r="H235" s="10"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A236" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C236" s="7">
+        <v>45974</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G236" s="46"/>
+      <c r="H236" s="10"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A237" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C237" s="7">
+        <v>45975</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G237" s="46"/>
+      <c r="H237" s="10"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A238" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C238" s="7">
+        <v>45975</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G238" s="46"/>
+      <c r="H238" s="10"/>
+    </row>
+    <row r="239" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A239" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C239" s="51">
+        <v>45975</v>
+      </c>
+      <c r="D239" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E239" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G239" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="H239" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6AC78B-4610-4851-9B23-94F84A07EF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2994E57D-F19F-4162-96C5-ED7ADAB99D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{300FBD1F-24B6-4486-B3AA-D3FDBFE2FAC4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="277">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1097,6 +1097,29 @@
   </si>
   <si>
     <t>a ôté Canal des Roselelles, 1893 Illarsaz</t>
+  </si>
+  <si>
+    <t>Y-Koordinaten</t>
+  </si>
+  <si>
+    <t>X-Koordinaten</t>
+  </si>
+  <si>
+    <t>Anlegestelle Bootshaus, Rheinquai, Fischerhäuserstrasse 
+8200 Schaffhausen</t>
+  </si>
+  <si>
+    <t>Parc Bois de la Bâtie, chemin de la Bâtie, 1202 Genève</t>
+  </si>
+  <si>
+    <t>Wohngebiet, Griesstrasse 11, 8238 Büsingen</t>
+  </si>
+  <si>
+    <t>im Hafen im Wasser gefunden, Steckborn. Schnabelnekrose.</t>
+  </si>
+  <si>
+    <t>Sempachersee auf Höhe Eich, 6205 Luzern
+Mit neurologischen Auffälligkeiten (Opisthotonus, Torticolis, Verdacht auf Trauma weil „vom Himmel gefallen“)</t>
   </si>
 </sst>
 </file>
@@ -1461,9 +1484,10 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1679,8 +1703,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1859,6 +1889,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -3019,7 +3062,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3181,6 +3224,22 @@
     <xf numFmtId="0" fontId="30" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="55" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1152">
     <cellStyle name="20 % - Akzent1" xfId="709" builtinId="30" customBuiltin="1"/>
@@ -4338,6 +4397,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4612,11 +4677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL239"/>
+  <dimension ref="A1:FL244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4628,9 +4693,11 @@
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -4655,8 +4722,14 @@
       <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4677,8 +4750,10 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4699,8 +4774,10 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -4721,8 +4798,10 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -4743,8 +4822,10 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -4765,8 +4846,10 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -4787,8 +4870,10 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4809,8 +4894,10 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4831,8 +4918,10 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4853,8 +4942,10 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -4875,8 +4966,10 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4897,8 +4990,10 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -4919,8 +5014,10 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -4941,8 +5038,10 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -4963,8 +5062,10 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -4985,8 +5086,10 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -5007,8 +5110,10 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -5029,8 +5134,10 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -5051,8 +5158,10 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -5073,8 +5182,10 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -5095,8 +5206,10 @@
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -5117,8 +5230,10 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -5139,8 +5254,10 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -5161,8 +5278,10 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
@@ -5183,8 +5302,10 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -5205,8 +5326,10 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -5225,8 +5348,10 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -5247,8 +5372,10 @@
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -5269,8 +5396,10 @@
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -5291,8 +5420,10 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -5313,8 +5444,10 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -5335,8 +5468,10 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
@@ -5357,8 +5492,10 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -5377,8 +5514,10 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -5399,8 +5538,10 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -5421,8 +5562,10 @@
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -5443,8 +5586,10 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -5465,8 +5610,10 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -5485,8 +5632,10 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
@@ -5505,8 +5654,10 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -5525,8 +5676,10 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
@@ -5545,8 +5698,10 @@
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -5567,8 +5722,10 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -5589,8 +5746,10 @@
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
@@ -5611,8 +5770,10 @@
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -5633,8 +5794,10 @@
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
@@ -5655,8 +5818,10 @@
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -5677,6 +5842,8 @@
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="16"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
@@ -5699,6 +5866,8 @@
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
@@ -5719,6 +5888,8 @@
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
@@ -5741,6 +5912,8 @@
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
     </row>
     <row r="52" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
@@ -5763,6 +5936,8 @@
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
@@ -5783,6 +5958,8 @@
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
@@ -5803,6 +5980,8 @@
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
@@ -5825,6 +6004,8 @@
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="16"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
@@ -5847,6 +6028,8 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="16"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
@@ -5869,6 +6052,8 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="16"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
@@ -5891,6 +6076,8 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="16"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
@@ -5913,8 +6100,8 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="16"/>
-      <c r="I59"/>
-      <c r="J59"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
@@ -6095,8 +6282,8 @@
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60"/>
-      <c r="J60"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
@@ -6154,8 +6341,8 @@
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61"/>
-      <c r="J61"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
@@ -6213,8 +6400,8 @@
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62"/>
-      <c r="J62"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
@@ -6397,8 +6584,8 @@
         <v>128</v>
       </c>
       <c r="H63" s="31"/>
-      <c r="I63"/>
-      <c r="J63"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
@@ -6579,8 +6766,8 @@
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64"/>
-      <c r="J64"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
@@ -6638,8 +6825,8 @@
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
-      <c r="I65"/>
-      <c r="J65"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
@@ -6697,8 +6884,8 @@
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66"/>
-      <c r="J66"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
@@ -6879,8 +7066,8 @@
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="22"/>
-      <c r="I67"/>
-      <c r="J67"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
@@ -6938,8 +7125,8 @@
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="22"/>
-      <c r="I68"/>
-      <c r="J68"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
@@ -6997,8 +7184,8 @@
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="22"/>
-      <c r="I69"/>
-      <c r="J69"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
@@ -7056,8 +7243,8 @@
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="22"/>
-      <c r="I70"/>
-      <c r="J70"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
@@ -7115,8 +7302,8 @@
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="22"/>
-      <c r="I71"/>
-      <c r="J71"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
@@ -7174,8 +7361,8 @@
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="22"/>
-      <c r="I72"/>
-      <c r="J72"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
@@ -7233,8 +7420,8 @@
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="22"/>
-      <c r="I73"/>
-      <c r="J73"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
@@ -7292,8 +7479,8 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="22"/>
-      <c r="I74"/>
-      <c r="J74"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
@@ -7351,8 +7538,8 @@
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="22"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="24"/>
       <c r="L75"/>
       <c r="M75"/>
@@ -7410,8 +7597,8 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="22"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="24"/>
       <c r="L76"/>
       <c r="M76"/>
@@ -7469,8 +7656,8 @@
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="22"/>
-      <c r="I77"/>
-      <c r="J77"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
@@ -7651,8 +7838,8 @@
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78"/>
-      <c r="J78"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
@@ -7702,6 +7889,8 @@
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24"/>
       <c r="O79" s="24"/>
@@ -7866,8 +8055,8 @@
       <c r="H80" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
       <c r="K80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="24"/>
@@ -7902,8 +8091,8 @@
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="10"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
       <c r="K81" s="24"/>
       <c r="O81" s="24"/>
       <c r="P81" s="24"/>
@@ -7934,6 +8123,8 @@
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="10"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
@@ -7956,6 +8147,8 @@
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="10"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
@@ -7978,6 +8171,8 @@
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="16"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
     </row>
     <row r="85" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
@@ -8000,6 +8195,8 @@
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="16"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
     </row>
     <row r="86" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -8022,6 +8219,8 @@
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="16"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
     </row>
     <row r="87" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
@@ -8044,6 +8243,8 @@
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="16"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
@@ -8066,6 +8267,8 @@
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="16"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
@@ -8088,6 +8291,8 @@
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="16"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
@@ -8114,6 +8319,8 @@
       <c r="H90" s="25" t="s">
         <v>130</v>
       </c>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
@@ -8136,6 +8343,8 @@
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="16"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
@@ -8158,6 +8367,8 @@
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="16"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
@@ -8180,6 +8391,8 @@
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="16"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -8202,6 +8415,8 @@
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
@@ -8224,6 +8439,8 @@
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
@@ -8246,8 +8463,10 @@
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
@@ -8268,8 +8487,10 @@
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>5</v>
       </c>
@@ -8294,8 +8515,10 @@
       <c r="H98" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>12</v>
       </c>
@@ -8320,8 +8543,10 @@
       <c r="H99" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>3</v>
       </c>
@@ -8346,8 +8571,10 @@
       <c r="H100" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>12</v>
       </c>
@@ -8372,8 +8599,10 @@
       <c r="H101" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
@@ -8394,8 +8623,10 @@
       </c>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
@@ -8414,8 +8645,10 @@
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>24</v>
       </c>
@@ -8436,8 +8669,10 @@
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>4</v>
       </c>
@@ -8458,8 +8693,10 @@
       </c>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>4</v>
       </c>
@@ -8480,8 +8717,10 @@
       </c>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
-    </row>
-    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
@@ -8502,8 +8741,10 @@
       </c>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>27</v>
       </c>
@@ -8524,8 +8765,10 @@
       </c>
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>24</v>
       </c>
@@ -8546,8 +8789,10 @@
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>24</v>
       </c>
@@ -8568,8 +8813,10 @@
       </c>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>5</v>
       </c>
@@ -8590,8 +8837,10 @@
       </c>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
@@ -8612,8 +8861,10 @@
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="25" t="s">
         <v>79</v>
       </c>
@@ -8638,8 +8889,10 @@
       <c r="H113" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -8660,8 +8913,10 @@
       </c>
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
@@ -8682,8 +8937,10 @@
       </c>
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
@@ -8704,8 +8961,10 @@
       </c>
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>3</v>
       </c>
@@ -8724,8 +8983,10 @@
       </c>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>4</v>
       </c>
@@ -8746,8 +9007,10 @@
       </c>
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>79</v>
       </c>
@@ -8766,8 +9029,10 @@
       </c>
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>3</v>
       </c>
@@ -8786,8 +9051,10 @@
       </c>
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>3</v>
       </c>
@@ -8806,8 +9073,10 @@
       </c>
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>4</v>
       </c>
@@ -8828,8 +9097,10 @@
       </c>
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>5</v>
       </c>
@@ -8850,8 +9121,10 @@
       </c>
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>112</v>
       </c>
@@ -8872,8 +9145,10 @@
       </c>
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="34" t="s">
         <v>3</v>
       </c>
@@ -8896,8 +9171,10 @@
         <v>128</v>
       </c>
       <c r="H125" s="34"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="25" t="s">
         <v>3</v>
       </c>
@@ -8922,8 +9199,10 @@
       <c r="H126" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>3</v>
       </c>
@@ -8944,8 +9223,10 @@
       </c>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>29</v>
       </c>
@@ -8964,8 +9245,10 @@
       </c>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
         <v>3</v>
       </c>
@@ -8986,8 +9269,10 @@
       </c>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="25" t="s">
         <v>24</v>
       </c>
@@ -9012,8 +9297,10 @@
       <c r="H130" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>5</v>
       </c>
@@ -9034,8 +9321,10 @@
       </c>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
@@ -9054,8 +9343,10 @@
       </c>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
         <v>4</v>
       </c>
@@ -9080,8 +9371,10 @@
       <c r="H133" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
+    </row>
+    <row r="134" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>12</v>
       </c>
@@ -9102,8 +9395,10 @@
       </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
-    </row>
-    <row r="135" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+    </row>
+    <row r="135" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>12</v>
       </c>
@@ -9124,8 +9419,10 @@
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
-    </row>
-    <row r="136" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>12</v>
       </c>
@@ -9146,8 +9443,10 @@
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>167</v>
       </c>
@@ -9166,8 +9465,10 @@
       </c>
       <c r="G137" s="38"/>
       <c r="H137" s="39"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>29</v>
       </c>
@@ -9188,8 +9489,10 @@
       </c>
       <c r="G138" s="38"/>
       <c r="H138" s="39"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>4</v>
       </c>
@@ -9210,8 +9513,10 @@
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>168</v>
       </c>
@@ -9232,8 +9537,10 @@
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>4</v>
       </c>
@@ -9254,8 +9561,10 @@
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>4</v>
       </c>
@@ -9274,8 +9583,10 @@
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -9296,8 +9607,10 @@
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>4</v>
       </c>
@@ -9318,8 +9631,10 @@
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>4</v>
       </c>
@@ -9340,8 +9655,10 @@
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>113</v>
       </c>
@@ -9362,8 +9679,10 @@
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>63</v>
       </c>
@@ -9382,8 +9701,10 @@
       </c>
       <c r="G147" s="40"/>
       <c r="H147" s="40"/>
-    </row>
-    <row r="148" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+    </row>
+    <row r="148" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>5</v>
       </c>
@@ -9404,8 +9725,10 @@
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
-    </row>
-    <row r="149" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>4</v>
       </c>
@@ -9426,8 +9749,10 @@
       </c>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>24</v>
       </c>
@@ -9448,8 +9773,10 @@
       </c>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -9470,8 +9797,10 @@
       </c>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>4</v>
       </c>
@@ -9492,8 +9821,10 @@
       </c>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>112</v>
       </c>
@@ -9514,8 +9845,10 @@
       </c>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>4</v>
       </c>
@@ -9536,8 +9869,10 @@
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>4</v>
       </c>
@@ -9558,8 +9893,10 @@
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>74</v>
       </c>
@@ -9580,8 +9917,10 @@
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
-    </row>
-    <row r="157" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+    </row>
+    <row r="157" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>4</v>
       </c>
@@ -9602,8 +9941,10 @@
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
-    </row>
-    <row r="158" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+    </row>
+    <row r="158" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>4</v>
       </c>
@@ -9624,8 +9965,10 @@
       </c>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>2</v>
       </c>
@@ -9646,8 +9989,10 @@
       </c>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
-    </row>
-    <row r="160" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+    </row>
+    <row r="160" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>5</v>
       </c>
@@ -9668,8 +10013,10 @@
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>3</v>
       </c>
@@ -9688,8 +10035,10 @@
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>4</v>
       </c>
@@ -9710,8 +10059,10 @@
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>2</v>
       </c>
@@ -9732,8 +10083,10 @@
       </c>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
-    </row>
-    <row r="164" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+    </row>
+    <row r="164" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>12</v>
       </c>
@@ -9754,8 +10107,10 @@
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>4</v>
       </c>
@@ -9776,8 +10131,10 @@
       </c>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>79</v>
       </c>
@@ -9798,8 +10155,10 @@
       </c>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>2</v>
       </c>
@@ -9820,8 +10179,10 @@
       </c>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>79</v>
       </c>
@@ -9842,8 +10203,10 @@
       </c>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>4</v>
       </c>
@@ -9864,8 +10227,10 @@
       </c>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>4</v>
       </c>
@@ -9886,8 +10251,10 @@
       </c>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>2</v>
       </c>
@@ -9906,8 +10273,10 @@
       </c>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>74</v>
       </c>
@@ -9928,8 +10297,10 @@
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>24</v>
       </c>
@@ -9950,8 +10321,10 @@
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="11" t="s">
         <v>2</v>
       </c>
@@ -9972,8 +10345,10 @@
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="11" t="s">
         <v>79</v>
       </c>
@@ -9994,8 +10369,10 @@
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="11" t="s">
         <v>3</v>
       </c>
@@ -10014,8 +10391,10 @@
       </c>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
         <v>4</v>
       </c>
@@ -10036,8 +10415,10 @@
       </c>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="11" t="s">
         <v>2</v>
       </c>
@@ -10058,8 +10439,10 @@
       </c>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I178" s="16"/>
+      <c r="J178" s="16"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="s">
         <v>4</v>
       </c>
@@ -10080,8 +10463,10 @@
       </c>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="11" t="s">
         <v>4</v>
       </c>
@@ -10102,8 +10487,10 @@
       </c>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="s">
         <v>2</v>
       </c>
@@ -10124,8 +10511,10 @@
       </c>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
-    </row>
-    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+    </row>
+    <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="11" t="s">
         <v>4</v>
       </c>
@@ -10146,8 +10535,10 @@
       </c>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="s">
         <v>168</v>
       </c>
@@ -10168,8 +10559,10 @@
       </c>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>2</v>
       </c>
@@ -10190,8 +10583,10 @@
       </c>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>4</v>
       </c>
@@ -10212,8 +10607,10 @@
       </c>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>2</v>
       </c>
@@ -10234,8 +10631,10 @@
       </c>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>79</v>
       </c>
@@ -10256,8 +10655,10 @@
       </c>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>112</v>
       </c>
@@ -10278,8 +10679,10 @@
       </c>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>2</v>
       </c>
@@ -10300,8 +10703,10 @@
       </c>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>74</v>
       </c>
@@ -10322,8 +10727,10 @@
       </c>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>79</v>
       </c>
@@ -10344,8 +10751,10 @@
       </c>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>79</v>
       </c>
@@ -10364,8 +10773,10 @@
       </c>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>79</v>
       </c>
@@ -10386,8 +10797,10 @@
       </c>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>223</v>
       </c>
@@ -10406,8 +10819,10 @@
       </c>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>79</v>
       </c>
@@ -10428,8 +10843,10 @@
       </c>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
-    </row>
-    <row r="196" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+    </row>
+    <row r="196" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>79</v>
       </c>
@@ -10450,8 +10867,10 @@
       </c>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>79</v>
       </c>
@@ -10472,8 +10891,10 @@
       </c>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>79</v>
       </c>
@@ -10492,8 +10913,10 @@
       </c>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>2</v>
       </c>
@@ -10514,8 +10937,10 @@
       </c>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>2</v>
       </c>
@@ -10536,8 +10961,10 @@
       </c>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
-    </row>
-    <row r="201" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+    </row>
+    <row r="201" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>2</v>
       </c>
@@ -10558,8 +10985,10 @@
       </c>
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>5</v>
       </c>
@@ -10580,8 +11009,10 @@
       </c>
       <c r="G202" s="16"/>
       <c r="H202" s="16"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I202" s="16"/>
+      <c r="J202" s="16"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>3</v>
       </c>
@@ -10600,8 +11031,10 @@
       </c>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I203" s="9"/>
+      <c r="J203" s="9"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>74</v>
       </c>
@@ -10622,8 +11055,10 @@
       </c>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I204" s="9"/>
+      <c r="J204" s="9"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>2</v>
       </c>
@@ -10644,8 +11079,10 @@
       </c>
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
-    </row>
-    <row r="206" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I205" s="9"/>
+      <c r="J205" s="9"/>
+    </row>
+    <row r="206" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>4</v>
       </c>
@@ -10666,8 +11103,10 @@
       </c>
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>3</v>
       </c>
@@ -10688,8 +11127,10 @@
       </c>
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>79</v>
       </c>
@@ -10710,8 +11151,10 @@
       </c>
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>79</v>
       </c>
@@ -10732,8 +11175,10 @@
       </c>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>3</v>
       </c>
@@ -10754,8 +11199,10 @@
       </c>
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
-    </row>
-    <row r="211" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+    </row>
+    <row r="211" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>26</v>
       </c>
@@ -10776,8 +11223,10 @@
       </c>
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>24</v>
       </c>
@@ -10796,8 +11245,10 @@
       </c>
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I212" s="9"/>
+      <c r="J212" s="9"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>24</v>
       </c>
@@ -10816,8 +11267,10 @@
       </c>
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>113</v>
       </c>
@@ -10836,8 +11289,10 @@
       </c>
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
-    </row>
-    <row r="215" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+    </row>
+    <row r="215" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>5</v>
       </c>
@@ -10858,8 +11313,10 @@
       </c>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="46" t="s">
         <v>4</v>
       </c>
@@ -10880,8 +11337,10 @@
       </c>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I216" s="47"/>
+      <c r="J216" s="47"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="46" t="s">
         <v>7</v>
       </c>
@@ -10902,8 +11361,10 @@
       </c>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
-    </row>
-    <row r="218" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I217" s="47"/>
+      <c r="J217" s="47"/>
+    </row>
+    <row r="218" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>79</v>
       </c>
@@ -10924,8 +11385,10 @@
       </c>
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
-    </row>
-    <row r="219" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+    </row>
+    <row r="219" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>7</v>
       </c>
@@ -10946,8 +11409,10 @@
       </c>
       <c r="G219" s="8"/>
       <c r="H219" s="8"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>2</v>
       </c>
@@ -10968,8 +11433,10 @@
       </c>
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I220" s="9"/>
+      <c r="J220" s="9"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>4</v>
       </c>
@@ -10990,8 +11457,10 @@
       </c>
       <c r="G221" s="8"/>
       <c r="H221" s="8"/>
-    </row>
-    <row r="222" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I221" s="9"/>
+      <c r="J221" s="9"/>
+    </row>
+    <row r="222" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="49" t="s">
         <v>3</v>
       </c>
@@ -11016,8 +11485,14 @@
       <c r="H222" s="49" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I222" s="62">
+        <v>1208852</v>
+      </c>
+      <c r="J222" s="62">
+        <v>2574793</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>79</v>
       </c>
@@ -11038,8 +11513,10 @@
       </c>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I223" s="59"/>
+      <c r="J223" s="59"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>15</v>
       </c>
@@ -11060,8 +11537,10 @@
       </c>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
-    </row>
-    <row r="225" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I224" s="9"/>
+      <c r="J224" s="9"/>
+    </row>
+    <row r="225" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="52" t="s">
         <v>167</v>
       </c>
@@ -11086,8 +11565,14 @@
       <c r="H225" s="52" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I225" s="62">
+        <v>1229028</v>
+      </c>
+      <c r="J225" s="62">
+        <v>2708002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A226" s="52" t="s">
         <v>167</v>
       </c>
@@ -11112,8 +11597,14 @@
       <c r="H226" s="52" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I226" s="62">
+        <v>1229385</v>
+      </c>
+      <c r="J226" s="62">
+        <v>2704274</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A227" s="52" t="s">
         <v>167</v>
       </c>
@@ -11138,8 +11629,14 @@
       <c r="H227" s="52" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I227" s="62">
+        <v>1228083</v>
+      </c>
+      <c r="J227" s="62">
+        <v>2707167</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="46" t="s">
         <v>4</v>
       </c>
@@ -11160,8 +11657,10 @@
       </c>
       <c r="G228" s="46"/>
       <c r="H228" s="46"/>
-    </row>
-    <row r="229" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I228" s="60"/>
+      <c r="J228" s="60"/>
+    </row>
+    <row r="229" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A229" s="49" t="s">
         <v>2</v>
       </c>
@@ -11186,8 +11685,14 @@
       <c r="H229" s="49" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I229" s="62">
+        <v>1234182</v>
+      </c>
+      <c r="J229" s="62">
+        <v>2694902</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>2</v>
       </c>
@@ -11208,8 +11713,10 @@
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I230" s="61"/>
+      <c r="J230" s="61"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>3</v>
       </c>
@@ -11230,8 +11737,10 @@
       </c>
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
-    </row>
-    <row r="232" spans="1:8" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="I231" s="9"/>
+      <c r="J231" s="9"/>
+    </row>
+    <row r="232" spans="1:10" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>3</v>
       </c>
@@ -11250,8 +11759,10 @@
       </c>
       <c r="G232" s="8"/>
       <c r="H232" s="8"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I232" s="9"/>
+      <c r="J232" s="9"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>168</v>
       </c>
@@ -11272,8 +11783,10 @@
       </c>
       <c r="G233" s="56"/>
       <c r="H233" s="10"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>5</v>
       </c>
@@ -11294,8 +11807,10 @@
       </c>
       <c r="G234" s="46"/>
       <c r="H234" s="10"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>3</v>
       </c>
@@ -11316,8 +11831,10 @@
       </c>
       <c r="G235" s="46"/>
       <c r="H235" s="10"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I235" s="9"/>
+      <c r="J235" s="9"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>5</v>
       </c>
@@ -11338,8 +11855,10 @@
       </c>
       <c r="G236" s="46"/>
       <c r="H236" s="10"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I236" s="9"/>
+      <c r="J236" s="9"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>79</v>
       </c>
@@ -11360,8 +11879,10 @@
       </c>
       <c r="G237" s="46"/>
       <c r="H237" s="10"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>79</v>
       </c>
@@ -11382,8 +11903,10 @@
       </c>
       <c r="G238" s="46"/>
       <c r="H238" s="10"/>
-    </row>
-    <row r="239" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+    </row>
+    <row r="239" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A239" s="49" t="s">
         <v>12</v>
       </c>
@@ -11407,6 +11930,140 @@
       </c>
       <c r="H239" s="49" t="s">
         <v>130</v>
+      </c>
+      <c r="I239" s="64">
+        <v>1281675</v>
+      </c>
+      <c r="J239" s="64">
+        <v>2722195</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A240" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C240" s="7">
+        <v>45977</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G240" s="44"/>
+      <c r="H240" s="44"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A241" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C241" s="7">
+        <v>45978</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G241" s="44"/>
+      <c r="H241" s="44"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A242" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C242" s="7">
+        <v>45978</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G242" s="44"/>
+      <c r="H242" s="44"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="10"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A243" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C243" s="7">
+        <v>45979</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G243" s="44"/>
+      <c r="H243" s="44"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="10"/>
+    </row>
+    <row r="244" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A244" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B244" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="C244" s="51">
+        <v>45981</v>
+      </c>
+      <c r="D244" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E244" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G244" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H244" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I244" s="63">
+        <v>1222210</v>
+      </c>
+      <c r="J244" s="63">
+        <v>2654221</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2994E57D-F19F-4162-96C5-ED7ADAB99D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{300FBD1F-24B6-4486-B3AA-D3FDBFE2FAC4}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2994E57D-F19F-4162-96C5-ED7ADAB99D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33510448-225D-4793-88DE-F42A0B13C244}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,6 +4414,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -4680,8 +4684,8 @@
   <dimension ref="A1:FL244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C248" sqref="C248"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2994E57D-F19F-4162-96C5-ED7ADAB99D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33510448-225D-4793-88DE-F42A0B13C244}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A203AD83-2395-4430-BDC5-80B73EDFACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,10 +4414,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -4684,8 +4680,8 @@
   <dimension ref="A1:FL244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12071,6 +12067,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:FL239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A203AD83-2395-4430-BDC5-80B73EDFACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A203AD83-2395-4430-BDC5-80B73EDFACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E62475A9-0BD4-49B7-8E62-D0092A8A87A0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$J$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3062,7 +3062,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3122,9 +3122,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4677,11 +4674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL244"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B239" sqref="B239"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5845,7 +5842,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -5869,7 +5866,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -5891,7 +5888,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -5915,7 +5912,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -5939,7 +5936,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5961,7 +5958,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -5983,7 +5980,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -6007,7 +6004,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -6031,7 +6028,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -6055,7 +6052,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -6079,7 +6076,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -6102,166 +6099,8 @@
       <c r="H59" s="16"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59"/>
-      <c r="AD59"/>
-      <c r="AE59"/>
-      <c r="AF59"/>
-      <c r="AG59"/>
-      <c r="AH59"/>
-      <c r="AI59"/>
-      <c r="AJ59"/>
-      <c r="AK59"/>
-      <c r="AL59"/>
-      <c r="AM59"/>
-      <c r="AN59"/>
-      <c r="AO59"/>
-      <c r="AP59"/>
-      <c r="AQ59"/>
-      <c r="AR59"/>
-      <c r="AS59"/>
-      <c r="AT59"/>
-      <c r="AU59"/>
-      <c r="AV59"/>
-      <c r="AW59"/>
-      <c r="AX59"/>
-      <c r="AY59"/>
-      <c r="AZ59"/>
-      <c r="BA59"/>
-      <c r="BB59"/>
-      <c r="BC59"/>
-      <c r="BD59"/>
-      <c r="BE59"/>
-      <c r="BF59"/>
-      <c r="BG59"/>
-      <c r="BH59"/>
-      <c r="BI59"/>
-      <c r="BJ59"/>
-      <c r="BK59"/>
-      <c r="BL59"/>
-      <c r="BM59"/>
-      <c r="BN59"/>
-      <c r="BO59"/>
-      <c r="BP59"/>
-      <c r="BQ59"/>
-      <c r="BR59"/>
-      <c r="BS59"/>
-      <c r="BT59"/>
-      <c r="BU59"/>
-      <c r="BV59"/>
-      <c r="BW59"/>
-      <c r="BX59"/>
-      <c r="BY59"/>
-      <c r="BZ59"/>
-      <c r="CA59"/>
-      <c r="CB59"/>
-      <c r="CC59"/>
-      <c r="CD59"/>
-      <c r="CE59"/>
-      <c r="CF59"/>
-      <c r="CG59"/>
-      <c r="CH59"/>
-      <c r="CI59"/>
-      <c r="CJ59"/>
-      <c r="CK59"/>
-      <c r="CL59"/>
-      <c r="CM59"/>
-      <c r="CN59"/>
-      <c r="CO59"/>
-      <c r="CP59"/>
-      <c r="CQ59"/>
-      <c r="CR59"/>
-      <c r="CS59"/>
-      <c r="CT59"/>
-      <c r="CU59"/>
-      <c r="CV59"/>
-      <c r="CW59"/>
-      <c r="CX59"/>
-      <c r="CY59"/>
-      <c r="CZ59"/>
-      <c r="DA59"/>
-      <c r="DB59"/>
-      <c r="DC59"/>
-      <c r="DD59"/>
-      <c r="DE59"/>
-      <c r="DF59"/>
-      <c r="DG59"/>
-      <c r="DH59"/>
-      <c r="DI59"/>
-      <c r="DJ59"/>
-      <c r="DK59"/>
-      <c r="DL59"/>
-      <c r="DM59"/>
-      <c r="DN59"/>
-      <c r="DO59"/>
-      <c r="DP59"/>
-      <c r="DQ59"/>
-      <c r="DR59"/>
-      <c r="DS59"/>
-      <c r="DT59"/>
-      <c r="DU59"/>
-      <c r="DV59"/>
-      <c r="DW59"/>
-      <c r="DX59"/>
-      <c r="DY59"/>
-      <c r="DZ59"/>
-      <c r="EA59"/>
-      <c r="EB59"/>
-      <c r="EC59"/>
-      <c r="ED59"/>
-      <c r="EE59"/>
-      <c r="EF59"/>
-      <c r="EG59"/>
-      <c r="EH59"/>
-      <c r="EI59"/>
-      <c r="EJ59"/>
-      <c r="EK59"/>
-      <c r="EL59"/>
-      <c r="EM59"/>
-      <c r="EN59"/>
-      <c r="EO59"/>
-      <c r="EP59"/>
-      <c r="EQ59"/>
-      <c r="ER59"/>
-      <c r="ES59"/>
-      <c r="ET59"/>
-      <c r="EU59"/>
-      <c r="EV59"/>
-      <c r="EW59"/>
-      <c r="EX59"/>
-      <c r="EY59"/>
-      <c r="EZ59"/>
-      <c r="FA59"/>
-      <c r="FB59"/>
-      <c r="FC59"/>
-      <c r="FD59"/>
-      <c r="FE59"/>
-      <c r="FF59"/>
-      <c r="FG59"/>
-      <c r="FH59"/>
-      <c r="FI59"/>
-      <c r="FJ59"/>
-      <c r="FK59"/>
-      <c r="FL59"/>
-    </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:10" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -6284,43 +6123,8 @@
       <c r="H60" s="5"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
-      <c r="AE60"/>
-      <c r="AF60"/>
-      <c r="AG60"/>
-      <c r="AH60"/>
-      <c r="AI60"/>
-      <c r="AJ60"/>
-      <c r="AK60"/>
-      <c r="AL60"/>
-      <c r="AM60"/>
-      <c r="AN60"/>
-      <c r="AO60"/>
-      <c r="AP60"/>
-      <c r="AQ60"/>
-      <c r="AR60"/>
-      <c r="AS60"/>
-    </row>
-    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -6343,43 +6147,8 @@
       <c r="H61" s="5"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AA61"/>
-      <c r="AB61"/>
-      <c r="AC61"/>
-      <c r="AD61"/>
-      <c r="AE61"/>
-      <c r="AF61"/>
-      <c r="AG61"/>
-      <c r="AH61"/>
-      <c r="AI61"/>
-      <c r="AJ61"/>
-      <c r="AK61"/>
-      <c r="AL61"/>
-      <c r="AM61"/>
-      <c r="AN61"/>
-      <c r="AO61"/>
-      <c r="AP61"/>
-      <c r="AQ61"/>
-      <c r="AR61"/>
-      <c r="AS61"/>
-    </row>
-    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6402,350 +6171,34 @@
       <c r="H62" s="5"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
-      <c r="AB62"/>
-      <c r="AC62"/>
-      <c r="AD62"/>
-      <c r="AE62"/>
-      <c r="AF62"/>
-      <c r="AG62"/>
-      <c r="AH62"/>
-      <c r="AI62"/>
-      <c r="AJ62"/>
-      <c r="AK62"/>
-      <c r="AL62"/>
-      <c r="AM62"/>
-      <c r="AN62"/>
-      <c r="AO62"/>
-      <c r="AP62"/>
-      <c r="AQ62"/>
-      <c r="AR62"/>
-      <c r="AS62"/>
-      <c r="AT62" s="15"/>
-      <c r="AU62" s="15"/>
-      <c r="AV62" s="15"/>
-      <c r="AW62" s="15"/>
-      <c r="AX62" s="15"/>
-      <c r="AY62" s="15"/>
-      <c r="AZ62" s="15"/>
-      <c r="BA62" s="15"/>
-      <c r="BB62" s="15"/>
-      <c r="BC62" s="15"/>
-      <c r="BD62" s="15"/>
-      <c r="BE62" s="15"/>
-      <c r="BF62" s="15"/>
-      <c r="BG62" s="15"/>
-      <c r="BH62" s="15"/>
-      <c r="BI62" s="15"/>
-      <c r="BJ62" s="15"/>
-      <c r="BK62" s="15"/>
-      <c r="BL62" s="15"/>
-      <c r="BM62" s="15"/>
-      <c r="BN62" s="15"/>
-      <c r="BO62" s="15"/>
-      <c r="BP62" s="15"/>
-      <c r="BQ62" s="15"/>
-      <c r="BR62" s="15"/>
-      <c r="BS62" s="15"/>
-      <c r="BT62" s="15"/>
-      <c r="BU62" s="15"/>
-      <c r="BV62" s="15"/>
-      <c r="BW62" s="15"/>
-      <c r="BX62" s="15"/>
-      <c r="BY62" s="15"/>
-      <c r="BZ62" s="15"/>
-      <c r="CA62" s="15"/>
-      <c r="CB62" s="15"/>
-      <c r="CC62" s="15"/>
-      <c r="CD62" s="15"/>
-      <c r="CE62" s="15"/>
-      <c r="CF62" s="15"/>
-      <c r="CG62" s="15"/>
-      <c r="CH62" s="15"/>
-      <c r="CI62" s="15"/>
-      <c r="CJ62" s="15"/>
-      <c r="CK62" s="15"/>
-      <c r="CL62" s="15"/>
-      <c r="CM62" s="15"/>
-      <c r="CN62" s="15"/>
-      <c r="CO62" s="15"/>
-      <c r="CP62" s="15"/>
-      <c r="CQ62" s="15"/>
-      <c r="CR62" s="15"/>
-      <c r="CS62" s="15"/>
-      <c r="CT62" s="15"/>
-      <c r="CU62" s="15"/>
-      <c r="CV62" s="15"/>
-      <c r="CW62" s="15"/>
-      <c r="CX62" s="15"/>
-      <c r="CY62" s="15"/>
-      <c r="CZ62" s="15"/>
-      <c r="DA62" s="15"/>
-      <c r="DB62" s="15"/>
-      <c r="DC62" s="15"/>
-      <c r="DD62" s="15"/>
-      <c r="DE62" s="15"/>
-      <c r="DF62" s="15"/>
-      <c r="DG62" s="15"/>
-      <c r="DH62" s="15"/>
-      <c r="DI62" s="15"/>
-      <c r="DJ62" s="15"/>
-      <c r="DK62" s="15"/>
-      <c r="DL62" s="15"/>
-      <c r="DM62" s="15"/>
-      <c r="DN62" s="15"/>
-      <c r="DO62" s="15"/>
-      <c r="DP62" s="15"/>
-      <c r="DQ62" s="15"/>
-      <c r="DR62" s="15"/>
-      <c r="DS62" s="15"/>
-      <c r="DT62" s="15"/>
-      <c r="DU62" s="15"/>
-      <c r="DV62" s="15"/>
-      <c r="DW62" s="15"/>
-      <c r="DX62" s="15"/>
-      <c r="DY62" s="15"/>
-      <c r="DZ62" s="15"/>
-      <c r="EA62" s="15"/>
-      <c r="EB62" s="15"/>
-      <c r="EC62" s="15"/>
-      <c r="ED62" s="15"/>
-      <c r="EE62" s="15"/>
-      <c r="EF62" s="15"/>
-      <c r="EG62" s="15"/>
-      <c r="EH62" s="15"/>
-      <c r="EI62" s="15"/>
-      <c r="EJ62" s="15"/>
-      <c r="EK62" s="15"/>
-      <c r="EL62" s="15"/>
-      <c r="EM62" s="15"/>
-      <c r="EN62" s="15"/>
-      <c r="EO62" s="15"/>
-      <c r="EP62" s="15"/>
-      <c r="EQ62" s="15"/>
-      <c r="ER62" s="15"/>
-      <c r="ES62" s="15"/>
-      <c r="ET62" s="15"/>
-      <c r="EU62" s="15"/>
-      <c r="EV62" s="15"/>
-      <c r="EW62" s="15"/>
-      <c r="EX62" s="15"/>
-      <c r="EY62" s="15"/>
-      <c r="EZ62" s="15"/>
-      <c r="FA62" s="15"/>
-      <c r="FB62" s="15"/>
-      <c r="FC62" s="15"/>
-      <c r="FD62" s="15"/>
-      <c r="FE62" s="15"/>
-      <c r="FF62" s="15"/>
-      <c r="FG62" s="15"/>
-      <c r="FH62" s="15"/>
-      <c r="FI62" s="15"/>
-      <c r="FJ62" s="15"/>
-      <c r="FK62" s="15"/>
-      <c r="FL62" s="15"/>
-    </row>
-    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="31" t="s">
+    </row>
+    <row r="63" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="32">
         <v>45520</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="31" t="s">
+      <c r="E63" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="31" t="s">
+      <c r="G63" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="31"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
-      <c r="AK63"/>
-      <c r="AL63"/>
-      <c r="AM63"/>
-      <c r="AN63"/>
-      <c r="AO63"/>
-      <c r="AP63"/>
-      <c r="AQ63"/>
-      <c r="AR63"/>
-      <c r="AS63"/>
-      <c r="AT63" s="23"/>
-      <c r="AU63" s="23"/>
-      <c r="AV63" s="23"/>
-      <c r="AW63" s="23"/>
-      <c r="AX63" s="23"/>
-      <c r="AY63" s="23"/>
-      <c r="AZ63" s="23"/>
-      <c r="BA63" s="23"/>
-      <c r="BB63" s="23"/>
-      <c r="BC63" s="23"/>
-      <c r="BD63" s="23"/>
-      <c r="BE63" s="23"/>
-      <c r="BF63" s="23"/>
-      <c r="BG63" s="23"/>
-      <c r="BH63" s="23"/>
-      <c r="BI63" s="23"/>
-      <c r="BJ63" s="23"/>
-      <c r="BK63" s="23"/>
-      <c r="BL63" s="23"/>
-      <c r="BM63" s="23"/>
-      <c r="BN63" s="23"/>
-      <c r="BO63" s="23"/>
-      <c r="BP63" s="23"/>
-      <c r="BQ63" s="23"/>
-      <c r="BR63" s="23"/>
-      <c r="BS63" s="23"/>
-      <c r="BT63" s="23"/>
-      <c r="BU63" s="23"/>
-      <c r="BV63" s="23"/>
-      <c r="BW63" s="23"/>
-      <c r="BX63" s="23"/>
-      <c r="BY63" s="23"/>
-      <c r="BZ63" s="23"/>
-      <c r="CA63" s="23"/>
-      <c r="CB63" s="23"/>
-      <c r="CC63" s="23"/>
-      <c r="CD63" s="23"/>
-      <c r="CE63" s="23"/>
-      <c r="CF63" s="23"/>
-      <c r="CG63" s="23"/>
-      <c r="CH63" s="23"/>
-      <c r="CI63" s="23"/>
-      <c r="CJ63" s="23"/>
-      <c r="CK63" s="23"/>
-      <c r="CL63" s="23"/>
-      <c r="CM63" s="23"/>
-      <c r="CN63" s="23"/>
-      <c r="CO63" s="23"/>
-      <c r="CP63" s="23"/>
-      <c r="CQ63" s="23"/>
-      <c r="CR63" s="23"/>
-      <c r="CS63" s="23"/>
-      <c r="CT63" s="23"/>
-      <c r="CU63" s="23"/>
-      <c r="CV63" s="23"/>
-      <c r="CW63" s="23"/>
-      <c r="CX63" s="23"/>
-      <c r="CY63" s="23"/>
-      <c r="CZ63" s="23"/>
-      <c r="DA63" s="23"/>
-      <c r="DB63" s="23"/>
-      <c r="DC63" s="23"/>
-      <c r="DD63" s="23"/>
-      <c r="DE63" s="23"/>
-      <c r="DF63" s="23"/>
-      <c r="DG63" s="23"/>
-      <c r="DH63" s="23"/>
-      <c r="DI63" s="23"/>
-      <c r="DJ63" s="23"/>
-      <c r="DK63" s="23"/>
-      <c r="DL63" s="23"/>
-      <c r="DM63" s="23"/>
-      <c r="DN63" s="23"/>
-      <c r="DO63" s="23"/>
-      <c r="DP63" s="23"/>
-      <c r="DQ63" s="23"/>
-      <c r="DR63" s="23"/>
-      <c r="DS63" s="23"/>
-      <c r="DT63" s="23"/>
-      <c r="DU63" s="23"/>
-      <c r="DV63" s="23"/>
-      <c r="DW63" s="23"/>
-      <c r="DX63" s="23"/>
-      <c r="DY63" s="23"/>
-      <c r="DZ63" s="23"/>
-      <c r="EA63" s="23"/>
-      <c r="EB63" s="23"/>
-      <c r="EC63" s="23"/>
-      <c r="ED63" s="23"/>
-      <c r="EE63" s="23"/>
-      <c r="EF63" s="23"/>
-      <c r="EG63" s="23"/>
-      <c r="EH63" s="23"/>
-      <c r="EI63" s="23"/>
-      <c r="EJ63" s="23"/>
-      <c r="EK63" s="23"/>
-      <c r="EL63" s="23"/>
-      <c r="EM63" s="23"/>
-      <c r="EN63" s="23"/>
-      <c r="EO63" s="23"/>
-      <c r="EP63" s="23"/>
-      <c r="EQ63" s="23"/>
-      <c r="ER63" s="23"/>
-      <c r="ES63" s="23"/>
-      <c r="ET63" s="23"/>
-      <c r="EU63" s="23"/>
-      <c r="EV63" s="23"/>
-      <c r="EW63" s="23"/>
-      <c r="EX63" s="23"/>
-      <c r="EY63" s="23"/>
-      <c r="EZ63" s="23"/>
-      <c r="FA63" s="23"/>
-      <c r="FB63" s="23"/>
-      <c r="FC63" s="23"/>
-      <c r="FD63" s="23"/>
-      <c r="FE63" s="23"/>
-      <c r="FF63" s="23"/>
-      <c r="FG63" s="23"/>
-      <c r="FH63" s="23"/>
-      <c r="FI63" s="23"/>
-      <c r="FJ63" s="23"/>
-      <c r="FK63" s="23"/>
-      <c r="FL63" s="23"/>
-    </row>
-    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H63" s="30"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+    </row>
+    <row r="64" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -6768,43 +6221,8 @@
       <c r="H64" s="5"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-      <c r="Y64"/>
-      <c r="Z64"/>
-      <c r="AA64"/>
-      <c r="AB64"/>
-      <c r="AC64"/>
-      <c r="AD64"/>
-      <c r="AE64"/>
-      <c r="AF64"/>
-      <c r="AG64"/>
-      <c r="AH64"/>
-      <c r="AI64"/>
-      <c r="AJ64"/>
-      <c r="AK64"/>
-      <c r="AL64"/>
-      <c r="AM64"/>
-      <c r="AN64"/>
-      <c r="AO64"/>
-      <c r="AP64"/>
-      <c r="AQ64"/>
-      <c r="AR64"/>
-      <c r="AS64"/>
-    </row>
-    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -6827,43 +6245,8 @@
       <c r="H65" s="21"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-      <c r="AA65"/>
-      <c r="AB65"/>
-      <c r="AC65"/>
-      <c r="AD65"/>
-      <c r="AE65"/>
-      <c r="AF65"/>
-      <c r="AG65"/>
-      <c r="AH65"/>
-      <c r="AI65"/>
-      <c r="AJ65"/>
-      <c r="AK65"/>
-      <c r="AL65"/>
-      <c r="AM65"/>
-      <c r="AN65"/>
-      <c r="AO65"/>
-      <c r="AP65"/>
-      <c r="AQ65"/>
-      <c r="AR65"/>
-      <c r="AS65"/>
-    </row>
-    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -6886,166 +6269,8 @@
       <c r="H66" s="5"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
-      <c r="AB66"/>
-      <c r="AC66"/>
-      <c r="AD66"/>
-      <c r="AE66"/>
-      <c r="AF66"/>
-      <c r="AG66"/>
-      <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66"/>
-      <c r="AK66"/>
-      <c r="AL66"/>
-      <c r="AM66"/>
-      <c r="AN66"/>
-      <c r="AO66"/>
-      <c r="AP66"/>
-      <c r="AQ66"/>
-      <c r="AR66"/>
-      <c r="AS66"/>
-      <c r="AT66" s="15"/>
-      <c r="AU66" s="15"/>
-      <c r="AV66" s="15"/>
-      <c r="AW66" s="15"/>
-      <c r="AX66" s="15"/>
-      <c r="AY66" s="15"/>
-      <c r="AZ66" s="15"/>
-      <c r="BA66" s="15"/>
-      <c r="BB66" s="15"/>
-      <c r="BC66" s="15"/>
-      <c r="BD66" s="15"/>
-      <c r="BE66" s="15"/>
-      <c r="BF66" s="15"/>
-      <c r="BG66" s="15"/>
-      <c r="BH66" s="15"/>
-      <c r="BI66" s="15"/>
-      <c r="BJ66" s="15"/>
-      <c r="BK66" s="15"/>
-      <c r="BL66" s="15"/>
-      <c r="BM66" s="15"/>
-      <c r="BN66" s="15"/>
-      <c r="BO66" s="15"/>
-      <c r="BP66" s="15"/>
-      <c r="BQ66" s="15"/>
-      <c r="BR66" s="15"/>
-      <c r="BS66" s="15"/>
-      <c r="BT66" s="15"/>
-      <c r="BU66" s="15"/>
-      <c r="BV66" s="15"/>
-      <c r="BW66" s="15"/>
-      <c r="BX66" s="15"/>
-      <c r="BY66" s="15"/>
-      <c r="BZ66" s="15"/>
-      <c r="CA66" s="15"/>
-      <c r="CB66" s="15"/>
-      <c r="CC66" s="15"/>
-      <c r="CD66" s="15"/>
-      <c r="CE66" s="15"/>
-      <c r="CF66" s="15"/>
-      <c r="CG66" s="15"/>
-      <c r="CH66" s="15"/>
-      <c r="CI66" s="15"/>
-      <c r="CJ66" s="15"/>
-      <c r="CK66" s="15"/>
-      <c r="CL66" s="15"/>
-      <c r="CM66" s="15"/>
-      <c r="CN66" s="15"/>
-      <c r="CO66" s="15"/>
-      <c r="CP66" s="15"/>
-      <c r="CQ66" s="15"/>
-      <c r="CR66" s="15"/>
-      <c r="CS66" s="15"/>
-      <c r="CT66" s="15"/>
-      <c r="CU66" s="15"/>
-      <c r="CV66" s="15"/>
-      <c r="CW66" s="15"/>
-      <c r="CX66" s="15"/>
-      <c r="CY66" s="15"/>
-      <c r="CZ66" s="15"/>
-      <c r="DA66" s="15"/>
-      <c r="DB66" s="15"/>
-      <c r="DC66" s="15"/>
-      <c r="DD66" s="15"/>
-      <c r="DE66" s="15"/>
-      <c r="DF66" s="15"/>
-      <c r="DG66" s="15"/>
-      <c r="DH66" s="15"/>
-      <c r="DI66" s="15"/>
-      <c r="DJ66" s="15"/>
-      <c r="DK66" s="15"/>
-      <c r="DL66" s="15"/>
-      <c r="DM66" s="15"/>
-      <c r="DN66" s="15"/>
-      <c r="DO66" s="15"/>
-      <c r="DP66" s="15"/>
-      <c r="DQ66" s="15"/>
-      <c r="DR66" s="15"/>
-      <c r="DS66" s="15"/>
-      <c r="DT66" s="15"/>
-      <c r="DU66" s="15"/>
-      <c r="DV66" s="15"/>
-      <c r="DW66" s="15"/>
-      <c r="DX66" s="15"/>
-      <c r="DY66" s="15"/>
-      <c r="DZ66" s="15"/>
-      <c r="EA66" s="15"/>
-      <c r="EB66" s="15"/>
-      <c r="EC66" s="15"/>
-      <c r="ED66" s="15"/>
-      <c r="EE66" s="15"/>
-      <c r="EF66" s="15"/>
-      <c r="EG66" s="15"/>
-      <c r="EH66" s="15"/>
-      <c r="EI66" s="15"/>
-      <c r="EJ66" s="15"/>
-      <c r="EK66" s="15"/>
-      <c r="EL66" s="15"/>
-      <c r="EM66" s="15"/>
-      <c r="EN66" s="15"/>
-      <c r="EO66" s="15"/>
-      <c r="EP66" s="15"/>
-      <c r="EQ66" s="15"/>
-      <c r="ER66" s="15"/>
-      <c r="ES66" s="15"/>
-      <c r="ET66" s="15"/>
-      <c r="EU66" s="15"/>
-      <c r="EV66" s="15"/>
-      <c r="EW66" s="15"/>
-      <c r="EX66" s="15"/>
-      <c r="EY66" s="15"/>
-      <c r="EZ66" s="15"/>
-      <c r="FA66" s="15"/>
-      <c r="FB66" s="15"/>
-      <c r="FC66" s="15"/>
-      <c r="FD66" s="15"/>
-      <c r="FE66" s="15"/>
-      <c r="FF66" s="15"/>
-      <c r="FG66" s="15"/>
-      <c r="FH66" s="15"/>
-      <c r="FI66" s="15"/>
-      <c r="FJ66" s="15"/>
-      <c r="FK66" s="15"/>
-      <c r="FL66" s="15"/>
-    </row>
-    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -7068,43 +6293,8 @@
       <c r="H67" s="22"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-      <c r="Z67"/>
-      <c r="AA67"/>
-      <c r="AB67"/>
-      <c r="AC67"/>
-      <c r="AD67"/>
-      <c r="AE67"/>
-      <c r="AF67"/>
-      <c r="AG67"/>
-      <c r="AH67"/>
-      <c r="AI67"/>
-      <c r="AJ67"/>
-      <c r="AK67"/>
-      <c r="AL67"/>
-      <c r="AM67"/>
-      <c r="AN67"/>
-      <c r="AO67"/>
-      <c r="AP67"/>
-      <c r="AQ67"/>
-      <c r="AR67"/>
-      <c r="AS67"/>
-    </row>
-    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -7127,43 +6317,8 @@
       <c r="H68" s="22"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
-      <c r="AB68"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
-      <c r="AE68"/>
-      <c r="AF68"/>
-      <c r="AG68"/>
-      <c r="AH68"/>
-      <c r="AI68"/>
-      <c r="AJ68"/>
-      <c r="AK68"/>
-      <c r="AL68"/>
-      <c r="AM68"/>
-      <c r="AN68"/>
-      <c r="AO68"/>
-      <c r="AP68"/>
-      <c r="AQ68"/>
-      <c r="AR68"/>
-      <c r="AS68"/>
-    </row>
-    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -7186,43 +6341,8 @@
       <c r="H69" s="22"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
-      <c r="AB69"/>
-      <c r="AC69"/>
-      <c r="AD69"/>
-      <c r="AE69"/>
-      <c r="AF69"/>
-      <c r="AG69"/>
-      <c r="AH69"/>
-      <c r="AI69"/>
-      <c r="AJ69"/>
-      <c r="AK69"/>
-      <c r="AL69"/>
-      <c r="AM69"/>
-      <c r="AN69"/>
-      <c r="AO69"/>
-      <c r="AP69"/>
-      <c r="AQ69"/>
-      <c r="AR69"/>
-      <c r="AS69"/>
-    </row>
-    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:10" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -7245,43 +6365,8 @@
       <c r="H70" s="22"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70"/>
-      <c r="AA70"/>
-      <c r="AB70"/>
-      <c r="AC70"/>
-      <c r="AD70"/>
-      <c r="AE70"/>
-      <c r="AF70"/>
-      <c r="AG70"/>
-      <c r="AH70"/>
-      <c r="AI70"/>
-      <c r="AJ70"/>
-      <c r="AK70"/>
-      <c r="AL70"/>
-      <c r="AM70"/>
-      <c r="AN70"/>
-      <c r="AO70"/>
-      <c r="AP70"/>
-      <c r="AQ70"/>
-      <c r="AR70"/>
-      <c r="AS70"/>
-    </row>
-    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:10" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -7304,43 +6389,8 @@
       <c r="H71" s="22"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-      <c r="Z71"/>
-      <c r="AA71"/>
-      <c r="AB71"/>
-      <c r="AC71"/>
-      <c r="AD71"/>
-      <c r="AE71"/>
-      <c r="AF71"/>
-      <c r="AG71"/>
-      <c r="AH71"/>
-      <c r="AI71"/>
-      <c r="AJ71"/>
-      <c r="AK71"/>
-      <c r="AL71"/>
-      <c r="AM71"/>
-      <c r="AN71"/>
-      <c r="AO71"/>
-      <c r="AP71"/>
-      <c r="AQ71"/>
-      <c r="AR71"/>
-      <c r="AS71"/>
-    </row>
-    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:10" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -7363,43 +6413,8 @@
       <c r="H72" s="22"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AD72"/>
-      <c r="AE72"/>
-      <c r="AF72"/>
-      <c r="AG72"/>
-      <c r="AH72"/>
-      <c r="AI72"/>
-      <c r="AJ72"/>
-      <c r="AK72"/>
-      <c r="AL72"/>
-      <c r="AM72"/>
-      <c r="AN72"/>
-      <c r="AO72"/>
-      <c r="AP72"/>
-      <c r="AQ72"/>
-      <c r="AR72"/>
-      <c r="AS72"/>
-    </row>
-    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:10" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -7422,43 +6437,8 @@
       <c r="H73" s="22"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
-      <c r="AD73"/>
-      <c r="AE73"/>
-      <c r="AF73"/>
-      <c r="AG73"/>
-      <c r="AH73"/>
-      <c r="AI73"/>
-      <c r="AJ73"/>
-      <c r="AK73"/>
-      <c r="AL73"/>
-      <c r="AM73"/>
-      <c r="AN73"/>
-      <c r="AO73"/>
-      <c r="AP73"/>
-      <c r="AQ73"/>
-      <c r="AR73"/>
-      <c r="AS73"/>
-    </row>
-    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -7481,43 +6461,8 @@
       <c r="H74" s="22"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74"/>
-      <c r="AD74"/>
-      <c r="AE74"/>
-      <c r="AF74"/>
-      <c r="AG74"/>
-      <c r="AH74"/>
-      <c r="AI74"/>
-      <c r="AJ74"/>
-      <c r="AK74"/>
-      <c r="AL74"/>
-      <c r="AM74"/>
-      <c r="AN74"/>
-      <c r="AO74"/>
-      <c r="AP74"/>
-      <c r="AQ74"/>
-      <c r="AR74"/>
-      <c r="AS74"/>
-    </row>
-    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -7540,43 +6485,8 @@
       <c r="H75" s="22"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="24"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-      <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
-      <c r="AC75"/>
-      <c r="AD75"/>
-      <c r="AE75"/>
-      <c r="AF75"/>
-      <c r="AG75"/>
-      <c r="AH75"/>
-      <c r="AI75"/>
-      <c r="AJ75"/>
-      <c r="AK75"/>
-      <c r="AL75"/>
-      <c r="AM75"/>
-      <c r="AN75"/>
-      <c r="AO75"/>
-      <c r="AP75"/>
-      <c r="AQ75"/>
-      <c r="AR75"/>
-      <c r="AS75"/>
-    </row>
-    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -7599,43 +6509,8 @@
       <c r="H76" s="22"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="24"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AC76"/>
-      <c r="AD76"/>
-      <c r="AE76"/>
-      <c r="AF76"/>
-      <c r="AG76"/>
-      <c r="AH76"/>
-      <c r="AI76"/>
-      <c r="AJ76"/>
-      <c r="AK76"/>
-      <c r="AL76"/>
-      <c r="AM76"/>
-      <c r="AN76"/>
-      <c r="AO76"/>
-      <c r="AP76"/>
-      <c r="AQ76"/>
-      <c r="AR76"/>
-      <c r="AS76"/>
-    </row>
-    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:10" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -7658,166 +6533,8 @@
       <c r="H77" s="22"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-      <c r="AH77"/>
-      <c r="AI77"/>
-      <c r="AJ77"/>
-      <c r="AK77"/>
-      <c r="AL77"/>
-      <c r="AM77"/>
-      <c r="AN77"/>
-      <c r="AO77"/>
-      <c r="AP77"/>
-      <c r="AQ77"/>
-      <c r="AR77"/>
-      <c r="AS77"/>
-      <c r="AT77" s="17"/>
-      <c r="AU77" s="17"/>
-      <c r="AV77" s="17"/>
-      <c r="AW77" s="17"/>
-      <c r="AX77" s="17"/>
-      <c r="AY77" s="17"/>
-      <c r="AZ77" s="17"/>
-      <c r="BA77" s="17"/>
-      <c r="BB77" s="17"/>
-      <c r="BC77" s="17"/>
-      <c r="BD77" s="17"/>
-      <c r="BE77" s="17"/>
-      <c r="BF77" s="17"/>
-      <c r="BG77" s="17"/>
-      <c r="BH77" s="17"/>
-      <c r="BI77" s="17"/>
-      <c r="BJ77" s="17"/>
-      <c r="BK77" s="17"/>
-      <c r="BL77" s="17"/>
-      <c r="BM77" s="17"/>
-      <c r="BN77" s="17"/>
-      <c r="BO77" s="17"/>
-      <c r="BP77" s="17"/>
-      <c r="BQ77" s="17"/>
-      <c r="BR77" s="17"/>
-      <c r="BS77" s="17"/>
-      <c r="BT77" s="17"/>
-      <c r="BU77" s="17"/>
-      <c r="BV77" s="17"/>
-      <c r="BW77" s="17"/>
-      <c r="BX77" s="17"/>
-      <c r="BY77" s="17"/>
-      <c r="BZ77" s="17"/>
-      <c r="CA77" s="17"/>
-      <c r="CB77" s="17"/>
-      <c r="CC77" s="17"/>
-      <c r="CD77" s="17"/>
-      <c r="CE77" s="17"/>
-      <c r="CF77" s="17"/>
-      <c r="CG77" s="17"/>
-      <c r="CH77" s="17"/>
-      <c r="CI77" s="17"/>
-      <c r="CJ77" s="17"/>
-      <c r="CK77" s="17"/>
-      <c r="CL77" s="17"/>
-      <c r="CM77" s="17"/>
-      <c r="CN77" s="17"/>
-      <c r="CO77" s="17"/>
-      <c r="CP77" s="17"/>
-      <c r="CQ77" s="17"/>
-      <c r="CR77" s="17"/>
-      <c r="CS77" s="17"/>
-      <c r="CT77" s="17"/>
-      <c r="CU77" s="17"/>
-      <c r="CV77" s="17"/>
-      <c r="CW77" s="17"/>
-      <c r="CX77" s="17"/>
-      <c r="CY77" s="17"/>
-      <c r="CZ77" s="17"/>
-      <c r="DA77" s="17"/>
-      <c r="DB77" s="17"/>
-      <c r="DC77" s="17"/>
-      <c r="DD77" s="17"/>
-      <c r="DE77" s="17"/>
-      <c r="DF77" s="17"/>
-      <c r="DG77" s="17"/>
-      <c r="DH77" s="17"/>
-      <c r="DI77" s="17"/>
-      <c r="DJ77" s="17"/>
-      <c r="DK77" s="17"/>
-      <c r="DL77" s="17"/>
-      <c r="DM77" s="17"/>
-      <c r="DN77" s="17"/>
-      <c r="DO77" s="17"/>
-      <c r="DP77" s="17"/>
-      <c r="DQ77" s="17"/>
-      <c r="DR77" s="17"/>
-      <c r="DS77" s="17"/>
-      <c r="DT77" s="17"/>
-      <c r="DU77" s="17"/>
-      <c r="DV77" s="17"/>
-      <c r="DW77" s="17"/>
-      <c r="DX77" s="17"/>
-      <c r="DY77" s="17"/>
-      <c r="DZ77" s="17"/>
-      <c r="EA77" s="17"/>
-      <c r="EB77" s="17"/>
-      <c r="EC77" s="17"/>
-      <c r="ED77" s="17"/>
-      <c r="EE77" s="17"/>
-      <c r="EF77" s="17"/>
-      <c r="EG77" s="17"/>
-      <c r="EH77" s="17"/>
-      <c r="EI77" s="17"/>
-      <c r="EJ77" s="17"/>
-      <c r="EK77" s="17"/>
-      <c r="EL77" s="17"/>
-      <c r="EM77" s="17"/>
-      <c r="EN77" s="17"/>
-      <c r="EO77" s="17"/>
-      <c r="EP77" s="17"/>
-      <c r="EQ77" s="17"/>
-      <c r="ER77" s="17"/>
-      <c r="ES77" s="17"/>
-      <c r="ET77" s="17"/>
-      <c r="EU77" s="17"/>
-      <c r="EV77" s="17"/>
-      <c r="EW77" s="17"/>
-      <c r="EX77" s="17"/>
-      <c r="EY77" s="17"/>
-      <c r="EZ77" s="17"/>
-      <c r="FA77" s="17"/>
-      <c r="FB77" s="17"/>
-      <c r="FC77" s="17"/>
-      <c r="FD77" s="17"/>
-      <c r="FE77" s="17"/>
-      <c r="FF77" s="17"/>
-      <c r="FG77" s="17"/>
-      <c r="FH77" s="17"/>
-      <c r="FI77" s="17"/>
-      <c r="FJ77" s="17"/>
-      <c r="FK77" s="17"/>
-      <c r="FL77" s="17"/>
-    </row>
-    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -7840,35 +6557,8 @@
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AC78"/>
-      <c r="AD78"/>
-      <c r="AE78"/>
-      <c r="AF78"/>
-      <c r="AG78"/>
-      <c r="AH78"/>
-      <c r="AI78"/>
-      <c r="AJ78"/>
-      <c r="AK78"/>
-    </row>
-    <row r="79" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -7891,186 +6581,36 @@
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="S79" s="24"/>
-      <c r="T79" s="24"/>
-      <c r="X79" s="24"/>
-      <c r="Y79" s="24"/>
-      <c r="AL79" s="15"/>
-      <c r="AM79" s="15"/>
-      <c r="AN79" s="15"/>
-      <c r="AO79" s="15"/>
-      <c r="AP79" s="15"/>
-      <c r="AQ79" s="15"/>
-      <c r="AR79" s="15"/>
-      <c r="AS79" s="15"/>
-      <c r="AT79" s="15"/>
-      <c r="AU79" s="15"/>
-      <c r="AV79" s="15"/>
-      <c r="AW79" s="15"/>
-      <c r="AX79" s="15"/>
-      <c r="AY79" s="15"/>
-      <c r="AZ79" s="15"/>
-      <c r="BA79" s="15"/>
-      <c r="BB79" s="15"/>
-      <c r="BC79" s="15"/>
-      <c r="BD79" s="15"/>
-      <c r="BE79" s="15"/>
-      <c r="BF79" s="15"/>
-      <c r="BG79" s="15"/>
-      <c r="BH79" s="15"/>
-      <c r="BI79" s="15"/>
-      <c r="BJ79" s="15"/>
-      <c r="BK79" s="15"/>
-      <c r="BL79" s="15"/>
-      <c r="BM79" s="15"/>
-      <c r="BN79" s="15"/>
-      <c r="BO79" s="15"/>
-      <c r="BP79" s="15"/>
-      <c r="BQ79" s="15"/>
-      <c r="BR79" s="15"/>
-      <c r="BS79" s="15"/>
-      <c r="BT79" s="15"/>
-      <c r="BU79" s="15"/>
-      <c r="BV79" s="15"/>
-      <c r="BW79" s="15"/>
-      <c r="BX79" s="15"/>
-      <c r="BY79" s="15"/>
-      <c r="BZ79" s="15"/>
-      <c r="CA79" s="15"/>
-      <c r="CB79" s="15"/>
-      <c r="CC79" s="15"/>
-      <c r="CD79" s="15"/>
-      <c r="CE79" s="15"/>
-      <c r="CF79" s="15"/>
-      <c r="CG79" s="15"/>
-      <c r="CH79" s="15"/>
-      <c r="CI79" s="15"/>
-      <c r="CJ79" s="15"/>
-      <c r="CK79" s="15"/>
-      <c r="CL79" s="15"/>
-      <c r="CM79" s="15"/>
-      <c r="CN79" s="15"/>
-      <c r="CO79" s="15"/>
-      <c r="CP79" s="15"/>
-      <c r="CQ79" s="15"/>
-      <c r="CR79" s="15"/>
-      <c r="CS79" s="15"/>
-      <c r="CT79" s="15"/>
-      <c r="CU79" s="15"/>
-      <c r="CV79" s="15"/>
-      <c r="CW79" s="15"/>
-      <c r="CX79" s="15"/>
-      <c r="CY79" s="15"/>
-      <c r="CZ79" s="15"/>
-      <c r="DA79" s="15"/>
-      <c r="DB79" s="15"/>
-      <c r="DC79" s="15"/>
-      <c r="DD79" s="15"/>
-      <c r="DE79" s="15"/>
-      <c r="DF79" s="15"/>
-      <c r="DG79" s="15"/>
-      <c r="DH79" s="15"/>
-      <c r="DI79" s="15"/>
-      <c r="DJ79" s="15"/>
-      <c r="DK79" s="15"/>
-      <c r="DL79" s="15"/>
-      <c r="DM79" s="15"/>
-      <c r="DN79" s="15"/>
-      <c r="DO79" s="15"/>
-      <c r="DP79" s="15"/>
-      <c r="DQ79" s="15"/>
-      <c r="DR79" s="15"/>
-      <c r="DS79" s="15"/>
-      <c r="DT79" s="15"/>
-      <c r="DU79" s="15"/>
-      <c r="DV79" s="15"/>
-      <c r="DW79" s="15"/>
-      <c r="DX79" s="15"/>
-      <c r="DY79" s="15"/>
-      <c r="DZ79" s="15"/>
-      <c r="EA79" s="15"/>
-      <c r="EB79" s="15"/>
-      <c r="EC79" s="15"/>
-      <c r="ED79" s="15"/>
-      <c r="EE79" s="15"/>
-      <c r="EF79" s="15"/>
-      <c r="EG79" s="15"/>
-      <c r="EH79" s="15"/>
-      <c r="EI79" s="15"/>
-      <c r="EJ79" s="15"/>
-      <c r="EK79" s="15"/>
-      <c r="EL79" s="15"/>
-      <c r="EM79" s="15"/>
-      <c r="EN79" s="15"/>
-      <c r="EO79" s="15"/>
-      <c r="EP79" s="15"/>
-      <c r="EQ79" s="15"/>
-      <c r="ER79" s="15"/>
-      <c r="ES79" s="15"/>
-      <c r="ET79" s="15"/>
-      <c r="EU79" s="15"/>
-      <c r="EV79" s="15"/>
-      <c r="EW79" s="15"/>
-      <c r="EX79" s="15"/>
-      <c r="EY79" s="15"/>
-      <c r="EZ79" s="15"/>
-      <c r="FA79" s="15"/>
-      <c r="FB79" s="15"/>
-      <c r="FC79" s="15"/>
-      <c r="FD79" s="15"/>
-      <c r="FE79" s="15"/>
-      <c r="FF79" s="15"/>
-      <c r="FG79" s="15"/>
-      <c r="FH79" s="15"/>
-      <c r="FI79" s="15"/>
-      <c r="FJ79" s="15"/>
-      <c r="FK79" s="15"/>
-      <c r="FL79" s="15"/>
-    </row>
-    <row r="80" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="A80" s="25" t="s">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80" s="26">
         <v>45604</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="25" t="s">
+      <c r="E80" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F80" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="S80" s="24"/>
-      <c r="T80" s="24"/>
-      <c r="X80" s="24"/>
-      <c r="Y80" s="24"/>
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="24"/>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -8093,16 +6633,8 @@
       <c r="H81" s="10"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="AB81" s="24"/>
-      <c r="AC81" s="24"/>
-      <c r="AG81" s="24"/>
-      <c r="AH81" s="24"/>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -8126,7 +6658,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -8150,7 +6682,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -8174,7 +6706,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -8198,7 +6730,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -8222,7 +6754,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -8246,7 +6778,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -8270,7 +6802,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -8294,35 +6826,35 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A90" s="25" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90" s="26">
         <v>45635</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E90" s="25" t="s">
+      <c r="E90" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G90" s="25" t="s">
+      <c r="G90" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -8346,7 +6878,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -8370,7 +6902,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -8394,7 +6926,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -8418,7 +6950,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -8442,7 +6974,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -8491,116 +7023,116 @@
       <c r="J97" s="6"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="26">
         <v>45654</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E98" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="25" t="s">
+      <c r="E98" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="25" t="s">
+      <c r="G98" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H98" s="25" t="s">
+      <c r="H98" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="26">
         <v>45658</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E99" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="25" t="s">
+      <c r="E99" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G99" s="25" t="s">
+      <c r="G99" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H99" s="25" t="s">
+      <c r="H99" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100" s="26">
         <v>45662</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="25" t="s">
+      <c r="E100" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G100" s="25" t="s">
+      <c r="G100" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H100" s="25" t="s">
+      <c r="H100" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C101" s="27">
+      <c r="C101" s="26">
         <v>45664</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="25" t="s">
+      <c r="E101" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F101" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G101" s="25" t="s">
+      <c r="G101" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H101" s="25" t="s">
+      <c r="H101" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -8865,32 +7397,32 @@
       <c r="J112" s="9"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="27">
+      <c r="C113" s="26">
         <v>45681</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E113" s="25" t="s">
+      <c r="E113" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="25" t="s">
+      <c r="F113" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G113" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H113" s="25" t="s">
+      <c r="H113" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
@@ -9149,58 +7681,58 @@
       <c r="J124" s="9"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="36">
+      <c r="C125" s="35">
         <v>45687</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="34" t="s">
+      <c r="E125" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G125" s="37" t="s">
+      <c r="G125" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="H125" s="34"/>
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="28" t="s">
+      <c r="B126" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C126" s="27">
+      <c r="C126" s="26">
         <v>45691</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E126" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="25" t="s">
+      <c r="E126" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G126" s="25" t="s">
+      <c r="G126" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H126" s="25" t="s">
+      <c r="H126" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
@@ -9273,32 +7805,32 @@
       <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A130" s="25" t="s">
+      <c r="A130" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B130" s="28" t="s">
+      <c r="B130" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C130" s="27">
+      <c r="C130" s="26">
         <v>45698</v>
       </c>
-      <c r="D130" s="25" t="s">
+      <c r="D130" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E130" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="25" t="s">
+      <c r="E130" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G130" s="25" t="s">
+      <c r="G130" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H130" s="25" t="s">
+      <c r="H130" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
@@ -9347,32 +7879,32 @@
       <c r="J132" s="9"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="B133" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C133" s="30" t="s">
+      <c r="C133" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D133" s="29" t="s">
+      <c r="D133" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E133" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="25" t="s">
+      <c r="E133" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G133" s="25" t="s">
+      <c r="G133" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H133" s="25" t="s">
+      <c r="H133" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I133" s="29"/>
-      <c r="J133" s="29"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
     </row>
     <row r="134" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
@@ -9463,8 +7995,8 @@
       <c r="F137" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G137" s="38"/>
-      <c r="H137" s="39"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="38"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
@@ -9487,8 +8019,8 @@
       <c r="F138" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G138" s="38"/>
-      <c r="H138" s="39"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="38"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
@@ -9699,8 +8231,8 @@
       <c r="F147" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G147" s="40"/>
-      <c r="H147" s="40"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
@@ -9834,7 +8366,7 @@
       <c r="C153" s="7">
         <v>45728</v>
       </c>
-      <c r="D153" s="41" t="s">
+      <c r="D153" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E153" s="5" t="s">
@@ -10425,7 +8957,7 @@
       <c r="B178" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C178" s="42" t="s">
+      <c r="C178" s="41" t="s">
         <v>211</v>
       </c>
       <c r="D178" s="11" t="s">
@@ -10995,7 +9527,7 @@
       <c r="B202" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C202" s="42">
+      <c r="C202" s="41">
         <v>45828</v>
       </c>
       <c r="D202" s="5" t="s">
@@ -11231,16 +9763,16 @@
         <v>24</v>
       </c>
       <c r="B212" s="9"/>
-      <c r="C212" s="43">
+      <c r="C212" s="42">
         <v>45895</v>
       </c>
-      <c r="D212" s="44" t="s">
+      <c r="D212" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E212" s="44" t="s">
+      <c r="E212" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F212" s="45" t="s">
+      <c r="F212" s="44" t="s">
         <v>1</v>
       </c>
       <c r="G212" s="10"/>
@@ -11253,16 +9785,16 @@
         <v>24</v>
       </c>
       <c r="B213" s="9"/>
-      <c r="C213" s="43">
+      <c r="C213" s="42">
         <v>45895</v>
       </c>
-      <c r="D213" s="44" t="s">
+      <c r="D213" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E213" s="44" t="s">
+      <c r="E213" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F213" s="45" t="s">
+      <c r="F213" s="44" t="s">
         <v>1</v>
       </c>
       <c r="G213" s="10"/>
@@ -11275,16 +9807,16 @@
         <v>113</v>
       </c>
       <c r="B214" s="6"/>
-      <c r="C214" s="43">
+      <c r="C214" s="42">
         <v>45897</v>
       </c>
-      <c r="D214" s="44" t="s">
+      <c r="D214" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E214" s="44" t="s">
+      <c r="E214" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F214" s="45" t="s">
+      <c r="F214" s="44" t="s">
         <v>1</v>
       </c>
       <c r="G214" s="10"/>
@@ -11299,16 +9831,16 @@
       <c r="B215" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C215" s="43">
+      <c r="C215" s="42">
         <v>45915</v>
       </c>
-      <c r="D215" s="44" t="s">
+      <c r="D215" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E215" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F215" s="45" t="s">
+      <c r="E215" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="44" t="s">
         <v>1</v>
       </c>
       <c r="G215" s="10"/>
@@ -11317,52 +9849,52 @@
       <c r="J215" s="6"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A216" s="46" t="s">
+      <c r="A216" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B216" s="47" t="s">
+      <c r="B216" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="C216" s="48">
+      <c r="C216" s="47">
         <v>45933</v>
       </c>
-      <c r="D216" s="46" t="s">
+      <c r="D216" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E216" s="46" t="s">
+      <c r="E216" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F216" s="47" t="s">
+      <c r="F216" s="46" t="s">
         <v>1</v>
       </c>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
-      <c r="I216" s="47"/>
-      <c r="J216" s="47"/>
+      <c r="I216" s="46"/>
+      <c r="J216" s="46"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A217" s="46" t="s">
+      <c r="A217" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B217" s="47" t="s">
+      <c r="B217" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="C217" s="48">
+      <c r="C217" s="47">
         <v>45936</v>
       </c>
-      <c r="D217" s="46" t="s">
+      <c r="D217" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E217" s="46" t="s">
+      <c r="E217" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F217" s="47" t="s">
+      <c r="F217" s="46" t="s">
         <v>1</v>
       </c>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
-      <c r="I217" s="47"/>
-      <c r="J217" s="47"/>
+      <c r="I217" s="46"/>
+      <c r="J217" s="46"/>
     </row>
     <row r="218" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
@@ -11461,34 +9993,34 @@
       <c r="J221" s="9"/>
     </row>
     <row r="222" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="49" t="s">
+      <c r="A222" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B222" s="50" t="s">
+      <c r="B222" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C222" s="51">
+      <c r="C222" s="50">
         <v>45964</v>
       </c>
-      <c r="D222" s="49" t="s">
+      <c r="D222" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E222" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F222" s="50" t="s">
+      <c r="E222" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G222" s="50" t="s">
+      <c r="G222" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H222" s="49" t="s">
+      <c r="H222" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="I222" s="62">
+      <c r="I222" s="61">
         <v>1208852</v>
       </c>
-      <c r="J222" s="62">
+      <c r="J222" s="61">
         <v>2574793</v>
       </c>
     </row>
@@ -11513,8 +10045,8 @@
       </c>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
-      <c r="I223" s="59"/>
-      <c r="J223" s="59"/>
+      <c r="I223" s="58"/>
+      <c r="J223" s="58"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
@@ -11541,154 +10073,154 @@
       <c r="J224" s="9"/>
     </row>
     <row r="225" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="52" t="s">
+      <c r="A225" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B225" s="53" t="s">
+      <c r="B225" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C225" s="54">
+      <c r="C225" s="53">
         <v>45970</v>
       </c>
-      <c r="D225" s="52" t="s">
+      <c r="D225" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E225" s="52" t="s">
+      <c r="E225" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F225" s="55" t="s">
+      <c r="F225" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G225" s="50" t="s">
+      <c r="G225" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H225" s="52" t="s">
+      <c r="H225" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="I225" s="62">
+      <c r="I225" s="61">
         <v>1229028</v>
       </c>
-      <c r="J225" s="62">
+      <c r="J225" s="61">
         <v>2708002</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A226" s="52" t="s">
+      <c r="A226" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B226" s="53" t="s">
+      <c r="B226" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C226" s="54">
+      <c r="C226" s="53">
         <v>45970</v>
       </c>
-      <c r="D226" s="52" t="s">
+      <c r="D226" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E226" s="52" t="s">
+      <c r="E226" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F226" s="55" t="s">
+      <c r="F226" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G226" s="50" t="s">
+      <c r="G226" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H226" s="52" t="s">
+      <c r="H226" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="I226" s="62">
+      <c r="I226" s="61">
         <v>1229385</v>
       </c>
-      <c r="J226" s="62">
+      <c r="J226" s="61">
         <v>2704274</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A227" s="52" t="s">
+      <c r="A227" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B227" s="53" t="s">
+      <c r="B227" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C227" s="54">
+      <c r="C227" s="53">
         <v>45970</v>
       </c>
-      <c r="D227" s="52" t="s">
+      <c r="D227" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E227" s="52" t="s">
+      <c r="E227" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F227" s="55" t="s">
+      <c r="F227" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G227" s="50" t="s">
+      <c r="G227" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H227" s="52" t="s">
+      <c r="H227" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="I227" s="62">
+      <c r="I227" s="61">
         <v>1228083</v>
       </c>
-      <c r="J227" s="62">
+      <c r="J227" s="61">
         <v>2707167</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A228" s="46" t="s">
+      <c r="A228" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B228" s="47" t="s">
+      <c r="B228" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C228" s="48">
+      <c r="C228" s="47">
         <v>45970</v>
       </c>
-      <c r="D228" s="46" t="s">
+      <c r="D228" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E228" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F228" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G228" s="46"/>
-      <c r="H228" s="46"/>
-      <c r="I228" s="60"/>
-      <c r="J228" s="60"/>
+      <c r="E228" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G228" s="45"/>
+      <c r="H228" s="45"/>
+      <c r="I228" s="59"/>
+      <c r="J228" s="59"/>
     </row>
     <row r="229" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A229" s="49" t="s">
+      <c r="A229" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B229" s="50" t="s">
+      <c r="B229" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="C229" s="51">
+      <c r="C229" s="50">
         <v>45970</v>
       </c>
-      <c r="D229" s="49" t="s">
+      <c r="D229" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E229" s="49" t="s">
+      <c r="E229" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F229" s="50" t="s">
+      <c r="F229" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G229" s="50" t="s">
+      <c r="G229" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H229" s="49" t="s">
+      <c r="H229" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="I229" s="62">
+      <c r="I229" s="61">
         <v>1234182</v>
       </c>
-      <c r="J229" s="62">
+      <c r="J229" s="61">
         <v>2694902</v>
       </c>
     </row>
@@ -11713,8 +10245,8 @@
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
-      <c r="I230" s="61"/>
-      <c r="J230" s="61"/>
+      <c r="I230" s="60"/>
+      <c r="J230" s="60"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
@@ -11740,7 +10272,7 @@
       <c r="I231" s="9"/>
       <c r="J231" s="9"/>
     </row>
-    <row r="232" spans="1:10" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>3</v>
       </c>
@@ -11781,7 +10313,7 @@
       <c r="F233" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G233" s="56"/>
+      <c r="G233" s="55"/>
       <c r="H233" s="10"/>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
@@ -11805,7 +10337,7 @@
       <c r="F234" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G234" s="46"/>
+      <c r="G234" s="45"/>
       <c r="H234" s="10"/>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
@@ -11829,7 +10361,7 @@
       <c r="F235" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G235" s="46"/>
+      <c r="G235" s="45"/>
       <c r="H235" s="10"/>
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
@@ -11853,7 +10385,7 @@
       <c r="F236" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G236" s="46"/>
+      <c r="G236" s="45"/>
       <c r="H236" s="10"/>
       <c r="I236" s="9"/>
       <c r="J236" s="9"/>
@@ -11877,7 +10409,7 @@
       <c r="F237" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G237" s="46"/>
+      <c r="G237" s="45"/>
       <c r="H237" s="10"/>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
@@ -11901,40 +10433,40 @@
       <c r="F238" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G238" s="46"/>
+      <c r="G238" s="45"/>
       <c r="H238" s="10"/>
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
     <row r="239" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A239" s="49" t="s">
+      <c r="A239" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B239" s="58" t="s">
+      <c r="B239" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="C239" s="51">
+      <c r="C239" s="50">
         <v>45975</v>
       </c>
-      <c r="D239" s="49" t="s">
+      <c r="D239" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E239" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F239" s="50" t="s">
+      <c r="E239" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G239" s="57" t="s">
+      <c r="G239" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="H239" s="49" t="s">
+      <c r="H239" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="I239" s="64">
+      <c r="I239" s="63">
         <v>1281675</v>
       </c>
-      <c r="J239" s="64">
+      <c r="J239" s="63">
         <v>2722195</v>
       </c>
     </row>
@@ -11957,8 +10489,8 @@
       <c r="F240" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G240" s="44"/>
-      <c r="H240" s="44"/>
+      <c r="G240" s="43"/>
+      <c r="H240" s="43"/>
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
     </row>
@@ -11981,8 +10513,8 @@
       <c r="F241" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G241" s="44"/>
-      <c r="H241" s="44"/>
+      <c r="G241" s="43"/>
+      <c r="H241" s="43"/>
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
     </row>
@@ -12005,8 +10537,8 @@
       <c r="F242" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G242" s="44"/>
-      <c r="H242" s="44"/>
+      <c r="G242" s="43"/>
+      <c r="H242" s="43"/>
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
     </row>
@@ -12029,45 +10561,44 @@
       <c r="F243" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G243" s="44"/>
-      <c r="H243" s="44"/>
+      <c r="G243" s="43"/>
+      <c r="H243" s="43"/>
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
     </row>
     <row r="244" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A244" s="49" t="s">
+      <c r="A244" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B244" s="58" t="s">
+      <c r="B244" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="C244" s="51">
+      <c r="C244" s="50">
         <v>45981</v>
       </c>
-      <c r="D244" s="49" t="s">
+      <c r="D244" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E244" s="49" t="s">
+      <c r="E244" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F244" s="50" t="s">
+      <c r="F244" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G244" s="50" t="s">
+      <c r="G244" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H244" s="49" t="s">
+      <c r="H244" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="I244" s="63">
+      <c r="I244" s="62">
         <v>1222210</v>
       </c>
-      <c r="J244" s="63">
+      <c r="J244" s="62">
         <v>2654221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FL239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A203AD83-2395-4430-BDC5-80B73EDFACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E62475A9-0BD4-49B7-8E62-D0092A8A87A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80712988-911F-4EDC-9B60-BFD4E848DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$J$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="289">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1120,6 +1120,42 @@
   <si>
     <t>Sempachersee auf Höhe Eich, 6205 Luzern
 Mit neurologischen Auffälligkeiten (Opisthotonus, Torticolis, Verdacht auf Trauma weil „vom Himmel gefallen“)</t>
+  </si>
+  <si>
+    <t>Spechte</t>
+  </si>
+  <si>
+    <t>Luzerner Becken Vierwaldstättersee</t>
+  </si>
+  <si>
+    <t>Ufer Walensee</t>
+  </si>
+  <si>
+    <t>Ente</t>
+  </si>
+  <si>
+    <t>Weiher Gossau</t>
+  </si>
+  <si>
+    <t>Autobahn bei km19.5-16.3</t>
+  </si>
+  <si>
+    <t>Landiwiese</t>
+  </si>
+  <si>
+    <t>Möliweg 20, 9494 Schaan</t>
+  </si>
+  <si>
+    <t>oberhalb Durchstich Seedamm. Hurdnerwäldlistrasse, Pfäffikon, 8808 Freeinbach</t>
+  </si>
+  <si>
+    <t>Trauvé par le garde faune sur les rives du lac de Neuchâtel, „nouvelle plage“, a Estavayer-le-lac</t>
+  </si>
+  <si>
+    <t>Welikerstrasse 1, Dinhard</t>
+  </si>
+  <si>
+    <t>Spittelerquai Luzern, Höhe Casino, am Steg</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3098,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3122,6 +3158,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4674,11 +4713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J244"/>
+  <dimension ref="A1:FL258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5842,7 +5881,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -5866,7 +5905,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -5888,7 +5927,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -5912,7 +5951,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -5936,7 +5975,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5958,7 +5997,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -5980,7 +6019,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:168" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -6004,7 +6043,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -6028,7 +6067,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -6052,7 +6091,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -6076,7 +6115,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -6099,8 +6138,166 @@
       <c r="H59" s="16"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+      <c r="AS59"/>
+      <c r="AT59"/>
+      <c r="AU59"/>
+      <c r="AV59"/>
+      <c r="AW59"/>
+      <c r="AX59"/>
+      <c r="AY59"/>
+      <c r="AZ59"/>
+      <c r="BA59"/>
+      <c r="BB59"/>
+      <c r="BC59"/>
+      <c r="BD59"/>
+      <c r="BE59"/>
+      <c r="BF59"/>
+      <c r="BG59"/>
+      <c r="BH59"/>
+      <c r="BI59"/>
+      <c r="BJ59"/>
+      <c r="BK59"/>
+      <c r="BL59"/>
+      <c r="BM59"/>
+      <c r="BN59"/>
+      <c r="BO59"/>
+      <c r="BP59"/>
+      <c r="BQ59"/>
+      <c r="BR59"/>
+      <c r="BS59"/>
+      <c r="BT59"/>
+      <c r="BU59"/>
+      <c r="BV59"/>
+      <c r="BW59"/>
+      <c r="BX59"/>
+      <c r="BY59"/>
+      <c r="BZ59"/>
+      <c r="CA59"/>
+      <c r="CB59"/>
+      <c r="CC59"/>
+      <c r="CD59"/>
+      <c r="CE59"/>
+      <c r="CF59"/>
+      <c r="CG59"/>
+      <c r="CH59"/>
+      <c r="CI59"/>
+      <c r="CJ59"/>
+      <c r="CK59"/>
+      <c r="CL59"/>
+      <c r="CM59"/>
+      <c r="CN59"/>
+      <c r="CO59"/>
+      <c r="CP59"/>
+      <c r="CQ59"/>
+      <c r="CR59"/>
+      <c r="CS59"/>
+      <c r="CT59"/>
+      <c r="CU59"/>
+      <c r="CV59"/>
+      <c r="CW59"/>
+      <c r="CX59"/>
+      <c r="CY59"/>
+      <c r="CZ59"/>
+      <c r="DA59"/>
+      <c r="DB59"/>
+      <c r="DC59"/>
+      <c r="DD59"/>
+      <c r="DE59"/>
+      <c r="DF59"/>
+      <c r="DG59"/>
+      <c r="DH59"/>
+      <c r="DI59"/>
+      <c r="DJ59"/>
+      <c r="DK59"/>
+      <c r="DL59"/>
+      <c r="DM59"/>
+      <c r="DN59"/>
+      <c r="DO59"/>
+      <c r="DP59"/>
+      <c r="DQ59"/>
+      <c r="DR59"/>
+      <c r="DS59"/>
+      <c r="DT59"/>
+      <c r="DU59"/>
+      <c r="DV59"/>
+      <c r="DW59"/>
+      <c r="DX59"/>
+      <c r="DY59"/>
+      <c r="DZ59"/>
+      <c r="EA59"/>
+      <c r="EB59"/>
+      <c r="EC59"/>
+      <c r="ED59"/>
+      <c r="EE59"/>
+      <c r="EF59"/>
+      <c r="EG59"/>
+      <c r="EH59"/>
+      <c r="EI59"/>
+      <c r="EJ59"/>
+      <c r="EK59"/>
+      <c r="EL59"/>
+      <c r="EM59"/>
+      <c r="EN59"/>
+      <c r="EO59"/>
+      <c r="EP59"/>
+      <c r="EQ59"/>
+      <c r="ER59"/>
+      <c r="ES59"/>
+      <c r="ET59"/>
+      <c r="EU59"/>
+      <c r="EV59"/>
+      <c r="EW59"/>
+      <c r="EX59"/>
+      <c r="EY59"/>
+      <c r="EZ59"/>
+      <c r="FA59"/>
+      <c r="FB59"/>
+      <c r="FC59"/>
+      <c r="FD59"/>
+      <c r="FE59"/>
+      <c r="FF59"/>
+      <c r="FG59"/>
+      <c r="FH59"/>
+      <c r="FI59"/>
+      <c r="FJ59"/>
+      <c r="FK59"/>
+      <c r="FL59"/>
+    </row>
+    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -6123,8 +6320,43 @@
       <c r="H60" s="5"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+      <c r="AQ60"/>
+      <c r="AR60"/>
+      <c r="AS60"/>
+    </row>
+    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -6147,8 +6379,43 @@
       <c r="H61" s="5"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-    </row>
-    <row r="62" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
+      <c r="AQ61"/>
+      <c r="AR61"/>
+      <c r="AS61"/>
+    </row>
+    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6171,34 +6438,350 @@
       <c r="H62" s="5"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-    </row>
-    <row r="63" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+      <c r="AS62"/>
+      <c r="AT62" s="15"/>
+      <c r="AU62" s="15"/>
+      <c r="AV62" s="15"/>
+      <c r="AW62" s="15"/>
+      <c r="AX62" s="15"/>
+      <c r="AY62" s="15"/>
+      <c r="AZ62" s="15"/>
+      <c r="BA62" s="15"/>
+      <c r="BB62" s="15"/>
+      <c r="BC62" s="15"/>
+      <c r="BD62" s="15"/>
+      <c r="BE62" s="15"/>
+      <c r="BF62" s="15"/>
+      <c r="BG62" s="15"/>
+      <c r="BH62" s="15"/>
+      <c r="BI62" s="15"/>
+      <c r="BJ62" s="15"/>
+      <c r="BK62" s="15"/>
+      <c r="BL62" s="15"/>
+      <c r="BM62" s="15"/>
+      <c r="BN62" s="15"/>
+      <c r="BO62" s="15"/>
+      <c r="BP62" s="15"/>
+      <c r="BQ62" s="15"/>
+      <c r="BR62" s="15"/>
+      <c r="BS62" s="15"/>
+      <c r="BT62" s="15"/>
+      <c r="BU62" s="15"/>
+      <c r="BV62" s="15"/>
+      <c r="BW62" s="15"/>
+      <c r="BX62" s="15"/>
+      <c r="BY62" s="15"/>
+      <c r="BZ62" s="15"/>
+      <c r="CA62" s="15"/>
+      <c r="CB62" s="15"/>
+      <c r="CC62" s="15"/>
+      <c r="CD62" s="15"/>
+      <c r="CE62" s="15"/>
+      <c r="CF62" s="15"/>
+      <c r="CG62" s="15"/>
+      <c r="CH62" s="15"/>
+      <c r="CI62" s="15"/>
+      <c r="CJ62" s="15"/>
+      <c r="CK62" s="15"/>
+      <c r="CL62" s="15"/>
+      <c r="CM62" s="15"/>
+      <c r="CN62" s="15"/>
+      <c r="CO62" s="15"/>
+      <c r="CP62" s="15"/>
+      <c r="CQ62" s="15"/>
+      <c r="CR62" s="15"/>
+      <c r="CS62" s="15"/>
+      <c r="CT62" s="15"/>
+      <c r="CU62" s="15"/>
+      <c r="CV62" s="15"/>
+      <c r="CW62" s="15"/>
+      <c r="CX62" s="15"/>
+      <c r="CY62" s="15"/>
+      <c r="CZ62" s="15"/>
+      <c r="DA62" s="15"/>
+      <c r="DB62" s="15"/>
+      <c r="DC62" s="15"/>
+      <c r="DD62" s="15"/>
+      <c r="DE62" s="15"/>
+      <c r="DF62" s="15"/>
+      <c r="DG62" s="15"/>
+      <c r="DH62" s="15"/>
+      <c r="DI62" s="15"/>
+      <c r="DJ62" s="15"/>
+      <c r="DK62" s="15"/>
+      <c r="DL62" s="15"/>
+      <c r="DM62" s="15"/>
+      <c r="DN62" s="15"/>
+      <c r="DO62" s="15"/>
+      <c r="DP62" s="15"/>
+      <c r="DQ62" s="15"/>
+      <c r="DR62" s="15"/>
+      <c r="DS62" s="15"/>
+      <c r="DT62" s="15"/>
+      <c r="DU62" s="15"/>
+      <c r="DV62" s="15"/>
+      <c r="DW62" s="15"/>
+      <c r="DX62" s="15"/>
+      <c r="DY62" s="15"/>
+      <c r="DZ62" s="15"/>
+      <c r="EA62" s="15"/>
+      <c r="EB62" s="15"/>
+      <c r="EC62" s="15"/>
+      <c r="ED62" s="15"/>
+      <c r="EE62" s="15"/>
+      <c r="EF62" s="15"/>
+      <c r="EG62" s="15"/>
+      <c r="EH62" s="15"/>
+      <c r="EI62" s="15"/>
+      <c r="EJ62" s="15"/>
+      <c r="EK62" s="15"/>
+      <c r="EL62" s="15"/>
+      <c r="EM62" s="15"/>
+      <c r="EN62" s="15"/>
+      <c r="EO62" s="15"/>
+      <c r="EP62" s="15"/>
+      <c r="EQ62" s="15"/>
+      <c r="ER62" s="15"/>
+      <c r="ES62" s="15"/>
+      <c r="ET62" s="15"/>
+      <c r="EU62" s="15"/>
+      <c r="EV62" s="15"/>
+      <c r="EW62" s="15"/>
+      <c r="EX62" s="15"/>
+      <c r="EY62" s="15"/>
+      <c r="EZ62" s="15"/>
+      <c r="FA62" s="15"/>
+      <c r="FB62" s="15"/>
+      <c r="FC62" s="15"/>
+      <c r="FD62" s="15"/>
+      <c r="FE62" s="15"/>
+      <c r="FF62" s="15"/>
+      <c r="FG62" s="15"/>
+      <c r="FH62" s="15"/>
+      <c r="FI62" s="15"/>
+      <c r="FJ62" s="15"/>
+      <c r="FK62" s="15"/>
+      <c r="FL62" s="15"/>
+    </row>
+    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="33">
         <v>45520</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="30" t="s">
+      <c r="E63" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="30" t="s">
+      <c r="G63" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-    </row>
-    <row r="64" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="31"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63" s="23"/>
+      <c r="AU63" s="23"/>
+      <c r="AV63" s="23"/>
+      <c r="AW63" s="23"/>
+      <c r="AX63" s="23"/>
+      <c r="AY63" s="23"/>
+      <c r="AZ63" s="23"/>
+      <c r="BA63" s="23"/>
+      <c r="BB63" s="23"/>
+      <c r="BC63" s="23"/>
+      <c r="BD63" s="23"/>
+      <c r="BE63" s="23"/>
+      <c r="BF63" s="23"/>
+      <c r="BG63" s="23"/>
+      <c r="BH63" s="23"/>
+      <c r="BI63" s="23"/>
+      <c r="BJ63" s="23"/>
+      <c r="BK63" s="23"/>
+      <c r="BL63" s="23"/>
+      <c r="BM63" s="23"/>
+      <c r="BN63" s="23"/>
+      <c r="BO63" s="23"/>
+      <c r="BP63" s="23"/>
+      <c r="BQ63" s="23"/>
+      <c r="BR63" s="23"/>
+      <c r="BS63" s="23"/>
+      <c r="BT63" s="23"/>
+      <c r="BU63" s="23"/>
+      <c r="BV63" s="23"/>
+      <c r="BW63" s="23"/>
+      <c r="BX63" s="23"/>
+      <c r="BY63" s="23"/>
+      <c r="BZ63" s="23"/>
+      <c r="CA63" s="23"/>
+      <c r="CB63" s="23"/>
+      <c r="CC63" s="23"/>
+      <c r="CD63" s="23"/>
+      <c r="CE63" s="23"/>
+      <c r="CF63" s="23"/>
+      <c r="CG63" s="23"/>
+      <c r="CH63" s="23"/>
+      <c r="CI63" s="23"/>
+      <c r="CJ63" s="23"/>
+      <c r="CK63" s="23"/>
+      <c r="CL63" s="23"/>
+      <c r="CM63" s="23"/>
+      <c r="CN63" s="23"/>
+      <c r="CO63" s="23"/>
+      <c r="CP63" s="23"/>
+      <c r="CQ63" s="23"/>
+      <c r="CR63" s="23"/>
+      <c r="CS63" s="23"/>
+      <c r="CT63" s="23"/>
+      <c r="CU63" s="23"/>
+      <c r="CV63" s="23"/>
+      <c r="CW63" s="23"/>
+      <c r="CX63" s="23"/>
+      <c r="CY63" s="23"/>
+      <c r="CZ63" s="23"/>
+      <c r="DA63" s="23"/>
+      <c r="DB63" s="23"/>
+      <c r="DC63" s="23"/>
+      <c r="DD63" s="23"/>
+      <c r="DE63" s="23"/>
+      <c r="DF63" s="23"/>
+      <c r="DG63" s="23"/>
+      <c r="DH63" s="23"/>
+      <c r="DI63" s="23"/>
+      <c r="DJ63" s="23"/>
+      <c r="DK63" s="23"/>
+      <c r="DL63" s="23"/>
+      <c r="DM63" s="23"/>
+      <c r="DN63" s="23"/>
+      <c r="DO63" s="23"/>
+      <c r="DP63" s="23"/>
+      <c r="DQ63" s="23"/>
+      <c r="DR63" s="23"/>
+      <c r="DS63" s="23"/>
+      <c r="DT63" s="23"/>
+      <c r="DU63" s="23"/>
+      <c r="DV63" s="23"/>
+      <c r="DW63" s="23"/>
+      <c r="DX63" s="23"/>
+      <c r="DY63" s="23"/>
+      <c r="DZ63" s="23"/>
+      <c r="EA63" s="23"/>
+      <c r="EB63" s="23"/>
+      <c r="EC63" s="23"/>
+      <c r="ED63" s="23"/>
+      <c r="EE63" s="23"/>
+      <c r="EF63" s="23"/>
+      <c r="EG63" s="23"/>
+      <c r="EH63" s="23"/>
+      <c r="EI63" s="23"/>
+      <c r="EJ63" s="23"/>
+      <c r="EK63" s="23"/>
+      <c r="EL63" s="23"/>
+      <c r="EM63" s="23"/>
+      <c r="EN63" s="23"/>
+      <c r="EO63" s="23"/>
+      <c r="EP63" s="23"/>
+      <c r="EQ63" s="23"/>
+      <c r="ER63" s="23"/>
+      <c r="ES63" s="23"/>
+      <c r="ET63" s="23"/>
+      <c r="EU63" s="23"/>
+      <c r="EV63" s="23"/>
+      <c r="EW63" s="23"/>
+      <c r="EX63" s="23"/>
+      <c r="EY63" s="23"/>
+      <c r="EZ63" s="23"/>
+      <c r="FA63" s="23"/>
+      <c r="FB63" s="23"/>
+      <c r="FC63" s="23"/>
+      <c r="FD63" s="23"/>
+      <c r="FE63" s="23"/>
+      <c r="FF63" s="23"/>
+      <c r="FG63" s="23"/>
+      <c r="FH63" s="23"/>
+      <c r="FI63" s="23"/>
+      <c r="FJ63" s="23"/>
+      <c r="FK63" s="23"/>
+      <c r="FL63" s="23"/>
+    </row>
+    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -6221,8 +6804,43 @@
       <c r="H64" s="5"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+      <c r="AS64"/>
+    </row>
+    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -6245,8 +6863,43 @@
       <c r="H65" s="21"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
-    </row>
-    <row r="66" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65"/>
+      <c r="AN65"/>
+      <c r="AO65"/>
+      <c r="AP65"/>
+      <c r="AQ65"/>
+      <c r="AR65"/>
+      <c r="AS65"/>
+    </row>
+    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -6269,8 +6922,166 @@
       <c r="H66" s="5"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-    </row>
-    <row r="67" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66"/>
+      <c r="AQ66"/>
+      <c r="AR66"/>
+      <c r="AS66"/>
+      <c r="AT66" s="15"/>
+      <c r="AU66" s="15"/>
+      <c r="AV66" s="15"/>
+      <c r="AW66" s="15"/>
+      <c r="AX66" s="15"/>
+      <c r="AY66" s="15"/>
+      <c r="AZ66" s="15"/>
+      <c r="BA66" s="15"/>
+      <c r="BB66" s="15"/>
+      <c r="BC66" s="15"/>
+      <c r="BD66" s="15"/>
+      <c r="BE66" s="15"/>
+      <c r="BF66" s="15"/>
+      <c r="BG66" s="15"/>
+      <c r="BH66" s="15"/>
+      <c r="BI66" s="15"/>
+      <c r="BJ66" s="15"/>
+      <c r="BK66" s="15"/>
+      <c r="BL66" s="15"/>
+      <c r="BM66" s="15"/>
+      <c r="BN66" s="15"/>
+      <c r="BO66" s="15"/>
+      <c r="BP66" s="15"/>
+      <c r="BQ66" s="15"/>
+      <c r="BR66" s="15"/>
+      <c r="BS66" s="15"/>
+      <c r="BT66" s="15"/>
+      <c r="BU66" s="15"/>
+      <c r="BV66" s="15"/>
+      <c r="BW66" s="15"/>
+      <c r="BX66" s="15"/>
+      <c r="BY66" s="15"/>
+      <c r="BZ66" s="15"/>
+      <c r="CA66" s="15"/>
+      <c r="CB66" s="15"/>
+      <c r="CC66" s="15"/>
+      <c r="CD66" s="15"/>
+      <c r="CE66" s="15"/>
+      <c r="CF66" s="15"/>
+      <c r="CG66" s="15"/>
+      <c r="CH66" s="15"/>
+      <c r="CI66" s="15"/>
+      <c r="CJ66" s="15"/>
+      <c r="CK66" s="15"/>
+      <c r="CL66" s="15"/>
+      <c r="CM66" s="15"/>
+      <c r="CN66" s="15"/>
+      <c r="CO66" s="15"/>
+      <c r="CP66" s="15"/>
+      <c r="CQ66" s="15"/>
+      <c r="CR66" s="15"/>
+      <c r="CS66" s="15"/>
+      <c r="CT66" s="15"/>
+      <c r="CU66" s="15"/>
+      <c r="CV66" s="15"/>
+      <c r="CW66" s="15"/>
+      <c r="CX66" s="15"/>
+      <c r="CY66" s="15"/>
+      <c r="CZ66" s="15"/>
+      <c r="DA66" s="15"/>
+      <c r="DB66" s="15"/>
+      <c r="DC66" s="15"/>
+      <c r="DD66" s="15"/>
+      <c r="DE66" s="15"/>
+      <c r="DF66" s="15"/>
+      <c r="DG66" s="15"/>
+      <c r="DH66" s="15"/>
+      <c r="DI66" s="15"/>
+      <c r="DJ66" s="15"/>
+      <c r="DK66" s="15"/>
+      <c r="DL66" s="15"/>
+      <c r="DM66" s="15"/>
+      <c r="DN66" s="15"/>
+      <c r="DO66" s="15"/>
+      <c r="DP66" s="15"/>
+      <c r="DQ66" s="15"/>
+      <c r="DR66" s="15"/>
+      <c r="DS66" s="15"/>
+      <c r="DT66" s="15"/>
+      <c r="DU66" s="15"/>
+      <c r="DV66" s="15"/>
+      <c r="DW66" s="15"/>
+      <c r="DX66" s="15"/>
+      <c r="DY66" s="15"/>
+      <c r="DZ66" s="15"/>
+      <c r="EA66" s="15"/>
+      <c r="EB66" s="15"/>
+      <c r="EC66" s="15"/>
+      <c r="ED66" s="15"/>
+      <c r="EE66" s="15"/>
+      <c r="EF66" s="15"/>
+      <c r="EG66" s="15"/>
+      <c r="EH66" s="15"/>
+      <c r="EI66" s="15"/>
+      <c r="EJ66" s="15"/>
+      <c r="EK66" s="15"/>
+      <c r="EL66" s="15"/>
+      <c r="EM66" s="15"/>
+      <c r="EN66" s="15"/>
+      <c r="EO66" s="15"/>
+      <c r="EP66" s="15"/>
+      <c r="EQ66" s="15"/>
+      <c r="ER66" s="15"/>
+      <c r="ES66" s="15"/>
+      <c r="ET66" s="15"/>
+      <c r="EU66" s="15"/>
+      <c r="EV66" s="15"/>
+      <c r="EW66" s="15"/>
+      <c r="EX66" s="15"/>
+      <c r="EY66" s="15"/>
+      <c r="EZ66" s="15"/>
+      <c r="FA66" s="15"/>
+      <c r="FB66" s="15"/>
+      <c r="FC66" s="15"/>
+      <c r="FD66" s="15"/>
+      <c r="FE66" s="15"/>
+      <c r="FF66" s="15"/>
+      <c r="FG66" s="15"/>
+      <c r="FH66" s="15"/>
+      <c r="FI66" s="15"/>
+      <c r="FJ66" s="15"/>
+      <c r="FK66" s="15"/>
+      <c r="FL66" s="15"/>
+    </row>
+    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -6293,8 +7104,43 @@
       <c r="H67" s="22"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-    </row>
-    <row r="68" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
+      <c r="AL67"/>
+      <c r="AM67"/>
+      <c r="AN67"/>
+      <c r="AO67"/>
+      <c r="AP67"/>
+      <c r="AQ67"/>
+      <c r="AR67"/>
+      <c r="AS67"/>
+    </row>
+    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -6317,8 +7163,43 @@
       <c r="H68" s="22"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-    </row>
-    <row r="69" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+      <c r="AL68"/>
+      <c r="AM68"/>
+      <c r="AN68"/>
+      <c r="AO68"/>
+      <c r="AP68"/>
+      <c r="AQ68"/>
+      <c r="AR68"/>
+      <c r="AS68"/>
+    </row>
+    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -6341,8 +7222,43 @@
       <c r="H69" s="22"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="1:10" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
+      <c r="AL69"/>
+      <c r="AM69"/>
+      <c r="AN69"/>
+      <c r="AO69"/>
+      <c r="AP69"/>
+      <c r="AQ69"/>
+      <c r="AR69"/>
+      <c r="AS69"/>
+    </row>
+    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -6365,8 +7281,43 @@
       <c r="H70" s="22"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-    </row>
-    <row r="71" spans="1:10" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70"/>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
+      <c r="AL70"/>
+      <c r="AM70"/>
+      <c r="AN70"/>
+      <c r="AO70"/>
+      <c r="AP70"/>
+      <c r="AQ70"/>
+      <c r="AR70"/>
+      <c r="AS70"/>
+    </row>
+    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -6389,8 +7340,43 @@
       <c r="H71" s="22"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71"/>
+      <c r="AO71"/>
+      <c r="AP71"/>
+      <c r="AQ71"/>
+      <c r="AR71"/>
+      <c r="AS71"/>
+    </row>
+    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -6413,8 +7399,43 @@
       <c r="H72" s="22"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:10" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+      <c r="AL72"/>
+      <c r="AM72"/>
+      <c r="AN72"/>
+      <c r="AO72"/>
+      <c r="AP72"/>
+      <c r="AQ72"/>
+      <c r="AR72"/>
+      <c r="AS72"/>
+    </row>
+    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -6437,8 +7458,43 @@
       <c r="H73" s="22"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-    </row>
-    <row r="74" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
+      <c r="AL73"/>
+      <c r="AM73"/>
+      <c r="AN73"/>
+      <c r="AO73"/>
+      <c r="AP73"/>
+      <c r="AQ73"/>
+      <c r="AR73"/>
+      <c r="AS73"/>
+    </row>
+    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -6461,8 +7517,43 @@
       <c r="H74" s="22"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+      <c r="AM74"/>
+      <c r="AN74"/>
+      <c r="AO74"/>
+      <c r="AP74"/>
+      <c r="AQ74"/>
+      <c r="AR74"/>
+      <c r="AS74"/>
+    </row>
+    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -6485,8 +7576,43 @@
       <c r="H75" s="22"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="1:10" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="24"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
+      <c r="AL75"/>
+      <c r="AM75"/>
+      <c r="AN75"/>
+      <c r="AO75"/>
+      <c r="AP75"/>
+      <c r="AQ75"/>
+      <c r="AR75"/>
+      <c r="AS75"/>
+    </row>
+    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -6509,8 +7635,43 @@
       <c r="H76" s="22"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-    </row>
-    <row r="77" spans="1:10" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="24"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+      <c r="AK76"/>
+      <c r="AL76"/>
+      <c r="AM76"/>
+      <c r="AN76"/>
+      <c r="AO76"/>
+      <c r="AP76"/>
+      <c r="AQ76"/>
+      <c r="AR76"/>
+      <c r="AS76"/>
+    </row>
+    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -6533,8 +7694,166 @@
       <c r="H77" s="22"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="1:10" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
+      <c r="AL77"/>
+      <c r="AM77"/>
+      <c r="AN77"/>
+      <c r="AO77"/>
+      <c r="AP77"/>
+      <c r="AQ77"/>
+      <c r="AR77"/>
+      <c r="AS77"/>
+      <c r="AT77" s="17"/>
+      <c r="AU77" s="17"/>
+      <c r="AV77" s="17"/>
+      <c r="AW77" s="17"/>
+      <c r="AX77" s="17"/>
+      <c r="AY77" s="17"/>
+      <c r="AZ77" s="17"/>
+      <c r="BA77" s="17"/>
+      <c r="BB77" s="17"/>
+      <c r="BC77" s="17"/>
+      <c r="BD77" s="17"/>
+      <c r="BE77" s="17"/>
+      <c r="BF77" s="17"/>
+      <c r="BG77" s="17"/>
+      <c r="BH77" s="17"/>
+      <c r="BI77" s="17"/>
+      <c r="BJ77" s="17"/>
+      <c r="BK77" s="17"/>
+      <c r="BL77" s="17"/>
+      <c r="BM77" s="17"/>
+      <c r="BN77" s="17"/>
+      <c r="BO77" s="17"/>
+      <c r="BP77" s="17"/>
+      <c r="BQ77" s="17"/>
+      <c r="BR77" s="17"/>
+      <c r="BS77" s="17"/>
+      <c r="BT77" s="17"/>
+      <c r="BU77" s="17"/>
+      <c r="BV77" s="17"/>
+      <c r="BW77" s="17"/>
+      <c r="BX77" s="17"/>
+      <c r="BY77" s="17"/>
+      <c r="BZ77" s="17"/>
+      <c r="CA77" s="17"/>
+      <c r="CB77" s="17"/>
+      <c r="CC77" s="17"/>
+      <c r="CD77" s="17"/>
+      <c r="CE77" s="17"/>
+      <c r="CF77" s="17"/>
+      <c r="CG77" s="17"/>
+      <c r="CH77" s="17"/>
+      <c r="CI77" s="17"/>
+      <c r="CJ77" s="17"/>
+      <c r="CK77" s="17"/>
+      <c r="CL77" s="17"/>
+      <c r="CM77" s="17"/>
+      <c r="CN77" s="17"/>
+      <c r="CO77" s="17"/>
+      <c r="CP77" s="17"/>
+      <c r="CQ77" s="17"/>
+      <c r="CR77" s="17"/>
+      <c r="CS77" s="17"/>
+      <c r="CT77" s="17"/>
+      <c r="CU77" s="17"/>
+      <c r="CV77" s="17"/>
+      <c r="CW77" s="17"/>
+      <c r="CX77" s="17"/>
+      <c r="CY77" s="17"/>
+      <c r="CZ77" s="17"/>
+      <c r="DA77" s="17"/>
+      <c r="DB77" s="17"/>
+      <c r="DC77" s="17"/>
+      <c r="DD77" s="17"/>
+      <c r="DE77" s="17"/>
+      <c r="DF77" s="17"/>
+      <c r="DG77" s="17"/>
+      <c r="DH77" s="17"/>
+      <c r="DI77" s="17"/>
+      <c r="DJ77" s="17"/>
+      <c r="DK77" s="17"/>
+      <c r="DL77" s="17"/>
+      <c r="DM77" s="17"/>
+      <c r="DN77" s="17"/>
+      <c r="DO77" s="17"/>
+      <c r="DP77" s="17"/>
+      <c r="DQ77" s="17"/>
+      <c r="DR77" s="17"/>
+      <c r="DS77" s="17"/>
+      <c r="DT77" s="17"/>
+      <c r="DU77" s="17"/>
+      <c r="DV77" s="17"/>
+      <c r="DW77" s="17"/>
+      <c r="DX77" s="17"/>
+      <c r="DY77" s="17"/>
+      <c r="DZ77" s="17"/>
+      <c r="EA77" s="17"/>
+      <c r="EB77" s="17"/>
+      <c r="EC77" s="17"/>
+      <c r="ED77" s="17"/>
+      <c r="EE77" s="17"/>
+      <c r="EF77" s="17"/>
+      <c r="EG77" s="17"/>
+      <c r="EH77" s="17"/>
+      <c r="EI77" s="17"/>
+      <c r="EJ77" s="17"/>
+      <c r="EK77" s="17"/>
+      <c r="EL77" s="17"/>
+      <c r="EM77" s="17"/>
+      <c r="EN77" s="17"/>
+      <c r="EO77" s="17"/>
+      <c r="EP77" s="17"/>
+      <c r="EQ77" s="17"/>
+      <c r="ER77" s="17"/>
+      <c r="ES77" s="17"/>
+      <c r="ET77" s="17"/>
+      <c r="EU77" s="17"/>
+      <c r="EV77" s="17"/>
+      <c r="EW77" s="17"/>
+      <c r="EX77" s="17"/>
+      <c r="EY77" s="17"/>
+      <c r="EZ77" s="17"/>
+      <c r="FA77" s="17"/>
+      <c r="FB77" s="17"/>
+      <c r="FC77" s="17"/>
+      <c r="FD77" s="17"/>
+      <c r="FE77" s="17"/>
+      <c r="FF77" s="17"/>
+      <c r="FG77" s="17"/>
+      <c r="FH77" s="17"/>
+      <c r="FI77" s="17"/>
+      <c r="FJ77" s="17"/>
+      <c r="FK77" s="17"/>
+      <c r="FL77" s="17"/>
+    </row>
+    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -6557,8 +7876,35 @@
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
+    </row>
+    <row r="79" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -6581,36 +7927,186 @@
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="24" t="s">
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="24"/>
+      <c r="X79" s="24"/>
+      <c r="Y79" s="24"/>
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="15"/>
+      <c r="AN79" s="15"/>
+      <c r="AO79" s="15"/>
+      <c r="AP79" s="15"/>
+      <c r="AQ79" s="15"/>
+      <c r="AR79" s="15"/>
+      <c r="AS79" s="15"/>
+      <c r="AT79" s="15"/>
+      <c r="AU79" s="15"/>
+      <c r="AV79" s="15"/>
+      <c r="AW79" s="15"/>
+      <c r="AX79" s="15"/>
+      <c r="AY79" s="15"/>
+      <c r="AZ79" s="15"/>
+      <c r="BA79" s="15"/>
+      <c r="BB79" s="15"/>
+      <c r="BC79" s="15"/>
+      <c r="BD79" s="15"/>
+      <c r="BE79" s="15"/>
+      <c r="BF79" s="15"/>
+      <c r="BG79" s="15"/>
+      <c r="BH79" s="15"/>
+      <c r="BI79" s="15"/>
+      <c r="BJ79" s="15"/>
+      <c r="BK79" s="15"/>
+      <c r="BL79" s="15"/>
+      <c r="BM79" s="15"/>
+      <c r="BN79" s="15"/>
+      <c r="BO79" s="15"/>
+      <c r="BP79" s="15"/>
+      <c r="BQ79" s="15"/>
+      <c r="BR79" s="15"/>
+      <c r="BS79" s="15"/>
+      <c r="BT79" s="15"/>
+      <c r="BU79" s="15"/>
+      <c r="BV79" s="15"/>
+      <c r="BW79" s="15"/>
+      <c r="BX79" s="15"/>
+      <c r="BY79" s="15"/>
+      <c r="BZ79" s="15"/>
+      <c r="CA79" s="15"/>
+      <c r="CB79" s="15"/>
+      <c r="CC79" s="15"/>
+      <c r="CD79" s="15"/>
+      <c r="CE79" s="15"/>
+      <c r="CF79" s="15"/>
+      <c r="CG79" s="15"/>
+      <c r="CH79" s="15"/>
+      <c r="CI79" s="15"/>
+      <c r="CJ79" s="15"/>
+      <c r="CK79" s="15"/>
+      <c r="CL79" s="15"/>
+      <c r="CM79" s="15"/>
+      <c r="CN79" s="15"/>
+      <c r="CO79" s="15"/>
+      <c r="CP79" s="15"/>
+      <c r="CQ79" s="15"/>
+      <c r="CR79" s="15"/>
+      <c r="CS79" s="15"/>
+      <c r="CT79" s="15"/>
+      <c r="CU79" s="15"/>
+      <c r="CV79" s="15"/>
+      <c r="CW79" s="15"/>
+      <c r="CX79" s="15"/>
+      <c r="CY79" s="15"/>
+      <c r="CZ79" s="15"/>
+      <c r="DA79" s="15"/>
+      <c r="DB79" s="15"/>
+      <c r="DC79" s="15"/>
+      <c r="DD79" s="15"/>
+      <c r="DE79" s="15"/>
+      <c r="DF79" s="15"/>
+      <c r="DG79" s="15"/>
+      <c r="DH79" s="15"/>
+      <c r="DI79" s="15"/>
+      <c r="DJ79" s="15"/>
+      <c r="DK79" s="15"/>
+      <c r="DL79" s="15"/>
+      <c r="DM79" s="15"/>
+      <c r="DN79" s="15"/>
+      <c r="DO79" s="15"/>
+      <c r="DP79" s="15"/>
+      <c r="DQ79" s="15"/>
+      <c r="DR79" s="15"/>
+      <c r="DS79" s="15"/>
+      <c r="DT79" s="15"/>
+      <c r="DU79" s="15"/>
+      <c r="DV79" s="15"/>
+      <c r="DW79" s="15"/>
+      <c r="DX79" s="15"/>
+      <c r="DY79" s="15"/>
+      <c r="DZ79" s="15"/>
+      <c r="EA79" s="15"/>
+      <c r="EB79" s="15"/>
+      <c r="EC79" s="15"/>
+      <c r="ED79" s="15"/>
+      <c r="EE79" s="15"/>
+      <c r="EF79" s="15"/>
+      <c r="EG79" s="15"/>
+      <c r="EH79" s="15"/>
+      <c r="EI79" s="15"/>
+      <c r="EJ79" s="15"/>
+      <c r="EK79" s="15"/>
+      <c r="EL79" s="15"/>
+      <c r="EM79" s="15"/>
+      <c r="EN79" s="15"/>
+      <c r="EO79" s="15"/>
+      <c r="EP79" s="15"/>
+      <c r="EQ79" s="15"/>
+      <c r="ER79" s="15"/>
+      <c r="ES79" s="15"/>
+      <c r="ET79" s="15"/>
+      <c r="EU79" s="15"/>
+      <c r="EV79" s="15"/>
+      <c r="EW79" s="15"/>
+      <c r="EX79" s="15"/>
+      <c r="EY79" s="15"/>
+      <c r="EZ79" s="15"/>
+      <c r="FA79" s="15"/>
+      <c r="FB79" s="15"/>
+      <c r="FC79" s="15"/>
+      <c r="FD79" s="15"/>
+      <c r="FE79" s="15"/>
+      <c r="FF79" s="15"/>
+      <c r="FG79" s="15"/>
+      <c r="FH79" s="15"/>
+      <c r="FI79" s="15"/>
+      <c r="FJ79" s="15"/>
+      <c r="FK79" s="15"/>
+      <c r="FL79" s="15"/>
+    </row>
+    <row r="80" spans="1:168" x14ac:dyDescent="0.35">
+      <c r="A80" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="26">
+      <c r="C80" s="27">
         <v>45604</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E80" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F80" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G80" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H80" s="24" t="s">
+      <c r="H80" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="24"/>
+      <c r="X80" s="24"/>
+      <c r="Y80" s="24"/>
+      <c r="AB80" s="24"/>
+      <c r="AC80" s="24"/>
+      <c r="AG80" s="24"/>
+      <c r="AH80" s="24"/>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -6633,8 +8129,16 @@
       <c r="H81" s="10"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="AB81" s="24"/>
+      <c r="AC81" s="24"/>
+      <c r="AG81" s="24"/>
+      <c r="AH81" s="24"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -6658,7 +8162,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -6682,7 +8186,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -6706,7 +8210,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -6730,7 +8234,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -6754,7 +8258,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -6778,7 +8282,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -6802,7 +8306,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -6826,35 +8330,35 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="24" t="s">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="26">
+      <c r="C90" s="27">
         <v>45635</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E90" s="24" t="s">
+      <c r="E90" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F90" s="24" t="s">
+      <c r="F90" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G90" s="24" t="s">
+      <c r="G90" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H90" s="24" t="s">
+      <c r="H90" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -6878,7 +8382,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -6902,7 +8406,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -6926,7 +8430,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -6950,7 +8454,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -6974,7 +8478,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -7023,116 +8527,116 @@
       <c r="J97" s="6"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="27">
         <v>45654</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E98" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="24" t="s">
+      <c r="E98" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="24" t="s">
+      <c r="G98" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H98" s="24" t="s">
+      <c r="H98" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C99" s="26">
+      <c r="C99" s="27">
         <v>45658</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E99" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="24" t="s">
+      <c r="E99" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="G99" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H99" s="24" t="s">
+      <c r="H99" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C100" s="26">
+      <c r="C100" s="27">
         <v>45662</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="24" t="s">
+      <c r="E100" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H100" s="24" t="s">
+      <c r="H100" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C101" s="26">
+      <c r="C101" s="27">
         <v>45664</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E101" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="24" t="s">
+      <c r="F101" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="H101" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -7397,32 +8901,32 @@
       <c r="J112" s="9"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="26">
+      <c r="C113" s="27">
         <v>45681</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E113" s="24" t="s">
+      <c r="E113" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="24" t="s">
+      <c r="F113" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G113" s="24" t="s">
+      <c r="G113" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H113" s="24" t="s">
+      <c r="H113" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
@@ -7681,58 +9185,58 @@
       <c r="J124" s="9"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="35">
+      <c r="C125" s="36">
         <v>45687</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="33" t="s">
+      <c r="E125" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G125" s="36" t="s">
+      <c r="G125" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="H125" s="33"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C126" s="26">
+      <c r="C126" s="27">
         <v>45691</v>
       </c>
-      <c r="D126" s="24" t="s">
+      <c r="D126" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E126" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="24" t="s">
+      <c r="E126" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G126" s="24" t="s">
+      <c r="G126" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H126" s="24" t="s">
+      <c r="H126" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
@@ -7805,32 +9309,32 @@
       <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A130" s="24" t="s">
+      <c r="A130" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B130" s="27" t="s">
+      <c r="B130" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C130" s="26">
+      <c r="C130" s="27">
         <v>45698</v>
       </c>
-      <c r="D130" s="24" t="s">
+      <c r="D130" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E130" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="24" t="s">
+      <c r="E130" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G130" s="24" t="s">
+      <c r="G130" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H130" s="24" t="s">
+      <c r="H130" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
@@ -7879,32 +9383,32 @@
       <c r="J132" s="9"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="28" t="s">
+      <c r="B133" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C133" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D133" s="28" t="s">
+      <c r="D133" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E133" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="24" t="s">
+      <c r="E133" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G133" s="24" t="s">
+      <c r="G133" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H133" s="24" t="s">
+      <c r="H133" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
     </row>
     <row r="134" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
@@ -7995,8 +9499,8 @@
       <c r="F137" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G137" s="37"/>
-      <c r="H137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
@@ -8019,8 +9523,8 @@
       <c r="F138" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G138" s="37"/>
-      <c r="H138" s="38"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
@@ -8231,8 +9735,8 @@
       <c r="F147" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G147" s="39"/>
-      <c r="H147" s="39"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="40"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
@@ -8366,7 +9870,7 @@
       <c r="C153" s="7">
         <v>45728</v>
       </c>
-      <c r="D153" s="40" t="s">
+      <c r="D153" s="41" t="s">
         <v>8</v>
       </c>
       <c r="E153" s="5" t="s">
@@ -8957,7 +10461,7 @@
       <c r="B178" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C178" s="41" t="s">
+      <c r="C178" s="42" t="s">
         <v>211</v>
       </c>
       <c r="D178" s="11" t="s">
@@ -9527,7 +11031,7 @@
       <c r="B202" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C202" s="41">
+      <c r="C202" s="42">
         <v>45828</v>
       </c>
       <c r="D202" s="5" t="s">
@@ -9763,16 +11267,16 @@
         <v>24</v>
       </c>
       <c r="B212" s="9"/>
-      <c r="C212" s="42">
+      <c r="C212" s="43">
         <v>45895</v>
       </c>
-      <c r="D212" s="43" t="s">
+      <c r="D212" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E212" s="43" t="s">
+      <c r="E212" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F212" s="44" t="s">
+      <c r="F212" s="45" t="s">
         <v>1</v>
       </c>
       <c r="G212" s="10"/>
@@ -9785,16 +11289,16 @@
         <v>24</v>
       </c>
       <c r="B213" s="9"/>
-      <c r="C213" s="42">
+      <c r="C213" s="43">
         <v>45895</v>
       </c>
-      <c r="D213" s="43" t="s">
+      <c r="D213" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E213" s="43" t="s">
+      <c r="E213" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F213" s="44" t="s">
+      <c r="F213" s="45" t="s">
         <v>1</v>
       </c>
       <c r="G213" s="10"/>
@@ -9807,16 +11311,16 @@
         <v>113</v>
       </c>
       <c r="B214" s="6"/>
-      <c r="C214" s="42">
+      <c r="C214" s="43">
         <v>45897</v>
       </c>
-      <c r="D214" s="43" t="s">
+      <c r="D214" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E214" s="43" t="s">
+      <c r="E214" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F214" s="44" t="s">
+      <c r="F214" s="45" t="s">
         <v>1</v>
       </c>
       <c r="G214" s="10"/>
@@ -9831,16 +11335,16 @@
       <c r="B215" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C215" s="42">
+      <c r="C215" s="43">
         <v>45915</v>
       </c>
-      <c r="D215" s="43" t="s">
+      <c r="D215" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E215" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F215" s="44" t="s">
+      <c r="E215" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="45" t="s">
         <v>1</v>
       </c>
       <c r="G215" s="10"/>
@@ -9849,52 +11353,52 @@
       <c r="J215" s="6"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A216" s="45" t="s">
+      <c r="A216" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B216" s="46" t="s">
+      <c r="B216" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="C216" s="47">
+      <c r="C216" s="48">
         <v>45933</v>
       </c>
-      <c r="D216" s="45" t="s">
+      <c r="D216" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E216" s="45" t="s">
+      <c r="E216" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F216" s="46" t="s">
+      <c r="F216" s="47" t="s">
         <v>1</v>
       </c>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
-      <c r="I216" s="46"/>
-      <c r="J216" s="46"/>
+      <c r="I216" s="47"/>
+      <c r="J216" s="47"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A217" s="45" t="s">
+      <c r="A217" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B217" s="46" t="s">
+      <c r="B217" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="C217" s="47">
+      <c r="C217" s="48">
         <v>45936</v>
       </c>
-      <c r="D217" s="45" t="s">
+      <c r="D217" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E217" s="45" t="s">
+      <c r="E217" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F217" s="46" t="s">
+      <c r="F217" s="47" t="s">
         <v>1</v>
       </c>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
-      <c r="I217" s="46"/>
-      <c r="J217" s="46"/>
+      <c r="I217" s="47"/>
+      <c r="J217" s="47"/>
     </row>
     <row r="218" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
@@ -9993,34 +11497,34 @@
       <c r="J221" s="9"/>
     </row>
     <row r="222" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="48" t="s">
+      <c r="A222" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B222" s="49" t="s">
+      <c r="B222" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="C222" s="50">
+      <c r="C222" s="51">
         <v>45964</v>
       </c>
-      <c r="D222" s="48" t="s">
+      <c r="D222" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E222" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F222" s="49" t="s">
+      <c r="E222" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G222" s="49" t="s">
+      <c r="G222" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H222" s="48" t="s">
+      <c r="H222" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I222" s="61">
+      <c r="I222" s="62">
         <v>1208852</v>
       </c>
-      <c r="J222" s="61">
+      <c r="J222" s="62">
         <v>2574793</v>
       </c>
     </row>
@@ -10045,8 +11549,8 @@
       </c>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
-      <c r="I223" s="58"/>
-      <c r="J223" s="58"/>
+      <c r="I223" s="59"/>
+      <c r="J223" s="59"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
@@ -10073,154 +11577,154 @@
       <c r="J224" s="9"/>
     </row>
     <row r="225" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="51" t="s">
+      <c r="A225" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B225" s="52" t="s">
+      <c r="B225" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="C225" s="53">
+      <c r="C225" s="54">
         <v>45970</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E225" s="51" t="s">
+      <c r="E225" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F225" s="54" t="s">
+      <c r="F225" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G225" s="49" t="s">
+      <c r="G225" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H225" s="51" t="s">
+      <c r="H225" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="I225" s="61">
+      <c r="I225" s="62">
         <v>1229028</v>
       </c>
-      <c r="J225" s="61">
+      <c r="J225" s="62">
         <v>2708002</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A226" s="51" t="s">
+      <c r="A226" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B226" s="52" t="s">
+      <c r="B226" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="C226" s="53">
+      <c r="C226" s="54">
         <v>45970</v>
       </c>
-      <c r="D226" s="51" t="s">
+      <c r="D226" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E226" s="51" t="s">
+      <c r="E226" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F226" s="54" t="s">
+      <c r="F226" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G226" s="49" t="s">
+      <c r="G226" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H226" s="51" t="s">
+      <c r="H226" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="I226" s="61">
+      <c r="I226" s="62">
         <v>1229385</v>
       </c>
-      <c r="J226" s="61">
+      <c r="J226" s="62">
         <v>2704274</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A227" s="51" t="s">
+      <c r="A227" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B227" s="52" t="s">
+      <c r="B227" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="C227" s="53">
+      <c r="C227" s="54">
         <v>45970</v>
       </c>
-      <c r="D227" s="51" t="s">
+      <c r="D227" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E227" s="51" t="s">
+      <c r="E227" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F227" s="54" t="s">
+      <c r="F227" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G227" s="49" t="s">
+      <c r="G227" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H227" s="51" t="s">
+      <c r="H227" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="I227" s="61">
+      <c r="I227" s="62">
         <v>1228083</v>
       </c>
-      <c r="J227" s="61">
+      <c r="J227" s="62">
         <v>2707167</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A228" s="45" t="s">
+      <c r="A228" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B228" s="46" t="s">
+      <c r="B228" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="C228" s="47">
+      <c r="C228" s="48">
         <v>45970</v>
       </c>
-      <c r="D228" s="45" t="s">
+      <c r="D228" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E228" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F228" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G228" s="45"/>
-      <c r="H228" s="45"/>
-      <c r="I228" s="59"/>
-      <c r="J228" s="59"/>
+      <c r="E228" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G228" s="46"/>
+      <c r="H228" s="46"/>
+      <c r="I228" s="60"/>
+      <c r="J228" s="60"/>
     </row>
     <row r="229" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A229" s="48" t="s">
+      <c r="A229" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B229" s="49" t="s">
+      <c r="B229" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="C229" s="50">
+      <c r="C229" s="51">
         <v>45970</v>
       </c>
-      <c r="D229" s="48" t="s">
+      <c r="D229" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E229" s="48" t="s">
+      <c r="E229" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F229" s="49" t="s">
+      <c r="F229" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G229" s="49" t="s">
+      <c r="G229" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H229" s="48" t="s">
+      <c r="H229" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I229" s="61">
+      <c r="I229" s="62">
         <v>1234182</v>
       </c>
-      <c r="J229" s="61">
+      <c r="J229" s="62">
         <v>2694902</v>
       </c>
     </row>
@@ -10245,8 +11749,8 @@
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
-      <c r="I230" s="60"/>
-      <c r="J230" s="60"/>
+      <c r="I230" s="61"/>
+      <c r="J230" s="61"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
@@ -10272,7 +11776,7 @@
       <c r="I231" s="9"/>
       <c r="J231" s="9"/>
     </row>
-    <row r="232" spans="1:10" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>3</v>
       </c>
@@ -10313,7 +11817,7 @@
       <c r="F233" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G233" s="55"/>
+      <c r="G233" s="56"/>
       <c r="H233" s="10"/>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
@@ -10337,7 +11841,7 @@
       <c r="F234" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G234" s="45"/>
+      <c r="G234" s="46"/>
       <c r="H234" s="10"/>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
@@ -10361,7 +11865,7 @@
       <c r="F235" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G235" s="45"/>
+      <c r="G235" s="46"/>
       <c r="H235" s="10"/>
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
@@ -10385,7 +11889,7 @@
       <c r="F236" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G236" s="45"/>
+      <c r="G236" s="46"/>
       <c r="H236" s="10"/>
       <c r="I236" s="9"/>
       <c r="J236" s="9"/>
@@ -10409,7 +11913,7 @@
       <c r="F237" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G237" s="45"/>
+      <c r="G237" s="46"/>
       <c r="H237" s="10"/>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
@@ -10433,40 +11937,40 @@
       <c r="F238" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G238" s="45"/>
+      <c r="G238" s="46"/>
       <c r="H238" s="10"/>
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
     <row r="239" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A239" s="48" t="s">
+      <c r="A239" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B239" s="57" t="s">
+      <c r="B239" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="C239" s="50">
+      <c r="C239" s="51">
         <v>45975</v>
       </c>
-      <c r="D239" s="48" t="s">
+      <c r="D239" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E239" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F239" s="49" t="s">
+      <c r="E239" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G239" s="56" t="s">
+      <c r="G239" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="H239" s="48" t="s">
+      <c r="H239" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I239" s="63">
+      <c r="I239" s="64">
         <v>1281675</v>
       </c>
-      <c r="J239" s="63">
+      <c r="J239" s="64">
         <v>2722195</v>
       </c>
     </row>
@@ -10489,8 +11993,8 @@
       <c r="F240" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G240" s="43"/>
-      <c r="H240" s="43"/>
+      <c r="G240" s="44"/>
+      <c r="H240" s="44"/>
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
     </row>
@@ -10513,8 +12017,8 @@
       <c r="F241" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G241" s="43"/>
-      <c r="H241" s="43"/>
+      <c r="G241" s="44"/>
+      <c r="H241" s="44"/>
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
     </row>
@@ -10537,8 +12041,8 @@
       <c r="F242" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G242" s="43"/>
-      <c r="H242" s="43"/>
+      <c r="G242" s="44"/>
+      <c r="H242" s="44"/>
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
     </row>
@@ -10561,44 +12065,381 @@
       <c r="F243" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G243" s="43"/>
-      <c r="H243" s="43"/>
+      <c r="G243" s="44"/>
+      <c r="H243" s="44"/>
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
     </row>
-    <row r="244" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A244" s="48" t="s">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A244" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B244" s="57" t="s">
+      <c r="B244" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C244" s="7">
+        <v>45981</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G244" s="44"/>
+      <c r="H244" s="44"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+    </row>
+    <row r="245" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A245" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B245" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="C244" s="50">
+      <c r="C245" s="51">
         <v>45981</v>
       </c>
-      <c r="D244" s="48" t="s">
+      <c r="D245" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E244" s="48" t="s">
+      <c r="E245" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F244" s="49" t="s">
+      <c r="F245" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G244" s="49" t="s">
+      <c r="G245" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H244" s="48" t="s">
+      <c r="H245" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I244" s="62">
+      <c r="I245" s="63">
         <v>1222210</v>
       </c>
-      <c r="J244" s="62">
+      <c r="J245" s="63">
         <v>2654221</v>
       </c>
     </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A246" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C246" s="7">
+        <v>45985</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G246" s="10"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="10"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A247" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C247" s="7">
+        <v>45985</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="10"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A248" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C248" s="7">
+        <v>45986</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A249" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C249" s="7">
+        <v>45986</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+    </row>
+    <row r="250" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A250" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C250" s="7">
+        <v>45986</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G250" s="10"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="10"/>
+    </row>
+    <row r="251" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A251" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C251" s="7">
+        <v>45987</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A252" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C252" s="7">
+        <v>45987</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A253" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C253" s="7">
+        <v>45987</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G253" s="10"/>
+      <c r="H253" s="10"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="10"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A254" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C254" s="7">
+        <v>45987</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G254" s="10"/>
+      <c r="H254" s="10"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="10"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A255" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C255" s="7">
+        <v>45987</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A256" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C256" s="7">
+        <v>45987</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G256" s="10"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A257" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C257" s="7">
+        <v>45987</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G257" s="10"/>
+      <c r="H257" s="10"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="10"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A258" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C258" s="7">
+        <v>45988</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:FL239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80712988-911F-4EDC-9B60-BFD4E848DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03014A5C-C3BF-466A-ABBF-017EB344F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FL$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FK$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="299">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1156,6 +1156,37 @@
   </si>
   <si>
     <t>Spittelerquai Luzern, Höhe Casino, am Steg</t>
+  </si>
+  <si>
+    <t>Rechen KW Åugst</t>
+  </si>
+  <si>
+    <t>Christbaumkultur 50m von Autobahn entfernt</t>
+  </si>
+  <si>
+    <t>Murtensee</t>
+  </si>
+  <si>
+    <t>bei Brücke</t>
+  </si>
+  <si>
+    <t>Garten Wohnüberbauung, Sonnenger 4, 8207 Schaffhausen
+Beobachtungsgebiet</t>
+  </si>
+  <si>
+    <t>Untersee ans Ufer gespühlt, hohe Ufermauer</t>
+  </si>
+  <si>
+    <t>Im Feldbachhafen angespült, 2m von Hafenmauer entfernt</t>
+  </si>
+  <si>
+    <t>6558 Lostallo</t>
+  </si>
+  <si>
+    <t>Wegrand, Fährenweg, 6030 Ebikon, Beobachtungsgebiet</t>
+  </si>
+  <si>
+    <t>Dans le port du château de Morges, 1110 Morges</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1940,6 +1971,21 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3098,7 +3144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3276,6 +3322,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1152">
     <cellStyle name="20 % - Akzent1" xfId="709" builtinId="30" customBuiltin="1"/>
@@ -4713,11 +4771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL258"/>
+  <dimension ref="A1:FK268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5881,7 +5939,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -5905,7 +5963,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -5927,7 +5985,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:167" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -5951,7 +6009,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -5975,7 +6033,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -5997,7 +6055,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -6019,7 +6077,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:168" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:167" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -6043,7 +6101,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -6067,7 +6125,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -6091,7 +6149,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:168" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:167" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -6115,7 +6173,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -6295,9 +6353,8 @@
       <c r="FI59"/>
       <c r="FJ59"/>
       <c r="FK59"/>
-      <c r="FL59"/>
-    </row>
-    <row r="60" spans="1:168" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:167" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -6354,9 +6411,8 @@
       <c r="AP60"/>
       <c r="AQ60"/>
       <c r="AR60"/>
-      <c r="AS60"/>
-    </row>
-    <row r="61" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -6413,9 +6469,8 @@
       <c r="AP61"/>
       <c r="AQ61"/>
       <c r="AR61"/>
-      <c r="AS61"/>
-    </row>
-    <row r="62" spans="1:168" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:167" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6472,7 +6527,7 @@
       <c r="AP62"/>
       <c r="AQ62"/>
       <c r="AR62"/>
-      <c r="AS62"/>
+      <c r="AS62" s="15"/>
       <c r="AT62" s="15"/>
       <c r="AU62" s="15"/>
       <c r="AV62" s="15"/>
@@ -6595,9 +6650,8 @@
       <c r="FI62" s="15"/>
       <c r="FJ62" s="15"/>
       <c r="FK62" s="15"/>
-      <c r="FL62" s="15"/>
-    </row>
-    <row r="63" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>15</v>
       </c>
@@ -6656,7 +6710,7 @@
       <c r="AP63"/>
       <c r="AQ63"/>
       <c r="AR63"/>
-      <c r="AS63"/>
+      <c r="AS63" s="23"/>
       <c r="AT63" s="23"/>
       <c r="AU63" s="23"/>
       <c r="AV63" s="23"/>
@@ -6779,9 +6833,8 @@
       <c r="FI63" s="23"/>
       <c r="FJ63" s="23"/>
       <c r="FK63" s="23"/>
-      <c r="FL63" s="23"/>
-    </row>
-    <row r="64" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -6838,9 +6891,8 @@
       <c r="AP64"/>
       <c r="AQ64"/>
       <c r="AR64"/>
-      <c r="AS64"/>
-    </row>
-    <row r="65" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -6897,9 +6949,8 @@
       <c r="AP65"/>
       <c r="AQ65"/>
       <c r="AR65"/>
-      <c r="AS65"/>
-    </row>
-    <row r="66" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -6956,7 +7007,7 @@
       <c r="AP66"/>
       <c r="AQ66"/>
       <c r="AR66"/>
-      <c r="AS66"/>
+      <c r="AS66" s="15"/>
       <c r="AT66" s="15"/>
       <c r="AU66" s="15"/>
       <c r="AV66" s="15"/>
@@ -7079,9 +7130,8 @@
       <c r="FI66" s="15"/>
       <c r="FJ66" s="15"/>
       <c r="FK66" s="15"/>
-      <c r="FL66" s="15"/>
-    </row>
-    <row r="67" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -7138,9 +7188,8 @@
       <c r="AP67"/>
       <c r="AQ67"/>
       <c r="AR67"/>
-      <c r="AS67"/>
-    </row>
-    <row r="68" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -7197,9 +7246,8 @@
       <c r="AP68"/>
       <c r="AQ68"/>
       <c r="AR68"/>
-      <c r="AS68"/>
-    </row>
-    <row r="69" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -7256,9 +7304,8 @@
       <c r="AP69"/>
       <c r="AQ69"/>
       <c r="AR69"/>
-      <c r="AS69"/>
-    </row>
-    <row r="70" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:167" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -7315,9 +7362,8 @@
       <c r="AP70"/>
       <c r="AQ70"/>
       <c r="AR70"/>
-      <c r="AS70"/>
-    </row>
-    <row r="71" spans="1:168" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:167" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -7374,9 +7420,8 @@
       <c r="AP71"/>
       <c r="AQ71"/>
       <c r="AR71"/>
-      <c r="AS71"/>
-    </row>
-    <row r="72" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:167" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -7433,9 +7478,8 @@
       <c r="AP72"/>
       <c r="AQ72"/>
       <c r="AR72"/>
-      <c r="AS72"/>
-    </row>
-    <row r="73" spans="1:168" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:167" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -7492,9 +7536,8 @@
       <c r="AP73"/>
       <c r="AQ73"/>
       <c r="AR73"/>
-      <c r="AS73"/>
-    </row>
-    <row r="74" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -7551,9 +7594,8 @@
       <c r="AP74"/>
       <c r="AQ74"/>
       <c r="AR74"/>
-      <c r="AS74"/>
-    </row>
-    <row r="75" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -7576,7 +7618,7 @@
       <c r="H75" s="22"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="24"/>
+      <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
@@ -7610,9 +7652,8 @@
       <c r="AP75"/>
       <c r="AQ75"/>
       <c r="AR75"/>
-      <c r="AS75"/>
-    </row>
-    <row r="76" spans="1:168" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -7635,7 +7676,7 @@
       <c r="H76" s="22"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="24"/>
+      <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
@@ -7669,9 +7710,8 @@
       <c r="AP76"/>
       <c r="AQ76"/>
       <c r="AR76"/>
-      <c r="AS76"/>
-    </row>
-    <row r="77" spans="1:168" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:167" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -7728,7 +7768,7 @@
       <c r="AP77"/>
       <c r="AQ77"/>
       <c r="AR77"/>
-      <c r="AS77"/>
+      <c r="AS77" s="17"/>
       <c r="AT77" s="17"/>
       <c r="AU77" s="17"/>
       <c r="AV77" s="17"/>
@@ -7851,9 +7891,8 @@
       <c r="FI77" s="17"/>
       <c r="FJ77" s="17"/>
       <c r="FK77" s="17"/>
-      <c r="FL77" s="17"/>
-    </row>
-    <row r="78" spans="1:168" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -7902,9 +7941,8 @@
       <c r="AH78"/>
       <c r="AI78"/>
       <c r="AJ78"/>
-      <c r="AK78"/>
-    </row>
-    <row r="79" spans="1:168" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:167" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -7927,13 +7965,14 @@
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
+      <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
+      <c r="R79" s="24"/>
       <c r="S79" s="24"/>
-      <c r="T79" s="24"/>
+      <c r="W79" s="24"/>
       <c r="X79" s="24"/>
-      <c r="Y79" s="24"/>
+      <c r="AK79" s="15"/>
       <c r="AL79" s="15"/>
       <c r="AM79" s="15"/>
       <c r="AN79" s="15"/>
@@ -8064,9 +8103,8 @@
       <c r="FI79" s="15"/>
       <c r="FJ79" s="15"/>
       <c r="FK79" s="15"/>
-      <c r="FL79" s="15"/>
-    </row>
-    <row r="80" spans="1:168" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>108</v>
       </c>
@@ -8093,20 +8131,19 @@
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
-      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
+      <c r="R80" s="24"/>
       <c r="S80" s="24"/>
-      <c r="T80" s="24"/>
+      <c r="W80" s="24"/>
       <c r="X80" s="24"/>
-      <c r="Y80" s="24"/>
+      <c r="AA80" s="24"/>
       <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
+      <c r="AF80" s="24"/>
       <c r="AG80" s="24"/>
-      <c r="AH80" s="24"/>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -8129,16 +8166,15 @@
       <c r="H81" s="10"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="24"/>
+      <c r="N81" s="24"/>
       <c r="O81" s="24"/>
       <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
+      <c r="AA81" s="24"/>
       <c r="AB81" s="24"/>
-      <c r="AC81" s="24"/>
+      <c r="AF81" s="24"/>
       <c r="AG81" s="24"/>
-      <c r="AH81" s="24"/>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -8162,7 +8198,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -8186,7 +8222,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -8210,7 +8246,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -8234,7 +8270,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -8258,7 +8294,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:34" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -8282,7 +8318,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -8306,7 +8342,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -8330,7 +8366,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
@@ -8358,7 +8394,7 @@
       <c r="I90" s="28"/>
       <c r="J90" s="28"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -8382,7 +8418,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -8406,7 +8442,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -8430,7 +8466,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -8454,7 +8490,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -8478,7 +8514,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -12415,22 +12451,22 @@
       <c r="J257" s="10"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A258" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C258" s="7">
+      <c r="A258" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C258" s="66">
         <v>45988</v>
       </c>
-      <c r="D258" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F258" s="9" t="s">
+      <c r="D258" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E258" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="67" t="s">
         <v>1</v>
       </c>
       <c r="G258" s="10"/>
@@ -12438,8 +12474,255 @@
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
     </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A259" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C259" s="7">
+        <v>45988</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G259" s="10"/>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="10"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A260" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C260" s="7">
+        <v>45989</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G260" s="10"/>
+      <c r="H260" s="10"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="10"/>
+    </row>
+    <row r="261" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A261" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C261" s="7">
+        <v>45990</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G261" s="10"/>
+      <c r="H261" s="10"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="10"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A262" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C262" s="7">
+        <v>45990</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G262" s="10"/>
+      <c r="H262" s="10"/>
+      <c r="I262" s="10"/>
+      <c r="J262" s="10"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A263" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C263" s="7">
+        <v>45990</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G263" s="10"/>
+      <c r="H263" s="10"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="10"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A264" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C264" s="7">
+        <v>45991</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G264" s="10"/>
+      <c r="H264" s="10"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="10"/>
+    </row>
+    <row r="265" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A265" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="C265" s="51">
+        <v>45992</v>
+      </c>
+      <c r="D265" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G265" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H265" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I265" s="16">
+        <v>1196804</v>
+      </c>
+      <c r="J265" s="16">
+        <v>2573435</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A266" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C266" s="7">
+        <v>45992</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G266" s="10"/>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="10"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A267" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C267" s="7">
+        <v>45992</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G267" s="10"/>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A268" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C268" s="7">
+        <v>45992</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G268" s="10"/>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FL239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03014A5C-C3BF-466A-ABBF-017EB344F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB941E6D-A959-46EE-8578-068D0B3D4E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="299">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -4771,11 +4771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FK268"/>
+  <dimension ref="A1:FK269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12722,6 +12722,28 @@
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
     </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A269" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="8"/>
+      <c r="C269" s="7">
+        <v>45995</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G269" s="8"/>
+      <c r="H269" s="8"/>
+      <c r="I269" s="8"/>
+      <c r="J269" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB941E6D-A959-46EE-8578-068D0B3D4E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51576F0-C45A-44AD-8E41-EC0BFE8E7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="304">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1188,6 +1188,21 @@
   <si>
     <t>Dans le port du château de Morges, 1110 Morges</t>
   </si>
+  <si>
+    <t>Fola, 6963 Pregassona</t>
+  </si>
+  <si>
+    <t>Im See vor Kesswil</t>
+  </si>
+  <si>
+    <t>ohne weiteren Angaben</t>
+  </si>
+  <si>
+    <t>auf einer Wiese, Allmendstrasse 11, 6048 Horw</t>
+  </si>
+  <si>
+    <t>8117 Fällanden</t>
+  </si>
 </sst>
 </file>
 
@@ -1196,7 +1211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1552,6 +1567,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="40">
@@ -3144,7 +3164,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3333,6 +3353,18 @@
     </xf>
     <xf numFmtId="49" fontId="55" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="38" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="38" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1152">
@@ -4771,11 +4803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FK269"/>
+  <dimension ref="A1:FK274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D280" sqref="D280"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12723,26 +12755,154 @@
       <c r="J268" s="10"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B269" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="C269" s="66">
+        <v>45994</v>
+      </c>
+      <c r="D269" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A270" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B269" s="8"/>
-      <c r="C269" s="7">
+      <c r="B270" s="8"/>
+      <c r="C270" s="7">
         <v>45995</v>
       </c>
-      <c r="D269" s="5" t="s">
+      <c r="D270" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E269" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F269" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G269" s="8"/>
-      <c r="H269" s="8"/>
-      <c r="I269" s="8"/>
-      <c r="J269" s="8"/>
+      <c r="E270" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G270" s="8"/>
+      <c r="H270" s="8"/>
+      <c r="I270" s="8"/>
+      <c r="J270" s="8"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A271" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C271" s="7">
+        <v>45996</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G271" s="10"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A272" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C272" s="7">
+        <v>45996</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G272" s="10"/>
+      <c r="H272" s="10"/>
+      <c r="I272" s="10"/>
+      <c r="J272" s="10"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A273" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C273" s="7">
+        <v>45997</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F273" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G273" s="10"/>
+      <c r="H273" s="10"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="10"/>
+    </row>
+    <row r="274" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A274" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B274" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C274" s="51">
+        <v>45999</v>
+      </c>
+      <c r="D274" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G274" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="H274" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="I274" s="72">
+        <v>1247507</v>
+      </c>
+      <c r="J274" s="72">
+        <v>2690737</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D51576F0-C45A-44AD-8E41-EC0BFE8E7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8D4619-6329-4387-A5D0-B33D5CFA76BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="309">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1202,6 +1202,22 @@
   </si>
   <si>
     <t>8117 Fällanden</t>
+  </si>
+  <si>
+    <t>tot auf Wiese gefunden im Haldenweg 5 in 9495 Triesen</t>
+  </si>
+  <si>
+    <t>Immensee, Birkenhofweg</t>
+  </si>
+  <si>
+    <t>1091 Grandvaux</t>
+  </si>
+  <si>
+    <t>Seerhein, Kuhhorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trouvé au bord de la route. Promenade des Bastions 1, 1204 Genéve
+</t>
   </si>
 </sst>
 </file>
@@ -4803,11 +4819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FK274"/>
+  <dimension ref="A1:FK281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C276" sqref="C276"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12904,6 +12920,172 @@
         <v>2690737</v>
       </c>
     </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A275" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C275" s="7">
+        <v>46000</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G275" s="10"/>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
+      <c r="J275" s="10"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A276" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="9"/>
+      <c r="C276" s="7">
+        <v>46000</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G276" s="10"/>
+      <c r="H276" s="10"/>
+      <c r="I276" s="10"/>
+      <c r="J276" s="10"/>
+    </row>
+    <row r="277" spans="1:10" ht="51" x14ac:dyDescent="0.35">
+      <c r="A277" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C277" s="7">
+        <v>46000</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F277" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G277" s="10"/>
+      <c r="H277" s="10"/>
+      <c r="I277" s="10"/>
+      <c r="J277" s="10"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A278" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C278" s="7">
+        <v>46001</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G278" s="10"/>
+      <c r="H278" s="10"/>
+      <c r="I278" s="10"/>
+      <c r="J278" s="10"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A279" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C279" s="7">
+        <v>46001</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G279" s="10"/>
+      <c r="H279" s="10"/>
+      <c r="I279" s="10"/>
+      <c r="J279" s="10"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A280" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C280" s="7">
+        <v>46001</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G280" s="10"/>
+      <c r="H280" s="10"/>
+      <c r="I280" s="10"/>
+      <c r="J280" s="10"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A281" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C281" s="7">
+        <v>46002</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G281" s="10"/>
+      <c r="H281" s="10"/>
+      <c r="I281" s="10"/>
+      <c r="J281" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8D4619-6329-4387-A5D0-B33D5CFA76BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ABB34C8-480C-43D3-A7A5-B2188B2949BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="319">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1218,6 +1218,39 @@
   <si>
     <t xml:space="preserve">trouvé au bord de la route. Promenade des Bastions 1, 1204 Genéve
 </t>
+  </si>
+  <si>
+    <t>8240 Thayngen Zieglerweg 23</t>
+  </si>
+  <si>
+    <t>6362 Stansstad Seerosenstrasse 20 Ufer Alpnachersee</t>
+  </si>
+  <si>
+    <t>8272 Ermatingen Schiffländestrasse, Stedi Ermatingen</t>
+  </si>
+  <si>
+    <t>unterhalb Stauwehr Kraftwerk Klingnau, 5316 Leuggern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etang Versvey, 1853 Yvorne
+</t>
+  </si>
+  <si>
+    <t>Etang Versvey, 1853 Yvorne</t>
+  </si>
+  <si>
+    <t>bords du Léman, commune de Pully</t>
+  </si>
+  <si>
+    <t>Terrasse / Restaurant Cercle de la Voirle à cêté du Port de Grandson
+Le Pécos 1422 Grandson</t>
+  </si>
+  <si>
+    <t>Turpenlochstrasse
+nähe ARA Furthof Buchs</t>
+  </si>
+  <si>
+    <t>Baldeggersee, Bereich Seewäldli</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1623,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1803,12 +1836,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB2B5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -3180,7 +3207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3342,22 +3369,12 @@
     <xf numFmtId="0" fontId="30" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="56" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="55" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3379,7 +3396,10 @@
     <xf numFmtId="49" fontId="30" fillId="38" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4819,11 +4839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FK281"/>
+  <dimension ref="A1:FK292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C289" sqref="C289"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J283" sqref="J283:J292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11605,11 +11625,11 @@
       <c r="H222" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I222" s="62">
+      <c r="I222" s="60">
+        <v>2574793</v>
+      </c>
+      <c r="J222" s="60">
         <v>1208852</v>
-      </c>
-      <c r="J222" s="62">
-        <v>2574793</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
@@ -11633,8 +11653,8 @@
       </c>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
-      <c r="I223" s="59"/>
-      <c r="J223" s="59"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
@@ -11685,11 +11705,11 @@
       <c r="H225" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="I225" s="62">
-        <v>1229028</v>
-      </c>
-      <c r="J225" s="62">
-        <v>2708002</v>
+      <c r="I225" s="69">
+        <v>2707167</v>
+      </c>
+      <c r="J225" s="69">
+        <v>1228083</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -11717,11 +11737,11 @@
       <c r="H226" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="I226" s="62">
-        <v>1229385</v>
-      </c>
-      <c r="J226" s="62">
-        <v>2704274</v>
+      <c r="I226" s="69">
+        <v>2707167</v>
+      </c>
+      <c r="J226" s="69">
+        <v>1228083</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -11749,11 +11769,11 @@
       <c r="H227" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="I227" s="62">
+      <c r="I227" s="69">
+        <v>2707167</v>
+      </c>
+      <c r="J227" s="69">
         <v>1228083</v>
-      </c>
-      <c r="J227" s="62">
-        <v>2707167</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
@@ -11777,8 +11797,8 @@
       </c>
       <c r="G228" s="46"/>
       <c r="H228" s="46"/>
-      <c r="I228" s="60"/>
-      <c r="J228" s="60"/>
+      <c r="I228" s="47"/>
+      <c r="J228" s="47"/>
     </row>
     <row r="229" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A229" s="49" t="s">
@@ -11805,11 +11825,11 @@
       <c r="H229" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I229" s="62">
+      <c r="I229" s="60">
+        <v>2694902</v>
+      </c>
+      <c r="J229" s="60">
         <v>1234182</v>
-      </c>
-      <c r="J229" s="62">
-        <v>2694902</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
@@ -11833,8 +11853,8 @@
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
-      <c r="I230" s="61"/>
-      <c r="J230" s="61"/>
+      <c r="I230" s="59"/>
+      <c r="J230" s="59"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
@@ -12051,11 +12071,11 @@
       <c r="H239" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I239" s="64">
+      <c r="I239" s="68">
+        <v>2722195</v>
+      </c>
+      <c r="J239" s="68">
         <v>1281675</v>
-      </c>
-      <c r="J239" s="64">
-        <v>2722195</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -12203,11 +12223,11 @@
       <c r="H245" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I245" s="63">
+      <c r="I245" s="68">
+        <v>2654221</v>
+      </c>
+      <c r="J245" s="68">
         <v>1222210</v>
-      </c>
-      <c r="J245" s="63">
-        <v>2654221</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.35">
@@ -12499,22 +12519,22 @@
       <c r="J257" s="10"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A258" s="65" t="s">
+      <c r="A258" s="61" t="s">
         <v>223</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C258" s="66">
+      <c r="C258" s="62">
         <v>45988</v>
       </c>
-      <c r="D258" s="65" t="s">
+      <c r="D258" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E258" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F258" s="67" t="s">
+      <c r="E258" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="63" t="s">
         <v>1</v>
       </c>
       <c r="G258" s="10"/>
@@ -12667,7 +12687,7 @@
       <c r="J264" s="10"/>
     </row>
     <row r="265" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A265" s="68" t="s">
+      <c r="A265" s="64" t="s">
         <v>24</v>
       </c>
       <c r="B265" s="50" t="s">
@@ -12691,11 +12711,11 @@
       <c r="H265" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I265" s="16">
+      <c r="I265" s="68">
+        <v>2573435</v>
+      </c>
+      <c r="J265" s="68">
         <v>1196804</v>
-      </c>
-      <c r="J265" s="16">
-        <v>2573435</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.35">
@@ -12771,22 +12791,22 @@
       <c r="J268" s="10"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A269" s="69" t="s">
+      <c r="A269" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B269" s="67" t="s">
+      <c r="B269" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="C269" s="66">
+      <c r="C269" s="62">
         <v>45994</v>
       </c>
-      <c r="D269" s="65" t="s">
+      <c r="D269" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E269" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F269" s="67" t="s">
+      <c r="E269" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" s="63" t="s">
         <v>1</v>
       </c>
       <c r="G269" s="10"/>
@@ -12907,17 +12927,17 @@
       <c r="F274" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G274" s="70" t="s">
+      <c r="G274" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="H274" s="71" t="s">
+      <c r="H274" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="I274" s="72">
+      <c r="I274" s="68">
+        <v>2690737</v>
+      </c>
+      <c r="J274" s="68">
         <v>1247507</v>
-      </c>
-      <c r="J274" s="72">
-        <v>2690737</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
@@ -13064,19 +13084,19 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C281" s="7">
         <v>46002</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F281" s="9" t="s">
         <v>1</v>
@@ -13085,6 +13105,302 @@
       <c r="H281" s="10"/>
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A282" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C282" s="7">
+        <v>46002</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G282" s="10"/>
+      <c r="H282" s="10"/>
+      <c r="I282" s="10"/>
+      <c r="J282" s="10"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A283" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C283" s="7">
+        <v>46003</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F283" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="10"/>
+      <c r="J283" s="10"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A284" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C284" s="7">
+        <v>46003</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F284" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="10"/>
+      <c r="J284" s="10"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A285" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C285" s="7">
+        <v>46004</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="10"/>
+      <c r="J285" s="10"/>
+    </row>
+    <row r="286" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A286" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="C286" s="51">
+        <v>46004</v>
+      </c>
+      <c r="D286" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E286" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G286" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H286" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I286" s="60">
+        <v>2560571</v>
+      </c>
+      <c r="J286" s="60">
+        <v>1132163</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A287" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="C287" s="51">
+        <v>46004</v>
+      </c>
+      <c r="D287" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E287" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G287" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H287" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I287" s="60">
+        <v>2560571</v>
+      </c>
+      <c r="J287" s="60">
+        <v>1132163</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A288" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="C288" s="51">
+        <v>46004</v>
+      </c>
+      <c r="D288" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E288" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G288" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H288" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I288" s="60">
+        <v>2560571</v>
+      </c>
+      <c r="J288" s="60">
+        <v>1132163</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A289" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C289" s="7">
+        <v>46006</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="10"/>
+      <c r="J289" s="10"/>
+    </row>
+    <row r="290" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A290" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C290" s="7">
+        <v>46006</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F290" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="10"/>
+      <c r="J290" s="10"/>
+    </row>
+    <row r="291" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A291" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C291" s="7">
+        <v>46006</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="10"/>
+      <c r="J291" s="10"/>
+    </row>
+    <row r="292" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A292" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B292" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="C292" s="51">
+        <v>46007</v>
+      </c>
+      <c r="D292" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G292" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H292" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I292" s="60">
+        <v>2663379</v>
+      </c>
+      <c r="J292" s="60">
+        <v>1226937</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ABB34C8-480C-43D3-A7A5-B2188B2949BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6B9F9F9-6F6B-4F95-A6C3-CF4FA01D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FK$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FJ$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="324">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1216,10 +1216,6 @@
     <t>Seerhein, Kuhhorn</t>
   </si>
   <si>
-    <t xml:space="preserve">trouvé au bord de la route. Promenade des Bastions 1, 1204 Genéve
-</t>
-  </si>
-  <si>
     <t>8240 Thayngen Zieglerweg 23</t>
   </si>
   <si>
@@ -1242,15 +1238,31 @@
     <t>bords du Léman, commune de Pully</t>
   </si>
   <si>
-    <t>Terrasse / Restaurant Cercle de la Voirle à cêté du Port de Grandson
-Le Pécos 1422 Grandson</t>
-  </si>
-  <si>
-    <t>Turpenlochstrasse
-nähe ARA Furthof Buchs</t>
-  </si>
-  <si>
     <t>Baldeggersee, Bereich Seewäldli</t>
+  </si>
+  <si>
+    <t>port de Pully</t>
+  </si>
+  <si>
+    <t>Schellente</t>
+  </si>
+  <si>
+    <t>8330 Pfäffikon, 50 m vom Naturzentrum entfernt</t>
+  </si>
+  <si>
+    <t>8200 Schaffhausen, Mühlenstrasse 19, Einlaufrechen Kraftwerk SH</t>
+  </si>
+  <si>
+    <t>Terrasse / Restaurant Cercle de la Voirle à cêté du Port de Grandson, Le Pécos 1422 Grandson</t>
+  </si>
+  <si>
+    <t>Turpenlochstrasse, nähe ARA Furthof Buchs</t>
+  </si>
+  <si>
+    <t>trouvé au bord de la route. Promenade des Bastions 1, 1204 Genéve</t>
+  </si>
+  <si>
+    <t>Dübendorf</t>
   </si>
 </sst>
 </file>
@@ -4839,11 +4851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FK292"/>
+  <dimension ref="A1:FJ297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J283" sqref="J283:J292"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J304" sqref="J304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6007,7 +6019,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -6031,7 +6043,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -6053,7 +6065,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:167" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:166" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -6077,7 +6089,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -6101,7 +6113,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -6123,7 +6135,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -6145,7 +6157,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:167" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:166" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -6169,7 +6181,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -6193,7 +6205,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:167" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -6217,7 +6229,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:167" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:166" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -6241,7 +6253,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -6420,9 +6432,8 @@
       <c r="FH59"/>
       <c r="FI59"/>
       <c r="FJ59"/>
-      <c r="FK59"/>
-    </row>
-    <row r="60" spans="1:167" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:166" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -6478,9 +6489,8 @@
       <c r="AO60"/>
       <c r="AP60"/>
       <c r="AQ60"/>
-      <c r="AR60"/>
-    </row>
-    <row r="61" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -6536,9 +6546,8 @@
       <c r="AO61"/>
       <c r="AP61"/>
       <c r="AQ61"/>
-      <c r="AR61"/>
-    </row>
-    <row r="62" spans="1:167" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:166" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6594,7 +6603,7 @@
       <c r="AO62"/>
       <c r="AP62"/>
       <c r="AQ62"/>
-      <c r="AR62"/>
+      <c r="AR62" s="15"/>
       <c r="AS62" s="15"/>
       <c r="AT62" s="15"/>
       <c r="AU62" s="15"/>
@@ -6717,9 +6726,8 @@
       <c r="FH62" s="15"/>
       <c r="FI62" s="15"/>
       <c r="FJ62" s="15"/>
-      <c r="FK62" s="15"/>
-    </row>
-    <row r="63" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>15</v>
       </c>
@@ -6777,7 +6785,7 @@
       <c r="AO63"/>
       <c r="AP63"/>
       <c r="AQ63"/>
-      <c r="AR63"/>
+      <c r="AR63" s="23"/>
       <c r="AS63" s="23"/>
       <c r="AT63" s="23"/>
       <c r="AU63" s="23"/>
@@ -6900,9 +6908,8 @@
       <c r="FH63" s="23"/>
       <c r="FI63" s="23"/>
       <c r="FJ63" s="23"/>
-      <c r="FK63" s="23"/>
-    </row>
-    <row r="64" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -6958,9 +6965,8 @@
       <c r="AO64"/>
       <c r="AP64"/>
       <c r="AQ64"/>
-      <c r="AR64"/>
-    </row>
-    <row r="65" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -7016,9 +7022,8 @@
       <c r="AO65"/>
       <c r="AP65"/>
       <c r="AQ65"/>
-      <c r="AR65"/>
-    </row>
-    <row r="66" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -7074,7 +7079,7 @@
       <c r="AO66"/>
       <c r="AP66"/>
       <c r="AQ66"/>
-      <c r="AR66"/>
+      <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
       <c r="AT66" s="15"/>
       <c r="AU66" s="15"/>
@@ -7197,9 +7202,8 @@
       <c r="FH66" s="15"/>
       <c r="FI66" s="15"/>
       <c r="FJ66" s="15"/>
-      <c r="FK66" s="15"/>
-    </row>
-    <row r="67" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -7255,9 +7259,8 @@
       <c r="AO67"/>
       <c r="AP67"/>
       <c r="AQ67"/>
-      <c r="AR67"/>
-    </row>
-    <row r="68" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -7313,9 +7316,8 @@
       <c r="AO68"/>
       <c r="AP68"/>
       <c r="AQ68"/>
-      <c r="AR68"/>
-    </row>
-    <row r="69" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -7371,9 +7373,8 @@
       <c r="AO69"/>
       <c r="AP69"/>
       <c r="AQ69"/>
-      <c r="AR69"/>
-    </row>
-    <row r="70" spans="1:167" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:166" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -7429,9 +7430,8 @@
       <c r="AO70"/>
       <c r="AP70"/>
       <c r="AQ70"/>
-      <c r="AR70"/>
-    </row>
-    <row r="71" spans="1:167" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:166" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -7487,9 +7487,8 @@
       <c r="AO71"/>
       <c r="AP71"/>
       <c r="AQ71"/>
-      <c r="AR71"/>
-    </row>
-    <row r="72" spans="1:167" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:166" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -7545,9 +7544,8 @@
       <c r="AO72"/>
       <c r="AP72"/>
       <c r="AQ72"/>
-      <c r="AR72"/>
-    </row>
-    <row r="73" spans="1:167" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:166" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -7603,9 +7601,8 @@
       <c r="AO73"/>
       <c r="AP73"/>
       <c r="AQ73"/>
-      <c r="AR73"/>
-    </row>
-    <row r="74" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -7661,9 +7658,8 @@
       <c r="AO74"/>
       <c r="AP74"/>
       <c r="AQ74"/>
-      <c r="AR74"/>
-    </row>
-    <row r="75" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -7719,9 +7715,8 @@
       <c r="AO75"/>
       <c r="AP75"/>
       <c r="AQ75"/>
-      <c r="AR75"/>
-    </row>
-    <row r="76" spans="1:167" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -7777,9 +7772,8 @@
       <c r="AO76"/>
       <c r="AP76"/>
       <c r="AQ76"/>
-      <c r="AR76"/>
-    </row>
-    <row r="77" spans="1:167" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:166" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -7835,7 +7829,7 @@
       <c r="AO77"/>
       <c r="AP77"/>
       <c r="AQ77"/>
-      <c r="AR77"/>
+      <c r="AR77" s="17"/>
       <c r="AS77" s="17"/>
       <c r="AT77" s="17"/>
       <c r="AU77" s="17"/>
@@ -7958,9 +7952,8 @@
       <c r="FH77" s="17"/>
       <c r="FI77" s="17"/>
       <c r="FJ77" s="17"/>
-      <c r="FK77" s="17"/>
-    </row>
-    <row r="78" spans="1:167" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -8008,9 +8001,8 @@
       <c r="AG78"/>
       <c r="AH78"/>
       <c r="AI78"/>
-      <c r="AJ78"/>
-    </row>
-    <row r="79" spans="1:167" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:166" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -8033,13 +8025,14 @@
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
+      <c r="K79" s="24"/>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
+      <c r="Q79" s="24"/>
       <c r="R79" s="24"/>
-      <c r="S79" s="24"/>
+      <c r="V79" s="24"/>
       <c r="W79" s="24"/>
-      <c r="X79" s="24"/>
+      <c r="AJ79" s="15"/>
       <c r="AK79" s="15"/>
       <c r="AL79" s="15"/>
       <c r="AM79" s="15"/>
@@ -8170,9 +8163,8 @@
       <c r="FH79" s="15"/>
       <c r="FI79" s="15"/>
       <c r="FJ79" s="15"/>
-      <c r="FK79" s="15"/>
-    </row>
-    <row r="80" spans="1:167" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>108</v>
       </c>
@@ -8199,19 +8191,19 @@
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
+      <c r="K80" s="24"/>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
+      <c r="Q80" s="24"/>
       <c r="R80" s="24"/>
-      <c r="S80" s="24"/>
+      <c r="V80" s="24"/>
       <c r="W80" s="24"/>
-      <c r="X80" s="24"/>
+      <c r="Z80" s="24"/>
       <c r="AA80" s="24"/>
-      <c r="AB80" s="24"/>
+      <c r="AE80" s="24"/>
       <c r="AF80" s="24"/>
-      <c r="AG80" s="24"/>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -8234,15 +8226,15 @@
       <c r="H81" s="10"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
+      <c r="M81" s="24"/>
       <c r="N81" s="24"/>
       <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
+      <c r="Z81" s="24"/>
       <c r="AA81" s="24"/>
-      <c r="AB81" s="24"/>
+      <c r="AE81" s="24"/>
       <c r="AF81" s="24"/>
-      <c r="AG81" s="24"/>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -8266,7 +8258,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -8290,7 +8282,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -8314,7 +8306,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:33" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -8338,7 +8330,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:33" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -8362,7 +8354,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:33" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -8386,7 +8378,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -8410,7 +8402,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -8434,7 +8426,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
@@ -8462,7 +8454,7 @@
       <c r="I90" s="28"/>
       <c r="J90" s="28"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -8486,7 +8478,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -8510,7 +8502,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -8534,7 +8526,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -8558,7 +8550,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -8582,7 +8574,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -12886,19 +12878,17 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>301</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B273" s="9"/>
       <c r="C273" s="7">
         <v>45997</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F273" s="9" t="s">
         <v>1</v>
@@ -12908,72 +12898,74 @@
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
     </row>
-    <row r="274" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A274" s="49" t="s">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A274" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B274" s="50" t="s">
+      <c r="B274" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C274" s="7">
+        <v>45997</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F274" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G274" s="10"/>
+      <c r="H274" s="10"/>
+      <c r="I274" s="10"/>
+      <c r="J274" s="10"/>
+    </row>
+    <row r="275" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A275" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="C274" s="51">
+      <c r="C275" s="51">
         <v>45999</v>
       </c>
-      <c r="D274" s="49" t="s">
+      <c r="D275" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E274" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F274" s="50" t="s">
+      <c r="E275" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G274" s="66" t="s">
+      <c r="G275" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="H274" s="67" t="s">
+      <c r="H275" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="I274" s="68">
+      <c r="I275" s="68">
         <v>2690737</v>
       </c>
-      <c r="J274" s="68">
+      <c r="J275" s="68">
         <v>1247507</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A275" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C275" s="7">
-        <v>46000</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E275" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F275" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G275" s="10"/>
-      <c r="H275" s="10"/>
-      <c r="I275" s="10"/>
-      <c r="J275" s="10"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B276" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="C276" s="7">
         <v>46000</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>9</v>
@@ -12986,13 +12978,11 @@
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
     </row>
-    <row r="277" spans="1:10" ht="51" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>308</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B277" s="9"/>
       <c r="C277" s="7">
         <v>46000</v>
       </c>
@@ -13000,7 +12990,7 @@
         <v>6</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F277" s="9" t="s">
         <v>1</v>
@@ -13010,21 +13000,21 @@
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A278" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B278" s="9" t="s">
-        <v>305</v>
+        <v>7</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="C278" s="7">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F278" s="9" t="s">
         <v>1</v>
@@ -13060,19 +13050,19 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C280" s="7">
         <v>46001</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F280" s="9" t="s">
         <v>1</v>
@@ -13084,19 +13074,19 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C281" s="7">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F281" s="9" t="s">
         <v>1</v>
@@ -13108,19 +13098,19 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C282" s="7">
         <v>46002</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F282" s="9" t="s">
         <v>1</v>
@@ -13132,43 +13122,43 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" s="5" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C283" s="7">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F283" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G283" s="5"/>
-      <c r="H283" s="5"/>
+      <c r="G283" s="10"/>
+      <c r="H283" s="10"/>
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="5" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C284" s="7">
         <v>46003</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F284" s="9" t="s">
         <v>1</v>
@@ -13180,16 +13170,16 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" s="5" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C285" s="7">
-        <v>46004</v>
+        <v>46003</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>9</v>
@@ -13202,44 +13192,36 @@
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
     </row>
-    <row r="286" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A286" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B286" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="C286" s="51">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A286" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C286" s="7">
         <v>46004</v>
       </c>
-      <c r="D286" s="49" t="s">
+      <c r="D286" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E286" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F286" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="G286" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="H286" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="I286" s="60">
-        <v>2560571</v>
-      </c>
-      <c r="J286" s="60">
-        <v>1132163</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="E286" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F286" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="10"/>
+      <c r="J286" s="10"/>
+    </row>
+    <row r="287" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A287" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B287" s="50" t="s">
-        <v>314</v>
+      <c r="B287" s="58" t="s">
+        <v>312</v>
       </c>
       <c r="C287" s="51">
         <v>46004</v>
@@ -13271,7 +13253,7 @@
         <v>4</v>
       </c>
       <c r="B288" s="50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C288" s="51">
         <v>46004</v>
@@ -13298,42 +13280,50 @@
         <v>1132163</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A289" s="5" t="s">
+    <row r="289" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A289" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B289" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C289" s="7">
-        <v>46006</v>
-      </c>
-      <c r="D289" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E289" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F289" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G289" s="5"/>
-      <c r="H289" s="5"/>
-      <c r="I289" s="10"/>
-      <c r="J289" s="10"/>
-    </row>
-    <row r="290" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="B289" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="C289" s="51">
+        <v>46004</v>
+      </c>
+      <c r="D289" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E289" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G289" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H289" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I289" s="60">
+        <v>2560571</v>
+      </c>
+      <c r="J289" s="60">
+        <v>1132163</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>316</v>
+      <c r="B290" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="C290" s="7">
         <v>46006</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>9</v>
@@ -13348,16 +13338,16 @@
     </row>
     <row r="291" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C291" s="7">
         <v>46006</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>9</v>
@@ -13370,36 +13360,172 @@
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
     </row>
-    <row r="292" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A292" s="49" t="s">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A292" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C292" s="7">
+        <v>46006</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="8"/>
+      <c r="J292" s="8"/>
+    </row>
+    <row r="293" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A293" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B292" s="50" t="s">
+      <c r="B293" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C293" s="51">
+        <v>46007</v>
+      </c>
+      <c r="D293" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F293" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G293" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H293" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I293" s="60">
+        <v>2663379</v>
+      </c>
+      <c r="J293" s="60">
+        <v>1226937</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A294" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C294" s="7">
+        <v>46008</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F294" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G294" s="8"/>
+      <c r="H294" s="8"/>
+      <c r="I294" s="8"/>
+      <c r="J294" s="8"/>
+    </row>
+    <row r="295" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A295" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B295" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="C295" s="51">
+        <v>46008</v>
+      </c>
+      <c r="D295" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="E295" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G295" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H295" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I295" s="60">
+        <v>2689487</v>
+      </c>
+      <c r="J295" s="60">
+        <v>1283315</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A296" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B296" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C292" s="51">
-        <v>46007</v>
-      </c>
-      <c r="D292" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E292" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F292" s="50" t="s">
+      <c r="C296" s="7">
+        <v>46008</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G296" s="8"/>
+      <c r="H296" s="8"/>
+      <c r="I296" s="8"/>
+      <c r="J296" s="8"/>
+    </row>
+    <row r="297" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A297" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B297" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="C297" s="51">
+        <v>46009</v>
+      </c>
+      <c r="D297" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E297" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F297" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G292" s="50" t="s">
+      <c r="G297" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H292" s="49" t="s">
+      <c r="H297" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I292" s="60">
-        <v>2663379</v>
-      </c>
-      <c r="J292" s="60">
-        <v>1226937</v>
+      <c r="I297" s="60">
+        <v>2688025</v>
+      </c>
+      <c r="J297" s="60">
+        <v>1250839</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6B9F9F9-6F6B-4F95-A6C3-CF4FA01D8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B5466C-9FA0-4A19-B451-51AFB5815E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="338">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1263,6 +1263,49 @@
   </si>
   <si>
     <t>Dübendorf</t>
+  </si>
+  <si>
+    <t>Bielersee</t>
+  </si>
+  <si>
+    <t>port de Villeneuve</t>
+  </si>
+  <si>
+    <t>Seidenreiher</t>
+  </si>
+  <si>
+    <t>keine Angabe</t>
+  </si>
+  <si>
+    <t>Camping Paradiso, Val Mara - Melano</t>
+  </si>
+  <si>
+    <t>Quai Ernest Ansernet</t>
+  </si>
+  <si>
+    <t>Baby-Plage, Quai GusEave Ador, 1208 Genf</t>
+  </si>
+  <si>
+    <t>unterhalb Kraftwerk, linkes Rheinufer, 8200 Schaffhausen</t>
+  </si>
+  <si>
+    <t>Tod am Wasser gefunden
+BEMERKUNG von NRGK: Tupfer wurde als Constanze-2 Projekt Tupfer eingesandt, ist aber passive Überwachung, deshalb „Umwidmung“</t>
+  </si>
+  <si>
+    <t>47°07’16.3’’ N / 7°29’24.7’’ E</t>
+  </si>
+  <si>
+    <t>dans un étang, ruisseau l’Eau Noire, Avenches</t>
+  </si>
+  <si>
+    <t>Débarcadère de Grandson (Bateau), 1422 Grandson</t>
+  </si>
+  <si>
+    <t>Schlatt</t>
+  </si>
+  <si>
+    <t>Diessenhofen</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1678,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1849,6 +1892,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB2B5"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3219,7 +3268,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3414,6 +3463,7 @@
     <xf numFmtId="0" fontId="55" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1152">
     <cellStyle name="20 % - Akzent1" xfId="709" builtinId="30" customBuiltin="1"/>
@@ -4573,8 +4623,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFFF9999"/>
-      <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4851,11 +4901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FJ297"/>
+  <dimension ref="A1:FJ311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J304" sqref="J304"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L306" sqref="L306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -13528,6 +13578,388 @@
         <v>1250839</v>
       </c>
     </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A298" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C298" s="7">
+        <v>46010</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G298" s="8"/>
+      <c r="H298" s="8"/>
+      <c r="I298" s="8"/>
+      <c r="J298" s="8"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A299" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C299" s="7">
+        <v>46010</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F299" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G299" s="8"/>
+      <c r="H299" s="8"/>
+      <c r="I299" s="8"/>
+      <c r="J299" s="8"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A300" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C300" s="7">
+        <v>46011</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F300" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G300" s="8"/>
+      <c r="H300" s="8"/>
+      <c r="I300" s="8"/>
+      <c r="J300" s="8"/>
+    </row>
+    <row r="301" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A301" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B301" s="50"/>
+      <c r="C301" s="51">
+        <v>46011</v>
+      </c>
+      <c r="D301" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E301" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G301" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H301" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I301" s="60">
+        <v>1281533</v>
+      </c>
+      <c r="J301" s="60">
+        <v>2719007</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="51" x14ac:dyDescent="0.35">
+      <c r="A302" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C302" s="7">
+        <v>46011</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G302" s="8"/>
+      <c r="H302" s="8"/>
+      <c r="I302" s="8"/>
+      <c r="J302" s="8"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A303" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C303" s="7">
+        <v>46014</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F303" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G303" s="8"/>
+      <c r="H303" s="8"/>
+      <c r="I303" s="8"/>
+      <c r="J303" s="8"/>
+    </row>
+    <row r="304" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A304" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C304" s="51">
+        <v>46014</v>
+      </c>
+      <c r="D304" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E304" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F304" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G304" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H304" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I304" s="70">
+        <v>1138459</v>
+      </c>
+      <c r="J304" s="70">
+        <v>2560176</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A305" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="C305" s="51">
+        <v>46014</v>
+      </c>
+      <c r="D305" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="E305" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F305" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G305" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H305" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I305" s="60">
+        <v>1194148</v>
+      </c>
+      <c r="J305" s="60">
+        <v>2570118</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A306" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="C306" s="51">
+        <v>46016</v>
+      </c>
+      <c r="D306" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E306" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G306" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H306" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I306" s="60">
+        <v>1282916</v>
+      </c>
+      <c r="J306" s="60">
+        <v>2693556</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A307" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C307" s="7">
+        <v>46018</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F307" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G307" s="8"/>
+      <c r="H307" s="8"/>
+      <c r="I307" s="8"/>
+      <c r="J307" s="8"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A308" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C308" s="7">
+        <v>46019</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G308" s="8"/>
+      <c r="H308" s="8"/>
+      <c r="I308" s="8"/>
+      <c r="J308" s="8"/>
+    </row>
+    <row r="309" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A309" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B309" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="C309" s="51">
+        <v>46020</v>
+      </c>
+      <c r="D309" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E309" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F309" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G309" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H309" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I309" s="60">
+        <v>1283041</v>
+      </c>
+      <c r="J309" s="60">
+        <v>2698468</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A310" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C310" s="7">
+        <v>46020</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F310" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G310" s="8"/>
+      <c r="H310" s="8"/>
+      <c r="I310" s="8"/>
+      <c r="J310" s="8"/>
+    </row>
+    <row r="311" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A311" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B311" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="C311" s="51">
+        <v>46021</v>
+      </c>
+      <c r="D311" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E311" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G311" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H311" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I311" s="60">
+        <v>1142082</v>
+      </c>
+      <c r="J311" s="60">
+        <v>2559515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B5466C-9FA0-4A19-B451-51AFB5815E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB51D70B-C8B7-4729-862F-ACAD8E851216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FJ$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FI$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="347">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1306,6 +1306,35 @@
   </si>
   <si>
     <t>Diessenhofen</t>
+  </si>
+  <si>
+    <t>6053 Alpnachstad, Niederstad (Bachmattli), Uferregion Apnachersee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canal Mujon, 1400 Yverdon-les-Bains
+</t>
+  </si>
+  <si>
+    <t>Überlandstrasse 211, Dübendorf</t>
+  </si>
+  <si>
+    <t>Hafenbecken 1, Kleinhüningen</t>
+  </si>
+  <si>
+    <t>1274 Signy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechen Kraftwerk, Mühlenstrasse 19, 8200 Schaffhausen
+</t>
+  </si>
+  <si>
+    <t>Ralle</t>
+  </si>
+  <si>
+    <t>auf Kamelplatz gesessen, Walter Zoo, 9200 Gossau</t>
+  </si>
+  <si>
+    <t>wurde von Hauskatze ins Haus 9426 Lutzenberg gebracht (genauer Standort unbekannt), kurz nach Ankunft verstorben, Katzenbissverletzungen</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +1930,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2105,6 +2134,19 @@
       <right style="thin">
         <color rgb="FFDDDDDD"/>
       </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FFDDDDDD"/>
       </top>
@@ -3268,7 +3310,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3464,6 +3506,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1152">
     <cellStyle name="20 % - Akzent1" xfId="709" builtinId="30" customBuiltin="1"/>
@@ -4901,11 +4946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FJ311"/>
+  <dimension ref="A1:FI321"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L306" sqref="L306"/>
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K309" sqref="K309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6069,7 +6114,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:166" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:165" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -6093,7 +6138,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:166" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:165" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -6115,7 +6160,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:166" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:165" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -6139,7 +6184,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:166" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:165" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -6163,7 +6208,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:166" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:165" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -6185,7 +6230,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:166" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:165" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -6207,7 +6252,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:166" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:165" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -6231,7 +6276,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:166" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:165" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -6255,7 +6300,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:166" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:165" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -6279,7 +6324,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:166" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:165" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -6303,7 +6348,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -6481,9 +6526,8 @@
       <c r="FG59"/>
       <c r="FH59"/>
       <c r="FI59"/>
-      <c r="FJ59"/>
-    </row>
-    <row r="60" spans="1:166" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:165" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -6538,9 +6582,8 @@
       <c r="AN60"/>
       <c r="AO60"/>
       <c r="AP60"/>
-      <c r="AQ60"/>
-    </row>
-    <row r="61" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -6595,9 +6638,8 @@
       <c r="AN61"/>
       <c r="AO61"/>
       <c r="AP61"/>
-      <c r="AQ61"/>
-    </row>
-    <row r="62" spans="1:166" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:165" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6652,7 +6694,7 @@
       <c r="AN62"/>
       <c r="AO62"/>
       <c r="AP62"/>
-      <c r="AQ62"/>
+      <c r="AQ62" s="15"/>
       <c r="AR62" s="15"/>
       <c r="AS62" s="15"/>
       <c r="AT62" s="15"/>
@@ -6775,9 +6817,8 @@
       <c r="FG62" s="15"/>
       <c r="FH62" s="15"/>
       <c r="FI62" s="15"/>
-      <c r="FJ62" s="15"/>
-    </row>
-    <row r="63" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>15</v>
       </c>
@@ -6834,7 +6875,7 @@
       <c r="AN63"/>
       <c r="AO63"/>
       <c r="AP63"/>
-      <c r="AQ63"/>
+      <c r="AQ63" s="23"/>
       <c r="AR63" s="23"/>
       <c r="AS63" s="23"/>
       <c r="AT63" s="23"/>
@@ -6957,9 +6998,8 @@
       <c r="FG63" s="23"/>
       <c r="FH63" s="23"/>
       <c r="FI63" s="23"/>
-      <c r="FJ63" s="23"/>
-    </row>
-    <row r="64" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -7014,9 +7054,8 @@
       <c r="AN64"/>
       <c r="AO64"/>
       <c r="AP64"/>
-      <c r="AQ64"/>
-    </row>
-    <row r="65" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -7071,9 +7110,8 @@
       <c r="AN65"/>
       <c r="AO65"/>
       <c r="AP65"/>
-      <c r="AQ65"/>
-    </row>
-    <row r="66" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -7128,7 +7166,7 @@
       <c r="AN66"/>
       <c r="AO66"/>
       <c r="AP66"/>
-      <c r="AQ66"/>
+      <c r="AQ66" s="15"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
       <c r="AT66" s="15"/>
@@ -7251,9 +7289,8 @@
       <c r="FG66" s="15"/>
       <c r="FH66" s="15"/>
       <c r="FI66" s="15"/>
-      <c r="FJ66" s="15"/>
-    </row>
-    <row r="67" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -7308,9 +7345,8 @@
       <c r="AN67"/>
       <c r="AO67"/>
       <c r="AP67"/>
-      <c r="AQ67"/>
-    </row>
-    <row r="68" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -7365,9 +7401,8 @@
       <c r="AN68"/>
       <c r="AO68"/>
       <c r="AP68"/>
-      <c r="AQ68"/>
-    </row>
-    <row r="69" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -7422,9 +7457,8 @@
       <c r="AN69"/>
       <c r="AO69"/>
       <c r="AP69"/>
-      <c r="AQ69"/>
-    </row>
-    <row r="70" spans="1:166" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:165" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -7479,9 +7513,8 @@
       <c r="AN70"/>
       <c r="AO70"/>
       <c r="AP70"/>
-      <c r="AQ70"/>
-    </row>
-    <row r="71" spans="1:166" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:165" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -7536,9 +7569,8 @@
       <c r="AN71"/>
       <c r="AO71"/>
       <c r="AP71"/>
-      <c r="AQ71"/>
-    </row>
-    <row r="72" spans="1:166" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:165" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -7593,9 +7625,8 @@
       <c r="AN72"/>
       <c r="AO72"/>
       <c r="AP72"/>
-      <c r="AQ72"/>
-    </row>
-    <row r="73" spans="1:166" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:165" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -7650,9 +7681,8 @@
       <c r="AN73"/>
       <c r="AO73"/>
       <c r="AP73"/>
-      <c r="AQ73"/>
-    </row>
-    <row r="74" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -7707,9 +7737,8 @@
       <c r="AN74"/>
       <c r="AO74"/>
       <c r="AP74"/>
-      <c r="AQ74"/>
-    </row>
-    <row r="75" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -7764,9 +7793,8 @@
       <c r="AN75"/>
       <c r="AO75"/>
       <c r="AP75"/>
-      <c r="AQ75"/>
-    </row>
-    <row r="76" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -7821,9 +7849,8 @@
       <c r="AN76"/>
       <c r="AO76"/>
       <c r="AP76"/>
-      <c r="AQ76"/>
-    </row>
-    <row r="77" spans="1:166" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:165" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -7878,7 +7905,7 @@
       <c r="AN77"/>
       <c r="AO77"/>
       <c r="AP77"/>
-      <c r="AQ77"/>
+      <c r="AQ77" s="17"/>
       <c r="AR77" s="17"/>
       <c r="AS77" s="17"/>
       <c r="AT77" s="17"/>
@@ -8001,9 +8028,8 @@
       <c r="FG77" s="17"/>
       <c r="FH77" s="17"/>
       <c r="FI77" s="17"/>
-      <c r="FJ77" s="17"/>
-    </row>
-    <row r="78" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -8050,9 +8076,8 @@
       <c r="AF78"/>
       <c r="AG78"/>
       <c r="AH78"/>
-      <c r="AI78"/>
-    </row>
-    <row r="79" spans="1:166" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:165" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -8077,11 +8102,11 @@
       <c r="J79" s="9"/>
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
+      <c r="P79" s="24"/>
       <c r="Q79" s="24"/>
-      <c r="R79" s="24"/>
+      <c r="U79" s="24"/>
       <c r="V79" s="24"/>
-      <c r="W79" s="24"/>
+      <c r="AI79" s="15"/>
       <c r="AJ79" s="15"/>
       <c r="AK79" s="15"/>
       <c r="AL79" s="15"/>
@@ -8212,9 +8237,8 @@
       <c r="FG79" s="15"/>
       <c r="FH79" s="15"/>
       <c r="FI79" s="15"/>
-      <c r="FJ79" s="15"/>
-    </row>
-    <row r="80" spans="1:166" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:165" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>108</v>
       </c>
@@ -8243,17 +8267,16 @@
       <c r="J80" s="26"/>
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
+      <c r="P80" s="24"/>
       <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
+      <c r="U80" s="24"/>
       <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
+      <c r="Y80" s="24"/>
       <c r="Z80" s="24"/>
-      <c r="AA80" s="24"/>
+      <c r="AD80" s="24"/>
       <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -8276,15 +8299,15 @@
       <c r="H81" s="10"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
+      <c r="L81" s="24"/>
       <c r="M81" s="24"/>
       <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
+      <c r="Y81" s="24"/>
       <c r="Z81" s="24"/>
-      <c r="AA81" s="24"/>
+      <c r="AD81" s="24"/>
       <c r="AE81" s="24"/>
-      <c r="AF81" s="24"/>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -8308,7 +8331,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -8332,7 +8355,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -8356,7 +8379,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:32" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:31" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -8380,7 +8403,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:32" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:31" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -8404,7 +8427,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:32" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:31" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -8428,7 +8451,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -8452,7 +8475,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -8476,7 +8499,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
@@ -8504,7 +8527,7 @@
       <c r="I90" s="28"/>
       <c r="J90" s="28"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -8528,7 +8551,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -8552,7 +8575,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -8576,7 +8599,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -8600,7 +8623,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -8624,7 +8647,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -13674,10 +13697,10 @@
         <v>130</v>
       </c>
       <c r="I301" s="60">
+        <v>2719007</v>
+      </c>
+      <c r="J301" s="60">
         <v>1281533</v>
-      </c>
-      <c r="J301" s="60">
-        <v>2719007</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="51" x14ac:dyDescent="0.35">
@@ -13754,10 +13777,10 @@
         <v>130</v>
       </c>
       <c r="I304" s="70">
+        <v>2560176</v>
+      </c>
+      <c r="J304" s="70">
         <v>1138459</v>
-      </c>
-      <c r="J304" s="70">
-        <v>2560176</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -13786,10 +13809,10 @@
         <v>130</v>
       </c>
       <c r="I305" s="60">
+        <v>2570118</v>
+      </c>
+      <c r="J305" s="60">
         <v>1194148</v>
-      </c>
-      <c r="J305" s="60">
-        <v>2570118</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -13818,10 +13841,10 @@
         <v>130</v>
       </c>
       <c r="I306" s="60">
+        <v>2693556</v>
+      </c>
+      <c r="J306" s="60">
         <v>1282916</v>
-      </c>
-      <c r="J306" s="60">
-        <v>2693556</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.35">
@@ -13873,92 +13896,348 @@
       <c r="J308" s="8"/>
     </row>
     <row r="309" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A309" s="49" t="s">
+      <c r="A309" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C309" s="7">
+        <v>46020</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F309" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G309" s="8"/>
+      <c r="H309" s="8"/>
+      <c r="I309" s="8"/>
+      <c r="J309" s="8"/>
+    </row>
+    <row r="310" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A310" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B309" s="50" t="s">
+      <c r="B310" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="C309" s="51">
+      <c r="C310" s="51">
         <v>46020</v>
       </c>
-      <c r="D309" s="49" t="s">
+      <c r="D310" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E309" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F309" s="50" t="s">
+      <c r="E310" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F310" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G309" s="50" t="s">
+      <c r="G310" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H309" s="49" t="s">
+      <c r="H310" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I309" s="60">
+      <c r="I310" s="60">
+        <v>2698468</v>
+      </c>
+      <c r="J310" s="60">
         <v>1283041</v>
       </c>
-      <c r="J309" s="60">
-        <v>2698468</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A310" s="5" t="s">
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A311" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B311" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C310" s="7">
+      <c r="C311" s="7">
         <v>46020</v>
       </c>
-      <c r="D310" s="5" t="s">
+      <c r="D311" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E310" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F310" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G310" s="8"/>
-      <c r="H310" s="8"/>
-      <c r="I310" s="8"/>
-      <c r="J310" s="8"/>
-    </row>
-    <row r="311" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A311" s="49" t="s">
+      <c r="E311" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G311" s="8"/>
+      <c r="H311" s="8"/>
+      <c r="I311" s="8"/>
+      <c r="J311" s="8"/>
+    </row>
+    <row r="312" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A312" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B311" s="50" t="s">
+      <c r="B312" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="C311" s="51">
+      <c r="C312" s="51">
         <v>46021</v>
       </c>
-      <c r="D311" s="49" t="s">
+      <c r="D312" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E311" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F311" s="50" t="s">
+      <c r="E312" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F312" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="G311" s="50" t="s">
+      <c r="G312" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H311" s="49" t="s">
+      <c r="H312" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I311" s="60">
+      <c r="I312" s="60">
+        <v>2559515</v>
+      </c>
+      <c r="J312" s="60">
         <v>1142082</v>
       </c>
-      <c r="J311" s="60">
-        <v>2559515</v>
-      </c>
+    </row>
+    <row r="313" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A313" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C313" s="51">
+        <v>46027</v>
+      </c>
+      <c r="D313" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E313" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F313" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G313" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H313" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I313" s="60">
+        <v>2689487</v>
+      </c>
+      <c r="J313" s="60">
+        <v>1283315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A314" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C314" s="51">
+        <v>46027</v>
+      </c>
+      <c r="D314" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E314" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F314" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G314" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H314" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I314" s="60">
+        <v>2689487</v>
+      </c>
+      <c r="J314" s="60">
+        <v>1283315</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A315" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C315" s="7">
+        <v>46028</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G315" s="8"/>
+      <c r="H315" s="8"/>
+      <c r="I315" s="8"/>
+      <c r="J315" s="8"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A316" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C316" s="7">
+        <v>46028</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F316" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G316" s="8"/>
+      <c r="H316" s="8"/>
+      <c r="I316" s="8"/>
+      <c r="J316" s="8"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A317" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C317" s="7">
+        <v>46028</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F317" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G317" s="8"/>
+      <c r="H317" s="8"/>
+      <c r="I317" s="8"/>
+      <c r="J317" s="8"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A318" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C318" s="7">
+        <v>46029</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G318" s="8"/>
+      <c r="H318" s="8"/>
+      <c r="I318" s="8"/>
+      <c r="J318" s="8"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A319" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C319" s="7">
+        <v>46029</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F319" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G319" s="8"/>
+      <c r="H319" s="8"/>
+      <c r="I319" s="8"/>
+      <c r="J319" s="8"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A320" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C320" s="7">
+        <v>46029</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F320" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G320" s="8"/>
+      <c r="H320" s="8"/>
+      <c r="I320" s="8"/>
+      <c r="J320" s="8"/>
+    </row>
+    <row r="321" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A321" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C321" s="7">
+        <v>46030</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F321" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G321" s="10"/>
+      <c r="H321" s="10"/>
+      <c r="I321" s="10"/>
+      <c r="J321" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
+++ b/ogd/monitoring_wild_birds_avian_influenza/input/monitoring-wild-birds-avian-influenza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Visualisierungen Work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fwpgovch-my.sharepoint.com/personal/michael_binggeli_blv_admin_ch/Documents/Datenaufbereitung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB51D70B-C8B7-4729-862F-ACAD8E851216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00969CB0-DD49-4C3D-B78E-02D5E9C3ED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Version Internet_d_f" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FI$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Version Internet_d_f'!$A$1:$FJ$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="359">
   <si>
     <t>Höckerschwan</t>
   </si>
@@ -1335,6 +1335,43 @@
   </si>
   <si>
     <t>wurde von Hauskatze ins Haus 9426 Lutzenberg gebracht (genauer Standort unbekannt), kurz nach Ankunft verstorben, Katzenbissverletzungen</t>
+  </si>
+  <si>
+    <t>obere Wangenstrasse 5c, Wangen-Brüttisellen</t>
+  </si>
+  <si>
+    <t>1534 Salavaux</t>
+  </si>
+  <si>
+    <t>entre la Rue Graveline et Rue des Moulais, à prominité du Canal Oriental, sous la ligne à hautes-tensions, 1400 Yverdon-les-Bains</t>
+  </si>
+  <si>
+    <t>plage Oroem, 1197 Prangins</t>
+  </si>
+  <si>
+    <t>Meilen</t>
+  </si>
+  <si>
+    <t>Seemitte Meilen</t>
+  </si>
+  <si>
+    <t>Einlaufrechen Kraftwerk Schaffhausen
+Mühlenstrasse 21, 8200 SH</t>
+  </si>
+  <si>
+    <t>Lac Léman; 1820 Territet</t>
+  </si>
+  <si>
+    <t>8272 Ermatingen, Untere Seestrasse 9</t>
+  </si>
+  <si>
+    <t>Löffelente</t>
+  </si>
+  <si>
+    <t>15_2026_0022: Fundort Rappenantilopen-Gehege Zoo Basel</t>
+  </si>
+  <si>
+    <t>15_2026_0023: Fundort: Kinderzoo, Zoo Basel</t>
   </si>
 </sst>
 </file>
@@ -3310,7 +3347,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3507,6 +3544,15 @@
     </xf>
     <xf numFmtId="0" fontId="52" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4946,11 +4992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FI321"/>
+  <dimension ref="A1:FJ335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K309" sqref="K309"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J330" sqref="J330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4962,8 +5008,8 @@
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.35">
@@ -4992,10 +5038,10 @@
         <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -6114,7 +6160,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:165" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -6138,7 +6184,7 @@
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:165" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -6160,7 +6206,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:165" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:166" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -6184,7 +6230,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:165" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -6208,7 +6254,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:165" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -6230,7 +6276,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:165" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -6252,7 +6298,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:165" ht="26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:166" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
@@ -6276,7 +6322,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:165" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -6300,7 +6346,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:165" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
@@ -6324,7 +6370,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:165" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:166" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -6348,7 +6394,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
@@ -6371,7 +6417,6 @@
       <c r="H59" s="16"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
-      <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
@@ -6526,8 +6571,9 @@
       <c r="FG59"/>
       <c r="FH59"/>
       <c r="FI59"/>
-    </row>
-    <row r="60" spans="1:165" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="FJ59"/>
+    </row>
+    <row r="60" spans="1:166" s="15" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -6550,7 +6596,6 @@
       <c r="H60" s="5"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
@@ -6582,8 +6627,9 @@
       <c r="AN60"/>
       <c r="AO60"/>
       <c r="AP60"/>
-    </row>
-    <row r="61" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ60"/>
+    </row>
+    <row r="61" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -6606,7 +6652,6 @@
       <c r="H61" s="5"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
@@ -6638,8 +6683,9 @@
       <c r="AN61"/>
       <c r="AO61"/>
       <c r="AP61"/>
-    </row>
-    <row r="62" spans="1:165" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ61"/>
+    </row>
+    <row r="62" spans="1:166" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -6662,7 +6708,6 @@
       <c r="H62" s="5"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62"/>
@@ -6694,7 +6739,7 @@
       <c r="AN62"/>
       <c r="AO62"/>
       <c r="AP62"/>
-      <c r="AQ62" s="15"/>
+      <c r="AQ62"/>
       <c r="AR62" s="15"/>
       <c r="AS62" s="15"/>
       <c r="AT62" s="15"/>
@@ -6817,8 +6862,9 @@
       <c r="FG62" s="15"/>
       <c r="FH62" s="15"/>
       <c r="FI62" s="15"/>
-    </row>
-    <row r="63" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="FJ62" s="15"/>
+    </row>
+    <row r="63" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>15</v>
       </c>
@@ -6843,7 +6889,6 @@
       <c r="H63" s="31"/>
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
-      <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63"/>
@@ -6875,7 +6920,7 @@
       <c r="AN63"/>
       <c r="AO63"/>
       <c r="AP63"/>
-      <c r="AQ63" s="23"/>
+      <c r="AQ63"/>
       <c r="AR63" s="23"/>
       <c r="AS63" s="23"/>
       <c r="AT63" s="23"/>
@@ -6998,8 +7043,9 @@
       <c r="FG63" s="23"/>
       <c r="FH63" s="23"/>
       <c r="FI63" s="23"/>
-    </row>
-    <row r="64" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="FJ63" s="23"/>
+    </row>
+    <row r="64" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>4</v>
       </c>
@@ -7022,7 +7068,6 @@
       <c r="H64" s="5"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
@@ -7054,8 +7099,9 @@
       <c r="AN64"/>
       <c r="AO64"/>
       <c r="AP64"/>
-    </row>
-    <row r="65" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ64"/>
+    </row>
+    <row r="65" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -7078,7 +7124,6 @@
       <c r="H65" s="21"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
-      <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
@@ -7110,8 +7155,9 @@
       <c r="AN65"/>
       <c r="AO65"/>
       <c r="AP65"/>
-    </row>
-    <row r="66" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ65"/>
+    </row>
+    <row r="66" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>29</v>
       </c>
@@ -7134,7 +7180,6 @@
       <c r="H66" s="5"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66"/>
@@ -7166,7 +7211,7 @@
       <c r="AN66"/>
       <c r="AO66"/>
       <c r="AP66"/>
-      <c r="AQ66" s="15"/>
+      <c r="AQ66"/>
       <c r="AR66" s="15"/>
       <c r="AS66" s="15"/>
       <c r="AT66" s="15"/>
@@ -7289,8 +7334,9 @@
       <c r="FG66" s="15"/>
       <c r="FH66" s="15"/>
       <c r="FI66" s="15"/>
-    </row>
-    <row r="67" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="FJ66" s="15"/>
+    </row>
+    <row r="67" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>15</v>
       </c>
@@ -7313,7 +7359,6 @@
       <c r="H67" s="22"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-      <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67"/>
@@ -7345,8 +7390,9 @@
       <c r="AN67"/>
       <c r="AO67"/>
       <c r="AP67"/>
-    </row>
-    <row r="68" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ67"/>
+    </row>
+    <row r="68" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -7369,7 +7415,6 @@
       <c r="H68" s="22"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-      <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
@@ -7401,8 +7446,9 @@
       <c r="AN68"/>
       <c r="AO68"/>
       <c r="AP68"/>
-    </row>
-    <row r="69" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ68"/>
+    </row>
+    <row r="69" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -7425,7 +7471,6 @@
       <c r="H69" s="22"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
@@ -7457,8 +7502,9 @@
       <c r="AN69"/>
       <c r="AO69"/>
       <c r="AP69"/>
-    </row>
-    <row r="70" spans="1:165" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ69"/>
+    </row>
+    <row r="70" spans="1:166" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -7481,7 +7527,6 @@
       <c r="H70" s="22"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
@@ -7513,8 +7558,9 @@
       <c r="AN70"/>
       <c r="AO70"/>
       <c r="AP70"/>
-    </row>
-    <row r="71" spans="1:165" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ70"/>
+    </row>
+    <row r="71" spans="1:166" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -7537,7 +7583,6 @@
       <c r="H71" s="22"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
@@ -7569,8 +7614,9 @@
       <c r="AN71"/>
       <c r="AO71"/>
       <c r="AP71"/>
-    </row>
-    <row r="72" spans="1:165" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ71"/>
+    </row>
+    <row r="72" spans="1:166" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -7593,7 +7639,6 @@
       <c r="H72" s="22"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
@@ -7625,8 +7670,9 @@
       <c r="AN72"/>
       <c r="AO72"/>
       <c r="AP72"/>
-    </row>
-    <row r="73" spans="1:165" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ72"/>
+    </row>
+    <row r="73" spans="1:166" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>3</v>
       </c>
@@ -7649,7 +7695,6 @@
       <c r="H73" s="22"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
@@ -7681,8 +7726,9 @@
       <c r="AN73"/>
       <c r="AO73"/>
       <c r="AP73"/>
-    </row>
-    <row r="74" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ73"/>
+    </row>
+    <row r="74" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
@@ -7705,7 +7751,6 @@
       <c r="H74" s="22"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
@@ -7737,8 +7782,9 @@
       <c r="AN74"/>
       <c r="AO74"/>
       <c r="AP74"/>
-    </row>
-    <row r="75" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ74"/>
+    </row>
+    <row r="75" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>4</v>
       </c>
@@ -7761,7 +7807,6 @@
       <c r="H75" s="22"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
@@ -7793,8 +7838,9 @@
       <c r="AN75"/>
       <c r="AO75"/>
       <c r="AP75"/>
-    </row>
-    <row r="76" spans="1:165" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ75"/>
+    </row>
+    <row r="76" spans="1:166" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -7817,7 +7863,6 @@
       <c r="H76" s="22"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
@@ -7849,8 +7894,9 @@
       <c r="AN76"/>
       <c r="AO76"/>
       <c r="AP76"/>
-    </row>
-    <row r="77" spans="1:165" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ76"/>
+    </row>
+    <row r="77" spans="1:166" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
@@ -7873,7 +7919,6 @@
       <c r="H77" s="22"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
@@ -7905,7 +7950,7 @@
       <c r="AN77"/>
       <c r="AO77"/>
       <c r="AP77"/>
-      <c r="AQ77" s="17"/>
+      <c r="AQ77"/>
       <c r="AR77" s="17"/>
       <c r="AS77" s="17"/>
       <c r="AT77" s="17"/>
@@ -8028,8 +8073,9 @@
       <c r="FG77" s="17"/>
       <c r="FH77" s="17"/>
       <c r="FI77" s="17"/>
-    </row>
-    <row r="78" spans="1:165" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="FJ77" s="17"/>
+    </row>
+    <row r="78" spans="1:166" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -8052,7 +8098,6 @@
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
@@ -8076,8 +8121,9 @@
       <c r="AF78"/>
       <c r="AG78"/>
       <c r="AH78"/>
-    </row>
-    <row r="79" spans="1:165" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AI78"/>
+    </row>
+    <row r="79" spans="1:166" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>15</v>
       </c>
@@ -8100,13 +8146,12 @@
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="24"/>
       <c r="L79" s="24"/>
-      <c r="P79" s="24"/>
+      <c r="M79" s="24"/>
       <c r="Q79" s="24"/>
-      <c r="U79" s="24"/>
+      <c r="R79" s="24"/>
       <c r="V79" s="24"/>
-      <c r="AI79" s="15"/>
+      <c r="W79" s="24"/>
       <c r="AJ79" s="15"/>
       <c r="AK79" s="15"/>
       <c r="AL79" s="15"/>
@@ -8237,8 +8282,9 @@
       <c r="FG79" s="15"/>
       <c r="FH79" s="15"/>
       <c r="FI79" s="15"/>
-    </row>
-    <row r="80" spans="1:165" x14ac:dyDescent="0.35">
+      <c r="FJ79" s="15"/>
+    </row>
+    <row r="80" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>108</v>
       </c>
@@ -8265,18 +8311,18 @@
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
-      <c r="K80" s="24"/>
       <c r="L80" s="24"/>
-      <c r="P80" s="24"/>
+      <c r="M80" s="24"/>
       <c r="Q80" s="24"/>
-      <c r="U80" s="24"/>
+      <c r="R80" s="24"/>
       <c r="V80" s="24"/>
-      <c r="Y80" s="24"/>
+      <c r="W80" s="24"/>
       <c r="Z80" s="24"/>
-      <c r="AD80" s="24"/>
+      <c r="AA80" s="24"/>
       <c r="AE80" s="24"/>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF80" s="24"/>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -8299,15 +8345,15 @@
       <c r="H81" s="10"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="L81" s="24"/>
       <c r="M81" s="24"/>
       <c r="N81" s="24"/>
-      <c r="Y81" s="24"/>
+      <c r="O81" s="24"/>
       <c r="Z81" s="24"/>
-      <c r="AD81" s="24"/>
+      <c r="AA81" s="24"/>
       <c r="AE81" s="24"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF81" s="24"/>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -8331,7 +8377,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>3</v>
       </c>
@@ -8355,7 +8401,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>112</v>
       </c>
@@ -8379,7 +8425,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:31" ht="26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" ht="26" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -8403,7 +8449,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:31" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>2</v>
       </c>
@@ -8427,7 +8473,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:31" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -8451,7 +8497,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
@@ -8475,7 +8521,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>3</v>
       </c>
@@ -8499,7 +8545,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>12</v>
       </c>
@@ -8527,7 +8573,7 @@
       <c r="I90" s="28"/>
       <c r="J90" s="28"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -8551,7 +8597,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
@@ -8575,7 +8621,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -8599,7 +8645,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
@@ -8623,7 +8669,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>3</v>
       </c>
@@ -8647,7 +8693,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>3</v>
       </c>
@@ -11691,10 +11737,10 @@
         <v>130</v>
       </c>
       <c r="I222" s="60">
+        <v>1208852</v>
+      </c>
+      <c r="J222" s="60">
         <v>2574793</v>
-      </c>
-      <c r="J222" s="60">
-        <v>1208852</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
@@ -11771,10 +11817,10 @@
         <v>130</v>
       </c>
       <c r="I225" s="69">
+        <v>1228083</v>
+      </c>
+      <c r="J225" s="69">
         <v>2707167</v>
-      </c>
-      <c r="J225" s="69">
-        <v>1228083</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -11803,10 +11849,10 @@
         <v>130</v>
       </c>
       <c r="I226" s="69">
+        <v>1228083</v>
+      </c>
+      <c r="J226" s="69">
         <v>2707167</v>
-      </c>
-      <c r="J226" s="69">
-        <v>1228083</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -11835,10 +11881,10 @@
         <v>130</v>
       </c>
       <c r="I227" s="69">
+        <v>1228083</v>
+      </c>
+      <c r="J227" s="69">
         <v>2707167</v>
-      </c>
-      <c r="J227" s="69">
-        <v>1228083</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
@@ -11891,10 +11937,10 @@
         <v>130</v>
       </c>
       <c r="I229" s="60">
+        <v>1234182</v>
+      </c>
+      <c r="J229" s="60">
         <v>2694902</v>
-      </c>
-      <c r="J229" s="60">
-        <v>1234182</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
@@ -12137,10 +12183,10 @@
         <v>130</v>
       </c>
       <c r="I239" s="68">
+        <v>1281675</v>
+      </c>
+      <c r="J239" s="68">
         <v>2722195</v>
-      </c>
-      <c r="J239" s="68">
-        <v>1281675</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -12289,10 +12335,10 @@
         <v>130</v>
       </c>
       <c r="I245" s="68">
+        <v>1222210</v>
+      </c>
+      <c r="J245" s="68">
         <v>2654221</v>
-      </c>
-      <c r="J245" s="68">
-        <v>1222210</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.35">
@@ -12777,10 +12823,10 @@
         <v>130</v>
       </c>
       <c r="I265" s="68">
+        <v>1196804</v>
+      </c>
+      <c r="J265" s="68">
         <v>2573435</v>
-      </c>
-      <c r="J265" s="68">
-        <v>1196804</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.35">
@@ -13021,10 +13067,10 @@
         <v>130</v>
       </c>
       <c r="I275" s="68">
+        <v>1247507</v>
+      </c>
+      <c r="J275" s="68">
         <v>2690737</v>
-      </c>
-      <c r="J275" s="68">
-        <v>1247507</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
@@ -13315,10 +13361,10 @@
         <v>130</v>
       </c>
       <c r="I287" s="60">
+        <v>1132163</v>
+      </c>
+      <c r="J287" s="60">
         <v>2560571</v>
-      </c>
-      <c r="J287" s="60">
-        <v>1132163</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -13347,10 +13393,10 @@
         <v>130</v>
       </c>
       <c r="I288" s="60">
+        <v>1132163</v>
+      </c>
+      <c r="J288" s="60">
         <v>2560571</v>
-      </c>
-      <c r="J288" s="60">
-        <v>1132163</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -13379,10 +13425,10 @@
         <v>130</v>
       </c>
       <c r="I289" s="60">
+        <v>1132163</v>
+      </c>
+      <c r="J289" s="60">
         <v>2560571</v>
-      </c>
-      <c r="J289" s="60">
-        <v>1132163</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.35">
@@ -13483,10 +13529,10 @@
         <v>130</v>
       </c>
       <c r="I293" s="60">
+        <v>1226937</v>
+      </c>
+      <c r="J293" s="60">
         <v>2663379</v>
-      </c>
-      <c r="J293" s="60">
-        <v>1226937</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.35">
@@ -13539,10 +13585,10 @@
         <v>130</v>
       </c>
       <c r="I295" s="60">
+        <v>1283315</v>
+      </c>
+      <c r="J295" s="60">
         <v>2689487</v>
-      </c>
-      <c r="J295" s="60">
-        <v>1283315</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
@@ -13595,10 +13641,10 @@
         <v>130</v>
       </c>
       <c r="I297" s="60">
+        <v>1250839</v>
+      </c>
+      <c r="J297" s="60">
         <v>2688025</v>
-      </c>
-      <c r="J297" s="60">
-        <v>1250839</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
@@ -13697,10 +13743,10 @@
         <v>130</v>
       </c>
       <c r="I301" s="60">
+        <v>1281533</v>
+      </c>
+      <c r="J301" s="60">
         <v>2719007</v>
-      </c>
-      <c r="J301" s="60">
-        <v>1281533</v>
       </c>
     </row>
     <row r="302" spans="1:10" ht="51" x14ac:dyDescent="0.35">
@@ -13777,10 +13823,10 @@
         <v>130</v>
       </c>
       <c r="I304" s="70">
+        <v>1138459</v>
+      </c>
+      <c r="J304" s="70">
         <v>2560176</v>
-      </c>
-      <c r="J304" s="70">
-        <v>1138459</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -13809,10 +13855,10 @@
         <v>130</v>
       </c>
       <c r="I305" s="60">
+        <v>1194148</v>
+      </c>
+      <c r="J305" s="60">
         <v>2570118</v>
-      </c>
-      <c r="J305" s="60">
-        <v>1194148</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -13841,10 +13887,10 @@
         <v>130</v>
       </c>
       <c r="I306" s="60">
+        <v>1282916</v>
+      </c>
+      <c r="J306" s="60">
         <v>2693556</v>
-      </c>
-      <c r="J306" s="60">
-        <v>1282916</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.35">
@@ -13945,10 +13991,10 @@
         <v>130</v>
       </c>
       <c r="I310" s="60">
+        <v>1283041</v>
+      </c>
+      <c r="J310" s="60">
         <v>2698468</v>
-      </c>
-      <c r="J310" s="60">
-        <v>1283041</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.35">
@@ -14001,10 +14047,10 @@
         <v>130</v>
       </c>
       <c r="I312" s="60">
+        <v>1142082</v>
+      </c>
+      <c r="J312" s="60">
         <v>2559515</v>
-      </c>
-      <c r="J312" s="60">
-        <v>1142082</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -14033,10 +14079,10 @@
         <v>130</v>
       </c>
       <c r="I313" s="60">
+        <v>1283315</v>
+      </c>
+      <c r="J313" s="60">
         <v>2689487</v>
-      </c>
-      <c r="J313" s="60">
-        <v>1283315</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -14065,42 +14111,40 @@
         <v>130</v>
       </c>
       <c r="I314" s="60">
+        <v>1283315</v>
+      </c>
+      <c r="J314" s="60">
         <v>2689487</v>
       </c>
-      <c r="J314" s="60">
-        <v>1283315</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A315" s="5" t="s">
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A315" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="13"/>
+      <c r="C315" s="73">
+        <v>46028</v>
+      </c>
+      <c r="D315" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E315" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G315" s="12"/>
+      <c r="H315" s="11"/>
+      <c r="I315" s="72"/>
+      <c r="J315" s="72"/>
+    </row>
+    <row r="316" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A316" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B316" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C315" s="7">
-        <v>46028</v>
-      </c>
-      <c r="D315" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E315" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F315" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G315" s="8"/>
-      <c r="H315" s="8"/>
-      <c r="I315" s="8"/>
-      <c r="J315" s="8"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A316" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B316" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="C316" s="7">
         <v>46028</v>
@@ -14123,17 +14167,17 @@
       <c r="A317" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B317" s="6" t="s">
-        <v>323</v>
+      <c r="B317" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="C317" s="7">
         <v>46028</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F317" s="9" t="s">
         <v>1</v>
@@ -14145,19 +14189,19 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B318" s="9" t="s">
-        <v>341</v>
+        <v>2</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="C318" s="7">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F318" s="9" t="s">
         <v>1</v>
@@ -14168,20 +14212,20 @@
       <c r="J318" s="8"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A319" s="71" t="s">
-        <v>26</v>
+      <c r="A319" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C319" s="7">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>344</v>
+        <v>11</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F319" s="9" t="s">
         <v>1</v>
@@ -14193,19 +14237,19 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" s="5" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C320" s="7">
         <v>46029</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F320" s="9" t="s">
         <v>1</v>
@@ -14215,29 +14259,389 @@
       <c r="I320" s="8"/>
       <c r="J320" s="8"/>
     </row>
-    <row r="321" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A321" s="5" t="s">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A321" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B321" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C321" s="7">
+        <v>46029</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F321" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G321" s="8"/>
+      <c r="H321" s="8"/>
+      <c r="I321" s="8"/>
+      <c r="J321" s="8"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A322" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C322" s="7">
+        <v>46029</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F322" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G322" s="8"/>
+      <c r="H322" s="8"/>
+      <c r="I322" s="8"/>
+      <c r="J322" s="8"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A323" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C323" s="7">
+        <v>46029</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F323" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G323" s="8"/>
+      <c r="H323" s="8"/>
+      <c r="I323" s="8"/>
+      <c r="J323" s="8"/>
+    </row>
+    <row r="324" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A324" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B324" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C321" s="7">
+      <c r="C324" s="7">
         <v>46030</v>
       </c>
-      <c r="D321" s="5" t="s">
+      <c r="D324" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E321" s="5" t="s">
+      <c r="E324" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F321" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G321" s="10"/>
-      <c r="H321" s="10"/>
-      <c r="I321" s="10"/>
-      <c r="J321" s="10"/>
+      <c r="F324" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G324" s="10"/>
+      <c r="H324" s="10"/>
+      <c r="I324" s="10"/>
+      <c r="J324" s="10"/>
+    </row>
+    <row r="325" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A325" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C325" s="7">
+        <v>46030</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F325" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G325" s="8"/>
+      <c r="H325" s="8"/>
+      <c r="I325" s="8"/>
+      <c r="J325" s="8"/>
+    </row>
+    <row r="326" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A326" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="C326" s="51">
+        <v>46030</v>
+      </c>
+      <c r="D326" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E326" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F326" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G326" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H326" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I326" s="60">
+        <v>1138600</v>
+      </c>
+      <c r="J326" s="60">
+        <v>2509720</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A327" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C327" s="7">
+        <v>46030</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F327" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G327" s="8"/>
+      <c r="H327" s="8"/>
+      <c r="I327" s="8"/>
+      <c r="J327" s="8"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A328" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C328" s="7">
+        <v>46030</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G328" s="8"/>
+      <c r="H328" s="8"/>
+      <c r="I328" s="8"/>
+      <c r="J328" s="8"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A329" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C329" s="7">
+        <v>46030</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G329" s="8"/>
+      <c r="H329" s="8"/>
+      <c r="I329" s="8"/>
+      <c r="J329" s="8"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A330" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C330" s="7">
+        <v>46030</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G330" s="8"/>
+      <c r="H330" s="8"/>
+      <c r="I330" s="8"/>
+      <c r="J330" s="8"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A331" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C331" s="7">
+        <v>46031</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F331" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G331" s="8"/>
+      <c r="H331" s="8"/>
+      <c r="I331" s="8"/>
+      <c r="J331" s="8"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A332" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C332" s="7">
+        <v>46031</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F332" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G332" s="8"/>
+      <c r="H332" s="8"/>
+      <c r="I332" s="8"/>
+      <c r="J332" s="8"/>
+    </row>
+    <row r="333" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A333" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="C333" s="51">
+        <v>46031</v>
+      </c>
+      <c r="D333" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E333" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F333" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G333" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H333" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I333" s="60">
+        <v>1283315</v>
+      </c>
+      <c r="J333" s="60">
+        <v>2689487</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A334" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="C334" s="51">
+        <v>46031</v>
+      </c>
+      <c r="D334" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E334" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F334" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G334" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H334" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I334" s="60">
+        <v>1141989</v>
+      </c>
+      <c r="J334" s="60">
+        <v>2560163</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A335" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C335" s="7">
+        <v>46032</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F335" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G335" s="8"/>
+      <c r="H335" s="8"/>
+      <c r="I335" s="8"/>
+      <c r="J335" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
